--- a/build/classes/files/sismos.xlsx
+++ b/build/classes/files/sismos.xlsx
@@ -176,6 +176,12 @@
     <t>-83.286</t>
   </si>
   <si>
+    <t>Guanacaste</t>
+  </si>
+  <si>
+    <t>Terrestre</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
@@ -215,9 +221,6 @@
     <t>San José</t>
   </si>
   <si>
-    <t>Terrestre</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -540,9 +543,6 @@
   </si>
   <si>
     <t>-85.032</t>
-  </si>
-  <si>
-    <t>Guanacaste</t>
   </si>
   <si>
     <t>23</t>
@@ -2396,39 +2396,39 @@
         <v>53</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
         <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
         <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
         <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J7" t="s">
         <v>20</v>
@@ -2439,311 +2439,311 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
         <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K8" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" t="s">
         <v>68</v>
       </c>
-      <c r="B9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" t="s">
-        <v>74</v>
-      </c>
-      <c r="J9" t="s">
-        <v>66</v>
-      </c>
       <c r="K9" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s">
         <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J11" t="s">
         <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G12" t="s">
         <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K12" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G13" t="s">
         <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K13" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G14" t="s">
         <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K14" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G15" t="s">
         <v>17</v>
       </c>
       <c r="H15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K15" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E16" t="s">
         <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G16" t="s">
         <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J16" t="s">
         <v>20</v>
@@ -2754,171 +2754,171 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G17" t="s">
         <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K17" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G18" t="s">
         <v>36</v>
       </c>
       <c r="H18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K18" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G19" t="s">
         <v>36</v>
       </c>
       <c r="H19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K19" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G20" t="s">
         <v>36</v>
       </c>
       <c r="H20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K20" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G21" t="s">
         <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J21" t="s">
         <v>20</v>
@@ -2929,31 +2929,31 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G22" t="s">
         <v>36</v>
       </c>
       <c r="H22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J22" t="s">
         <v>20</v>
@@ -2964,31 +2964,31 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F23" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G23" t="s">
         <v>17</v>
       </c>
       <c r="H23" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J23" t="s">
         <v>20</v>
@@ -2999,37 +2999,37 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B24" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G24" t="s">
         <v>36</v>
       </c>
       <c r="H24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J24" t="s">
-        <v>176</v>
+        <v>54</v>
       </c>
       <c r="K24" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25">
@@ -3046,7 +3046,7 @@
         <v>180</v>
       </c>
       <c r="E25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F25" t="s">
         <v>181</v>
@@ -3061,10 +3061,10 @@
         <v>183</v>
       </c>
       <c r="J25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K25" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
@@ -3096,10 +3096,10 @@
         <v>191</v>
       </c>
       <c r="J26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K26" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27">
@@ -3151,7 +3151,7 @@
         <v>25</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F28" t="s">
         <v>202</v>
@@ -3186,7 +3186,7 @@
         <v>208</v>
       </c>
       <c r="E29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F29" t="s">
         <v>209</v>
@@ -3221,7 +3221,7 @@
         <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F30" t="s">
         <v>216</v>
@@ -3306,10 +3306,10 @@
         <v>232</v>
       </c>
       <c r="J32" t="s">
-        <v>176</v>
+        <v>54</v>
       </c>
       <c r="K32" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33">
@@ -3341,10 +3341,10 @@
         <v>240</v>
       </c>
       <c r="J33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K33" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34">
@@ -3361,7 +3361,7 @@
         <v>244</v>
       </c>
       <c r="E34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F34" t="s">
         <v>245</v>
@@ -3376,10 +3376,10 @@
         <v>247</v>
       </c>
       <c r="J34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K34" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35">
@@ -3396,7 +3396,7 @@
         <v>208</v>
       </c>
       <c r="E35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F35" t="s">
         <v>251</v>
@@ -3428,10 +3428,10 @@
         <v>256</v>
       </c>
       <c r="D36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E36" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F36" t="s">
         <v>257</v>
@@ -3446,10 +3446,10 @@
         <v>259</v>
       </c>
       <c r="J36" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K36" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37">
@@ -3466,7 +3466,7 @@
         <v>14</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F37" t="s">
         <v>262</v>
@@ -3501,7 +3501,7 @@
         <v>268</v>
       </c>
       <c r="E38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F38" t="s">
         <v>269</v>
@@ -3516,10 +3516,10 @@
         <v>271</v>
       </c>
       <c r="J38" t="s">
-        <v>176</v>
+        <v>54</v>
       </c>
       <c r="K38" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39">
@@ -3571,7 +3571,7 @@
         <v>282</v>
       </c>
       <c r="E40" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F40" t="s">
         <v>283</v>
@@ -3606,7 +3606,7 @@
         <v>288</v>
       </c>
       <c r="E41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F41" t="s">
         <v>289</v>
@@ -3621,10 +3621,10 @@
         <v>291</v>
       </c>
       <c r="J41" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K41" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42">
@@ -3641,7 +3641,7 @@
         <v>288</v>
       </c>
       <c r="E42" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F42" t="s">
         <v>294</v>
@@ -3656,10 +3656,10 @@
         <v>296</v>
       </c>
       <c r="J42" t="s">
-        <v>176</v>
+        <v>54</v>
       </c>
       <c r="K42" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43">
@@ -3694,7 +3694,7 @@
         <v>305</v>
       </c>
       <c r="K43" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44">
@@ -3711,7 +3711,7 @@
         <v>300</v>
       </c>
       <c r="E44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F44" t="s">
         <v>308</v>
@@ -3726,10 +3726,10 @@
         <v>310</v>
       </c>
       <c r="J44" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K44" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45">
@@ -3761,10 +3761,10 @@
         <v>316</v>
       </c>
       <c r="J45" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K45" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46">
@@ -3778,7 +3778,7 @@
         <v>318</v>
       </c>
       <c r="D46" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E46" t="s">
         <v>319</v>
@@ -3796,10 +3796,10 @@
         <v>322</v>
       </c>
       <c r="J46" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K46" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47">
@@ -3813,7 +3813,7 @@
         <v>325</v>
       </c>
       <c r="D47" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E47" t="s">
         <v>301</v>
@@ -3831,10 +3831,10 @@
         <v>328</v>
       </c>
       <c r="J47" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K47" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48">
@@ -3848,7 +3848,7 @@
         <v>331</v>
       </c>
       <c r="D48" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E48" t="s">
         <v>332</v>
@@ -3869,7 +3869,7 @@
         <v>305</v>
       </c>
       <c r="K48" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49">
@@ -3939,7 +3939,7 @@
         <v>351</v>
       </c>
       <c r="K50" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51">
@@ -3956,7 +3956,7 @@
         <v>355</v>
       </c>
       <c r="E51" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F51" t="s">
         <v>356</v>
@@ -4044,7 +4044,7 @@
         <v>305</v>
       </c>
       <c r="K53" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54">
@@ -4058,7 +4058,7 @@
         <v>375</v>
       </c>
       <c r="D54" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E54" t="s">
         <v>188</v>
@@ -4070,7 +4070,7 @@
         <v>36</v>
       </c>
       <c r="H54" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I54" t="s">
         <v>377</v>
@@ -4079,7 +4079,7 @@
         <v>305</v>
       </c>
       <c r="K54" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55">
@@ -4093,7 +4093,7 @@
         <v>380</v>
       </c>
       <c r="D55" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E55" t="s">
         <v>381</v>
@@ -4114,7 +4114,7 @@
         <v>305</v>
       </c>
       <c r="K55" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56">
@@ -4166,7 +4166,7 @@
         <v>362</v>
       </c>
       <c r="E57" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F57" t="s">
         <v>395</v>
@@ -4236,7 +4236,7 @@
         <v>409</v>
       </c>
       <c r="E59" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F59" t="s">
         <v>410</v>
@@ -4268,7 +4268,7 @@
         <v>414</v>
       </c>
       <c r="D60" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E60" t="s">
         <v>415</v>
@@ -4286,10 +4286,10 @@
         <v>418</v>
       </c>
       <c r="J60" t="s">
-        <v>176</v>
+        <v>54</v>
       </c>
       <c r="K60" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61">
@@ -4303,7 +4303,7 @@
         <v>420</v>
       </c>
       <c r="D61" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E61" t="s">
         <v>415</v>
@@ -4321,10 +4321,10 @@
         <v>422</v>
       </c>
       <c r="J61" t="s">
-        <v>176</v>
+        <v>54</v>
       </c>
       <c r="K61" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62">
@@ -4338,10 +4338,10 @@
         <v>425</v>
       </c>
       <c r="D62" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E62" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F62" t="s">
         <v>426</v>
@@ -4359,7 +4359,7 @@
         <v>305</v>
       </c>
       <c r="K62" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63">
@@ -4373,7 +4373,7 @@
         <v>431</v>
       </c>
       <c r="D63" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E63" t="s">
         <v>381</v>
@@ -4394,7 +4394,7 @@
         <v>305</v>
       </c>
       <c r="K63" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64">
@@ -4429,7 +4429,7 @@
         <v>351</v>
       </c>
       <c r="K64" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65">
@@ -4464,7 +4464,7 @@
         <v>351</v>
       </c>
       <c r="K65" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66">
@@ -4499,7 +4499,7 @@
         <v>351</v>
       </c>
       <c r="K66" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67">
@@ -4513,7 +4513,7 @@
         <v>455</v>
       </c>
       <c r="D67" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E67" t="s">
         <v>456</v>
@@ -4534,7 +4534,7 @@
         <v>305</v>
       </c>
       <c r="K67" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68">
@@ -4548,10 +4548,10 @@
         <v>462</v>
       </c>
       <c r="D68" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E68" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F68" t="s">
         <v>463</v>
@@ -4569,7 +4569,7 @@
         <v>305</v>
       </c>
       <c r="K68" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69">
@@ -4604,7 +4604,7 @@
         <v>305</v>
       </c>
       <c r="K69" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70">
@@ -4630,16 +4630,16 @@
         <v>36</v>
       </c>
       <c r="H70" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I70" t="s">
         <v>475</v>
       </c>
       <c r="J70" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K70" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71">
@@ -4688,10 +4688,10 @@
         <v>485</v>
       </c>
       <c r="D72" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E72" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F72" t="s">
         <v>486</v>
@@ -4709,7 +4709,7 @@
         <v>305</v>
       </c>
       <c r="K72" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73">
@@ -4726,7 +4726,7 @@
         <v>268</v>
       </c>
       <c r="E73" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F73" t="s">
         <v>491</v>
@@ -4741,10 +4741,10 @@
         <v>493</v>
       </c>
       <c r="J73" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K73" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74">
@@ -4776,10 +4776,10 @@
         <v>500</v>
       </c>
       <c r="J74" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K74" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75">
@@ -4796,7 +4796,7 @@
         <v>504</v>
       </c>
       <c r="E75" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F75" t="s">
         <v>505</v>
@@ -4814,7 +4814,7 @@
         <v>351</v>
       </c>
       <c r="K75" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76">
@@ -4831,7 +4831,7 @@
         <v>511</v>
       </c>
       <c r="E76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F76" t="s">
         <v>512</v>
@@ -4846,10 +4846,10 @@
         <v>514</v>
       </c>
       <c r="J76" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K76" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77">
@@ -4866,7 +4866,7 @@
         <v>518</v>
       </c>
       <c r="E77" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F77" t="s">
         <v>519</v>
@@ -4884,7 +4884,7 @@
         <v>351</v>
       </c>
       <c r="K77" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78">
@@ -4901,7 +4901,7 @@
         <v>369</v>
       </c>
       <c r="E78" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
         <v>525</v>
@@ -4916,10 +4916,10 @@
         <v>527</v>
       </c>
       <c r="J78" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K78" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79">
@@ -4936,7 +4936,7 @@
         <v>362</v>
       </c>
       <c r="E79" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F79" t="s">
         <v>531</v>
@@ -4954,7 +4954,7 @@
         <v>351</v>
       </c>
       <c r="K79" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80">
@@ -4986,10 +4986,10 @@
         <v>538</v>
       </c>
       <c r="J80" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K80" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81">
@@ -5021,10 +5021,10 @@
         <v>542</v>
       </c>
       <c r="J81" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K81" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82">
@@ -5059,7 +5059,7 @@
         <v>351</v>
       </c>
       <c r="K82" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83">
@@ -5111,7 +5111,7 @@
         <v>558</v>
       </c>
       <c r="E84" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F84" t="s">
         <v>559</v>
@@ -5143,7 +5143,7 @@
         <v>564</v>
       </c>
       <c r="D85" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E85" t="s">
         <v>34</v>
@@ -5161,10 +5161,10 @@
         <v>567</v>
       </c>
       <c r="J85" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K85" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86">
@@ -5178,7 +5178,7 @@
         <v>570</v>
       </c>
       <c r="D86" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E86" t="s">
         <v>15</v>
@@ -5196,10 +5196,10 @@
         <v>573</v>
       </c>
       <c r="J86" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K86" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87">
@@ -5213,7 +5213,7 @@
         <v>576</v>
       </c>
       <c r="D87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E87" t="s">
         <v>381</v>
@@ -5234,7 +5234,7 @@
         <v>305</v>
       </c>
       <c r="K87" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="88">
@@ -5248,7 +5248,7 @@
         <v>581</v>
       </c>
       <c r="D88" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E88" t="s">
         <v>415</v>
@@ -5266,10 +5266,10 @@
         <v>579</v>
       </c>
       <c r="J88" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K88" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89">
@@ -5286,7 +5286,7 @@
         <v>587</v>
       </c>
       <c r="E89" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F89" t="s">
         <v>588</v>
@@ -5321,7 +5321,7 @@
         <v>187</v>
       </c>
       <c r="E90" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F90" t="s">
         <v>593</v>
@@ -5356,7 +5356,7 @@
         <v>599</v>
       </c>
       <c r="E91" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F91" t="s">
         <v>600</v>
@@ -5391,7 +5391,7 @@
         <v>25</v>
       </c>
       <c r="E92" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F92" t="s">
         <v>606</v>
@@ -5409,7 +5409,7 @@
         <v>351</v>
       </c>
       <c r="K92" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93">
@@ -5423,7 +5423,7 @@
         <v>611</v>
       </c>
       <c r="D93" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E93" t="s">
         <v>456</v>
@@ -5444,7 +5444,7 @@
         <v>305</v>
       </c>
       <c r="K93" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94">
@@ -5458,7 +5458,7 @@
         <v>616</v>
       </c>
       <c r="D94" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E94" t="s">
         <v>456</v>
@@ -5479,7 +5479,7 @@
         <v>305</v>
       </c>
       <c r="K94" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="95">
@@ -5511,10 +5511,10 @@
         <v>624</v>
       </c>
       <c r="J95" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K95" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96">
@@ -5528,7 +5528,7 @@
         <v>627</v>
       </c>
       <c r="D96" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E96" t="s">
         <v>628</v>
@@ -5549,7 +5549,7 @@
         <v>632</v>
       </c>
       <c r="K96" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="97">
@@ -5566,7 +5566,7 @@
         <v>244</v>
       </c>
       <c r="E97" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F97" t="s">
         <v>635</v>
@@ -5581,10 +5581,10 @@
         <v>637</v>
       </c>
       <c r="J97" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K97" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98">
@@ -5619,7 +5619,7 @@
         <v>645</v>
       </c>
       <c r="K98" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="99">
@@ -5651,10 +5651,10 @@
         <v>652</v>
       </c>
       <c r="J99" t="s">
-        <v>176</v>
+        <v>54</v>
       </c>
       <c r="K99" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="100">
@@ -5668,7 +5668,7 @@
         <v>654</v>
       </c>
       <c r="D100" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E100" t="s">
         <v>26</v>
@@ -5724,7 +5724,7 @@
         <v>666</v>
       </c>
       <c r="K101" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="102">
@@ -5738,7 +5738,7 @@
         <v>669</v>
       </c>
       <c r="D102" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E102" t="s">
         <v>301</v>
@@ -5756,10 +5756,10 @@
         <v>672</v>
       </c>
       <c r="J102" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K102" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="103">
@@ -5794,7 +5794,7 @@
         <v>351</v>
       </c>
       <c r="K103" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="104">
@@ -5864,7 +5864,7 @@
         <v>351</v>
       </c>
       <c r="K105" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="106">
@@ -5910,7 +5910,7 @@
         <v>699</v>
       </c>
       <c r="C107" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D107" t="s">
         <v>700</v>
@@ -5931,10 +5931,10 @@
         <v>704</v>
       </c>
       <c r="J107" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K107" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="108">
@@ -5969,7 +5969,7 @@
         <v>305</v>
       </c>
       <c r="K108" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/build/classes/files/sismos.xlsx
+++ b/build/classes/files/sismos.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="716">
   <si>
     <t>Id</t>
   </si>
@@ -2142,6 +2142,24 @@
   </si>
   <si>
     <t>-83.656</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>16 oct. 2021</t>
+  </si>
+  <si>
+    <t>19:47:03</t>
+  </si>
+  <si>
+    <t>12.0Mw</t>
+  </si>
+  <si>
+    <t>vasdf</t>
+  </si>
+  <si>
+    <t>-53.000</t>
   </si>
 </sst>
 </file>
@@ -2186,7 +2204,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L108"/>
+  <dimension ref="A1:L109"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5972,6 +5990,41 @@
         <v>55</v>
       </c>
     </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>710</v>
+      </c>
+      <c r="B109" t="s">
+        <v>711</v>
+      </c>
+      <c r="C109" t="s">
+        <v>712</v>
+      </c>
+      <c r="D109" t="s">
+        <v>362</v>
+      </c>
+      <c r="E109" t="s">
+        <v>713</v>
+      </c>
+      <c r="F109" t="s">
+        <v>714</v>
+      </c>
+      <c r="G109" t="s">
+        <v>197</v>
+      </c>
+      <c r="H109" t="s">
+        <v>715</v>
+      </c>
+      <c r="I109" t="s">
+        <v>479</v>
+      </c>
+      <c r="J109" t="s">
+        <v>305</v>
+      </c>
+      <c r="K109" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/build/classes/files/sismos.xlsx
+++ b/build/classes/files/sismos.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="699">
   <si>
     <t>Id</t>
   </si>
@@ -50,7 +50,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>20 ene. 2021</t>
+    <t>20/01/2021</t>
   </si>
   <si>
     <t>01:17:00</t>
@@ -83,7 +83,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>31 ene. 2021</t>
+    <t>31/01/2021</t>
   </si>
   <si>
     <t>16:30:56</t>
@@ -107,7 +107,28 @@
     <t>2</t>
   </si>
   <si>
-    <t>5 feb. 2021</t>
+    <t>16:36:34</t>
+  </si>
+  <si>
+    <t>12.000</t>
+  </si>
+  <si>
+    <t>3.9Ml</t>
+  </si>
+  <si>
+    <t>25 km SO de jacó, Puntarenas</t>
+  </si>
+  <si>
+    <t>9.521</t>
+  </si>
+  <si>
+    <t>-84.836</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>05/02/2021</t>
   </si>
   <si>
     <t>23:41:19</t>
@@ -131,10 +152,16 @@
     <t>-83.603</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>13 feb. 2021</t>
+    <t>San José</t>
+  </si>
+  <si>
+    <t>Terrestre</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>13/02/2021</t>
   </si>
   <si>
     <t>15:53:11</t>
@@ -155,10 +182,10 @@
     <t>-84.672</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>15 feb. 2021</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>15/02/2021</t>
   </si>
   <si>
     <t>20:00:27</t>
@@ -176,7 +203,7 @@
     <t>-83.286</t>
   </si>
   <si>
-    <t>5</t>
+    <t>6</t>
   </si>
   <si>
     <t>19:31:28</t>
@@ -194,10 +221,10 @@
     <t>-83.296</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>22 feb. 2021</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>22/02/2021</t>
   </si>
   <si>
     <t>17:50:29</t>
@@ -212,19 +239,13 @@
     <t>-84.259</t>
   </si>
   <si>
-    <t>San José</t>
-  </si>
-  <si>
-    <t>Terrestre</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>13:33:51</t>
-  </si>
-  <si>
-    <t>6.010</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>21:54:00</t>
+  </si>
+  <si>
+    <t>6.000</t>
   </si>
   <si>
     <t>3.1Ml</t>
@@ -239,21 +260,18 @@
     <t>-84.265</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>23 feb. 2021</t>
-  </si>
-  <si>
-    <t>16:36:34</t>
+    <t>9</t>
+  </si>
+  <si>
+    <t>23/02/2021</t>
+  </si>
+  <si>
+    <t>23:41:00</t>
   </si>
   <si>
     <t>27.000</t>
   </si>
   <si>
-    <t>3.9Ml</t>
-  </si>
-  <si>
     <t>10 km al noroeste de Cahuita</t>
   </si>
   <si>
@@ -263,42 +281,21 @@
     <t>-82.927</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>24 feb. 2021</t>
-  </si>
-  <si>
-    <t>21:41:39</t>
-  </si>
-  <si>
-    <t>23.040</t>
+    <t>11</t>
+  </si>
+  <si>
+    <t>26/02/2021</t>
+  </si>
+  <si>
+    <t>17:16:18</t>
+  </si>
+  <si>
+    <t>5.000</t>
   </si>
   <si>
     <t>3.8Ml</t>
   </si>
   <si>
-    <t>16 km SEE de Jacó, Puntarenas</t>
-  </si>
-  <si>
-    <t>9.596</t>
-  </si>
-  <si>
-    <t>-84.775</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>26 feb. 2021</t>
-  </si>
-  <si>
-    <t>17:16:18</t>
-  </si>
-  <si>
-    <t>5.000</t>
-  </si>
-  <si>
     <t>2 km este de Bajo Badillas de Puriscal</t>
   </si>
   <si>
@@ -308,10 +305,49 @@
     <t>-84.260</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>28 feb. 2021</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>27/02/2021</t>
+  </si>
+  <si>
+    <t>10:51:50</t>
+  </si>
+  <si>
+    <t>7 km norte de Buena Vista de Rivas, Peréz Zeledón</t>
+  </si>
+  <si>
+    <t>9.565</t>
+  </si>
+  <si>
+    <t>-83.642</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>18:01:50</t>
+  </si>
+  <si>
+    <t>21.000</t>
+  </si>
+  <si>
+    <t>4.6Ml</t>
+  </si>
+  <si>
+    <t>21 km SSO de Esterillos</t>
+  </si>
+  <si>
+    <t>9.366</t>
+  </si>
+  <si>
+    <t>-84.555</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>28/02/2021</t>
   </si>
   <si>
     <t>20:06:31</t>
@@ -329,13 +365,13 @@
     <t>-84.218</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>1 mar. 2021</t>
-  </si>
-  <si>
-    <t>21:54:00</t>
+    <t>15</t>
+  </si>
+  <si>
+    <t>01/03/2021</t>
+  </si>
+  <si>
+    <t>01:47:00</t>
   </si>
   <si>
     <t>4.000</t>
@@ -350,10 +386,10 @@
     <t>-84.029</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>2 mar. 2021</t>
+    <t>16</t>
+  </si>
+  <si>
+    <t>02/03/2021</t>
   </si>
   <si>
     <t>00:24:00</t>
@@ -374,7 +410,7 @@
     <t>-83.887</t>
   </si>
   <si>
-    <t>14</t>
+    <t>17</t>
   </si>
   <si>
     <t>06:59:00</t>
@@ -383,7 +419,7 @@
     <t>37.000</t>
   </si>
   <si>
-    <t>17 km hacia el noroeste de Uvita.</t>
+    <t>17 km hacia el noroeste de Uvita</t>
   </si>
   <si>
     <t>9.200</t>
@@ -392,10 +428,10 @@
     <t>-83.892</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>01:48:00</t>
@@ -410,10 +446,10 @@
     <t>9.755</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>4 mar. 2021</t>
+    <t>20</t>
+  </si>
+  <si>
+    <t>04/03/2021</t>
   </si>
   <si>
     <t>09:03:52</t>
@@ -428,13 +464,10 @@
     <t>9.588</t>
   </si>
   <si>
-    <t>-83.642</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>5 mar. 2021</t>
+    <t>21</t>
+  </si>
+  <si>
+    <t>05/03/2021</t>
   </si>
   <si>
     <t>13:09:00</t>
@@ -452,84 +485,66 @@
     <t>-84.257</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>8 mar. 2021</t>
-  </si>
-  <si>
-    <t>03:10:00</t>
+    <t>22</t>
+  </si>
+  <si>
+    <t>09/03/2021</t>
+  </si>
+  <si>
+    <t>15:47:00</t>
+  </si>
+  <si>
+    <t>23.000</t>
+  </si>
+  <si>
+    <t>3.2Ml</t>
+  </si>
+  <si>
+    <t>5 km al oeste de Matina</t>
+  </si>
+  <si>
+    <t>10.080</t>
+  </si>
+  <si>
+    <t>-83.328</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>10/03/2021</t>
+  </si>
+  <si>
+    <t>11:18:00</t>
+  </si>
+  <si>
+    <t>13.000</t>
+  </si>
+  <si>
+    <t>3.5Ml</t>
+  </si>
+  <si>
+    <t>3 km Nor Oeste de Puerto Jiménez</t>
+  </si>
+  <si>
+    <t>8.556</t>
+  </si>
+  <si>
+    <t>-83.323</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>18/03/2021</t>
+  </si>
+  <si>
+    <t>23:36:14</t>
   </si>
   <si>
     <t>20.000</t>
   </si>
   <si>
-    <t>4.6Ml</t>
-  </si>
-  <si>
-    <t>39 km hacia el suroeste de Uvita</t>
-  </si>
-  <si>
-    <t>9.020</t>
-  </si>
-  <si>
-    <t>-84.067</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>9 mar. 2021</t>
-  </si>
-  <si>
-    <t>23.010</t>
-  </si>
-  <si>
-    <t>3.2Ml</t>
-  </si>
-  <si>
-    <t>5 km al oeste de Matina</t>
-  </si>
-  <si>
-    <t>10.080</t>
-  </si>
-  <si>
-    <t>-83.328</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>10 mar. 2021</t>
-  </si>
-  <si>
-    <t>11:18:00</t>
-  </si>
-  <si>
-    <t>13.000</t>
-  </si>
-  <si>
-    <t>3.5Ml</t>
-  </si>
-  <si>
-    <t>3 km Nor Oeste de Puerto Jiménez</t>
-  </si>
-  <si>
-    <t>8.556</t>
-  </si>
-  <si>
-    <t>-83.323</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>18 mar. 2021</t>
-  </si>
-  <si>
-    <t>23:36:14</t>
-  </si>
-  <si>
     <t>3.3Ml</t>
   </si>
   <si>
@@ -545,10 +560,10 @@
     <t>Guanacaste</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>21 mar. 2021</t>
+    <t>25</t>
+  </si>
+  <si>
+    <t>21/03/2021</t>
   </si>
   <si>
     <t>01:51:00</t>
@@ -566,10 +581,10 @@
     <t>-84.063</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>23 mar. 2021</t>
+    <t>26</t>
+  </si>
+  <si>
+    <t>23/03/2021</t>
   </si>
   <si>
     <t>17:01:00</t>
@@ -590,10 +605,10 @@
     <t>-84.064</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>29 mar. 2021</t>
+    <t>27</t>
+  </si>
+  <si>
+    <t>29/03/2021</t>
   </si>
   <si>
     <t>14:46:00</t>
@@ -614,7 +629,7 @@
     <t>-85.961</t>
   </si>
   <si>
-    <t>26</t>
+    <t>28</t>
   </si>
   <si>
     <t>17:25:00</t>
@@ -629,10 +644,10 @@
     <t>-84.895</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>30 mar. 2021</t>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30/03/2021</t>
   </si>
   <si>
     <t>16:42:00</t>
@@ -653,10 +668,10 @@
     <t>-83.202</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>3 abr. 2021</t>
+    <t>30</t>
+  </si>
+  <si>
+    <t>03/04/2021</t>
   </si>
   <si>
     <t>13:26:00</t>
@@ -671,10 +686,10 @@
     <t>-84.640</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>4 abr. 2021</t>
+    <t>31</t>
+  </si>
+  <si>
+    <t>04/04/2021</t>
   </si>
   <si>
     <t>21:41:00</t>
@@ -692,10 +707,10 @@
     <t>-83.136</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>6 abr. 2021</t>
+    <t>32</t>
+  </si>
+  <si>
+    <t>06/04/2021</t>
   </si>
   <si>
     <t>23:49:00</t>
@@ -713,18 +728,15 @@
     <t>-85.188</t>
   </si>
   <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>7 abr. 2021</t>
+    <t>33</t>
+  </si>
+  <si>
+    <t>07/04/2021</t>
   </si>
   <si>
     <t>11:51:16</t>
   </si>
   <si>
-    <t>12.000</t>
-  </si>
-  <si>
     <t>4.4Ml</t>
   </si>
   <si>
@@ -737,10 +749,10 @@
     <t>-83.781</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>8 abr. 2021</t>
+    <t>34</t>
+  </si>
+  <si>
+    <t>08/04/2021</t>
   </si>
   <si>
     <t>19:39:41</t>
@@ -758,10 +770,10 @@
     <t>-84.054</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>9 abr. 2021</t>
+    <t>35</t>
+  </si>
+  <si>
+    <t>09/04/2021</t>
   </si>
   <si>
     <t>23:16:57</t>
@@ -776,10 +788,10 @@
     <t>-84.861</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>10 abr. 2021</t>
+    <t>36</t>
+  </si>
+  <si>
+    <t>10/04/2021</t>
   </si>
   <si>
     <t>12:07:35</t>
@@ -794,7 +806,7 @@
     <t>-84.032</t>
   </si>
   <si>
-    <t>35</t>
+    <t>37</t>
   </si>
   <si>
     <t>19:42:27</t>
@@ -809,18 +821,15 @@
     <t>-86.432</t>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>16 abr. 2021</t>
+    <t>38</t>
+  </si>
+  <si>
+    <t>16/04/2021</t>
   </si>
   <si>
     <t>20:35:00</t>
   </si>
   <si>
-    <t>21.000</t>
-  </si>
-  <si>
     <t>7 km al Noroeste de Bagaces, Guanacaste</t>
   </si>
   <si>
@@ -830,10 +839,10 @@
     <t>-85.269</t>
   </si>
   <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>20 abr. 2021</t>
+    <t>39</t>
+  </si>
+  <si>
+    <t>20/04/2021</t>
   </si>
   <si>
     <t>05:23:00</t>
@@ -851,10 +860,10 @@
     <t>-83.275</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>2 may. 2021</t>
+    <t>40</t>
+  </si>
+  <si>
+    <t>02/05/2021</t>
   </si>
   <si>
     <t>13:05:00</t>
@@ -872,7 +881,7 @@
     <t>-83.345</t>
   </si>
   <si>
-    <t>39</t>
+    <t>41</t>
   </si>
   <si>
     <t>00:48:30</t>
@@ -890,7 +899,7 @@
     <t>-83.855</t>
   </si>
   <si>
-    <t>40</t>
+    <t>42</t>
   </si>
   <si>
     <t>08:29:03</t>
@@ -905,18 +914,15 @@
     <t>-85.257</t>
   </si>
   <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>4 may. 2021</t>
+    <t>43</t>
+  </si>
+  <si>
+    <t>04/05/2021</t>
   </si>
   <si>
     <t>05:18:18</t>
   </si>
   <si>
-    <t>6.000</t>
-  </si>
-  <si>
     <t>2.8Ml</t>
   </si>
   <si>
@@ -932,7 +938,7 @@
     <t>Cartago</t>
   </si>
   <si>
-    <t>42</t>
+    <t>44</t>
   </si>
   <si>
     <t>14:25:00</t>
@@ -947,10 +953,10 @@
     <t>-84.156</t>
   </si>
   <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>9 may. 2021</t>
+    <t>45</t>
+  </si>
+  <si>
+    <t>09/05/2021</t>
   </si>
   <si>
     <t>16:09:00</t>
@@ -965,7 +971,7 @@
     <t>-83.934</t>
   </si>
   <si>
-    <t>44</t>
+    <t>46</t>
   </si>
   <si>
     <t>16:29:05</t>
@@ -983,10 +989,10 @@
     <t>-83.931</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>10 may. 2021</t>
+    <t>47</t>
+  </si>
+  <si>
+    <t>10/05/2021</t>
   </si>
   <si>
     <t>20:34:00</t>
@@ -1001,10 +1007,10 @@
     <t>-83.932</t>
   </si>
   <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>11 may. 2021</t>
+    <t>48</t>
+  </si>
+  <si>
+    <t>11/05/2021</t>
   </si>
   <si>
     <t>02:15:00</t>
@@ -1022,10 +1028,10 @@
     <t>-83.788</t>
   </si>
   <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>14 may. 2021</t>
+    <t>49</t>
+  </si>
+  <si>
+    <t>14/05/2021</t>
   </si>
   <si>
     <t>09:33:00</t>
@@ -1046,10 +1052,10 @@
     <t>-83.976</t>
   </si>
   <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>17 may. 2021</t>
+    <t>50</t>
+  </si>
+  <si>
+    <t>17/05/2021</t>
   </si>
   <si>
     <t>15:02:00</t>
@@ -1070,10 +1076,10 @@
     <t>Putarenas</t>
   </si>
   <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>22 may. 2021</t>
+    <t>51</t>
+  </si>
+  <si>
+    <t>22/05/2021</t>
   </si>
   <si>
     <t>20:59:00</t>
@@ -1091,10 +1097,10 @@
     <t>-84.199</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>24 may. 2021</t>
+    <t>52</t>
+  </si>
+  <si>
+    <t>24/05/2021</t>
   </si>
   <si>
     <t>22:03:00</t>
@@ -1112,10 +1118,10 @@
     <t>-83.068</t>
   </si>
   <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>26 may. 2021</t>
+    <t>53</t>
+  </si>
+  <si>
+    <t>26/05/2021</t>
   </si>
   <si>
     <t>13:55:00</t>
@@ -1133,10 +1139,10 @@
     <t>-83.584</t>
   </si>
   <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>1 jun. 2021</t>
+    <t>54</t>
+  </si>
+  <si>
+    <t>01/06/2021</t>
   </si>
   <si>
     <t>23:56:00</t>
@@ -1148,10 +1154,10 @@
     <t>-83.801</t>
   </si>
   <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>3 jun. 2021</t>
+    <t>55</t>
+  </si>
+  <si>
+    <t>03/06/2021</t>
   </si>
   <si>
     <t>23:09:00</t>
@@ -1169,10 +1175,10 @@
     <t>-83.834</t>
   </si>
   <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>6 jun. 2021</t>
+    <t>56</t>
+  </si>
+  <si>
+    <t>06/06/2021</t>
   </si>
   <si>
     <t>20:27:00</t>
@@ -1190,10 +1196,10 @@
     <t>-85.484</t>
   </si>
   <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>7 jun. 2021</t>
+    <t>57</t>
+  </si>
+  <si>
+    <t>07/06/2021</t>
   </si>
   <si>
     <t>23:15:00</t>
@@ -1208,10 +1214,10 @@
     <t>-83.066</t>
   </si>
   <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>10 jun. 2021</t>
+    <t>58</t>
+  </si>
+  <si>
+    <t>10/06/2021</t>
   </si>
   <si>
     <t>17:26:00</t>
@@ -1232,10 +1238,10 @@
     <t>-85.511</t>
   </si>
   <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>11 jun. 2021</t>
+    <t>59</t>
+  </si>
+  <si>
+    <t>11/06/2021</t>
   </si>
   <si>
     <t>19:55:59</t>
@@ -1250,10 +1256,10 @@
     <t>-84.597</t>
   </si>
   <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>15 jun. 2021</t>
+    <t>60</t>
+  </si>
+  <si>
+    <t>15/06/2021</t>
   </si>
   <si>
     <t>04:52:00</t>
@@ -1271,7 +1277,7 @@
     <t>-85.205</t>
   </si>
   <si>
-    <t>59</t>
+    <t>61</t>
   </si>
   <si>
     <t>23:18:00</t>
@@ -1283,10 +1289,10 @@
     <t>-85.200</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>19 jun. 2021</t>
+    <t>62</t>
+  </si>
+  <si>
+    <t>19/06/2021</t>
   </si>
   <si>
     <t>11:06:00</t>
@@ -1301,10 +1307,10 @@
     <t>-83.935</t>
   </si>
   <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>23 jun. 2021</t>
+    <t>63</t>
+  </si>
+  <si>
+    <t>23/06/2021</t>
   </si>
   <si>
     <t>23:51:00</t>
@@ -1316,10 +1322,10 @@
     <t>9.822</t>
   </si>
   <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>24 jun. 2021</t>
+    <t>64</t>
+  </si>
+  <si>
+    <t>24/06/2021</t>
   </si>
   <si>
     <t>04:31:00</t>
@@ -1337,10 +1343,10 @@
     <t>-84.650</t>
   </si>
   <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>3 jul. 2021</t>
+    <t>65</t>
+  </si>
+  <si>
+    <t>03/07/2021</t>
   </si>
   <si>
     <t>22:30:00</t>
@@ -1355,10 +1361,10 @@
     <t>-84.645</t>
   </si>
   <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>4 jul. 2021</t>
+    <t>66</t>
+  </si>
+  <si>
+    <t>04/07/2021</t>
   </si>
   <si>
     <t>00:40:00</t>
@@ -1373,10 +1379,10 @@
     <t>-84.637</t>
   </si>
   <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>5 jul. 2021</t>
+    <t>67</t>
+  </si>
+  <si>
+    <t>05/07/2021</t>
   </si>
   <si>
     <t>23:50:00</t>
@@ -1394,10 +1400,10 @@
     <t>-83.939</t>
   </si>
   <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>6 jul. 2021</t>
+    <t>68</t>
+  </si>
+  <si>
+    <t>06/07/2021</t>
   </si>
   <si>
     <t>13:20:00</t>
@@ -1412,7 +1418,7 @@
     <t>-83.943</t>
   </si>
   <si>
-    <t>67</t>
+    <t>69</t>
   </si>
   <si>
     <t>13:29:00</t>
@@ -1427,10 +1433,10 @@
     <t>-83.946</t>
   </si>
   <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>8 jul. 2021</t>
+    <t>70</t>
+  </si>
+  <si>
+    <t>08/07/2021</t>
   </si>
   <si>
     <t>23:07:00</t>
@@ -1442,10 +1448,10 @@
     <t>-83.874</t>
   </si>
   <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>10 jul. 2021</t>
+    <t>71</t>
+  </si>
+  <si>
+    <t>10/07/2021</t>
   </si>
   <si>
     <t>14:53:00</t>
@@ -1463,10 +1469,10 @@
     <t>-85.008</t>
   </si>
   <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>13 jul. 2021</t>
+    <t>72</t>
+  </si>
+  <si>
+    <t>13/07/2021</t>
   </si>
   <si>
     <t>00:05:00</t>
@@ -1481,7 +1487,7 @@
     <t>-83.529</t>
   </si>
   <si>
-    <t>71</t>
+    <t>73</t>
   </si>
   <si>
     <t>01:06:00</t>
@@ -1496,10 +1502,10 @@
     <t>-83.601</t>
   </si>
   <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>14 jul. 2021</t>
+    <t>74</t>
+  </si>
+  <si>
+    <t>14/07/2021</t>
   </si>
   <si>
     <t>21:09:00</t>
@@ -1517,10 +1523,10 @@
     <t>-83.979</t>
   </si>
   <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>15 jul. 2021</t>
+    <t>75</t>
+  </si>
+  <si>
+    <t>15/07/2021</t>
   </si>
   <si>
     <t>03:16:00</t>
@@ -1538,10 +1544,10 @@
     <t>-82.896</t>
   </si>
   <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>16 jul. 2021</t>
+    <t>76</t>
+  </si>
+  <si>
+    <t>16/07/2021</t>
   </si>
   <si>
     <t>21:10:00</t>
@@ -1559,10 +1565,10 @@
     <t>-83.916</t>
   </si>
   <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>19 jul. 2021</t>
+    <t>77</t>
+  </si>
+  <si>
+    <t>19/07/2021</t>
   </si>
   <si>
     <t>11:24:00</t>
@@ -1580,10 +1586,22 @@
     <t>-84.114</t>
   </si>
   <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>20 jul. 2021</t>
+    <t>78</t>
+  </si>
+  <si>
+    <t>11:27:00</t>
+  </si>
+  <si>
+    <t>9.465</t>
+  </si>
+  <si>
+    <t>-84.094</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>20/07/2021</t>
   </si>
   <si>
     <t>17:57:00</t>
@@ -1598,10 +1616,10 @@
     <t>-84.053</t>
   </si>
   <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>21 jul. 2021</t>
+    <t>80</t>
+  </si>
+  <si>
+    <t>21/07/2021</t>
   </si>
   <si>
     <t>04:56:00</t>
@@ -1616,7 +1634,7 @@
     <t>-84.128</t>
   </si>
   <si>
-    <t>78</t>
+    <t>81</t>
   </si>
   <si>
     <t>04:37:00</t>
@@ -1631,7 +1649,7 @@
     <t>-83.988</t>
   </si>
   <si>
-    <t>79</t>
+    <t>82</t>
   </si>
   <si>
     <t>04:18:00</t>
@@ -1643,10 +1661,10 @@
     <t>-84.046</t>
   </si>
   <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>27 jul. 2021</t>
+    <t>83</t>
+  </si>
+  <si>
+    <t>27/07/2021</t>
   </si>
   <si>
     <t>00:37:00</t>
@@ -1661,10 +1679,10 @@
     <t>-84.819</t>
   </si>
   <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>29 jul. 2021</t>
+    <t>84</t>
+  </si>
+  <si>
+    <t>29/07/2021</t>
   </si>
   <si>
     <t>22:29:34</t>
@@ -1682,7 +1700,7 @@
     <t>-86.155</t>
   </si>
   <si>
-    <t>82</t>
+    <t>85</t>
   </si>
   <si>
     <t>22:37:00</t>
@@ -1700,10 +1718,10 @@
     <t>-86.277</t>
   </si>
   <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>30 jul. 2021</t>
+    <t>86</t>
+  </si>
+  <si>
+    <t>30/07/2021</t>
   </si>
   <si>
     <t>00:00:00</t>
@@ -1718,10 +1736,10 @@
     <t>-84.026</t>
   </si>
   <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>1 ago. 2021</t>
+    <t>87</t>
+  </si>
+  <si>
+    <t>01/08/2021</t>
   </si>
   <si>
     <t>17:39:00</t>
@@ -1736,10 +1754,10 @@
     <t>-84.225</t>
   </si>
   <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>10 ago. 2021</t>
+    <t>88</t>
+  </si>
+  <si>
+    <t>10/08/2021</t>
   </si>
   <si>
     <t>08:27:00</t>
@@ -1754,7 +1772,7 @@
     <t>-83.902</t>
   </si>
   <si>
-    <t>86</t>
+    <t>89</t>
   </si>
   <si>
     <t>19:03:17</t>
@@ -1766,10 +1784,10 @@
     <t>9.703</t>
   </si>
   <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>12 ago. 2021</t>
+    <t>90</t>
+  </si>
+  <si>
+    <t>12/08/2021</t>
   </si>
   <si>
     <t>05:48:00</t>
@@ -1787,7 +1805,7 @@
     <t>-86.183</t>
   </si>
   <si>
-    <t>88</t>
+    <t>91</t>
   </si>
   <si>
     <t>21:08:09</t>
@@ -1802,10 +1820,10 @@
     <t>-86.174</t>
   </si>
   <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>15 ago. 2021</t>
+    <t>92</t>
+  </si>
+  <si>
+    <t>15/08/2021</t>
   </si>
   <si>
     <t>20:39:13</t>
@@ -1823,10 +1841,10 @@
     <t>-82.917</t>
   </si>
   <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>16 ago. 2021</t>
+    <t>93</t>
+  </si>
+  <si>
+    <t>16/08/2021</t>
   </si>
   <si>
     <t>04:06:00</t>
@@ -1841,10 +1859,10 @@
     <t>-82.879</t>
   </si>
   <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>19 ago. 2021</t>
+    <t>94</t>
+  </si>
+  <si>
+    <t>19/08/2021</t>
   </si>
   <si>
     <t>01:50:00</t>
@@ -1859,7 +1877,7 @@
     <t>-83.978</t>
   </si>
   <si>
-    <t>92</t>
+    <t>95</t>
   </si>
   <si>
     <t>11:43:00</t>
@@ -1874,13 +1892,10 @@
     <t>-83.949</t>
   </si>
   <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>26 ago. 2021</t>
-  </si>
-  <si>
-    <t>23.000</t>
+    <t>96</t>
+  </si>
+  <si>
+    <t>26/08/2021</t>
   </si>
   <si>
     <t>7.5 km al Sureste de San Gerardo de Dota</t>
@@ -1889,10 +1904,10 @@
     <t>-83.773</t>
   </si>
   <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>27 ago. 2021</t>
+    <t>97</t>
+  </si>
+  <si>
+    <t>27/08/2021</t>
   </si>
   <si>
     <t>07:22:00</t>
@@ -1913,7 +1928,7 @@
     <t>Alajuela</t>
   </si>
   <si>
-    <t>95</t>
+    <t>98</t>
   </si>
   <si>
     <t>08:24:00</t>
@@ -1928,10 +1943,10 @@
     <t>-83.886</t>
   </si>
   <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>31 ago. 2021</t>
+    <t>99</t>
+  </si>
+  <si>
+    <t>31/08/2021</t>
   </si>
   <si>
     <t>22:08:00</t>
@@ -1952,10 +1967,10 @@
     <t>Heredia</t>
   </si>
   <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>1 sep. 2021</t>
+    <t>100</t>
+  </si>
+  <si>
+    <t>01/09/2021</t>
   </si>
   <si>
     <t>00:46:00</t>
@@ -1973,7 +1988,7 @@
     <t>-85.168</t>
   </si>
   <si>
-    <t>98</t>
+    <t>101</t>
   </si>
   <si>
     <t>10:50:16</t>
@@ -1988,10 +2003,10 @@
     <t>-83.766</t>
   </si>
   <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>4 sep. 2021</t>
+    <t>102</t>
+  </si>
+  <si>
+    <t>04/09/2021</t>
   </si>
   <si>
     <t>03:48:00</t>
@@ -2015,10 +2030,10 @@
     <t>Limón</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>5 sep. 2021</t>
+    <t>103</t>
+  </si>
+  <si>
+    <t>05/09/2021</t>
   </si>
   <si>
     <t>14:42:07</t>
@@ -2033,10 +2048,10 @@
     <t>-84.305</t>
   </si>
   <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>3 sep. 2021</t>
+    <t>104</t>
+  </si>
+  <si>
+    <t>03/09/2021</t>
   </si>
   <si>
     <t>00:00:13</t>
@@ -2051,10 +2066,10 @@
     <t>-83.428</t>
   </si>
   <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>2 oct. 2021</t>
+    <t>105</t>
+  </si>
+  <si>
+    <t>02/10/2021</t>
   </si>
   <si>
     <t>23:19:54</t>
@@ -2075,10 +2090,10 @@
     <t>2.215</t>
   </si>
   <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>30 oct. 2021</t>
+    <t>106</t>
+  </si>
+  <si>
+    <t>30/10/2021</t>
   </si>
   <si>
     <t>11:28:26</t>
@@ -2094,54 +2109,6 @@
   </si>
   <si>
     <t>4545.000</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>5 oct. 2021</t>
-  </si>
-  <si>
-    <t>13:22:46</t>
-  </si>
-  <si>
-    <t>1.000</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>22 oct. 2021</t>
-  </si>
-  <si>
-    <t>34.000</t>
-  </si>
-  <si>
-    <t>434.0Mw</t>
-  </si>
-  <si>
-    <t>asdf.</t>
-  </si>
-  <si>
-    <t>343.000</t>
-  </si>
-  <si>
-    <t>434.000</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>6 oct. 2021</t>
-  </si>
-  <si>
-    <t>9.8Mw</t>
-  </si>
-  <si>
-    <t>Casa erks2</t>
-  </si>
-  <si>
-    <t>-83.656</t>
   </si>
 </sst>
 </file>
@@ -2186,7 +2153,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L108"/>
+  <dimension ref="A1:L107"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2302,28 +2269,28 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
         <v>35</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>36</v>
-      </c>
-      <c r="H4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" t="s">
-        <v>38</v>
       </c>
       <c r="J4" t="s">
         <v>20</v>
@@ -2334,66 +2301,66 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>41</v>
       </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>42</v>
       </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
       <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
         <v>44</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>45</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>46</v>
       </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J6" t="s">
         <v>20</v>
@@ -2404,31 +2371,31 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J7" t="s">
         <v>20</v>
@@ -2439,60 +2406,60 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J8" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>72</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
         <v>73</v>
@@ -2501,10 +2468,10 @@
         <v>74</v>
       </c>
       <c r="J9" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="K9" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
@@ -2512,349 +2479,349 @@
         <v>75</v>
       </c>
       <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
         <v>76</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>77</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>78</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>79</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" t="s">
         <v>80</v>
       </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>81</v>
       </c>
-      <c r="I10" t="s">
-        <v>82</v>
-      </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="K10" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
         <v>83</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>84</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>85</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
         <v>86</v>
-      </c>
-      <c r="E11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" t="s">
-        <v>88</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s">
         <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" t="s">
         <v>91</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>92</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>93</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>94</v>
       </c>
-      <c r="E12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" t="s">
         <v>95</v>
       </c>
-      <c r="G12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>96</v>
       </c>
-      <c r="I12" t="s">
-        <v>97</v>
-      </c>
       <c r="J12" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
         <v>98</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>99</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" t="s">
         <v>100</v>
       </c>
-      <c r="D13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" t="s">
         <v>101</v>
       </c>
-      <c r="F13" t="s">
+      <c r="I13" t="s">
         <v>102</v>
       </c>
-      <c r="G13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" t="s">
-        <v>103</v>
-      </c>
-      <c r="I13" t="s">
-        <v>104</v>
-      </c>
       <c r="J13" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="K13" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" t="s">
         <v>105</v>
       </c>
-      <c r="B14" t="s">
+      <c r="E14" t="s">
         <v>106</v>
       </c>
-      <c r="C14" t="s">
+      <c r="F14" t="s">
         <v>107</v>
       </c>
-      <c r="D14" t="s">
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
         <v>108</v>
       </c>
-      <c r="E14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="I14" t="s">
         <v>109</v>
       </c>
-      <c r="G14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" t="s">
-        <v>110</v>
-      </c>
-      <c r="I14" t="s">
-        <v>111</v>
-      </c>
       <c r="J14" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="K14" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" t="s">
         <v>112</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
         <v>113</v>
       </c>
-      <c r="C15" t="s">
+      <c r="F15" t="s">
         <v>114</v>
       </c>
-      <c r="D15" t="s">
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" t="s">
         <v>115</v>
       </c>
-      <c r="E15" t="s">
+      <c r="I15" t="s">
         <v>116</v>
       </c>
-      <c r="F15" t="s">
-        <v>117</v>
-      </c>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" t="s">
-        <v>118</v>
-      </c>
-      <c r="I15" t="s">
-        <v>119</v>
-      </c>
       <c r="J15" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="K15" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" t="s">
         <v>120</v>
       </c>
-      <c r="B16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" t="s">
         <v>121</v>
       </c>
-      <c r="D16" t="s">
+      <c r="G16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" t="s">
         <v>122</v>
       </c>
-      <c r="E16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="I16" t="s">
         <v>123</v>
       </c>
-      <c r="G16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" t="s">
-        <v>124</v>
-      </c>
-      <c r="I16" t="s">
-        <v>125</v>
-      </c>
       <c r="J16" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="K16" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" t="s">
         <v>126</v>
       </c>
-      <c r="B17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" t="s">
-        <v>114</v>
-      </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="E17" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="F17" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="G17" t="s">
         <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="I17" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="J17" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="K17" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C18" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="I18" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="J18" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="K18" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C19" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" t="s">
         <v>129</v>
       </c>
-      <c r="E19" t="s">
-        <v>135</v>
-      </c>
-      <c r="F19" t="s">
-        <v>136</v>
-      </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I19" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="J19" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="K19" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20">
@@ -2862,133 +2829,133 @@
         <v>139</v>
       </c>
       <c r="B20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" t="s">
         <v>140</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>141</v>
       </c>
-      <c r="D20" t="s">
-        <v>56</v>
-      </c>
       <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
         <v>142</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" t="s">
         <v>143</v>
       </c>
-      <c r="G20" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" t="s">
-        <v>144</v>
-      </c>
       <c r="I20" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="J20" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="K20" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" t="s">
         <v>146</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" t="s">
         <v>147</v>
       </c>
-      <c r="C21" t="s">
+      <c r="F21" t="s">
         <v>148</v>
       </c>
-      <c r="D21" t="s">
+      <c r="G21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" t="s">
         <v>149</v>
       </c>
-      <c r="E21" t="s">
-        <v>150</v>
-      </c>
-      <c r="F21" t="s">
-        <v>151</v>
-      </c>
-      <c r="G21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" t="s">
-        <v>152</v>
-      </c>
       <c r="I21" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="J21" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="K21" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F22" t="s">
         <v>154</v>
       </c>
-      <c r="B22" t="s">
+      <c r="G22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" t="s">
         <v>155</v>
       </c>
-      <c r="C22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="I22" t="s">
         <v>156</v>
       </c>
-      <c r="E22" t="s">
-        <v>157</v>
-      </c>
-      <c r="F22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G22" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" t="s">
-        <v>159</v>
-      </c>
-      <c r="I22" t="s">
-        <v>160</v>
-      </c>
       <c r="J22" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="K22" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" t="s">
         <v>161</v>
       </c>
-      <c r="B23" t="s">
+      <c r="F23" t="s">
         <v>162</v>
       </c>
-      <c r="C23" t="s">
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" t="s">
         <v>163</v>
       </c>
-      <c r="D23" t="s">
+      <c r="I23" t="s">
         <v>164</v>
-      </c>
-      <c r="E23" t="s">
-        <v>165</v>
-      </c>
-      <c r="F23" t="s">
-        <v>166</v>
-      </c>
-      <c r="G23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" t="s">
-        <v>167</v>
-      </c>
-      <c r="I23" t="s">
-        <v>168</v>
       </c>
       <c r="J23" t="s">
         <v>20</v>
@@ -2999,165 +2966,165 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E24" t="s">
         <v>169</v>
       </c>
-      <c r="B24" t="s">
+      <c r="F24" t="s">
         <v>170</v>
       </c>
-      <c r="C24" t="s">
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s">
         <v>171</v>
       </c>
-      <c r="D24" t="s">
-        <v>149</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="I24" t="s">
         <v>172</v>
       </c>
-      <c r="F24" t="s">
-        <v>173</v>
-      </c>
-      <c r="G24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" t="s">
-        <v>174</v>
-      </c>
-      <c r="I24" t="s">
-        <v>175</v>
-      </c>
       <c r="J24" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="K24" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" t="s">
         <v>177</v>
       </c>
-      <c r="B25" t="s">
+      <c r="F25" t="s">
         <v>178</v>
       </c>
-      <c r="C25" t="s">
+      <c r="G25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" t="s">
         <v>179</v>
       </c>
-      <c r="D25" t="s">
+      <c r="I25" t="s">
         <v>180</v>
       </c>
-      <c r="E25" t="s">
-        <v>135</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="J25" t="s">
         <v>181</v>
       </c>
-      <c r="G25" t="s">
-        <v>36</v>
-      </c>
-      <c r="H25" t="s">
-        <v>182</v>
-      </c>
-      <c r="I25" t="s">
-        <v>183</v>
-      </c>
-      <c r="J25" t="s">
-        <v>66</v>
-      </c>
       <c r="K25" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>182</v>
+      </c>
+      <c r="B26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26" t="s">
         <v>184</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
         <v>185</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" t="s">
         <v>186</v>
       </c>
-      <c r="D26" t="s">
+      <c r="G26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" t="s">
         <v>187</v>
       </c>
-      <c r="E26" t="s">
+      <c r="I26" t="s">
         <v>188</v>
       </c>
-      <c r="F26" t="s">
-        <v>189</v>
-      </c>
-      <c r="G26" t="s">
-        <v>36</v>
-      </c>
-      <c r="H26" t="s">
-        <v>190</v>
-      </c>
-      <c r="I26" t="s">
-        <v>191</v>
-      </c>
       <c r="J26" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="K26" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" t="s">
+        <v>191</v>
+      </c>
+      <c r="D27" t="s">
         <v>192</v>
       </c>
-      <c r="B27" t="s">
+      <c r="E27" t="s">
         <v>193</v>
       </c>
-      <c r="C27" t="s">
+      <c r="F27" t="s">
         <v>194</v>
       </c>
-      <c r="D27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="G27" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" t="s">
         <v>195</v>
       </c>
-      <c r="F27" t="s">
+      <c r="I27" t="s">
         <v>196</v>
       </c>
-      <c r="G27" t="s">
-        <v>197</v>
-      </c>
-      <c r="H27" t="s">
-        <v>198</v>
-      </c>
-      <c r="I27" t="s">
-        <v>199</v>
-      </c>
       <c r="J27" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="K27" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28" t="s">
+        <v>199</v>
+      </c>
+      <c r="D28" t="s">
+        <v>192</v>
+      </c>
+      <c r="E28" t="s">
         <v>200</v>
       </c>
-      <c r="B28" t="s">
-        <v>193</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="F28" t="s">
         <v>201</v>
       </c>
-      <c r="D28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>202</v>
-      </c>
-      <c r="G28" t="s">
-        <v>36</v>
       </c>
       <c r="H28" t="s">
         <v>203</v>
@@ -3177,28 +3144,28 @@
         <v>205</v>
       </c>
       <c r="B29" t="s">
+        <v>198</v>
+      </c>
+      <c r="C29" t="s">
         <v>206</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" t="s">
         <v>207</v>
       </c>
-      <c r="D29" t="s">
+      <c r="G29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" t="s">
         <v>208</v>
       </c>
-      <c r="E29" t="s">
-        <v>135</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="I29" t="s">
         <v>209</v>
-      </c>
-      <c r="G29" t="s">
-        <v>210</v>
-      </c>
-      <c r="H29" t="s">
-        <v>211</v>
-      </c>
-      <c r="I29" t="s">
-        <v>212</v>
       </c>
       <c r="J29" t="s">
         <v>20</v>
@@ -3209,31 +3176,31 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>210</v>
+      </c>
+      <c r="B30" t="s">
+        <v>211</v>
+      </c>
+      <c r="C30" t="s">
+        <v>212</v>
+      </c>
+      <c r="D30" t="s">
         <v>213</v>
       </c>
-      <c r="B30" t="s">
+      <c r="E30" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" t="s">
         <v>214</v>
       </c>
-      <c r="C30" t="s">
+      <c r="G30" t="s">
         <v>215</v>
       </c>
-      <c r="D30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="H30" t="s">
         <v>216</v>
       </c>
-      <c r="G30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>217</v>
-      </c>
-      <c r="I30" t="s">
-        <v>218</v>
       </c>
       <c r="J30" t="s">
         <v>20</v>
@@ -3244,31 +3211,31 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>218</v>
+      </c>
+      <c r="B31" t="s">
         <v>219</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>220</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" t="s">
         <v>221</v>
       </c>
-      <c r="D31" t="s">
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s">
         <v>222</v>
       </c>
-      <c r="E31" t="s">
-        <v>188</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="I31" t="s">
         <v>223</v>
-      </c>
-      <c r="G31" t="s">
-        <v>44</v>
-      </c>
-      <c r="H31" t="s">
-        <v>224</v>
-      </c>
-      <c r="I31" t="s">
-        <v>225</v>
       </c>
       <c r="J31" t="s">
         <v>20</v>
@@ -3279,311 +3246,311 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>224</v>
+      </c>
+      <c r="B32" t="s">
+        <v>225</v>
+      </c>
+      <c r="C32" t="s">
         <v>226</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" t="s">
         <v>227</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E32" t="s">
+        <v>193</v>
+      </c>
+      <c r="F32" t="s">
         <v>228</v>
       </c>
-      <c r="D32" t="s">
+      <c r="G32" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" t="s">
         <v>229</v>
       </c>
-      <c r="E32" t="s">
-        <v>188</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="I32" t="s">
         <v>230</v>
       </c>
-      <c r="G32" t="s">
-        <v>36</v>
-      </c>
-      <c r="H32" t="s">
-        <v>231</v>
-      </c>
-      <c r="I32" t="s">
-        <v>232</v>
-      </c>
       <c r="J32" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="K32" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>231</v>
+      </c>
+      <c r="B33" t="s">
+        <v>232</v>
+      </c>
+      <c r="C33" t="s">
         <v>233</v>
       </c>
-      <c r="B33" t="s">
+      <c r="D33" t="s">
         <v>234</v>
       </c>
-      <c r="C33" t="s">
+      <c r="E33" t="s">
+        <v>193</v>
+      </c>
+      <c r="F33" t="s">
         <v>235</v>
       </c>
-      <c r="D33" t="s">
+      <c r="G33" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" t="s">
         <v>236</v>
       </c>
-      <c r="E33" t="s">
+      <c r="I33" t="s">
         <v>237</v>
       </c>
-      <c r="F33" t="s">
-        <v>238</v>
-      </c>
-      <c r="G33" t="s">
-        <v>36</v>
-      </c>
-      <c r="H33" t="s">
-        <v>239</v>
-      </c>
-      <c r="I33" t="s">
-        <v>240</v>
-      </c>
       <c r="J33" t="s">
-        <v>66</v>
+        <v>181</v>
       </c>
       <c r="K33" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>238</v>
+      </c>
+      <c r="B34" t="s">
+        <v>239</v>
+      </c>
+      <c r="C34" t="s">
+        <v>240</v>
+      </c>
+      <c r="D34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" t="s">
         <v>241</v>
       </c>
-      <c r="B34" t="s">
+      <c r="F34" t="s">
         <v>242</v>
       </c>
-      <c r="C34" t="s">
+      <c r="G34" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" t="s">
         <v>243</v>
       </c>
-      <c r="D34" t="s">
+      <c r="I34" t="s">
         <v>244</v>
       </c>
-      <c r="E34" t="s">
-        <v>157</v>
-      </c>
-      <c r="F34" t="s">
-        <v>245</v>
-      </c>
-      <c r="G34" t="s">
-        <v>36</v>
-      </c>
-      <c r="H34" t="s">
-        <v>246</v>
-      </c>
-      <c r="I34" t="s">
-        <v>247</v>
-      </c>
       <c r="J34" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="K34" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>245</v>
+      </c>
+      <c r="B35" t="s">
+        <v>246</v>
+      </c>
+      <c r="C35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D35" t="s">
         <v>248</v>
       </c>
-      <c r="B35" t="s">
+      <c r="E35" t="s">
+        <v>161</v>
+      </c>
+      <c r="F35" t="s">
         <v>249</v>
       </c>
-      <c r="C35" t="s">
+      <c r="G35" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" t="s">
         <v>250</v>
       </c>
-      <c r="D35" t="s">
-        <v>208</v>
-      </c>
-      <c r="E35" t="s">
-        <v>87</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="I35" t="s">
         <v>251</v>
       </c>
-      <c r="G35" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" t="s">
-        <v>252</v>
-      </c>
-      <c r="I35" t="s">
-        <v>253</v>
-      </c>
       <c r="J35" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="K35" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>252</v>
+      </c>
+      <c r="B36" t="s">
+        <v>253</v>
+      </c>
+      <c r="C36" t="s">
         <v>254</v>
       </c>
-      <c r="B36" t="s">
+      <c r="D36" t="s">
+        <v>213</v>
+      </c>
+      <c r="E36" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" t="s">
         <v>255</v>
       </c>
-      <c r="C36" t="s">
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" t="s">
         <v>256</v>
       </c>
-      <c r="D36" t="s">
-        <v>94</v>
-      </c>
-      <c r="E36" t="s">
-        <v>165</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="I36" t="s">
         <v>257</v>
       </c>
-      <c r="G36" t="s">
-        <v>36</v>
-      </c>
-      <c r="H36" t="s">
-        <v>258</v>
-      </c>
-      <c r="I36" t="s">
-        <v>259</v>
-      </c>
       <c r="J36" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="K36" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>258</v>
+      </c>
+      <c r="B37" t="s">
+        <v>259</v>
+      </c>
+      <c r="C37" t="s">
         <v>260</v>
       </c>
-      <c r="B37" t="s">
-        <v>255</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" t="s">
+        <v>169</v>
+      </c>
+      <c r="F37" t="s">
         <v>261</v>
       </c>
-      <c r="D37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" t="s">
-        <v>71</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
+        <v>43</v>
+      </c>
+      <c r="H37" t="s">
         <v>262</v>
       </c>
-      <c r="G37" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>263</v>
       </c>
-      <c r="I37" t="s">
-        <v>264</v>
-      </c>
       <c r="J37" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="K37" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>264</v>
+      </c>
+      <c r="B38" t="s">
+        <v>259</v>
+      </c>
+      <c r="C38" t="s">
         <v>265</v>
       </c>
-      <c r="B38" t="s">
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" t="s">
         <v>266</v>
       </c>
-      <c r="C38" t="s">
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s">
         <v>267</v>
       </c>
-      <c r="D38" t="s">
+      <c r="I38" t="s">
         <v>268</v>
       </c>
-      <c r="E38" t="s">
-        <v>71</v>
-      </c>
-      <c r="F38" t="s">
-        <v>269</v>
-      </c>
-      <c r="G38" t="s">
-        <v>36</v>
-      </c>
-      <c r="H38" t="s">
-        <v>270</v>
-      </c>
-      <c r="I38" t="s">
-        <v>271</v>
-      </c>
       <c r="J38" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="K38" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>269</v>
+      </c>
+      <c r="B39" t="s">
+        <v>270</v>
+      </c>
+      <c r="C39" t="s">
+        <v>271</v>
+      </c>
+      <c r="D39" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" t="s">
         <v>272</v>
       </c>
-      <c r="B39" t="s">
+      <c r="G39" t="s">
+        <v>43</v>
+      </c>
+      <c r="H39" t="s">
         <v>273</v>
       </c>
-      <c r="C39" t="s">
+      <c r="I39" t="s">
         <v>274</v>
       </c>
-      <c r="D39" t="s">
-        <v>268</v>
-      </c>
-      <c r="E39" t="s">
-        <v>275</v>
-      </c>
-      <c r="F39" t="s">
-        <v>276</v>
-      </c>
-      <c r="G39" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" t="s">
-        <v>277</v>
-      </c>
-      <c r="I39" t="s">
-        <v>278</v>
-      </c>
       <c r="J39" t="s">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="K39" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>275</v>
+      </c>
+      <c r="B40" t="s">
+        <v>276</v>
+      </c>
+      <c r="C40" t="s">
+        <v>277</v>
+      </c>
+      <c r="D40" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" t="s">
+        <v>278</v>
+      </c>
+      <c r="F40" t="s">
         <v>279</v>
-      </c>
-      <c r="B40" t="s">
-        <v>280</v>
-      </c>
-      <c r="C40" t="s">
-        <v>281</v>
-      </c>
-      <c r="D40" t="s">
-        <v>282</v>
-      </c>
-      <c r="E40" t="s">
-        <v>165</v>
-      </c>
-      <c r="F40" t="s">
-        <v>283</v>
       </c>
       <c r="G40" t="s">
         <v>17</v>
       </c>
       <c r="H40" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I40" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="J40" t="s">
         <v>20</v>
@@ -3594,416 +3561,416 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>282</v>
+      </c>
+      <c r="B41" t="s">
+        <v>283</v>
+      </c>
+      <c r="C41" t="s">
+        <v>284</v>
+      </c>
+      <c r="D41" t="s">
+        <v>285</v>
+      </c>
+      <c r="E41" t="s">
+        <v>169</v>
+      </c>
+      <c r="F41" t="s">
         <v>286</v>
       </c>
-      <c r="B41" t="s">
-        <v>280</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" t="s">
         <v>287</v>
       </c>
-      <c r="D41" t="s">
+      <c r="I41" t="s">
         <v>288</v>
       </c>
-      <c r="E41" t="s">
-        <v>165</v>
-      </c>
-      <c r="F41" t="s">
-        <v>289</v>
-      </c>
-      <c r="G41" t="s">
-        <v>36</v>
-      </c>
-      <c r="H41" t="s">
-        <v>290</v>
-      </c>
-      <c r="I41" t="s">
-        <v>291</v>
-      </c>
       <c r="J41" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="K41" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>289</v>
+      </c>
+      <c r="B42" t="s">
+        <v>283</v>
+      </c>
+      <c r="C42" t="s">
+        <v>290</v>
+      </c>
+      <c r="D42" t="s">
+        <v>291</v>
+      </c>
+      <c r="E42" t="s">
+        <v>169</v>
+      </c>
+      <c r="F42" t="s">
         <v>292</v>
       </c>
-      <c r="B42" t="s">
-        <v>280</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="G42" t="s">
+        <v>43</v>
+      </c>
+      <c r="H42" t="s">
         <v>293</v>
       </c>
-      <c r="D42" t="s">
-        <v>288</v>
-      </c>
-      <c r="E42" t="s">
-        <v>165</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="I42" t="s">
         <v>294</v>
       </c>
-      <c r="G42" t="s">
-        <v>36</v>
-      </c>
-      <c r="H42" t="s">
-        <v>295</v>
-      </c>
-      <c r="I42" t="s">
-        <v>296</v>
-      </c>
       <c r="J42" t="s">
-        <v>176</v>
+        <v>46</v>
       </c>
       <c r="K42" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>295</v>
+      </c>
+      <c r="B43" t="s">
+        <v>283</v>
+      </c>
+      <c r="C43" t="s">
+        <v>296</v>
+      </c>
+      <c r="D43" t="s">
+        <v>291</v>
+      </c>
+      <c r="E43" t="s">
+        <v>169</v>
+      </c>
+      <c r="F43" t="s">
         <v>297</v>
       </c>
-      <c r="B43" t="s">
+      <c r="G43" t="s">
+        <v>43</v>
+      </c>
+      <c r="H43" t="s">
         <v>298</v>
       </c>
-      <c r="C43" t="s">
+      <c r="I43" t="s">
         <v>299</v>
       </c>
-      <c r="D43" t="s">
-        <v>300</v>
-      </c>
-      <c r="E43" t="s">
-        <v>301</v>
-      </c>
-      <c r="F43" t="s">
-        <v>302</v>
-      </c>
-      <c r="G43" t="s">
-        <v>36</v>
-      </c>
-      <c r="H43" t="s">
-        <v>303</v>
-      </c>
-      <c r="I43" t="s">
-        <v>304</v>
-      </c>
       <c r="J43" t="s">
-        <v>305</v>
+        <v>181</v>
       </c>
       <c r="K43" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>300</v>
+      </c>
+      <c r="B44" t="s">
+        <v>301</v>
+      </c>
+      <c r="C44" t="s">
+        <v>302</v>
+      </c>
+      <c r="D44" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" t="s">
+        <v>303</v>
+      </c>
+      <c r="F44" t="s">
+        <v>304</v>
+      </c>
+      <c r="G44" t="s">
+        <v>43</v>
+      </c>
+      <c r="H44" t="s">
+        <v>305</v>
+      </c>
+      <c r="I44" t="s">
         <v>306</v>
       </c>
-      <c r="B44" t="s">
-        <v>298</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="J44" t="s">
         <v>307</v>
       </c>
-      <c r="D44" t="s">
-        <v>300</v>
-      </c>
-      <c r="E44" t="s">
-        <v>71</v>
-      </c>
-      <c r="F44" t="s">
-        <v>308</v>
-      </c>
-      <c r="G44" t="s">
-        <v>36</v>
-      </c>
-      <c r="H44" t="s">
-        <v>309</v>
-      </c>
-      <c r="I44" t="s">
-        <v>310</v>
-      </c>
-      <c r="J44" t="s">
-        <v>66</v>
-      </c>
       <c r="K44" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>308</v>
+      </c>
+      <c r="B45" t="s">
+        <v>301</v>
+      </c>
+      <c r="C45" t="s">
+        <v>309</v>
+      </c>
+      <c r="D45" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" t="s">
+        <v>310</v>
+      </c>
+      <c r="G45" t="s">
+        <v>43</v>
+      </c>
+      <c r="H45" t="s">
         <v>311</v>
       </c>
-      <c r="B45" t="s">
+      <c r="I45" t="s">
         <v>312</v>
       </c>
-      <c r="C45" t="s">
-        <v>313</v>
-      </c>
-      <c r="D45" t="s">
-        <v>300</v>
-      </c>
-      <c r="E45" t="s">
-        <v>301</v>
-      </c>
-      <c r="F45" t="s">
-        <v>314</v>
-      </c>
-      <c r="G45" t="s">
-        <v>36</v>
-      </c>
-      <c r="H45" t="s">
-        <v>315</v>
-      </c>
-      <c r="I45" t="s">
-        <v>316</v>
-      </c>
       <c r="J45" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="K45" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>313</v>
+      </c>
+      <c r="B46" t="s">
+        <v>314</v>
+      </c>
+      <c r="C46" t="s">
+        <v>315</v>
+      </c>
+      <c r="D46" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" t="s">
+        <v>303</v>
+      </c>
+      <c r="F46" t="s">
+        <v>316</v>
+      </c>
+      <c r="G46" t="s">
+        <v>43</v>
+      </c>
+      <c r="H46" t="s">
         <v>317</v>
       </c>
-      <c r="B46" t="s">
-        <v>312</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="I46" t="s">
         <v>318</v>
       </c>
-      <c r="D46" t="s">
-        <v>94</v>
-      </c>
-      <c r="E46" t="s">
-        <v>319</v>
-      </c>
-      <c r="F46" t="s">
-        <v>320</v>
-      </c>
-      <c r="G46" t="s">
-        <v>36</v>
-      </c>
-      <c r="H46" t="s">
-        <v>321</v>
-      </c>
-      <c r="I46" t="s">
-        <v>322</v>
-      </c>
       <c r="J46" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="K46" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>319</v>
+      </c>
+      <c r="B47" t="s">
+        <v>314</v>
+      </c>
+      <c r="C47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D47" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" t="s">
+        <v>321</v>
+      </c>
+      <c r="F47" t="s">
+        <v>322</v>
+      </c>
+      <c r="G47" t="s">
+        <v>43</v>
+      </c>
+      <c r="H47" t="s">
         <v>323</v>
       </c>
-      <c r="B47" t="s">
+      <c r="I47" t="s">
         <v>324</v>
       </c>
-      <c r="C47" t="s">
-        <v>325</v>
-      </c>
-      <c r="D47" t="s">
-        <v>94</v>
-      </c>
-      <c r="E47" t="s">
-        <v>301</v>
-      </c>
-      <c r="F47" t="s">
-        <v>326</v>
-      </c>
-      <c r="G47" t="s">
-        <v>36</v>
-      </c>
-      <c r="H47" t="s">
-        <v>327</v>
-      </c>
-      <c r="I47" t="s">
-        <v>328</v>
-      </c>
       <c r="J47" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="K47" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>325</v>
+      </c>
+      <c r="B48" t="s">
+        <v>326</v>
+      </c>
+      <c r="C48" t="s">
+        <v>327</v>
+      </c>
+      <c r="D48" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" t="s">
+        <v>303</v>
+      </c>
+      <c r="F48" t="s">
+        <v>328</v>
+      </c>
+      <c r="G48" t="s">
+        <v>43</v>
+      </c>
+      <c r="H48" t="s">
         <v>329</v>
       </c>
-      <c r="B48" t="s">
+      <c r="I48" t="s">
         <v>330</v>
       </c>
-      <c r="C48" t="s">
-        <v>331</v>
-      </c>
-      <c r="D48" t="s">
-        <v>94</v>
-      </c>
-      <c r="E48" t="s">
-        <v>332</v>
-      </c>
-      <c r="F48" t="s">
-        <v>333</v>
-      </c>
-      <c r="G48" t="s">
-        <v>36</v>
-      </c>
-      <c r="H48" t="s">
-        <v>334</v>
-      </c>
-      <c r="I48" t="s">
-        <v>335</v>
-      </c>
       <c r="J48" t="s">
-        <v>305</v>
+        <v>46</v>
       </c>
       <c r="K48" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>331</v>
+      </c>
+      <c r="B49" t="s">
+        <v>332</v>
+      </c>
+      <c r="C49" t="s">
+        <v>333</v>
+      </c>
+      <c r="D49" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" t="s">
+        <v>334</v>
+      </c>
+      <c r="F49" t="s">
+        <v>335</v>
+      </c>
+      <c r="G49" t="s">
+        <v>43</v>
+      </c>
+      <c r="H49" t="s">
         <v>336</v>
       </c>
-      <c r="B49" t="s">
+      <c r="I49" t="s">
         <v>337</v>
       </c>
-      <c r="C49" t="s">
-        <v>338</v>
-      </c>
-      <c r="D49" t="s">
-        <v>339</v>
-      </c>
-      <c r="E49" t="s">
-        <v>340</v>
-      </c>
-      <c r="F49" t="s">
-        <v>341</v>
-      </c>
-      <c r="G49" t="s">
-        <v>197</v>
-      </c>
-      <c r="H49" t="s">
-        <v>342</v>
-      </c>
-      <c r="I49" t="s">
-        <v>343</v>
-      </c>
       <c r="J49" t="s">
-        <v>20</v>
+        <v>307</v>
       </c>
       <c r="K49" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>338</v>
+      </c>
+      <c r="B50" t="s">
+        <v>339</v>
+      </c>
+      <c r="C50" t="s">
+        <v>340</v>
+      </c>
+      <c r="D50" t="s">
+        <v>341</v>
+      </c>
+      <c r="E50" t="s">
+        <v>342</v>
+      </c>
+      <c r="F50" t="s">
+        <v>343</v>
+      </c>
+      <c r="G50" t="s">
+        <v>202</v>
+      </c>
+      <c r="H50" t="s">
         <v>344</v>
       </c>
-      <c r="B50" t="s">
+      <c r="I50" t="s">
         <v>345</v>
       </c>
-      <c r="C50" t="s">
-        <v>346</v>
-      </c>
-      <c r="D50" t="s">
-        <v>268</v>
-      </c>
-      <c r="E50" t="s">
-        <v>347</v>
-      </c>
-      <c r="F50" t="s">
-        <v>348</v>
-      </c>
-      <c r="G50" t="s">
-        <v>36</v>
-      </c>
-      <c r="H50" t="s">
-        <v>349</v>
-      </c>
-      <c r="I50" t="s">
-        <v>350</v>
-      </c>
       <c r="J50" t="s">
-        <v>351</v>
+        <v>20</v>
       </c>
       <c r="K50" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>346</v>
+      </c>
+      <c r="B51" t="s">
+        <v>347</v>
+      </c>
+      <c r="C51" t="s">
+        <v>348</v>
+      </c>
+      <c r="D51" t="s">
+        <v>105</v>
+      </c>
+      <c r="E51" t="s">
+        <v>349</v>
+      </c>
+      <c r="F51" t="s">
+        <v>350</v>
+      </c>
+      <c r="G51" t="s">
+        <v>43</v>
+      </c>
+      <c r="H51" t="s">
+        <v>351</v>
+      </c>
+      <c r="I51" t="s">
         <v>352</v>
       </c>
-      <c r="B51" t="s">
+      <c r="J51" t="s">
         <v>353</v>
       </c>
-      <c r="C51" t="s">
-        <v>354</v>
-      </c>
-      <c r="D51" t="s">
-        <v>355</v>
-      </c>
-      <c r="E51" t="s">
-        <v>165</v>
-      </c>
-      <c r="F51" t="s">
-        <v>356</v>
-      </c>
-      <c r="G51" t="s">
-        <v>197</v>
-      </c>
-      <c r="H51" t="s">
-        <v>357</v>
-      </c>
-      <c r="I51" t="s">
-        <v>358</v>
-      </c>
-      <c r="J51" t="s">
-        <v>20</v>
-      </c>
       <c r="K51" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>354</v>
+      </c>
+      <c r="B52" t="s">
+        <v>355</v>
+      </c>
+      <c r="C52" t="s">
+        <v>356</v>
+      </c>
+      <c r="D52" t="s">
+        <v>357</v>
+      </c>
+      <c r="E52" t="s">
+        <v>169</v>
+      </c>
+      <c r="F52" t="s">
+        <v>358</v>
+      </c>
+      <c r="G52" t="s">
+        <v>202</v>
+      </c>
+      <c r="H52" t="s">
         <v>359</v>
       </c>
-      <c r="B52" t="s">
+      <c r="I52" t="s">
         <v>360</v>
-      </c>
-      <c r="C52" t="s">
-        <v>361</v>
-      </c>
-      <c r="D52" t="s">
-        <v>362</v>
-      </c>
-      <c r="E52" t="s">
-        <v>237</v>
-      </c>
-      <c r="F52" t="s">
-        <v>363</v>
-      </c>
-      <c r="G52" t="s">
-        <v>197</v>
-      </c>
-      <c r="H52" t="s">
-        <v>364</v>
-      </c>
-      <c r="I52" t="s">
-        <v>365</v>
       </c>
       <c r="J52" t="s">
         <v>20</v>
@@ -4014,171 +3981,171 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>361</v>
+      </c>
+      <c r="B53" t="s">
+        <v>362</v>
+      </c>
+      <c r="C53" t="s">
+        <v>363</v>
+      </c>
+      <c r="D53" t="s">
+        <v>364</v>
+      </c>
+      <c r="E53" t="s">
+        <v>241</v>
+      </c>
+      <c r="F53" t="s">
+        <v>365</v>
+      </c>
+      <c r="G53" t="s">
+        <v>202</v>
+      </c>
+      <c r="H53" t="s">
         <v>366</v>
       </c>
-      <c r="B53" t="s">
+      <c r="I53" t="s">
         <v>367</v>
       </c>
-      <c r="C53" t="s">
-        <v>368</v>
-      </c>
-      <c r="D53" t="s">
-        <v>369</v>
-      </c>
-      <c r="E53" t="s">
-        <v>301</v>
-      </c>
-      <c r="F53" t="s">
-        <v>370</v>
-      </c>
-      <c r="G53" t="s">
-        <v>36</v>
-      </c>
-      <c r="H53" t="s">
-        <v>371</v>
-      </c>
-      <c r="I53" t="s">
-        <v>372</v>
-      </c>
       <c r="J53" t="s">
-        <v>305</v>
+        <v>20</v>
       </c>
       <c r="K53" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>368</v>
+      </c>
+      <c r="B54" t="s">
+        <v>369</v>
+      </c>
+      <c r="C54" t="s">
+        <v>370</v>
+      </c>
+      <c r="D54" t="s">
+        <v>371</v>
+      </c>
+      <c r="E54" t="s">
+        <v>303</v>
+      </c>
+      <c r="F54" t="s">
+        <v>372</v>
+      </c>
+      <c r="G54" t="s">
+        <v>43</v>
+      </c>
+      <c r="H54" t="s">
         <v>373</v>
       </c>
-      <c r="B54" t="s">
+      <c r="I54" t="s">
         <v>374</v>
       </c>
-      <c r="C54" t="s">
-        <v>375</v>
-      </c>
-      <c r="D54" t="s">
-        <v>129</v>
-      </c>
-      <c r="E54" t="s">
-        <v>188</v>
-      </c>
-      <c r="F54" t="s">
-        <v>376</v>
-      </c>
-      <c r="G54" t="s">
-        <v>36</v>
-      </c>
-      <c r="H54" t="s">
-        <v>64</v>
-      </c>
-      <c r="I54" t="s">
-        <v>377</v>
-      </c>
       <c r="J54" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K54" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>375</v>
+      </c>
+      <c r="B55" t="s">
+        <v>376</v>
+      </c>
+      <c r="C55" t="s">
+        <v>377</v>
+      </c>
+      <c r="D55" t="s">
+        <v>141</v>
+      </c>
+      <c r="E55" t="s">
+        <v>193</v>
+      </c>
+      <c r="F55" t="s">
         <v>378</v>
       </c>
-      <c r="B55" t="s">
+      <c r="G55" t="s">
+        <v>43</v>
+      </c>
+      <c r="H55" t="s">
+        <v>73</v>
+      </c>
+      <c r="I55" t="s">
         <v>379</v>
       </c>
-      <c r="C55" t="s">
-        <v>380</v>
-      </c>
-      <c r="D55" t="s">
-        <v>108</v>
-      </c>
-      <c r="E55" t="s">
-        <v>381</v>
-      </c>
-      <c r="F55" t="s">
-        <v>382</v>
-      </c>
-      <c r="G55" t="s">
-        <v>36</v>
-      </c>
-      <c r="H55" t="s">
-        <v>383</v>
-      </c>
-      <c r="I55" t="s">
-        <v>384</v>
-      </c>
       <c r="J55" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K55" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>380</v>
+      </c>
+      <c r="B56" t="s">
+        <v>381</v>
+      </c>
+      <c r="C56" t="s">
+        <v>382</v>
+      </c>
+      <c r="D56" t="s">
+        <v>120</v>
+      </c>
+      <c r="E56" t="s">
+        <v>383</v>
+      </c>
+      <c r="F56" t="s">
+        <v>384</v>
+      </c>
+      <c r="G56" t="s">
+        <v>43</v>
+      </c>
+      <c r="H56" t="s">
         <v>385</v>
       </c>
-      <c r="B56" t="s">
+      <c r="I56" t="s">
         <v>386</v>
       </c>
-      <c r="C56" t="s">
-        <v>387</v>
-      </c>
-      <c r="D56" t="s">
-        <v>388</v>
-      </c>
-      <c r="E56" t="s">
-        <v>237</v>
-      </c>
-      <c r="F56" t="s">
-        <v>389</v>
-      </c>
-      <c r="G56" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" t="s">
-        <v>390</v>
-      </c>
-      <c r="I56" t="s">
-        <v>391</v>
-      </c>
       <c r="J56" t="s">
-        <v>20</v>
+        <v>307</v>
       </c>
       <c r="K56" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>387</v>
+      </c>
+      <c r="B57" t="s">
+        <v>388</v>
+      </c>
+      <c r="C57" t="s">
+        <v>389</v>
+      </c>
+      <c r="D57" t="s">
+        <v>390</v>
+      </c>
+      <c r="E57" t="s">
+        <v>241</v>
+      </c>
+      <c r="F57" t="s">
+        <v>391</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" t="s">
         <v>392</v>
       </c>
-      <c r="B57" t="s">
+      <c r="I57" t="s">
         <v>393</v>
-      </c>
-      <c r="C57" t="s">
-        <v>394</v>
-      </c>
-      <c r="D57" t="s">
-        <v>362</v>
-      </c>
-      <c r="E57" t="s">
-        <v>87</v>
-      </c>
-      <c r="F57" t="s">
-        <v>395</v>
-      </c>
-      <c r="G57" t="s">
-        <v>197</v>
-      </c>
-      <c r="H57" t="s">
-        <v>396</v>
-      </c>
-      <c r="I57" t="s">
-        <v>397</v>
       </c>
       <c r="J57" t="s">
         <v>20</v>
@@ -4189,31 +4156,31 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>394</v>
+      </c>
+      <c r="B58" t="s">
+        <v>395</v>
+      </c>
+      <c r="C58" t="s">
+        <v>396</v>
+      </c>
+      <c r="D58" t="s">
+        <v>364</v>
+      </c>
+      <c r="E58" t="s">
+        <v>93</v>
+      </c>
+      <c r="F58" t="s">
+        <v>397</v>
+      </c>
+      <c r="G58" t="s">
+        <v>202</v>
+      </c>
+      <c r="H58" t="s">
         <v>398</v>
       </c>
-      <c r="B58" t="s">
+      <c r="I58" t="s">
         <v>399</v>
-      </c>
-      <c r="C58" t="s">
-        <v>400</v>
-      </c>
-      <c r="D58" t="s">
-        <v>401</v>
-      </c>
-      <c r="E58" t="s">
-        <v>402</v>
-      </c>
-      <c r="F58" t="s">
-        <v>403</v>
-      </c>
-      <c r="G58" t="s">
-        <v>44</v>
-      </c>
-      <c r="H58" t="s">
-        <v>404</v>
-      </c>
-      <c r="I58" t="s">
-        <v>405</v>
       </c>
       <c r="J58" t="s">
         <v>20</v>
@@ -4224,31 +4191,31 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>400</v>
+      </c>
+      <c r="B59" t="s">
+        <v>401</v>
+      </c>
+      <c r="C59" t="s">
+        <v>402</v>
+      </c>
+      <c r="D59" t="s">
+        <v>403</v>
+      </c>
+      <c r="E59" t="s">
+        <v>404</v>
+      </c>
+      <c r="F59" t="s">
+        <v>405</v>
+      </c>
+      <c r="G59" t="s">
+        <v>53</v>
+      </c>
+      <c r="H59" t="s">
         <v>406</v>
       </c>
-      <c r="B59" t="s">
+      <c r="I59" t="s">
         <v>407</v>
-      </c>
-      <c r="C59" t="s">
-        <v>408</v>
-      </c>
-      <c r="D59" t="s">
-        <v>409</v>
-      </c>
-      <c r="E59" t="s">
-        <v>135</v>
-      </c>
-      <c r="F59" t="s">
-        <v>410</v>
-      </c>
-      <c r="G59" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" t="s">
-        <v>357</v>
-      </c>
-      <c r="I59" t="s">
-        <v>411</v>
       </c>
       <c r="J59" t="s">
         <v>20</v>
@@ -4259,1116 +4226,1116 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>408</v>
+      </c>
+      <c r="B60" t="s">
+        <v>409</v>
+      </c>
+      <c r="C60" t="s">
+        <v>410</v>
+      </c>
+      <c r="D60" t="s">
+        <v>411</v>
+      </c>
+      <c r="E60" t="s">
+        <v>147</v>
+      </c>
+      <c r="F60" t="s">
         <v>412</v>
       </c>
-      <c r="B60" t="s">
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" t="s">
+        <v>359</v>
+      </c>
+      <c r="I60" t="s">
         <v>413</v>
       </c>
-      <c r="C60" t="s">
-        <v>414</v>
-      </c>
-      <c r="D60" t="s">
-        <v>56</v>
-      </c>
-      <c r="E60" t="s">
-        <v>415</v>
-      </c>
-      <c r="F60" t="s">
-        <v>416</v>
-      </c>
-      <c r="G60" t="s">
-        <v>36</v>
-      </c>
-      <c r="H60" t="s">
-        <v>417</v>
-      </c>
-      <c r="I60" t="s">
-        <v>418</v>
-      </c>
       <c r="J60" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="K60" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>414</v>
+      </c>
+      <c r="B61" t="s">
+        <v>415</v>
+      </c>
+      <c r="C61" t="s">
+        <v>416</v>
+      </c>
+      <c r="D61" t="s">
+        <v>65</v>
+      </c>
+      <c r="E61" t="s">
+        <v>417</v>
+      </c>
+      <c r="F61" t="s">
+        <v>418</v>
+      </c>
+      <c r="G61" t="s">
+        <v>43</v>
+      </c>
+      <c r="H61" t="s">
         <v>419</v>
       </c>
-      <c r="B61" t="s">
-        <v>413</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="I61" t="s">
         <v>420</v>
       </c>
-      <c r="D61" t="s">
-        <v>108</v>
-      </c>
-      <c r="E61" t="s">
-        <v>415</v>
-      </c>
-      <c r="F61" t="s">
-        <v>421</v>
-      </c>
-      <c r="G61" t="s">
-        <v>36</v>
-      </c>
-      <c r="H61" t="s">
-        <v>417</v>
-      </c>
-      <c r="I61" t="s">
-        <v>422</v>
-      </c>
       <c r="J61" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="K61" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>421</v>
+      </c>
+      <c r="B62" t="s">
+        <v>415</v>
+      </c>
+      <c r="C62" t="s">
+        <v>422</v>
+      </c>
+      <c r="D62" t="s">
+        <v>120</v>
+      </c>
+      <c r="E62" t="s">
+        <v>417</v>
+      </c>
+      <c r="F62" t="s">
         <v>423</v>
       </c>
-      <c r="B62" t="s">
+      <c r="G62" t="s">
+        <v>43</v>
+      </c>
+      <c r="H62" t="s">
+        <v>419</v>
+      </c>
+      <c r="I62" t="s">
         <v>424</v>
       </c>
-      <c r="C62" t="s">
-        <v>425</v>
-      </c>
-      <c r="D62" t="s">
-        <v>108</v>
-      </c>
-      <c r="E62" t="s">
-        <v>157</v>
-      </c>
-      <c r="F62" t="s">
-        <v>426</v>
-      </c>
-      <c r="G62" t="s">
-        <v>36</v>
-      </c>
-      <c r="H62" t="s">
-        <v>427</v>
-      </c>
-      <c r="I62" t="s">
-        <v>428</v>
-      </c>
       <c r="J62" t="s">
-        <v>305</v>
+        <v>181</v>
       </c>
       <c r="K62" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>425</v>
+      </c>
+      <c r="B63" t="s">
+        <v>426</v>
+      </c>
+      <c r="C63" t="s">
+        <v>427</v>
+      </c>
+      <c r="D63" t="s">
+        <v>120</v>
+      </c>
+      <c r="E63" t="s">
+        <v>161</v>
+      </c>
+      <c r="F63" t="s">
+        <v>428</v>
+      </c>
+      <c r="G63" t="s">
+        <v>43</v>
+      </c>
+      <c r="H63" t="s">
         <v>429</v>
       </c>
-      <c r="B63" t="s">
+      <c r="I63" t="s">
         <v>430</v>
       </c>
-      <c r="C63" t="s">
-        <v>431</v>
-      </c>
-      <c r="D63" t="s">
-        <v>108</v>
-      </c>
-      <c r="E63" t="s">
-        <v>381</v>
-      </c>
-      <c r="F63" t="s">
-        <v>432</v>
-      </c>
-      <c r="G63" t="s">
-        <v>36</v>
-      </c>
-      <c r="H63" t="s">
-        <v>433</v>
-      </c>
-      <c r="I63" t="s">
-        <v>328</v>
-      </c>
       <c r="J63" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K63" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>431</v>
+      </c>
+      <c r="B64" t="s">
+        <v>432</v>
+      </c>
+      <c r="C64" t="s">
+        <v>433</v>
+      </c>
+      <c r="D64" t="s">
+        <v>120</v>
+      </c>
+      <c r="E64" t="s">
+        <v>383</v>
+      </c>
+      <c r="F64" t="s">
         <v>434</v>
       </c>
-      <c r="B64" t="s">
+      <c r="G64" t="s">
+        <v>43</v>
+      </c>
+      <c r="H64" t="s">
         <v>435</v>
       </c>
-      <c r="C64" t="s">
-        <v>436</v>
-      </c>
-      <c r="D64" t="s">
-        <v>437</v>
-      </c>
-      <c r="E64" t="s">
-        <v>188</v>
-      </c>
-      <c r="F64" t="s">
-        <v>438</v>
-      </c>
-      <c r="G64" t="s">
-        <v>44</v>
-      </c>
-      <c r="H64" t="s">
-        <v>439</v>
-      </c>
       <c r="I64" t="s">
-        <v>440</v>
+        <v>330</v>
       </c>
       <c r="J64" t="s">
-        <v>351</v>
+        <v>307</v>
       </c>
       <c r="K64" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>436</v>
+      </c>
+      <c r="B65" t="s">
+        <v>437</v>
+      </c>
+      <c r="C65" t="s">
+        <v>438</v>
+      </c>
+      <c r="D65" t="s">
+        <v>439</v>
+      </c>
+      <c r="E65" t="s">
+        <v>193</v>
+      </c>
+      <c r="F65" t="s">
+        <v>440</v>
+      </c>
+      <c r="G65" t="s">
+        <v>53</v>
+      </c>
+      <c r="H65" t="s">
         <v>441</v>
       </c>
-      <c r="B65" t="s">
+      <c r="I65" t="s">
         <v>442</v>
       </c>
-      <c r="C65" t="s">
-        <v>443</v>
-      </c>
-      <c r="D65" t="s">
-        <v>282</v>
-      </c>
-      <c r="E65" t="s">
-        <v>188</v>
-      </c>
-      <c r="F65" t="s">
-        <v>444</v>
-      </c>
-      <c r="G65" t="s">
-        <v>36</v>
-      </c>
-      <c r="H65" t="s">
-        <v>445</v>
-      </c>
-      <c r="I65" t="s">
-        <v>446</v>
-      </c>
       <c r="J65" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K65" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>443</v>
+      </c>
+      <c r="B66" t="s">
+        <v>444</v>
+      </c>
+      <c r="C66" t="s">
+        <v>445</v>
+      </c>
+      <c r="D66" t="s">
+        <v>285</v>
+      </c>
+      <c r="E66" t="s">
+        <v>193</v>
+      </c>
+      <c r="F66" t="s">
+        <v>446</v>
+      </c>
+      <c r="G66" t="s">
+        <v>43</v>
+      </c>
+      <c r="H66" t="s">
         <v>447</v>
       </c>
-      <c r="B66" t="s">
+      <c r="I66" t="s">
         <v>448</v>
       </c>
-      <c r="C66" t="s">
-        <v>449</v>
-      </c>
-      <c r="D66" t="s">
-        <v>33</v>
-      </c>
-      <c r="E66" t="s">
-        <v>34</v>
-      </c>
-      <c r="F66" t="s">
-        <v>450</v>
-      </c>
-      <c r="G66" t="s">
-        <v>36</v>
-      </c>
-      <c r="H66" t="s">
-        <v>451</v>
-      </c>
-      <c r="I66" t="s">
-        <v>452</v>
-      </c>
       <c r="J66" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K66" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>449</v>
+      </c>
+      <c r="B67" t="s">
+        <v>450</v>
+      </c>
+      <c r="C67" t="s">
+        <v>451</v>
+      </c>
+      <c r="D67" t="s">
+        <v>40</v>
+      </c>
+      <c r="E67" t="s">
+        <v>41</v>
+      </c>
+      <c r="F67" t="s">
+        <v>452</v>
+      </c>
+      <c r="G67" t="s">
+        <v>43</v>
+      </c>
+      <c r="H67" t="s">
         <v>453</v>
       </c>
-      <c r="B67" t="s">
+      <c r="I67" t="s">
         <v>454</v>
       </c>
-      <c r="C67" t="s">
-        <v>455</v>
-      </c>
-      <c r="D67" t="s">
-        <v>94</v>
-      </c>
-      <c r="E67" t="s">
-        <v>456</v>
-      </c>
-      <c r="F67" t="s">
-        <v>457</v>
-      </c>
-      <c r="G67" t="s">
-        <v>36</v>
-      </c>
-      <c r="H67" t="s">
-        <v>458</v>
-      </c>
-      <c r="I67" t="s">
-        <v>459</v>
-      </c>
       <c r="J67" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="K67" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>455</v>
+      </c>
+      <c r="B68" t="s">
+        <v>456</v>
+      </c>
+      <c r="C68" t="s">
+        <v>457</v>
+      </c>
+      <c r="D68" t="s">
+        <v>92</v>
+      </c>
+      <c r="E68" t="s">
+        <v>458</v>
+      </c>
+      <c r="F68" t="s">
+        <v>459</v>
+      </c>
+      <c r="G68" t="s">
+        <v>43</v>
+      </c>
+      <c r="H68" t="s">
         <v>460</v>
       </c>
-      <c r="B68" t="s">
+      <c r="I68" t="s">
         <v>461</v>
       </c>
-      <c r="C68" t="s">
-        <v>462</v>
-      </c>
-      <c r="D68" t="s">
-        <v>108</v>
-      </c>
-      <c r="E68" t="s">
-        <v>157</v>
-      </c>
-      <c r="F68" t="s">
-        <v>463</v>
-      </c>
-      <c r="G68" t="s">
-        <v>36</v>
-      </c>
-      <c r="H68" t="s">
-        <v>464</v>
-      </c>
-      <c r="I68" t="s">
-        <v>465</v>
-      </c>
       <c r="J68" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K68" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>462</v>
+      </c>
+      <c r="B69" t="s">
+        <v>463</v>
+      </c>
+      <c r="C69" t="s">
+        <v>464</v>
+      </c>
+      <c r="D69" t="s">
+        <v>120</v>
+      </c>
+      <c r="E69" t="s">
+        <v>161</v>
+      </c>
+      <c r="F69" t="s">
+        <v>465</v>
+      </c>
+      <c r="G69" t="s">
+        <v>43</v>
+      </c>
+      <c r="H69" t="s">
         <v>466</v>
       </c>
-      <c r="B69" t="s">
-        <v>461</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="I69" t="s">
         <v>467</v>
       </c>
-      <c r="D69" t="s">
-        <v>229</v>
-      </c>
-      <c r="E69" t="s">
-        <v>415</v>
-      </c>
-      <c r="F69" t="s">
-        <v>468</v>
-      </c>
-      <c r="G69" t="s">
-        <v>36</v>
-      </c>
-      <c r="H69" t="s">
-        <v>469</v>
-      </c>
-      <c r="I69" t="s">
-        <v>470</v>
-      </c>
       <c r="J69" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K69" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>468</v>
+      </c>
+      <c r="B70" t="s">
+        <v>463</v>
+      </c>
+      <c r="C70" t="s">
+        <v>469</v>
+      </c>
+      <c r="D70" t="s">
+        <v>234</v>
+      </c>
+      <c r="E70" t="s">
+        <v>417</v>
+      </c>
+      <c r="F70" t="s">
+        <v>470</v>
+      </c>
+      <c r="G70" t="s">
+        <v>43</v>
+      </c>
+      <c r="H70" t="s">
         <v>471</v>
       </c>
-      <c r="B70" t="s">
+      <c r="I70" t="s">
         <v>472</v>
       </c>
-      <c r="C70" t="s">
-        <v>473</v>
-      </c>
-      <c r="D70" t="s">
-        <v>288</v>
-      </c>
-      <c r="E70" t="s">
-        <v>332</v>
-      </c>
-      <c r="F70" t="s">
-        <v>474</v>
-      </c>
-      <c r="G70" t="s">
-        <v>36</v>
-      </c>
-      <c r="H70" t="s">
-        <v>124</v>
-      </c>
-      <c r="I70" t="s">
-        <v>475</v>
-      </c>
       <c r="J70" t="s">
-        <v>66</v>
+        <v>307</v>
       </c>
       <c r="K70" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>473</v>
+      </c>
+      <c r="B71" t="s">
+        <v>474</v>
+      </c>
+      <c r="C71" t="s">
+        <v>475</v>
+      </c>
+      <c r="D71" t="s">
+        <v>291</v>
+      </c>
+      <c r="E71" t="s">
+        <v>334</v>
+      </c>
+      <c r="F71" t="s">
         <v>476</v>
       </c>
-      <c r="B71" t="s">
+      <c r="G71" t="s">
+        <v>43</v>
+      </c>
+      <c r="H71" t="s">
+        <v>136</v>
+      </c>
+      <c r="I71" t="s">
         <v>477</v>
       </c>
-      <c r="C71" t="s">
-        <v>478</v>
-      </c>
-      <c r="D71" t="s">
-        <v>479</v>
-      </c>
-      <c r="E71" t="s">
-        <v>480</v>
-      </c>
-      <c r="F71" t="s">
-        <v>481</v>
-      </c>
-      <c r="G71" t="s">
-        <v>17</v>
-      </c>
-      <c r="H71" t="s">
-        <v>252</v>
-      </c>
-      <c r="I71" t="s">
-        <v>482</v>
-      </c>
       <c r="J71" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="K71" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>478</v>
+      </c>
+      <c r="B72" t="s">
+        <v>479</v>
+      </c>
+      <c r="C72" t="s">
+        <v>480</v>
+      </c>
+      <c r="D72" t="s">
+        <v>481</v>
+      </c>
+      <c r="E72" t="s">
+        <v>482</v>
+      </c>
+      <c r="F72" t="s">
         <v>483</v>
       </c>
-      <c r="B72" t="s">
+      <c r="G72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" t="s">
+        <v>256</v>
+      </c>
+      <c r="I72" t="s">
         <v>484</v>
       </c>
-      <c r="C72" t="s">
-        <v>485</v>
-      </c>
-      <c r="D72" t="s">
-        <v>94</v>
-      </c>
-      <c r="E72" t="s">
-        <v>172</v>
-      </c>
-      <c r="F72" t="s">
-        <v>486</v>
-      </c>
-      <c r="G72" t="s">
-        <v>36</v>
-      </c>
-      <c r="H72" t="s">
-        <v>487</v>
-      </c>
-      <c r="I72" t="s">
-        <v>488</v>
-      </c>
       <c r="J72" t="s">
-        <v>305</v>
+        <v>20</v>
       </c>
       <c r="K72" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>485</v>
+      </c>
+      <c r="B73" t="s">
+        <v>486</v>
+      </c>
+      <c r="C73" t="s">
+        <v>487</v>
+      </c>
+      <c r="D73" t="s">
+        <v>92</v>
+      </c>
+      <c r="E73" t="s">
+        <v>177</v>
+      </c>
+      <c r="F73" t="s">
+        <v>488</v>
+      </c>
+      <c r="G73" t="s">
+        <v>43</v>
+      </c>
+      <c r="H73" t="s">
         <v>489</v>
       </c>
-      <c r="B73" t="s">
-        <v>484</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="I73" t="s">
         <v>490</v>
       </c>
-      <c r="D73" t="s">
-        <v>268</v>
-      </c>
-      <c r="E73" t="s">
-        <v>172</v>
-      </c>
-      <c r="F73" t="s">
-        <v>491</v>
-      </c>
-      <c r="G73" t="s">
-        <v>36</v>
-      </c>
-      <c r="H73" t="s">
-        <v>492</v>
-      </c>
-      <c r="I73" t="s">
-        <v>493</v>
-      </c>
       <c r="J73" t="s">
-        <v>66</v>
+        <v>307</v>
       </c>
       <c r="K73" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>491</v>
+      </c>
+      <c r="B74" t="s">
+        <v>486</v>
+      </c>
+      <c r="C74" t="s">
+        <v>492</v>
+      </c>
+      <c r="D74" t="s">
+        <v>105</v>
+      </c>
+      <c r="E74" t="s">
+        <v>177</v>
+      </c>
+      <c r="F74" t="s">
+        <v>493</v>
+      </c>
+      <c r="G74" t="s">
+        <v>43</v>
+      </c>
+      <c r="H74" t="s">
         <v>494</v>
       </c>
-      <c r="B74" t="s">
+      <c r="I74" t="s">
         <v>495</v>
       </c>
-      <c r="C74" t="s">
-        <v>496</v>
-      </c>
-      <c r="D74" t="s">
-        <v>497</v>
-      </c>
-      <c r="E74" t="s">
-        <v>26</v>
-      </c>
-      <c r="F74" t="s">
-        <v>498</v>
-      </c>
-      <c r="G74" t="s">
-        <v>36</v>
-      </c>
-      <c r="H74" t="s">
-        <v>499</v>
-      </c>
-      <c r="I74" t="s">
-        <v>500</v>
-      </c>
       <c r="J74" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="K74" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>496</v>
+      </c>
+      <c r="B75" t="s">
+        <v>497</v>
+      </c>
+      <c r="C75" t="s">
+        <v>498</v>
+      </c>
+      <c r="D75" t="s">
+        <v>499</v>
+      </c>
+      <c r="E75" t="s">
+        <v>26</v>
+      </c>
+      <c r="F75" t="s">
+        <v>500</v>
+      </c>
+      <c r="G75" t="s">
+        <v>43</v>
+      </c>
+      <c r="H75" t="s">
         <v>501</v>
       </c>
-      <c r="B75" t="s">
+      <c r="I75" t="s">
         <v>502</v>
       </c>
-      <c r="C75" t="s">
-        <v>503</v>
-      </c>
-      <c r="D75" t="s">
-        <v>504</v>
-      </c>
-      <c r="E75" t="s">
-        <v>87</v>
-      </c>
-      <c r="F75" t="s">
-        <v>505</v>
-      </c>
-      <c r="G75" t="s">
-        <v>36</v>
-      </c>
-      <c r="H75" t="s">
-        <v>506</v>
-      </c>
-      <c r="I75" t="s">
-        <v>507</v>
-      </c>
       <c r="J75" t="s">
-        <v>351</v>
+        <v>46</v>
       </c>
       <c r="K75" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>503</v>
+      </c>
+      <c r="B76" t="s">
+        <v>504</v>
+      </c>
+      <c r="C76" t="s">
+        <v>505</v>
+      </c>
+      <c r="D76" t="s">
+        <v>506</v>
+      </c>
+      <c r="E76" t="s">
+        <v>93</v>
+      </c>
+      <c r="F76" t="s">
+        <v>507</v>
+      </c>
+      <c r="G76" t="s">
+        <v>43</v>
+      </c>
+      <c r="H76" t="s">
         <v>508</v>
       </c>
-      <c r="B76" t="s">
+      <c r="I76" t="s">
         <v>509</v>
       </c>
-      <c r="C76" t="s">
-        <v>510</v>
-      </c>
-      <c r="D76" t="s">
-        <v>511</v>
-      </c>
-      <c r="E76" t="s">
-        <v>87</v>
-      </c>
-      <c r="F76" t="s">
-        <v>512</v>
-      </c>
-      <c r="G76" t="s">
-        <v>36</v>
-      </c>
-      <c r="H76" t="s">
-        <v>513</v>
-      </c>
-      <c r="I76" t="s">
-        <v>514</v>
-      </c>
       <c r="J76" t="s">
-        <v>66</v>
+        <v>353</v>
       </c>
       <c r="K76" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>510</v>
+      </c>
+      <c r="B77" t="s">
+        <v>511</v>
+      </c>
+      <c r="C77" t="s">
+        <v>512</v>
+      </c>
+      <c r="D77" t="s">
+        <v>513</v>
+      </c>
+      <c r="E77" t="s">
+        <v>93</v>
+      </c>
+      <c r="F77" t="s">
+        <v>514</v>
+      </c>
+      <c r="G77" t="s">
+        <v>43</v>
+      </c>
+      <c r="H77" t="s">
         <v>515</v>
       </c>
-      <c r="B77" t="s">
+      <c r="I77" t="s">
         <v>516</v>
       </c>
-      <c r="C77" t="s">
-        <v>517</v>
-      </c>
-      <c r="D77" t="s">
-        <v>518</v>
-      </c>
-      <c r="E77" t="s">
-        <v>172</v>
-      </c>
-      <c r="F77" t="s">
-        <v>519</v>
-      </c>
-      <c r="G77" t="s">
-        <v>17</v>
-      </c>
-      <c r="H77" t="s">
-        <v>520</v>
-      </c>
-      <c r="I77" t="s">
-        <v>521</v>
-      </c>
       <c r="J77" t="s">
-        <v>351</v>
+        <v>46</v>
       </c>
       <c r="K77" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>517</v>
+      </c>
+      <c r="B78" t="s">
+        <v>518</v>
+      </c>
+      <c r="C78" t="s">
+        <v>519</v>
+      </c>
+      <c r="D78" t="s">
+        <v>520</v>
+      </c>
+      <c r="E78" t="s">
+        <v>177</v>
+      </c>
+      <c r="F78" t="s">
+        <v>521</v>
+      </c>
+      <c r="G78" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" t="s">
         <v>522</v>
       </c>
-      <c r="B78" t="s">
+      <c r="I78" t="s">
         <v>523</v>
       </c>
-      <c r="C78" t="s">
-        <v>524</v>
-      </c>
-      <c r="D78" t="s">
-        <v>369</v>
-      </c>
-      <c r="E78" t="s">
-        <v>150</v>
-      </c>
-      <c r="F78" t="s">
-        <v>525</v>
-      </c>
-      <c r="G78" t="s">
-        <v>36</v>
-      </c>
-      <c r="H78" t="s">
-        <v>526</v>
-      </c>
-      <c r="I78" t="s">
-        <v>527</v>
-      </c>
       <c r="J78" t="s">
-        <v>66</v>
+        <v>353</v>
       </c>
       <c r="K78" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B79" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="C79" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D79" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E79" t="s">
-        <v>165</v>
+        <v>106</v>
       </c>
       <c r="F79" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="G79" t="s">
         <v>17</v>
       </c>
       <c r="H79" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="I79" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="J79" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K79" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B80" t="s">
         <v>529</v>
       </c>
       <c r="C80" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D80" t="s">
-        <v>25</v>
+        <v>371</v>
       </c>
       <c r="E80" t="s">
-        <v>480</v>
+        <v>106</v>
       </c>
       <c r="F80" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="G80" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H80" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="I80" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="J80" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="K80" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>534</v>
+      </c>
+      <c r="B81" t="s">
+        <v>535</v>
+      </c>
+      <c r="C81" t="s">
+        <v>536</v>
+      </c>
+      <c r="D81" t="s">
+        <v>364</v>
+      </c>
+      <c r="E81" t="s">
+        <v>169</v>
+      </c>
+      <c r="F81" t="s">
+        <v>537</v>
+      </c>
+      <c r="G81" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" t="s">
+        <v>538</v>
+      </c>
+      <c r="I81" t="s">
         <v>539</v>
       </c>
-      <c r="B81" t="s">
-        <v>529</v>
-      </c>
-      <c r="C81" t="s">
-        <v>540</v>
-      </c>
-      <c r="D81" t="s">
-        <v>369</v>
-      </c>
-      <c r="E81" t="s">
-        <v>188</v>
-      </c>
-      <c r="F81" t="s">
-        <v>525</v>
-      </c>
-      <c r="G81" t="s">
-        <v>36</v>
-      </c>
-      <c r="H81" t="s">
-        <v>541</v>
-      </c>
-      <c r="I81" t="s">
-        <v>542</v>
-      </c>
       <c r="J81" t="s">
-        <v>66</v>
+        <v>353</v>
       </c>
       <c r="K81" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>540</v>
+      </c>
+      <c r="B82" t="s">
+        <v>535</v>
+      </c>
+      <c r="C82" t="s">
+        <v>541</v>
+      </c>
+      <c r="D82" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" t="s">
+        <v>482</v>
+      </c>
+      <c r="F82" t="s">
+        <v>542</v>
+      </c>
+      <c r="G82" t="s">
+        <v>43</v>
+      </c>
+      <c r="H82" t="s">
         <v>543</v>
       </c>
-      <c r="B82" t="s">
+      <c r="I82" t="s">
         <v>544</v>
       </c>
-      <c r="C82" t="s">
-        <v>545</v>
-      </c>
-      <c r="D82" t="s">
-        <v>33</v>
-      </c>
-      <c r="E82" t="s">
-        <v>26</v>
-      </c>
-      <c r="F82" t="s">
-        <v>546</v>
-      </c>
-      <c r="G82" t="s">
-        <v>17</v>
-      </c>
-      <c r="H82" t="s">
-        <v>547</v>
-      </c>
-      <c r="I82" t="s">
-        <v>548</v>
-      </c>
       <c r="J82" t="s">
-        <v>351</v>
+        <v>46</v>
       </c>
       <c r="K82" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B83" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="C83" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D83" t="s">
-        <v>222</v>
+        <v>371</v>
       </c>
       <c r="E83" t="s">
-        <v>552</v>
+        <v>193</v>
       </c>
       <c r="F83" t="s">
-        <v>553</v>
+        <v>531</v>
       </c>
       <c r="G83" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H83" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="I83" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="J83" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="K83" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="B84" t="s">
         <v>550</v>
       </c>
       <c r="C84" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D84" t="s">
-        <v>558</v>
+        <v>40</v>
       </c>
       <c r="E84" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="F84" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="G84" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="H84" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="I84" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="J84" t="s">
-        <v>20</v>
+        <v>353</v>
       </c>
       <c r="K84" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="B85" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="C85" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="D85" t="s">
-        <v>56</v>
+        <v>227</v>
       </c>
       <c r="E85" t="s">
-        <v>34</v>
+        <v>558</v>
       </c>
       <c r="F85" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H85" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="I85" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="J85" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="K85" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B86" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="C86" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="D86" t="s">
-        <v>149</v>
+        <v>564</v>
       </c>
       <c r="E86" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F86" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H86" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="I86" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="J86" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="K86" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B87" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="C87" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D87" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="E87" t="s">
-        <v>381</v>
+        <v>41</v>
       </c>
       <c r="F87" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="G87" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H87" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="I87" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="J87" t="s">
-        <v>305</v>
+        <v>46</v>
       </c>
       <c r="K87" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="B88" t="s">
         <v>575</v>
       </c>
       <c r="C88" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="D88" t="s">
-        <v>94</v>
+        <v>176</v>
       </c>
       <c r="E88" t="s">
-        <v>415</v>
+        <v>15</v>
       </c>
       <c r="F88" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G88" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H88" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="I88" t="s">
         <v>579</v>
       </c>
       <c r="J88" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="K88" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>580</v>
+      </c>
+      <c r="B89" t="s">
+        <v>581</v>
+      </c>
+      <c r="C89" t="s">
+        <v>582</v>
+      </c>
+      <c r="D89" t="s">
+        <v>120</v>
+      </c>
+      <c r="E89" t="s">
+        <v>383</v>
+      </c>
+      <c r="F89" t="s">
+        <v>583</v>
+      </c>
+      <c r="G89" t="s">
+        <v>43</v>
+      </c>
+      <c r="H89" t="s">
         <v>584</v>
       </c>
-      <c r="B89" t="s">
+      <c r="I89" t="s">
         <v>585</v>
       </c>
-      <c r="C89" t="s">
-        <v>586</v>
-      </c>
-      <c r="D89" t="s">
-        <v>587</v>
-      </c>
-      <c r="E89" t="s">
-        <v>87</v>
-      </c>
-      <c r="F89" t="s">
-        <v>588</v>
-      </c>
-      <c r="G89" t="s">
-        <v>17</v>
-      </c>
-      <c r="H89" t="s">
-        <v>589</v>
-      </c>
-      <c r="I89" t="s">
-        <v>590</v>
-      </c>
       <c r="J89" t="s">
-        <v>20</v>
+        <v>307</v>
       </c>
       <c r="K89" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B90" t="s">
+        <v>581</v>
+      </c>
+      <c r="C90" t="s">
+        <v>587</v>
+      </c>
+      <c r="D90" t="s">
+        <v>92</v>
+      </c>
+      <c r="E90" t="s">
+        <v>417</v>
+      </c>
+      <c r="F90" t="s">
+        <v>588</v>
+      </c>
+      <c r="G90" t="s">
+        <v>43</v>
+      </c>
+      <c r="H90" t="s">
+        <v>589</v>
+      </c>
+      <c r="I90" t="s">
         <v>585</v>
       </c>
-      <c r="C90" t="s">
-        <v>592</v>
-      </c>
-      <c r="D90" t="s">
-        <v>187</v>
-      </c>
-      <c r="E90" t="s">
-        <v>165</v>
-      </c>
-      <c r="F90" t="s">
-        <v>593</v>
-      </c>
-      <c r="G90" t="s">
-        <v>44</v>
-      </c>
-      <c r="H90" t="s">
-        <v>594</v>
-      </c>
-      <c r="I90" t="s">
-        <v>595</v>
-      </c>
       <c r="J90" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="K90" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B91" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="C91" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="D91" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="E91" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="F91" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="G91" t="s">
         <v>17</v>
       </c>
       <c r="H91" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="I91" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="J91" t="s">
         <v>20</v>
@@ -5379,521 +5346,521 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="B92" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="C92" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="D92" t="s">
-        <v>25</v>
+        <v>192</v>
       </c>
       <c r="E92" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="F92" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="G92" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H92" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="I92" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="J92" t="s">
-        <v>351</v>
+        <v>20</v>
       </c>
       <c r="K92" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="B93" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="C93" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="D93" t="s">
-        <v>108</v>
+        <v>605</v>
       </c>
       <c r="E93" t="s">
-        <v>456</v>
+        <v>106</v>
       </c>
       <c r="F93" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="H93" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="I93" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="J93" t="s">
-        <v>305</v>
+        <v>20</v>
       </c>
       <c r="K93" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B94" t="s">
         <v>610</v>
       </c>
       <c r="C94" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="D94" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="E94" t="s">
-        <v>456</v>
+        <v>106</v>
       </c>
       <c r="F94" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H94" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="I94" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="J94" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="K94" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>615</v>
+      </c>
+      <c r="B95" t="s">
+        <v>616</v>
+      </c>
+      <c r="C95" t="s">
+        <v>617</v>
+      </c>
+      <c r="D95" t="s">
+        <v>120</v>
+      </c>
+      <c r="E95" t="s">
+        <v>458</v>
+      </c>
+      <c r="F95" t="s">
+        <v>618</v>
+      </c>
+      <c r="G95" t="s">
+        <v>43</v>
+      </c>
+      <c r="H95" t="s">
+        <v>619</v>
+      </c>
+      <c r="I95" t="s">
         <v>620</v>
       </c>
-      <c r="B95" t="s">
-        <v>621</v>
-      </c>
-      <c r="C95" t="s">
-        <v>281</v>
-      </c>
-      <c r="D95" t="s">
-        <v>622</v>
-      </c>
-      <c r="E95" t="s">
-        <v>480</v>
-      </c>
-      <c r="F95" t="s">
-        <v>623</v>
-      </c>
-      <c r="G95" t="s">
-        <v>36</v>
-      </c>
-      <c r="H95" t="s">
-        <v>28</v>
-      </c>
-      <c r="I95" t="s">
-        <v>624</v>
-      </c>
       <c r="J95" t="s">
-        <v>66</v>
+        <v>307</v>
       </c>
       <c r="K95" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>621</v>
+      </c>
+      <c r="B96" t="s">
+        <v>616</v>
+      </c>
+      <c r="C96" t="s">
+        <v>622</v>
+      </c>
+      <c r="D96" t="s">
+        <v>120</v>
+      </c>
+      <c r="E96" t="s">
+        <v>458</v>
+      </c>
+      <c r="F96" t="s">
+        <v>623</v>
+      </c>
+      <c r="G96" t="s">
+        <v>43</v>
+      </c>
+      <c r="H96" t="s">
+        <v>624</v>
+      </c>
+      <c r="I96" t="s">
         <v>625</v>
       </c>
-      <c r="B96" t="s">
-        <v>626</v>
-      </c>
-      <c r="C96" t="s">
-        <v>627</v>
-      </c>
-      <c r="D96" t="s">
-        <v>94</v>
-      </c>
-      <c r="E96" t="s">
-        <v>628</v>
-      </c>
-      <c r="F96" t="s">
-        <v>629</v>
-      </c>
-      <c r="G96" t="s">
-        <v>36</v>
-      </c>
-      <c r="H96" t="s">
-        <v>630</v>
-      </c>
-      <c r="I96" t="s">
-        <v>631</v>
-      </c>
       <c r="J96" t="s">
-        <v>632</v>
+        <v>307</v>
       </c>
       <c r="K96" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="B97" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C97" t="s">
-        <v>634</v>
+        <v>284</v>
       </c>
       <c r="D97" t="s">
-        <v>244</v>
+        <v>160</v>
       </c>
       <c r="E97" t="s">
-        <v>157</v>
+        <v>482</v>
       </c>
       <c r="F97" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="G97" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H97" t="s">
-        <v>636</v>
+        <v>28</v>
       </c>
       <c r="I97" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="J97" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="K97" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="B98" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="C98" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="D98" t="s">
-        <v>641</v>
+        <v>92</v>
       </c>
       <c r="E98" t="s">
-        <v>188</v>
+        <v>633</v>
       </c>
       <c r="F98" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="G98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H98" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="I98" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="J98" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="K98" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="B99" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="C99" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="D99" t="s">
-        <v>649</v>
+        <v>248</v>
       </c>
       <c r="E99" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="F99" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H99" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="I99" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="J99" t="s">
-        <v>176</v>
+        <v>46</v>
       </c>
       <c r="K99" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="B100" t="s">
+        <v>644</v>
+      </c>
+      <c r="C100" t="s">
+        <v>645</v>
+      </c>
+      <c r="D100" t="s">
+        <v>646</v>
+      </c>
+      <c r="E100" t="s">
+        <v>193</v>
+      </c>
+      <c r="F100" t="s">
         <v>647</v>
       </c>
-      <c r="C100" t="s">
-        <v>654</v>
-      </c>
-      <c r="D100" t="s">
-        <v>115</v>
-      </c>
-      <c r="E100" t="s">
-        <v>26</v>
-      </c>
-      <c r="F100" t="s">
-        <v>655</v>
-      </c>
       <c r="G100" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H100" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="I100" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="J100" t="s">
-        <v>20</v>
+        <v>650</v>
       </c>
       <c r="K100" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="B101" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="C101" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="D101" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="E101" t="s">
-        <v>662</v>
+        <v>193</v>
       </c>
       <c r="F101" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="G101" t="s">
-        <v>197</v>
+        <v>43</v>
       </c>
       <c r="H101" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="I101" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="J101" t="s">
-        <v>666</v>
+        <v>181</v>
       </c>
       <c r="K101" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="B102" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="C102" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="D102" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E102" t="s">
-        <v>301</v>
+        <v>26</v>
       </c>
       <c r="F102" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="G102" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H102" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I102" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="J102" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="K102" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="B103" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="C103" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="D103" t="s">
-        <v>409</v>
+        <v>666</v>
       </c>
       <c r="E103" t="s">
-        <v>347</v>
+        <v>667</v>
       </c>
       <c r="F103" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="G103" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="H103" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="I103" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="J103" t="s">
-        <v>351</v>
+        <v>671</v>
       </c>
       <c r="K103" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="B104" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="C104" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="D104" t="s">
-        <v>682</v>
+        <v>134</v>
       </c>
       <c r="E104" t="s">
-        <v>683</v>
+        <v>303</v>
       </c>
       <c r="F104" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H104" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="I104" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="J104" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="K104" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="B105" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="C105" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="D105" t="s">
-        <v>690</v>
+        <v>411</v>
       </c>
       <c r="E105" t="s">
-        <v>691</v>
+        <v>349</v>
       </c>
       <c r="F105" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>202</v>
       </c>
       <c r="H105" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="I105" t="s">
-        <v>339</v>
+        <v>683</v>
       </c>
       <c r="J105" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K105" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="B106" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="C106" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="D106" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="E106" t="s">
-        <v>415</v>
+        <v>688</v>
       </c>
       <c r="F106" t="s">
-        <v>22</v>
+        <v>689</v>
       </c>
       <c r="G106" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="H106" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="I106" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="J106" t="s">
         <v>20</v>
@@ -5904,72 +5871,37 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>692</v>
+      </c>
+      <c r="B107" t="s">
+        <v>693</v>
+      </c>
+      <c r="C107" t="s">
+        <v>694</v>
+      </c>
+      <c r="D107" t="s">
+        <v>695</v>
+      </c>
+      <c r="E107" t="s">
+        <v>696</v>
+      </c>
+      <c r="F107" t="s">
+        <v>697</v>
+      </c>
+      <c r="G107" t="s">
+        <v>43</v>
+      </c>
+      <c r="H107" t="s">
         <v>698</v>
       </c>
-      <c r="B107" t="s">
-        <v>699</v>
-      </c>
-      <c r="C107" t="s">
-        <v>69</v>
-      </c>
-      <c r="D107" t="s">
-        <v>700</v>
-      </c>
-      <c r="E107" t="s">
-        <v>701</v>
-      </c>
-      <c r="F107" t="s">
-        <v>702</v>
-      </c>
-      <c r="G107" t="s">
-        <v>210</v>
-      </c>
-      <c r="H107" t="s">
-        <v>703</v>
-      </c>
       <c r="I107" t="s">
-        <v>704</v>
+        <v>341</v>
       </c>
       <c r="J107" t="s">
-        <v>66</v>
+        <v>353</v>
       </c>
       <c r="K107" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>705</v>
-      </c>
-      <c r="B108" t="s">
-        <v>706</v>
-      </c>
-      <c r="C108" t="s">
-        <v>414</v>
-      </c>
-      <c r="D108" t="s">
-        <v>518</v>
-      </c>
-      <c r="E108" t="s">
-        <v>707</v>
-      </c>
-      <c r="F108" t="s">
-        <v>708</v>
-      </c>
-      <c r="G108" t="s">
-        <v>210</v>
-      </c>
-      <c r="H108" t="s">
-        <v>239</v>
-      </c>
-      <c r="I108" t="s">
-        <v>709</v>
-      </c>
-      <c r="J108" t="s">
-        <v>305</v>
-      </c>
-      <c r="K108" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/build/classes/files/sismos.xlsx
+++ b/build/classes/files/sismos.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="775">
   <si>
     <t>Id</t>
   </si>
@@ -50,40 +50,289 @@
     <t>0</t>
   </si>
   <si>
-    <t>20/01/2021</t>
+    <t>1 Jan 2021</t>
+  </si>
+  <si>
+    <t>14:12:05</t>
+  </si>
+  <si>
+    <t>7.000</t>
+  </si>
+  <si>
+    <t>2.82Ml</t>
+  </si>
+  <si>
+    <t>Desamparados</t>
+  </si>
+  <si>
+    <t>Tectónico por falla local</t>
+  </si>
+  <si>
+    <t>9.897</t>
+  </si>
+  <si>
+    <t>-84.070</t>
+  </si>
+  <si>
+    <t>San José</t>
+  </si>
+  <si>
+    <t>Terrestre</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>23:27:16</t>
+  </si>
+  <si>
+    <t>2.65Ml</t>
+  </si>
+  <si>
+    <t>Desamparados de San Jose</t>
+  </si>
+  <si>
+    <t>9.901</t>
+  </si>
+  <si>
+    <t>-84.047</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3 Jan 2021</t>
+  </si>
+  <si>
+    <t>07:25:00</t>
+  </si>
+  <si>
+    <t>2.5Ml</t>
+  </si>
+  <si>
+    <t>9.902</t>
+  </si>
+  <si>
+    <t>-84.058</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4 Jan 2021</t>
+  </si>
+  <si>
+    <t>20:03:00</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>2.1Ml</t>
+  </si>
+  <si>
+    <t>10 km noreste de Savegre, Puntarenas</t>
+  </si>
+  <si>
+    <t>9.383</t>
+  </si>
+  <si>
+    <t>-83.830</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Marítimo</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>18:55:00</t>
+  </si>
+  <si>
+    <t>19.000</t>
+  </si>
+  <si>
+    <t>5.3Ml</t>
+  </si>
+  <si>
+    <t>28 km al sureste de Punta Banco, Bórica, Puntarenas</t>
+  </si>
+  <si>
+    <t>Subducción</t>
+  </si>
+  <si>
+    <t>8.134</t>
+  </si>
+  <si>
+    <t>-82.994</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6 Jan 2021</t>
+  </si>
+  <si>
+    <t>15:12:00</t>
+  </si>
+  <si>
+    <t>20.000</t>
+  </si>
+  <si>
+    <t>3.8Ml</t>
+  </si>
+  <si>
+    <t>14 km Nor Este de Coto Brus</t>
+  </si>
+  <si>
+    <t>8.899</t>
+  </si>
+  <si>
+    <t>-82.865</t>
+  </si>
+  <si>
+    <t>Putarenas</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>17:55:00</t>
+  </si>
+  <si>
+    <t>25.000</t>
+  </si>
+  <si>
+    <t>5 km al Noreste de Rivas de Pérez Zeledón</t>
+  </si>
+  <si>
+    <t>9.461</t>
+  </si>
+  <si>
+    <t>-83.640</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>7 Jan 2021</t>
+  </si>
+  <si>
+    <t>12:48:00</t>
+  </si>
+  <si>
+    <t>6.000</t>
+  </si>
+  <si>
+    <t>Deasamparados</t>
+  </si>
+  <si>
+    <t>9.895</t>
+  </si>
+  <si>
+    <t>-84.064</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>8 Jan 2021</t>
+  </si>
+  <si>
+    <t>19:33:00</t>
+  </si>
+  <si>
+    <t>8.000</t>
+  </si>
+  <si>
+    <t>2.2Ml</t>
+  </si>
+  <si>
+    <t>2 km al Norte de San Antonio de Desamparados</t>
+  </si>
+  <si>
+    <t>9.915</t>
+  </si>
+  <si>
+    <t>-84.048</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>20 Jan 2021</t>
   </si>
   <si>
     <t>01:17:00</t>
   </si>
   <si>
-    <t>25.000</t>
-  </si>
-  <si>
     <t>4.1Ml</t>
   </si>
   <si>
     <t>15 km Sur de la Cuesta de Corredores. Zona Sur</t>
   </si>
   <si>
-    <t>Subducción</t>
-  </si>
-  <si>
     <t>8.341</t>
   </si>
   <si>
     <t>-82.852</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Marítimo</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>31/01/2021</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>21 Jan 2021</t>
+  </si>
+  <si>
+    <t>07:06:00</t>
+  </si>
+  <si>
+    <t>3.7Ml</t>
+  </si>
+  <si>
+    <t>2,3. km hacia el noroeste de Orosi.</t>
+  </si>
+  <si>
+    <t>9.815</t>
+  </si>
+  <si>
+    <t>-83.865</t>
+  </si>
+  <si>
+    <t>Cartago</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>23 Jan 2021</t>
+  </si>
+  <si>
+    <t>16:15:00</t>
+  </si>
+  <si>
+    <t>35.000</t>
+  </si>
+  <si>
+    <t>3.4Ml</t>
+  </si>
+  <si>
+    <t>9 km Nor Oeste de Tamarindo, Guanacaste</t>
+  </si>
+  <si>
+    <t>10.342</t>
+  </si>
+  <si>
+    <t>-85.911</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>31 Jan 2021</t>
   </si>
   <si>
     <t>16:30:56</t>
@@ -104,7 +353,7 @@
     <t>-84.864</t>
   </si>
   <si>
-    <t>2</t>
+    <t>13</t>
   </si>
   <si>
     <t>16:36:34</t>
@@ -125,10 +374,10 @@
     <t>-84.836</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>05/02/2021</t>
+    <t>14</t>
+  </si>
+  <si>
+    <t>5 Feb 2021</t>
   </si>
   <si>
     <t>23:41:19</t>
@@ -143,25 +392,52 @@
     <t>6.8 km NE de Rivas de Peréz Zeledón</t>
   </si>
   <si>
-    <t>Tectónico por falla local</t>
-  </si>
-  <si>
     <t>9.440</t>
   </si>
   <si>
     <t>-83.603</t>
   </si>
   <si>
-    <t>San José</t>
-  </si>
-  <si>
-    <t>Terrestre</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>13/02/2021</t>
+    <t>15</t>
+  </si>
+  <si>
+    <t>23:43:13</t>
+  </si>
+  <si>
+    <t>14.000</t>
+  </si>
+  <si>
+    <t>11.4 NE de Rivas de Peréz Zeledón</t>
+  </si>
+  <si>
+    <t>9.481</t>
+  </si>
+  <si>
+    <t>-83.577</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>18.000</t>
+  </si>
+  <si>
+    <t>3.3Ml</t>
+  </si>
+  <si>
+    <t>11 km NE de Rivas de Peréz Zeledón</t>
+  </si>
+  <si>
+    <t>9.451</t>
+  </si>
+  <si>
+    <t>-83.566</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>13 Feb 2021</t>
   </si>
   <si>
     <t>15:53:11</t>
@@ -182,10 +458,10 @@
     <t>-84.672</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>15/02/2021</t>
+    <t>18</t>
+  </si>
+  <si>
+    <t>15 Feb 2021</t>
   </si>
   <si>
     <t>20:00:27</t>
@@ -203,15 +479,12 @@
     <t>-83.286</t>
   </si>
   <si>
-    <t>6</t>
+    <t>19</t>
   </si>
   <si>
     <t>19:31:28</t>
   </si>
   <si>
-    <t>7.000</t>
-  </si>
-  <si>
     <t>20 km hacia el Noroeste de Golfito, Puntarenas.</t>
   </si>
   <si>
@@ -221,10 +494,10 @@
     <t>-83.296</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>22/02/2021</t>
+    <t>20</t>
+  </si>
+  <si>
+    <t>22 Feb 2021</t>
   </si>
   <si>
     <t>17:50:29</t>
@@ -239,15 +512,12 @@
     <t>-84.259</t>
   </si>
   <si>
-    <t>8</t>
+    <t>21</t>
   </si>
   <si>
     <t>21:54:00</t>
   </si>
   <si>
-    <t>6.000</t>
-  </si>
-  <si>
     <t>3.1Ml</t>
   </si>
   <si>
@@ -260,10 +530,10 @@
     <t>-84.265</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>23/02/2021</t>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23 Feb 2021</t>
   </si>
   <si>
     <t>23:41:00</t>
@@ -281,10 +551,31 @@
     <t>-82.927</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>26/02/2021</t>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24 Feb 2021</t>
+  </si>
+  <si>
+    <t>21:41:39</t>
+  </si>
+  <si>
+    <t>23.000</t>
+  </si>
+  <si>
+    <t>16 km SEE de Jacó, Puntarenas</t>
+  </si>
+  <si>
+    <t>9.596</t>
+  </si>
+  <si>
+    <t>-84.775</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>26 Feb 2021</t>
   </si>
   <si>
     <t>17:16:18</t>
@@ -293,9 +584,6 @@
     <t>5.000</t>
   </si>
   <si>
-    <t>3.8Ml</t>
-  </si>
-  <si>
     <t>2 km este de Bajo Badillas de Puriscal</t>
   </si>
   <si>
@@ -305,10 +593,10 @@
     <t>-84.260</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>27/02/2021</t>
+    <t>25</t>
+  </si>
+  <si>
+    <t>27 Feb 2021</t>
   </si>
   <si>
     <t>10:51:50</t>
@@ -323,7 +611,7 @@
     <t>-83.642</t>
   </si>
   <si>
-    <t>13</t>
+    <t>26</t>
   </si>
   <si>
     <t>18:01:50</t>
@@ -344,31 +632,25 @@
     <t>-84.555</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>28/02/2021</t>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28 Feb 2021</t>
   </si>
   <si>
     <t>20:06:31</t>
   </si>
   <si>
-    <t>2.1Ml</t>
-  </si>
-  <si>
     <t>3 km SE de Ciudad Colón, San José</t>
   </si>
   <si>
-    <t>9.902</t>
-  </si>
-  <si>
     <t>-84.218</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>01/03/2021</t>
+    <t>28</t>
+  </si>
+  <si>
+    <t>1 Mar 2021</t>
   </si>
   <si>
     <t>01:47:00</t>
@@ -386,10 +668,10 @@
     <t>-84.029</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>02/03/2021</t>
+    <t>29</t>
+  </si>
+  <si>
+    <t>2 Mar 2021</t>
   </si>
   <si>
     <t>00:24:00</t>
@@ -410,7 +692,7 @@
     <t>-83.887</t>
   </si>
   <si>
-    <t>17</t>
+    <t>30</t>
   </si>
   <si>
     <t>06:59:00</t>
@@ -428,10 +710,10 @@
     <t>-83.892</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
   </si>
   <si>
     <t>01:48:00</t>
@@ -446,36 +728,30 @@
     <t>9.755</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>04/03/2021</t>
+    <t>33</t>
+  </si>
+  <si>
+    <t>4 Mar 2021</t>
   </si>
   <si>
     <t>09:03:52</t>
   </si>
   <si>
-    <t>3.7Ml</t>
-  </si>
-  <si>
     <t>9.5 km hacia el noroeste de Río Blanco de Pérez Zeledón</t>
   </si>
   <si>
     <t>9.588</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>05/03/2021</t>
+    <t>34</t>
+  </si>
+  <si>
+    <t>5 Mar 2021</t>
   </si>
   <si>
     <t>13:09:00</t>
   </si>
   <si>
-    <t>2.5Ml</t>
-  </si>
-  <si>
     <t>7 km al Sureste de Santiago de Puriscal</t>
   </si>
   <si>
@@ -485,18 +761,33 @@
     <t>-84.257</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>09/03/2021</t>
+    <t>35</t>
+  </si>
+  <si>
+    <t>8 Mar 2021</t>
+  </si>
+  <si>
+    <t>03:10:00</t>
+  </si>
+  <si>
+    <t>39 km hacia el suroeste de Uvita</t>
+  </si>
+  <si>
+    <t>9.020</t>
+  </si>
+  <si>
+    <t>-84.067</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>9 Mar 2021</t>
   </si>
   <si>
     <t>15:47:00</t>
   </si>
   <si>
-    <t>23.000</t>
-  </si>
-  <si>
     <t>3.2Ml</t>
   </si>
   <si>
@@ -509,10 +800,10 @@
     <t>-83.328</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>10/03/2021</t>
+    <t>37</t>
+  </si>
+  <si>
+    <t>10 Mar 2021</t>
   </si>
   <si>
     <t>11:18:00</t>
@@ -533,21 +824,15 @@
     <t>-83.323</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>18/03/2021</t>
+    <t>38</t>
+  </si>
+  <si>
+    <t>18 Mar 2021</t>
   </si>
   <si>
     <t>23:36:14</t>
   </si>
   <si>
-    <t>20.000</t>
-  </si>
-  <si>
-    <t>3.3Ml</t>
-  </si>
-  <si>
     <t>1 km sur de Jabilla Abajo, Cañas, Guanacaste</t>
   </si>
   <si>
@@ -560,10 +845,10 @@
     <t>Guanacaste</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>21/03/2021</t>
+    <t>39</t>
+  </si>
+  <si>
+    <t>21 Mar 2021</t>
   </si>
   <si>
     <t>01:51:00</t>
@@ -572,19 +857,16 @@
     <t>10.000</t>
   </si>
   <si>
-    <t>Desamparados</t>
-  </si>
-  <si>
     <t>9.890</t>
   </si>
   <si>
     <t>-84.063</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>23/03/2021</t>
+    <t>40</t>
+  </si>
+  <si>
+    <t>23 Mar 2021</t>
   </si>
   <si>
     <t>17:01:00</t>
@@ -599,16 +881,10 @@
     <t>0.5km hacia el noroeste de Desamparados</t>
   </si>
   <si>
-    <t>9.901</t>
-  </si>
-  <si>
-    <t>-84.064</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>29/03/2021</t>
+    <t>41</t>
+  </si>
+  <si>
+    <t>29 Mar 2021</t>
   </si>
   <si>
     <t>14:46:00</t>
@@ -629,7 +905,7 @@
     <t>-85.961</t>
   </si>
   <si>
-    <t>28</t>
+    <t>42</t>
   </si>
   <si>
     <t>17:25:00</t>
@@ -644,10 +920,10 @@
     <t>-84.895</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30/03/2021</t>
+    <t>43</t>
+  </si>
+  <si>
+    <t>30 Mar 2021</t>
   </si>
   <si>
     <t>16:42:00</t>
@@ -668,10 +944,10 @@
     <t>-83.202</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>03/04/2021</t>
+    <t>44</t>
+  </si>
+  <si>
+    <t>3 Apr 2021</t>
   </si>
   <si>
     <t>13:26:00</t>
@@ -686,10 +962,10 @@
     <t>-84.640</t>
   </si>
   <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>04/04/2021</t>
+    <t>45</t>
+  </si>
+  <si>
+    <t>4 Apr 2021</t>
   </si>
   <si>
     <t>21:41:00</t>
@@ -707,10 +983,10 @@
     <t>-83.136</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>06/04/2021</t>
+    <t>46</t>
+  </si>
+  <si>
+    <t>6 Apr 2021</t>
   </si>
   <si>
     <t>23:49:00</t>
@@ -728,10 +1004,10 @@
     <t>-85.188</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>07/04/2021</t>
+    <t>47</t>
+  </si>
+  <si>
+    <t>7 Apr 2021</t>
   </si>
   <si>
     <t>11:51:16</t>
@@ -749,10 +1025,10 @@
     <t>-83.781</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>08/04/2021</t>
+    <t>48</t>
+  </si>
+  <si>
+    <t>8 Apr 2021</t>
   </si>
   <si>
     <t>19:39:41</t>
@@ -770,10 +1046,10 @@
     <t>-84.054</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>09/04/2021</t>
+    <t>49</t>
+  </si>
+  <si>
+    <t>9 Apr 2021</t>
   </si>
   <si>
     <t>23:16:57</t>
@@ -788,10 +1064,10 @@
     <t>-84.861</t>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>10/04/2021</t>
+    <t>50</t>
+  </si>
+  <si>
+    <t>10 Apr 2021</t>
   </si>
   <si>
     <t>12:07:35</t>
@@ -806,7 +1082,7 @@
     <t>-84.032</t>
   </si>
   <si>
-    <t>37</t>
+    <t>51</t>
   </si>
   <si>
     <t>19:42:27</t>
@@ -821,10 +1097,10 @@
     <t>-86.432</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>16/04/2021</t>
+    <t>52</t>
+  </si>
+  <si>
+    <t>16 Apr 2021</t>
   </si>
   <si>
     <t>20:35:00</t>
@@ -839,10 +1115,10 @@
     <t>-85.269</t>
   </si>
   <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>20/04/2021</t>
+    <t>53</t>
+  </si>
+  <si>
+    <t>20 Apr 2021</t>
   </si>
   <si>
     <t>05:23:00</t>
@@ -860,18 +1136,15 @@
     <t>-83.275</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>02/05/2021</t>
+    <t>54</t>
+  </si>
+  <si>
+    <t>2 May 2021</t>
   </si>
   <si>
     <t>13:05:00</t>
   </si>
   <si>
-    <t>14.000</t>
-  </si>
-  <si>
     <t>18 km al Noroeste de Golfito</t>
   </si>
   <si>
@@ -881,577 +1154,514 @@
     <t>-83.345</t>
   </si>
   <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>00:48:30</t>
+    <t>58</t>
+  </si>
+  <si>
+    <t>4 May 2021</t>
+  </si>
+  <si>
+    <t>14:25:00</t>
+  </si>
+  <si>
+    <t>5km hacia el noroeste de San Gabriel de Aserrí</t>
+  </si>
+  <si>
+    <t>9.798</t>
+  </si>
+  <si>
+    <t>-84.156</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>9 May 2021</t>
+  </si>
+  <si>
+    <t>16:09:00</t>
+  </si>
+  <si>
+    <t>2.8Ml</t>
+  </si>
+  <si>
+    <t>2.2km hacia el suroeste de Tierras Morenas de Vázquez de Coronado</t>
+  </si>
+  <si>
+    <t>10.045</t>
+  </si>
+  <si>
+    <t>-83.934</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>16:29:05</t>
+  </si>
+  <si>
+    <t>2.9Ml</t>
+  </si>
+  <si>
+    <t>3.13 km hacia el suroeste de Tierras Morenas de Vázques de Coronado, San José</t>
+  </si>
+  <si>
+    <t>10.033</t>
+  </si>
+  <si>
+    <t>-83.931</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>10 May 2021</t>
+  </si>
+  <si>
+    <t>20:34:00</t>
+  </si>
+  <si>
+    <t>14 km al Noreste de San Isidro de Coronado.</t>
+  </si>
+  <si>
+    <t>10.057</t>
+  </si>
+  <si>
+    <t>-83.932</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>11 May 2021</t>
+  </si>
+  <si>
+    <t>02:15:00</t>
+  </si>
+  <si>
+    <t>3.6Ml</t>
+  </si>
+  <si>
+    <t>3 Km Sur Oeste del Parque Nacional V. Turrialba</t>
+  </si>
+  <si>
+    <t>9.998</t>
+  </si>
+  <si>
+    <t>-83.788</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>14 May 2021</t>
+  </si>
+  <si>
+    <t>09:33:00</t>
+  </si>
+  <si>
+    <t>45.000</t>
+  </si>
+  <si>
+    <t>4.9Ml</t>
+  </si>
+  <si>
+    <t>20 Km Sur Este de Manuel Antonio</t>
+  </si>
+  <si>
+    <t>9.326</t>
+  </si>
+  <si>
+    <t>-83.976</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>17 May 2021</t>
+  </si>
+  <si>
+    <t>15:02:00</t>
+  </si>
+  <si>
+    <t>4.5Ml</t>
+  </si>
+  <si>
+    <t>12.6 km NE de San Vito de Coto Brus</t>
+  </si>
+  <si>
+    <t>8.916</t>
+  </si>
+  <si>
+    <t>-82.907</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>22 May 2021</t>
+  </si>
+  <si>
+    <t>20:59:00</t>
+  </si>
+  <si>
+    <t>44.000</t>
+  </si>
+  <si>
+    <t>11 km al noroeste de Quepos</t>
+  </si>
+  <si>
+    <t>9.523</t>
+  </si>
+  <si>
+    <t>-84.199</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>24 May 2021</t>
+  </si>
+  <si>
+    <t>22:03:00</t>
+  </si>
+  <si>
+    <t>32.000</t>
+  </si>
+  <si>
+    <t>60 km al Norte de Limón</t>
+  </si>
+  <si>
+    <t>10.535</t>
+  </si>
+  <si>
+    <t>-83.068</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>26 May 2021</t>
+  </si>
+  <si>
+    <t>13:55:00</t>
+  </si>
+  <si>
+    <t>4.4 km hacia el noreste de la Suiza de Turrialba</t>
+  </si>
+  <si>
+    <t>9.880</t>
+  </si>
+  <si>
+    <t>-83.584</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>1 Jun 2021</t>
+  </si>
+  <si>
+    <t>23:56:00</t>
+  </si>
+  <si>
+    <t>2 km sur de Cachí. Paraíso de Cartago</t>
+  </si>
+  <si>
+    <t>-83.801</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>3 Jun 2021</t>
+  </si>
+  <si>
+    <t>23:09:00</t>
+  </si>
+  <si>
+    <t>2.3Ml</t>
+  </si>
+  <si>
+    <t>4 km Este de Paraíso de Cartago.</t>
+  </si>
+  <si>
+    <t>9.830</t>
+  </si>
+  <si>
+    <t>-83.834</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>6 Jun 2021</t>
+  </si>
+  <si>
+    <t>20:27:00</t>
+  </si>
+  <si>
+    <t>10 km Este de Santa Cruz. Guanacaste</t>
+  </si>
+  <si>
+    <t>10.267</t>
+  </si>
+  <si>
+    <t>-85.484</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>7 Jun 2021</t>
+  </si>
+  <si>
+    <t>23:15:00</t>
+  </si>
+  <si>
+    <t>60 km al norte de Puerto Limón</t>
+  </si>
+  <si>
+    <t>10.550</t>
+  </si>
+  <si>
+    <t>-83.066</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>10 Jun 2021</t>
+  </si>
+  <si>
+    <t>17:26:00</t>
+  </si>
+  <si>
+    <t>29.000</t>
+  </si>
+  <si>
+    <t>5.9Ml</t>
+  </si>
+  <si>
+    <t>94 km al suroeste de Cabo Blanco, Puntarenas</t>
+  </si>
+  <si>
+    <t>8.778</t>
+  </si>
+  <si>
+    <t>-85.511</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>11 Jun 2021</t>
+  </si>
+  <si>
+    <t>19:55:59</t>
+  </si>
+  <si>
+    <t>6 km sur de Playa Hermosa, Garabito</t>
+  </si>
+  <si>
+    <t>-84.597</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>15 Jun 2021</t>
+  </si>
+  <si>
+    <t>04:52:00</t>
+  </si>
+  <si>
+    <t>1.0M</t>
+  </si>
+  <si>
+    <t>1 km al sur de la Fortuna de Bagaces</t>
+  </si>
+  <si>
+    <t>10.666</t>
+  </si>
+  <si>
+    <t>-85.205</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>23:18:00</t>
+  </si>
+  <si>
+    <t>1 km Sur Este de La Fortuna de Bagaces</t>
+  </si>
+  <si>
+    <t>-85.200</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>19 Jun 2021</t>
+  </si>
+  <si>
+    <t>11:06:00</t>
+  </si>
+  <si>
+    <t>3 km hacia el Sureste de San Isidro de Cartago</t>
+  </si>
+  <si>
+    <t>9.811</t>
+  </si>
+  <si>
+    <t>-83.935</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>23 Jun 2021</t>
+  </si>
+  <si>
+    <t>23:51:00</t>
+  </si>
+  <si>
+    <t>3 km al Sur de Tejar de El Guarco, Cartago.</t>
+  </si>
+  <si>
+    <t>9.822</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>24 Jun 2021</t>
+  </si>
+  <si>
+    <t>04:31:00</t>
+  </si>
+  <si>
+    <t>75.000</t>
+  </si>
+  <si>
+    <t>3 km Norte de Zapotal de Miramar. Puntarenas</t>
+  </si>
+  <si>
+    <t>10.187</t>
+  </si>
+  <si>
+    <t>-84.650</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>3 Jul 2021</t>
+  </si>
+  <si>
+    <t>22:30:00</t>
+  </si>
+  <si>
+    <t>Esparza</t>
+  </si>
+  <si>
+    <t>9.994</t>
+  </si>
+  <si>
+    <t>-84.645</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>4 Jul 2021</t>
+  </si>
+  <si>
+    <t>00:40:00</t>
+  </si>
+  <si>
+    <t>3 km al este de Esparza</t>
+  </si>
+  <si>
+    <t>9.992</t>
+  </si>
+  <si>
+    <t>-84.637</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>5 Jul 2021</t>
+  </si>
+  <si>
+    <t>23:50:00</t>
+  </si>
+  <si>
+    <t>4 km hacia el suroeste de Tejar del Guarco.</t>
+  </si>
+  <si>
+    <t>9.814</t>
+  </si>
+  <si>
+    <t>-83.939</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>6 Jul 2021</t>
+  </si>
+  <si>
+    <t>13:20:00</t>
+  </si>
+  <si>
+    <t>4.6 km hacia el suroeste de Tejar del Guarco</t>
+  </si>
+  <si>
+    <t>9.808</t>
+  </si>
+  <si>
+    <t>-83.943</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>13:29:00</t>
+  </si>
+  <si>
+    <t>2km hacia el suroeste de Tejar del Guarco</t>
+  </si>
+  <si>
+    <t>9.840</t>
+  </si>
+  <si>
+    <t>-83.946</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>8 Jul 2021</t>
+  </si>
+  <si>
+    <t>23:07:00</t>
   </si>
   <si>
     <t>16.000</t>
   </si>
   <si>
-    <t>3 NO de Savegre Abajo, Peréz Zeledón</t>
-  </si>
-  <si>
-    <t>9.456</t>
-  </si>
-  <si>
-    <t>-83.855</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>08:29:03</t>
-  </si>
-  <si>
-    <t>Salitral, Bagaces, Guanacaste</t>
-  </si>
-  <si>
-    <t>10.595</t>
-  </si>
-  <si>
-    <t>-85.257</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>04/05/2021</t>
-  </si>
-  <si>
-    <t>05:18:18</t>
-  </si>
-  <si>
-    <t>2.8Ml</t>
-  </si>
-  <si>
-    <t>5.2 km hacia el Noroeste de Llano grande de Cartago</t>
-  </si>
-  <si>
-    <t>9.965</t>
-  </si>
-  <si>
-    <t>-83.952</t>
-  </si>
-  <si>
-    <t>Cartago</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>14:25:00</t>
-  </si>
-  <si>
-    <t>5km hacia el noroeste de San Gabriel de Aserrí</t>
-  </si>
-  <si>
-    <t>9.798</t>
-  </si>
-  <si>
-    <t>-84.156</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>09/05/2021</t>
-  </si>
-  <si>
-    <t>16:09:00</t>
-  </si>
-  <si>
-    <t>2.2km hacia el suroeste de Tierras Morenas de Vázquez de Coronado</t>
-  </si>
-  <si>
-    <t>10.045</t>
-  </si>
-  <si>
-    <t>-83.934</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>16:29:05</t>
-  </si>
-  <si>
-    <t>2.9Ml</t>
-  </si>
-  <si>
-    <t>3.13 km hacia el suroeste de Tierras Morenas de Vázques de Coronado, San José</t>
-  </si>
-  <si>
-    <t>10.033</t>
-  </si>
-  <si>
-    <t>-83.931</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>10/05/2021</t>
-  </si>
-  <si>
-    <t>20:34:00</t>
-  </si>
-  <si>
-    <t>14 km al Noreste de San Isidro de Coronado.</t>
-  </si>
-  <si>
-    <t>10.057</t>
-  </si>
-  <si>
-    <t>-83.932</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>11/05/2021</t>
-  </si>
-  <si>
-    <t>02:15:00</t>
-  </si>
-  <si>
-    <t>3.6Ml</t>
-  </si>
-  <si>
-    <t>3 Km Sur Oeste del Parque Nacional V. Turrialba</t>
-  </si>
-  <si>
-    <t>9.998</t>
-  </si>
-  <si>
-    <t>-83.788</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>14/05/2021</t>
-  </si>
-  <si>
-    <t>09:33:00</t>
-  </si>
-  <si>
-    <t>45.000</t>
-  </si>
-  <si>
-    <t>4.9Ml</t>
-  </si>
-  <si>
-    <t>20 Km Sur Este de Manuel Antonio</t>
-  </si>
-  <si>
-    <t>9.326</t>
-  </si>
-  <si>
-    <t>-83.976</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>17/05/2021</t>
-  </si>
-  <si>
-    <t>15:02:00</t>
-  </si>
-  <si>
-    <t>4.5Ml</t>
-  </si>
-  <si>
-    <t>12.6 km NE de San Vito de Coto Brus</t>
-  </si>
-  <si>
-    <t>8.916</t>
-  </si>
-  <si>
-    <t>-82.907</t>
-  </si>
-  <si>
-    <t>Putarenas</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>22/05/2021</t>
-  </si>
-  <si>
-    <t>20:59:00</t>
-  </si>
-  <si>
-    <t>44.000</t>
-  </si>
-  <si>
-    <t>11 km al noroeste de Quepos</t>
-  </si>
-  <si>
-    <t>9.523</t>
-  </si>
-  <si>
-    <t>-84.199</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>24/05/2021</t>
-  </si>
-  <si>
-    <t>22:03:00</t>
-  </si>
-  <si>
-    <t>32.000</t>
-  </si>
-  <si>
-    <t>60 km al Norte de Limón</t>
-  </si>
-  <si>
-    <t>10.535</t>
-  </si>
-  <si>
-    <t>-83.068</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>26/05/2021</t>
-  </si>
-  <si>
-    <t>13:55:00</t>
-  </si>
-  <si>
-    <t>8.000</t>
-  </si>
-  <si>
-    <t>4.4 km hacia el noreste de la Suiza de Turrialba</t>
-  </si>
-  <si>
-    <t>9.880</t>
-  </si>
-  <si>
-    <t>-83.584</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>01/06/2021</t>
-  </si>
-  <si>
-    <t>23:56:00</t>
-  </si>
-  <si>
-    <t>2 km sur de Cachí. Paraíso de Cartago</t>
-  </si>
-  <si>
-    <t>-83.801</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>03/06/2021</t>
-  </si>
-  <si>
-    <t>23:09:00</t>
-  </si>
-  <si>
-    <t>2.3Ml</t>
-  </si>
-  <si>
-    <t>4 km Este de Paraíso de Cartago.</t>
-  </si>
-  <si>
-    <t>9.830</t>
-  </si>
-  <si>
-    <t>-83.834</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>06/06/2021</t>
-  </si>
-  <si>
-    <t>20:27:00</t>
-  </si>
-  <si>
-    <t>35.000</t>
-  </si>
-  <si>
-    <t>10 km Este de Santa Cruz. Guanacaste</t>
-  </si>
-  <si>
-    <t>10.267</t>
-  </si>
-  <si>
-    <t>-85.484</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>07/06/2021</t>
-  </si>
-  <si>
-    <t>23:15:00</t>
-  </si>
-  <si>
-    <t>60 km al norte de Puerto Limón</t>
-  </si>
-  <si>
-    <t>10.550</t>
-  </si>
-  <si>
-    <t>-83.066</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>10/06/2021</t>
-  </si>
-  <si>
-    <t>17:26:00</t>
-  </si>
-  <si>
-    <t>29.000</t>
-  </si>
-  <si>
-    <t>5.9Ml</t>
-  </si>
-  <si>
-    <t>94 km al suroeste de Cabo Blanco, Puntarenas</t>
-  </si>
-  <si>
-    <t>8.778</t>
-  </si>
-  <si>
-    <t>-85.511</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>11/06/2021</t>
-  </si>
-  <si>
-    <t>19:55:59</t>
-  </si>
-  <si>
-    <t>18.000</t>
-  </si>
-  <si>
-    <t>6 km sur de Playa Hermosa, Garabito</t>
-  </si>
-  <si>
-    <t>-84.597</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>15/06/2021</t>
-  </si>
-  <si>
-    <t>04:52:00</t>
-  </si>
-  <si>
-    <t>1.0M</t>
-  </si>
-  <si>
-    <t>1 km al sur de la Fortuna de Bagaces</t>
-  </si>
-  <si>
-    <t>10.666</t>
-  </si>
-  <si>
-    <t>-85.205</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>23:18:00</t>
-  </si>
-  <si>
-    <t>1 km Sur Este de La Fortuna de Bagaces</t>
-  </si>
-  <si>
-    <t>-85.200</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>19/06/2021</t>
-  </si>
-  <si>
-    <t>11:06:00</t>
-  </si>
-  <si>
-    <t>3 km hacia el Sureste de San Isidro de Cartago</t>
-  </si>
-  <si>
-    <t>9.811</t>
-  </si>
-  <si>
-    <t>-83.935</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>23/06/2021</t>
-  </si>
-  <si>
-    <t>23:51:00</t>
-  </si>
-  <si>
-    <t>3 km al Sur de Tejar de El Guarco, Cartago.</t>
-  </si>
-  <si>
-    <t>9.822</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>24/06/2021</t>
-  </si>
-  <si>
-    <t>04:31:00</t>
-  </si>
-  <si>
-    <t>75.000</t>
-  </si>
-  <si>
-    <t>3 km Norte de Zapotal de Miramar. Puntarenas</t>
-  </si>
-  <si>
-    <t>10.187</t>
-  </si>
-  <si>
-    <t>-84.650</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>03/07/2021</t>
-  </si>
-  <si>
-    <t>22:30:00</t>
-  </si>
-  <si>
-    <t>Esparza</t>
-  </si>
-  <si>
-    <t>9.994</t>
-  </si>
-  <si>
-    <t>-84.645</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>04/07/2021</t>
-  </si>
-  <si>
-    <t>00:40:00</t>
-  </si>
-  <si>
-    <t>3 km al este de Esparza</t>
-  </si>
-  <si>
-    <t>9.992</t>
-  </si>
-  <si>
-    <t>-84.637</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>05/07/2021</t>
-  </si>
-  <si>
-    <t>23:50:00</t>
-  </si>
-  <si>
-    <t>2.2Ml</t>
-  </si>
-  <si>
-    <t>4 km hacia el suroeste de Tejar del Guarco.</t>
-  </si>
-  <si>
-    <t>9.814</t>
-  </si>
-  <si>
-    <t>-83.939</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>06/07/2021</t>
-  </si>
-  <si>
-    <t>13:20:00</t>
-  </si>
-  <si>
-    <t>4.6 km hacia el suroeste de Tejar del Guarco</t>
-  </si>
-  <si>
-    <t>9.808</t>
-  </si>
-  <si>
-    <t>-83.943</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>13:29:00</t>
-  </si>
-  <si>
-    <t>2km hacia el suroeste de Tejar del Guarco</t>
-  </si>
-  <si>
-    <t>9.840</t>
-  </si>
-  <si>
-    <t>-83.946</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>08/07/2021</t>
-  </si>
-  <si>
-    <t>23:07:00</t>
-  </si>
-  <si>
     <t>26km hacia el suroeste de San Isidro de El General</t>
   </si>
   <si>
     <t>-83.874</t>
   </si>
   <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>10/07/2021</t>
+    <t>85</t>
+  </si>
+  <si>
+    <t>10 Jul 2021</t>
   </si>
   <si>
     <t>14:53:00</t>
@@ -1460,19 +1670,16 @@
     <t>15.000</t>
   </si>
   <si>
-    <t>3.4Ml</t>
-  </si>
-  <si>
     <t>11km hacia el sureste de Montezuma</t>
   </si>
   <si>
     <t>-85.008</t>
   </si>
   <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>13/07/2021</t>
+    <t>86</t>
+  </si>
+  <si>
+    <t>13 Jul 2021</t>
   </si>
   <si>
     <t>00:05:00</t>
@@ -1487,7 +1694,7 @@
     <t>-83.529</t>
   </si>
   <si>
-    <t>73</t>
+    <t>87</t>
   </si>
   <si>
     <t>01:06:00</t>
@@ -1502,10 +1709,10 @@
     <t>-83.601</t>
   </si>
   <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>14/07/2021</t>
+    <t>88</t>
+  </si>
+  <si>
+    <t>14 Jul 2021</t>
   </si>
   <si>
     <t>21:09:00</t>
@@ -1523,18 +1730,15 @@
     <t>-83.979</t>
   </si>
   <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>15/07/2021</t>
+    <t>89</t>
+  </si>
+  <si>
+    <t>15 Jul 2021</t>
   </si>
   <si>
     <t>03:16:00</t>
   </si>
   <si>
-    <t>19.000</t>
-  </si>
-  <si>
     <t>8 km Nor Este de San Vito de Coto Brus</t>
   </si>
   <si>
@@ -1544,10 +1748,10 @@
     <t>-82.896</t>
   </si>
   <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>16/07/2021</t>
+    <t>90</t>
+  </si>
+  <si>
+    <t>16 Jul 2021</t>
   </si>
   <si>
     <t>21:10:00</t>
@@ -1565,10 +1769,10 @@
     <t>-83.916</t>
   </si>
   <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>19/07/2021</t>
+    <t>91</t>
+  </si>
+  <si>
+    <t>19 Jul 2021</t>
   </si>
   <si>
     <t>11:24:00</t>
@@ -1586,7 +1790,7 @@
     <t>-84.114</t>
   </si>
   <si>
-    <t>78</t>
+    <t>92</t>
   </si>
   <si>
     <t>11:27:00</t>
@@ -1598,10 +1802,10 @@
     <t>-84.094</t>
   </si>
   <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>20/07/2021</t>
+    <t>93</t>
+  </si>
+  <si>
+    <t>20 Jul 2021</t>
   </si>
   <si>
     <t>17:57:00</t>
@@ -1616,10 +1820,10 @@
     <t>-84.053</t>
   </si>
   <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>21/07/2021</t>
+    <t>94</t>
+  </si>
+  <si>
+    <t>21 Jul 2021</t>
   </si>
   <si>
     <t>04:56:00</t>
@@ -1634,7 +1838,7 @@
     <t>-84.128</t>
   </si>
   <si>
-    <t>81</t>
+    <t>95</t>
   </si>
   <si>
     <t>04:37:00</t>
@@ -1649,7 +1853,7 @@
     <t>-83.988</t>
   </si>
   <si>
-    <t>82</t>
+    <t>96</t>
   </si>
   <si>
     <t>04:18:00</t>
@@ -1661,67 +1865,10 @@
     <t>-84.046</t>
   </si>
   <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>27/07/2021</t>
-  </si>
-  <si>
-    <t>00:37:00</t>
-  </si>
-  <si>
-    <t>21 km hacia el suroeste de Jacó</t>
-  </si>
-  <si>
-    <t>9.564</t>
-  </si>
-  <si>
-    <t>-84.819</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>29/07/2021</t>
-  </si>
-  <si>
-    <t>22:29:34</t>
-  </si>
-  <si>
-    <t>5.2Ml</t>
-  </si>
-  <si>
-    <t>34.8 Hacia el Oeste de Tamarindo, Guanacaste</t>
-  </si>
-  <si>
-    <t>10.294</t>
-  </si>
-  <si>
-    <t>-86.155</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>22:37:00</t>
-  </si>
-  <si>
-    <t>38.000</t>
-  </si>
-  <si>
-    <t>48 km hacia el oeste de Tamarindo</t>
-  </si>
-  <si>
-    <t>10.284</t>
-  </si>
-  <si>
-    <t>-86.277</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>30/07/2021</t>
+    <t>97</t>
+  </si>
+  <si>
+    <t>30 Jul 2021</t>
   </si>
   <si>
     <t>00:00:00</t>
@@ -1736,10 +1883,10 @@
     <t>-84.026</t>
   </si>
   <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>01/08/2021</t>
+    <t>98</t>
+  </si>
+  <si>
+    <t>1 Aug 2021</t>
   </si>
   <si>
     <t>17:39:00</t>
@@ -1754,10 +1901,10 @@
     <t>-84.225</t>
   </si>
   <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>10/08/2021</t>
+    <t>99</t>
+  </si>
+  <si>
+    <t>10 Aug 2021</t>
   </si>
   <si>
     <t>08:27:00</t>
@@ -1772,7 +1919,7 @@
     <t>-83.902</t>
   </si>
   <si>
-    <t>89</t>
+    <t>100</t>
   </si>
   <si>
     <t>19:03:17</t>
@@ -1784,10 +1931,10 @@
     <t>9.703</t>
   </si>
   <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>12/08/2021</t>
+    <t>101</t>
+  </si>
+  <si>
+    <t>12 Aug 2021</t>
   </si>
   <si>
     <t>05:48:00</t>
@@ -1805,7 +1952,7 @@
     <t>-86.183</t>
   </si>
   <si>
-    <t>91</t>
+    <t>102</t>
   </si>
   <si>
     <t>21:08:09</t>
@@ -1820,10 +1967,10 @@
     <t>-86.174</t>
   </si>
   <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>15/08/2021</t>
+    <t>103</t>
+  </si>
+  <si>
+    <t>15 Aug 2021</t>
   </si>
   <si>
     <t>20:39:13</t>
@@ -1841,10 +1988,10 @@
     <t>-82.917</t>
   </si>
   <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>16/08/2021</t>
+    <t>104</t>
+  </si>
+  <si>
+    <t>16 Aug 2021</t>
   </si>
   <si>
     <t>04:06:00</t>
@@ -1859,10 +2006,10 @@
     <t>-82.879</t>
   </si>
   <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>19/08/2021</t>
+    <t>105</t>
+  </si>
+  <si>
+    <t>19 Aug 2021</t>
   </si>
   <si>
     <t>01:50:00</t>
@@ -1877,7 +2024,7 @@
     <t>-83.978</t>
   </si>
   <si>
-    <t>95</t>
+    <t>106</t>
   </si>
   <si>
     <t>11:43:00</t>
@@ -1892,10 +2039,10 @@
     <t>-83.949</t>
   </si>
   <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>26/08/2021</t>
+    <t>107</t>
+  </si>
+  <si>
+    <t>26 Aug 2021</t>
   </si>
   <si>
     <t>7.5 km al Sureste de San Gerardo de Dota</t>
@@ -1904,10 +2051,10 @@
     <t>-83.773</t>
   </si>
   <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>27/08/2021</t>
+    <t>108</t>
+  </si>
+  <si>
+    <t>27 Aug 2021</t>
   </si>
   <si>
     <t>07:22:00</t>
@@ -1928,7 +2075,7 @@
     <t>Alajuela</t>
   </si>
   <si>
-    <t>98</t>
+    <t>109</t>
   </si>
   <si>
     <t>08:24:00</t>
@@ -1943,10 +2090,10 @@
     <t>-83.886</t>
   </si>
   <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>31/08/2021</t>
+    <t>110</t>
+  </si>
+  <si>
+    <t>31 Aug 2021</t>
   </si>
   <si>
     <t>22:08:00</t>
@@ -1967,10 +2114,10 @@
     <t>Heredia</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>01/09/2021</t>
+    <t>111</t>
+  </si>
+  <si>
+    <t>1 Sep 2021</t>
   </si>
   <si>
     <t>00:46:00</t>
@@ -1988,7 +2135,7 @@
     <t>-85.168</t>
   </si>
   <si>
-    <t>101</t>
+    <t>112</t>
   </si>
   <si>
     <t>10:50:16</t>
@@ -2003,10 +2150,10 @@
     <t>-83.766</t>
   </si>
   <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>04/09/2021</t>
+    <t>113</t>
+  </si>
+  <si>
+    <t>4 Sep 2021</t>
   </si>
   <si>
     <t>03:48:00</t>
@@ -2030,10 +2177,28 @@
     <t>Limón</t>
   </si>
   <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>05/09/2021</t>
+    <t>114</t>
+  </si>
+  <si>
+    <t>02:58:00</t>
+  </si>
+  <si>
+    <t>94.000</t>
+  </si>
+  <si>
+    <t>2.5 km al este de Vara Blanca</t>
+  </si>
+  <si>
+    <t>10.164</t>
+  </si>
+  <si>
+    <t>-84.132</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>5 Sep 2021</t>
   </si>
   <si>
     <t>14:42:07</t>
@@ -2048,10 +2213,94 @@
     <t>-84.305</t>
   </si>
   <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>03/09/2021</t>
+    <t>116</t>
+  </si>
+  <si>
+    <t>8 Sep 2021</t>
+  </si>
+  <si>
+    <t>22:27:30</t>
+  </si>
+  <si>
+    <t>4.72Ml</t>
+  </si>
+  <si>
+    <t>25.4 km hacia el Sur de Uvita de Puntarenas</t>
+  </si>
+  <si>
+    <t>9.003</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>22:05:00</t>
+  </si>
+  <si>
+    <t>25 km hacia el suroeste de Uvita</t>
+  </si>
+  <si>
+    <t>-83.961</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>10 Sep 2021</t>
+  </si>
+  <si>
+    <t>19:33:23</t>
+  </si>
+  <si>
+    <t>La fortuna de Bagaces, Guanacaste</t>
+  </si>
+  <si>
+    <t>10.673</t>
+  </si>
+  <si>
+    <t>-85.201</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>13 Sep 2021</t>
+  </si>
+  <si>
+    <t>06:20:00</t>
+  </si>
+  <si>
+    <t>22 km Sur Oeste de Playa Negra. Guanacaste</t>
+  </si>
+  <si>
+    <t>10.082</t>
+  </si>
+  <si>
+    <t>-86.006</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>17 Sep 2021</t>
+  </si>
+  <si>
+    <t>04:10:00</t>
+  </si>
+  <si>
+    <t>3 Km SurOeste de Quepos</t>
+  </si>
+  <si>
+    <t>9.409</t>
+  </si>
+  <si>
+    <t>-84.183</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>3 Sep 2021</t>
   </si>
   <si>
     <t>00:00:13</t>
@@ -2066,49 +2315,28 @@
     <t>-83.428</t>
   </si>
   <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>02/10/2021</t>
-  </si>
-  <si>
-    <t>23:19:54</t>
-  </si>
-  <si>
-    <t>3245.000</t>
-  </si>
-  <si>
-    <t>32156.0Mw</t>
-  </si>
-  <si>
-    <t>La casa de Maynor</t>
-  </si>
-  <si>
-    <t>32165.000</t>
-  </si>
-  <si>
-    <t>2.215</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>30/10/2021</t>
-  </si>
-  <si>
-    <t>11:28:26</t>
-  </si>
-  <si>
-    <t>3434.000</t>
-  </si>
-  <si>
-    <t>545.0Mw</t>
-  </si>
-  <si>
-    <t>azsdfadf</t>
-  </si>
-  <si>
-    <t>4545.000</t>
+    <t>122</t>
+  </si>
+  <si>
+    <t>7 Oct 2021</t>
+  </si>
+  <si>
+    <t>22:15:38</t>
+  </si>
+  <si>
+    <t>50.000</t>
+  </si>
+  <si>
+    <t>10.1Mw</t>
+  </si>
+  <si>
+    <t>Tortuguero</t>
+  </si>
+  <si>
+    <t>99.900</t>
+  </si>
+  <si>
+    <t>-88.210</t>
   </si>
 </sst>
 </file>
@@ -2153,7 +2381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L107"/>
+  <dimension ref="A1:L121"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2234,28 +2462,28 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
       </c>
       <c r="J3" t="s">
         <v>20</v>
@@ -2266,31 +2494,31 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
         <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" t="s">
-        <v>36</v>
       </c>
       <c r="J4" t="s">
         <v>20</v>
@@ -2301,104 +2529,104 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
         <v>37</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
         <v>40</v>
       </c>
-      <c r="E5" t="s">
+      <c r="I5" t="s">
         <v>41</v>
       </c>
-      <c r="F5" t="s">
+      <c r="J5" t="s">
         <v>42</v>
       </c>
-      <c r="G5" t="s">
+      <c r="K5" t="s">
         <v>43</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
         <v>48</v>
       </c>
-      <c r="B6" t="s">
+      <c r="G6" t="s">
         <v>49</v>
       </c>
-      <c r="C6" t="s">
+      <c r="H6" t="s">
         <v>50</v>
       </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="I6" t="s">
         <v>51</v>
       </c>
-      <c r="F6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" t="s">
-        <v>55</v>
-      </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
         <v>56</v>
       </c>
-      <c r="B7" t="s">
+      <c r="F7" t="s">
         <v>57</v>
       </c>
-      <c r="C7" t="s">
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
         <v>58</v>
       </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="I7" t="s">
         <v>59</v>
       </c>
-      <c r="F7" t="s">
+      <c r="J7" t="s">
         <v>60</v>
-      </c>
-      <c r="G7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" t="s">
-        <v>20</v>
       </c>
       <c r="K7" t="s">
         <v>21</v>
@@ -2406,31 +2634,31 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="B8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
         <v>64</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
         <v>65</v>
       </c>
-      <c r="E8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="I8" t="s">
         <v>66</v>
-      </c>
-      <c r="G8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" t="s">
-        <v>68</v>
       </c>
       <c r="J8" t="s">
         <v>20</v>
@@ -2441,45 +2669,45 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
         <v>69</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>70</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
         <v>71</v>
       </c>
-      <c r="D9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
         <v>72</v>
       </c>
-      <c r="G9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>73</v>
       </c>
-      <c r="I9" t="s">
-        <v>74</v>
-      </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
         <v>75</v>
-      </c>
-      <c r="B10" t="s">
-        <v>70</v>
       </c>
       <c r="C10" t="s">
         <v>76</v>
@@ -2494,7 +2722,7 @@
         <v>79</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
         <v>80</v>
@@ -2503,10 +2731,10 @@
         <v>81</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
@@ -2520,16 +2748,16 @@
         <v>84</v>
       </c>
       <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
         <v>85</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
       </c>
       <c r="F11" t="s">
         <v>86</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
         <v>87</v>
@@ -2538,10 +2766,10 @@
         <v>88</v>
       </c>
       <c r="J11" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12">
@@ -2555,28 +2783,28 @@
         <v>91</v>
       </c>
       <c r="D12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" t="s">
         <v>92</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>93</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
         <v>94</v>
       </c>
-      <c r="G12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>95</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>96</v>
       </c>
-      <c r="J12" t="s">
-        <v>46</v>
-      </c>
       <c r="K12" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -2590,197 +2818,197 @@
         <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" t="s">
         <v>43</v>
-      </c>
-      <c r="H13" t="s">
-        <v>101</v>
-      </c>
-      <c r="I13" t="s">
-        <v>102</v>
-      </c>
-      <c r="J13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E14" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F14" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I14" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="K14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="E15" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F15" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" t="s">
+        <v>118</v>
+      </c>
+      <c r="I15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J15" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" t="s">
         <v>43</v>
-      </c>
-      <c r="H15" t="s">
-        <v>115</v>
-      </c>
-      <c r="I15" t="s">
-        <v>116</v>
-      </c>
-      <c r="J15" t="s">
-        <v>46</v>
-      </c>
-      <c r="K15" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="F16" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="I16" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="K16" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G17" t="s">
         <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I17" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K17" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C18" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="F18" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G18" t="s">
         <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I18" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J18" t="s">
         <v>20</v>
@@ -2791,171 +3019,171 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C19" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="D19" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E19" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F19" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="H19" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="I19" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K19" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D20" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="F20" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="G20" t="s">
+        <v>145</v>
+      </c>
+      <c r="H20" t="s">
+        <v>153</v>
+      </c>
+      <c r="I20" t="s">
+        <v>154</v>
+      </c>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" t="s">
         <v>43</v>
-      </c>
-      <c r="H20" t="s">
-        <v>143</v>
-      </c>
-      <c r="I20" t="s">
-        <v>123</v>
-      </c>
-      <c r="J20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21" t="s">
+        <v>157</v>
+      </c>
+      <c r="G21" t="s">
         <v>145</v>
       </c>
-      <c r="C21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D21" t="s">
-        <v>141</v>
-      </c>
-      <c r="E21" t="s">
-        <v>147</v>
-      </c>
-      <c r="F21" t="s">
-        <v>148</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
+        <v>158</v>
+      </c>
+      <c r="I21" t="s">
+        <v>159</v>
+      </c>
+      <c r="J21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" t="s">
         <v>43</v>
-      </c>
-      <c r="H21" t="s">
-        <v>149</v>
-      </c>
-      <c r="I21" t="s">
-        <v>102</v>
-      </c>
-      <c r="J21" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B22" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C22" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="F22" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H22" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="I22" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="J22" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="K22" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B23" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C23" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="D23" t="s">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F23" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G23" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H23" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="I23" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="J23" t="s">
         <v>20</v>
@@ -2966,174 +3194,174 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B24" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D24" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="E24" t="s">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="F24" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I24" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="J24" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="K24" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B25" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C25" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D25" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="E25" t="s">
-        <v>177</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="G25" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" t="s">
+        <v>184</v>
+      </c>
+      <c r="I25" t="s">
+        <v>185</v>
+      </c>
+      <c r="J25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" t="s">
         <v>43</v>
-      </c>
-      <c r="H25" t="s">
-        <v>179</v>
-      </c>
-      <c r="I25" t="s">
-        <v>180</v>
-      </c>
-      <c r="J25" t="s">
-        <v>181</v>
-      </c>
-      <c r="K25" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B26" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C26" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D26" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E26" t="s">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c r="F26" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H26" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="I26" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="J26" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="K26" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B27" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C27" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D27" t="s">
-        <v>192</v>
+        <v>123</v>
       </c>
       <c r="E27" t="s">
-        <v>193</v>
+        <v>56</v>
       </c>
       <c r="F27" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H27" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I27" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J27" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="K27" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B28" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C28" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D28" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="E28" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F28" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G28" t="s">
-        <v>202</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J28" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="K28" t="s">
         <v>21</v>
@@ -3141,31 +3369,31 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B29" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C29" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G29" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H29" t="s">
-        <v>208</v>
+        <v>32</v>
       </c>
       <c r="I29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J29" t="s">
         <v>20</v>
@@ -3176,25 +3404,25 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B30" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C30" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D30" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E30" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="F30" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G30" t="s">
-        <v>215</v>
+        <v>17</v>
       </c>
       <c r="H30" t="s">
         <v>216</v>
@@ -3220,22 +3448,22 @@
         <v>220</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>221</v>
       </c>
       <c r="E31" t="s">
-        <v>93</v>
+        <v>222</v>
       </c>
       <c r="F31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H31" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I31" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J31" t="s">
         <v>20</v>
@@ -3246,171 +3474,171 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B32" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C32" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D32" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E32" t="s">
-        <v>193</v>
+        <v>109</v>
       </c>
       <c r="F32" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G32" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I32" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J32" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="K32" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B33" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="C33" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="D33" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="E33" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="F33" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="G33" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H33" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="I33" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="J33" t="s">
-        <v>181</v>
+        <v>20</v>
       </c>
       <c r="K33" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B34" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="C34" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D34" t="s">
-        <v>32</v>
+        <v>235</v>
       </c>
       <c r="E34" t="s">
-        <v>241</v>
+        <v>85</v>
       </c>
       <c r="F34" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G34" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H34" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="I34" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="J34" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="K34" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B35" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C35" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D35" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="E35" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F35" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G35" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H35" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="I35" t="s">
-        <v>251</v>
+        <v>198</v>
       </c>
       <c r="J35" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="K35" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B36" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C36" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D36" t="s">
-        <v>213</v>
+        <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="F36" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="G36" t="s">
         <v>17</v>
       </c>
       <c r="H36" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="I36" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="J36" t="s">
         <v>20</v>
@@ -3421,139 +3649,139 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B37" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C37" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D37" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="E37" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="F37" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G37" t="s">
+        <v>49</v>
+      </c>
+      <c r="H37" t="s">
+        <v>253</v>
+      </c>
+      <c r="I37" t="s">
+        <v>254</v>
+      </c>
+      <c r="J37" t="s">
+        <v>42</v>
+      </c>
+      <c r="K37" t="s">
         <v>43</v>
-      </c>
-      <c r="H37" t="s">
-        <v>262</v>
-      </c>
-      <c r="I37" t="s">
-        <v>263</v>
-      </c>
-      <c r="J37" t="s">
-        <v>46</v>
-      </c>
-      <c r="K37" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B38" t="s">
+        <v>256</v>
+      </c>
+      <c r="C38" t="s">
+        <v>257</v>
+      </c>
+      <c r="D38" t="s">
+        <v>182</v>
+      </c>
+      <c r="E38" t="s">
+        <v>258</v>
+      </c>
+      <c r="F38" t="s">
         <v>259</v>
       </c>
-      <c r="C38" t="s">
-        <v>265</v>
-      </c>
-      <c r="D38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" t="s">
-        <v>78</v>
-      </c>
-      <c r="F38" t="s">
-        <v>266</v>
-      </c>
       <c r="G38" t="s">
         <v>17</v>
       </c>
       <c r="H38" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="I38" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="J38" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="K38" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>262</v>
+      </c>
+      <c r="B39" t="s">
+        <v>263</v>
+      </c>
+      <c r="C39" t="s">
+        <v>264</v>
+      </c>
+      <c r="D39" t="s">
+        <v>265</v>
+      </c>
+      <c r="E39" t="s">
+        <v>266</v>
+      </c>
+      <c r="F39" t="s">
+        <v>267</v>
+      </c>
+      <c r="G39" t="s">
+        <v>49</v>
+      </c>
+      <c r="H39" t="s">
+        <v>268</v>
+      </c>
+      <c r="I39" t="s">
         <v>269</v>
       </c>
-      <c r="B39" t="s">
-        <v>270</v>
-      </c>
-      <c r="C39" t="s">
-        <v>271</v>
-      </c>
-      <c r="D39" t="s">
-        <v>105</v>
-      </c>
-      <c r="E39" t="s">
-        <v>78</v>
-      </c>
-      <c r="F39" t="s">
-        <v>272</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="J39" t="s">
+        <v>42</v>
+      </c>
+      <c r="K39" t="s">
         <v>43</v>
-      </c>
-      <c r="H39" t="s">
-        <v>273</v>
-      </c>
-      <c r="I39" t="s">
-        <v>274</v>
-      </c>
-      <c r="J39" t="s">
-        <v>181</v>
-      </c>
-      <c r="K39" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>270</v>
+      </c>
+      <c r="B40" t="s">
+        <v>271</v>
+      </c>
+      <c r="C40" t="s">
+        <v>272</v>
+      </c>
+      <c r="D40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" t="s">
+        <v>136</v>
+      </c>
+      <c r="F40" t="s">
+        <v>273</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" t="s">
+        <v>274</v>
+      </c>
+      <c r="I40" t="s">
         <v>275</v>
       </c>
-      <c r="B40" t="s">
+      <c r="J40" t="s">
         <v>276</v>
-      </c>
-      <c r="C40" t="s">
-        <v>277</v>
-      </c>
-      <c r="D40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E40" t="s">
-        <v>278</v>
-      </c>
-      <c r="F40" t="s">
-        <v>279</v>
-      </c>
-      <c r="G40" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" t="s">
-        <v>280</v>
-      </c>
-      <c r="I40" t="s">
-        <v>281</v>
-      </c>
-      <c r="J40" t="s">
-        <v>20</v>
       </c>
       <c r="K40" t="s">
         <v>21</v>
@@ -3561,31 +3789,31 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>277</v>
+      </c>
+      <c r="B41" t="s">
+        <v>278</v>
+      </c>
+      <c r="C41" t="s">
+        <v>279</v>
+      </c>
+      <c r="D41" t="s">
+        <v>280</v>
+      </c>
+      <c r="E41" t="s">
+        <v>92</v>
+      </c>
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" t="s">
+        <v>281</v>
+      </c>
+      <c r="I41" t="s">
         <v>282</v>
-      </c>
-      <c r="B41" t="s">
-        <v>283</v>
-      </c>
-      <c r="C41" t="s">
-        <v>284</v>
-      </c>
-      <c r="D41" t="s">
-        <v>285</v>
-      </c>
-      <c r="E41" t="s">
-        <v>169</v>
-      </c>
-      <c r="F41" t="s">
-        <v>286</v>
-      </c>
-      <c r="G41" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" t="s">
-        <v>287</v>
-      </c>
-      <c r="I41" t="s">
-        <v>288</v>
       </c>
       <c r="J41" t="s">
         <v>20</v>
@@ -3596,311 +3824,311 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B42" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C42" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D42" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E42" t="s">
-        <v>169</v>
+        <v>287</v>
       </c>
       <c r="F42" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G42" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H42" t="s">
-        <v>293</v>
+        <v>26</v>
       </c>
       <c r="I42" t="s">
-        <v>294</v>
+        <v>73</v>
       </c>
       <c r="J42" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="K42" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>289</v>
+      </c>
+      <c r="B43" t="s">
+        <v>290</v>
+      </c>
+      <c r="C43" t="s">
+        <v>291</v>
+      </c>
+      <c r="D43" t="s">
+        <v>286</v>
+      </c>
+      <c r="E43" t="s">
+        <v>292</v>
+      </c>
+      <c r="F43" t="s">
+        <v>293</v>
+      </c>
+      <c r="G43" t="s">
+        <v>294</v>
+      </c>
+      <c r="H43" t="s">
         <v>295</v>
       </c>
-      <c r="B43" t="s">
-        <v>283</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="I43" t="s">
         <v>296</v>
       </c>
-      <c r="D43" t="s">
-        <v>291</v>
-      </c>
-      <c r="E43" t="s">
-        <v>169</v>
-      </c>
-      <c r="F43" t="s">
-        <v>297</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="J43" t="s">
+        <v>42</v>
+      </c>
+      <c r="K43" t="s">
         <v>43</v>
-      </c>
-      <c r="H43" t="s">
-        <v>298</v>
-      </c>
-      <c r="I43" t="s">
-        <v>299</v>
-      </c>
-      <c r="J43" t="s">
-        <v>181</v>
-      </c>
-      <c r="K43" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>297</v>
+      </c>
+      <c r="B44" t="s">
+        <v>290</v>
+      </c>
+      <c r="C44" t="s">
+        <v>298</v>
+      </c>
+      <c r="D44" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" t="s">
+        <v>299</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" t="s">
         <v>300</v>
       </c>
-      <c r="B44" t="s">
+      <c r="I44" t="s">
         <v>301</v>
       </c>
-      <c r="C44" t="s">
-        <v>302</v>
-      </c>
-      <c r="D44" t="s">
-        <v>77</v>
-      </c>
-      <c r="E44" t="s">
-        <v>303</v>
-      </c>
-      <c r="F44" t="s">
-        <v>304</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="J44" t="s">
+        <v>42</v>
+      </c>
+      <c r="K44" t="s">
         <v>43</v>
-      </c>
-      <c r="H44" t="s">
-        <v>305</v>
-      </c>
-      <c r="I44" t="s">
-        <v>306</v>
-      </c>
-      <c r="J44" t="s">
-        <v>307</v>
-      </c>
-      <c r="K44" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>302</v>
+      </c>
+      <c r="B45" t="s">
+        <v>303</v>
+      </c>
+      <c r="C45" t="s">
+        <v>304</v>
+      </c>
+      <c r="D45" t="s">
+        <v>305</v>
+      </c>
+      <c r="E45" t="s">
+        <v>92</v>
+      </c>
+      <c r="F45" t="s">
+        <v>306</v>
+      </c>
+      <c r="G45" t="s">
+        <v>307</v>
+      </c>
+      <c r="H45" t="s">
         <v>308</v>
       </c>
-      <c r="B45" t="s">
-        <v>301</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="I45" t="s">
         <v>309</v>
       </c>
-      <c r="D45" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45" t="s">
-        <v>78</v>
-      </c>
-      <c r="F45" t="s">
-        <v>310</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="J45" t="s">
+        <v>42</v>
+      </c>
+      <c r="K45" t="s">
         <v>43</v>
-      </c>
-      <c r="H45" t="s">
-        <v>311</v>
-      </c>
-      <c r="I45" t="s">
-        <v>312</v>
-      </c>
-      <c r="J45" t="s">
-        <v>46</v>
-      </c>
-      <c r="K45" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>310</v>
+      </c>
+      <c r="B46" t="s">
+        <v>311</v>
+      </c>
+      <c r="C46" t="s">
+        <v>312</v>
+      </c>
+      <c r="D46" t="s">
+        <v>123</v>
+      </c>
+      <c r="E46" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" t="s">
         <v>313</v>
       </c>
-      <c r="B46" t="s">
+      <c r="G46" t="s">
+        <v>49</v>
+      </c>
+      <c r="H46" t="s">
         <v>314</v>
       </c>
-      <c r="C46" t="s">
+      <c r="I46" t="s">
         <v>315</v>
       </c>
-      <c r="D46" t="s">
-        <v>77</v>
-      </c>
-      <c r="E46" t="s">
-        <v>303</v>
-      </c>
-      <c r="F46" t="s">
-        <v>316</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="J46" t="s">
+        <v>42</v>
+      </c>
+      <c r="K46" t="s">
         <v>43</v>
-      </c>
-      <c r="H46" t="s">
-        <v>317</v>
-      </c>
-      <c r="I46" t="s">
-        <v>318</v>
-      </c>
-      <c r="J46" t="s">
-        <v>46</v>
-      </c>
-      <c r="K46" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>316</v>
+      </c>
+      <c r="B47" t="s">
+        <v>317</v>
+      </c>
+      <c r="C47" t="s">
+        <v>318</v>
+      </c>
+      <c r="D47" t="s">
         <v>319</v>
       </c>
-      <c r="B47" t="s">
-        <v>314</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="E47" t="s">
+        <v>287</v>
+      </c>
+      <c r="F47" t="s">
         <v>320</v>
       </c>
-      <c r="D47" t="s">
-        <v>92</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="G47" t="s">
+        <v>145</v>
+      </c>
+      <c r="H47" t="s">
         <v>321</v>
       </c>
-      <c r="F47" t="s">
+      <c r="I47" t="s">
         <v>322</v>
       </c>
-      <c r="G47" t="s">
+      <c r="J47" t="s">
+        <v>42</v>
+      </c>
+      <c r="K47" t="s">
         <v>43</v>
-      </c>
-      <c r="H47" t="s">
-        <v>323</v>
-      </c>
-      <c r="I47" t="s">
-        <v>324</v>
-      </c>
-      <c r="J47" t="s">
-        <v>46</v>
-      </c>
-      <c r="K47" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>323</v>
+      </c>
+      <c r="B48" t="s">
+        <v>324</v>
+      </c>
+      <c r="C48" t="s">
         <v>325</v>
       </c>
-      <c r="B48" t="s">
+      <c r="D48" t="s">
         <v>326</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E48" t="s">
+        <v>287</v>
+      </c>
+      <c r="F48" t="s">
         <v>327</v>
       </c>
-      <c r="D48" t="s">
-        <v>92</v>
-      </c>
-      <c r="E48" t="s">
-        <v>303</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" t="s">
         <v>328</v>
       </c>
-      <c r="G48" t="s">
-        <v>43</v>
-      </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>329</v>
       </c>
-      <c r="I48" t="s">
-        <v>330</v>
-      </c>
       <c r="J48" t="s">
-        <v>46</v>
+        <v>276</v>
       </c>
       <c r="K48" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>330</v>
+      </c>
+      <c r="B49" t="s">
         <v>331</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>332</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
+        <v>115</v>
+      </c>
+      <c r="E49" t="s">
         <v>333</v>
       </c>
-      <c r="D49" t="s">
-        <v>92</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>334</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" t="s">
         <v>335</v>
       </c>
-      <c r="G49" t="s">
-        <v>43</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>336</v>
       </c>
-      <c r="I49" t="s">
-        <v>337</v>
-      </c>
       <c r="J49" t="s">
-        <v>307</v>
+        <v>20</v>
       </c>
       <c r="K49" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>337</v>
+      </c>
+      <c r="B50" t="s">
         <v>338</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>339</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>340</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
+        <v>258</v>
+      </c>
+      <c r="F50" t="s">
         <v>341</v>
       </c>
-      <c r="E50" t="s">
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" t="s">
         <v>342</v>
       </c>
-      <c r="F50" t="s">
+      <c r="I50" t="s">
         <v>343</v>
-      </c>
-      <c r="G50" t="s">
-        <v>202</v>
-      </c>
-      <c r="H50" t="s">
-        <v>344</v>
-      </c>
-      <c r="I50" t="s">
-        <v>345</v>
       </c>
       <c r="J50" t="s">
         <v>20</v>
@@ -3911,66 +4139,66 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>344</v>
+      </c>
+      <c r="B51" t="s">
+        <v>345</v>
+      </c>
+      <c r="C51" t="s">
         <v>346</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D51" t="s">
+        <v>305</v>
+      </c>
+      <c r="E51" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" t="s">
         <v>347</v>
       </c>
-      <c r="C51" t="s">
+      <c r="G51" t="s">
+        <v>49</v>
+      </c>
+      <c r="H51" t="s">
         <v>348</v>
       </c>
-      <c r="D51" t="s">
-        <v>105</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="I51" t="s">
         <v>349</v>
       </c>
-      <c r="F51" t="s">
-        <v>350</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="J51" t="s">
+        <v>42</v>
+      </c>
+      <c r="K51" t="s">
         <v>43</v>
-      </c>
-      <c r="H51" t="s">
-        <v>351</v>
-      </c>
-      <c r="I51" t="s">
-        <v>352</v>
-      </c>
-      <c r="J51" t="s">
-        <v>353</v>
-      </c>
-      <c r="K51" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>350</v>
+      </c>
+      <c r="B52" t="s">
+        <v>351</v>
+      </c>
+      <c r="C52" t="s">
+        <v>352</v>
+      </c>
+      <c r="D52" t="s">
+        <v>189</v>
+      </c>
+      <c r="E52" t="s">
+        <v>266</v>
+      </c>
+      <c r="F52" t="s">
+        <v>353</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" t="s">
         <v>354</v>
       </c>
-      <c r="B52" t="s">
+      <c r="I52" t="s">
         <v>355</v>
-      </c>
-      <c r="C52" t="s">
-        <v>356</v>
-      </c>
-      <c r="D52" t="s">
-        <v>357</v>
-      </c>
-      <c r="E52" t="s">
-        <v>169</v>
-      </c>
-      <c r="F52" t="s">
-        <v>358</v>
-      </c>
-      <c r="G52" t="s">
-        <v>202</v>
-      </c>
-      <c r="H52" t="s">
-        <v>359</v>
-      </c>
-      <c r="I52" t="s">
-        <v>360</v>
       </c>
       <c r="J52" t="s">
         <v>20</v>
@@ -3981,171 +4209,171 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B53" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="C53" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D53" t="s">
-        <v>364</v>
+        <v>63</v>
       </c>
       <c r="E53" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="F53" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="G53" t="s">
-        <v>202</v>
+        <v>49</v>
       </c>
       <c r="H53" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="I53" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="J53" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="K53" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B54" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C54" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D54" t="s">
-        <v>371</v>
+        <v>201</v>
       </c>
       <c r="E54" t="s">
-        <v>303</v>
+        <v>168</v>
       </c>
       <c r="F54" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G54" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H54" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="I54" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="J54" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="K54" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B55" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C55" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D55" t="s">
-        <v>141</v>
+        <v>201</v>
       </c>
       <c r="E55" t="s">
-        <v>193</v>
+        <v>370</v>
       </c>
       <c r="F55" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="G55" t="s">
+        <v>49</v>
+      </c>
+      <c r="H55" t="s">
+        <v>372</v>
+      </c>
+      <c r="I55" t="s">
+        <v>373</v>
+      </c>
+      <c r="J55" t="s">
+        <v>42</v>
+      </c>
+      <c r="K55" t="s">
         <v>43</v>
-      </c>
-      <c r="H55" t="s">
-        <v>73</v>
-      </c>
-      <c r="I55" t="s">
-        <v>379</v>
-      </c>
-      <c r="J55" t="s">
-        <v>307</v>
-      </c>
-      <c r="K55" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B56" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C56" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D56" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E56" t="s">
-        <v>383</v>
+        <v>266</v>
       </c>
       <c r="F56" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G56" t="s">
+        <v>49</v>
+      </c>
+      <c r="H56" t="s">
+        <v>378</v>
+      </c>
+      <c r="I56" t="s">
+        <v>379</v>
+      </c>
+      <c r="J56" t="s">
+        <v>42</v>
+      </c>
+      <c r="K56" t="s">
         <v>43</v>
-      </c>
-      <c r="H56" t="s">
-        <v>385</v>
-      </c>
-      <c r="I56" t="s">
-        <v>386</v>
-      </c>
-      <c r="J56" t="s">
-        <v>307</v>
-      </c>
-      <c r="K56" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B57" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C57" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D57" t="s">
-        <v>390</v>
+        <v>70</v>
       </c>
       <c r="E57" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="F57" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="G57" t="s">
         <v>17</v>
       </c>
       <c r="H57" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="I57" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="J57" t="s">
         <v>20</v>
@@ -4156,31 +4384,31 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B58" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C58" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="D58" t="s">
-        <v>364</v>
+        <v>70</v>
       </c>
       <c r="E58" t="s">
-        <v>93</v>
+        <v>389</v>
       </c>
       <c r="F58" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="G58" t="s">
-        <v>202</v>
+        <v>17</v>
       </c>
       <c r="H58" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="I58" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="J58" t="s">
         <v>20</v>
@@ -4191,31 +4419,31 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B59" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="C59" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="D59" t="s">
-        <v>403</v>
+        <v>189</v>
       </c>
       <c r="E59" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F59" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="G59" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="H59" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="I59" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="J59" t="s">
         <v>20</v>
@@ -4226,31 +4454,31 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="B60" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C60" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D60" t="s">
-        <v>411</v>
+        <v>189</v>
       </c>
       <c r="E60" t="s">
-        <v>147</v>
+        <v>389</v>
       </c>
       <c r="F60" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="G60" t="s">
         <v>17</v>
       </c>
       <c r="H60" t="s">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="I60" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="J60" t="s">
         <v>20</v>
@@ -4261,445 +4489,445 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B61" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="C61" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="D61" t="s">
-        <v>65</v>
+        <v>189</v>
       </c>
       <c r="E61" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="F61" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="G61" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H61" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="I61" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="J61" t="s">
-        <v>181</v>
+        <v>96</v>
       </c>
       <c r="K61" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="B62" t="s">
+        <v>413</v>
+      </c>
+      <c r="C62" t="s">
+        <v>414</v>
+      </c>
+      <c r="D62" t="s">
         <v>415</v>
       </c>
-      <c r="C62" t="s">
-        <v>422</v>
-      </c>
-      <c r="D62" t="s">
-        <v>120</v>
-      </c>
       <c r="E62" t="s">
+        <v>416</v>
+      </c>
+      <c r="F62" t="s">
         <v>417</v>
       </c>
-      <c r="F62" t="s">
-        <v>423</v>
-      </c>
       <c r="G62" t="s">
+        <v>294</v>
+      </c>
+      <c r="H62" t="s">
+        <v>418</v>
+      </c>
+      <c r="I62" t="s">
+        <v>419</v>
+      </c>
+      <c r="J62" t="s">
+        <v>42</v>
+      </c>
+      <c r="K62" t="s">
         <v>43</v>
-      </c>
-      <c r="H62" t="s">
-        <v>419</v>
-      </c>
-      <c r="I62" t="s">
-        <v>424</v>
-      </c>
-      <c r="J62" t="s">
-        <v>181</v>
-      </c>
-      <c r="K62" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>420</v>
+      </c>
+      <c r="B63" t="s">
+        <v>421</v>
+      </c>
+      <c r="C63" t="s">
+        <v>422</v>
+      </c>
+      <c r="D63" t="s">
+        <v>201</v>
+      </c>
+      <c r="E63" t="s">
+        <v>423</v>
+      </c>
+      <c r="F63" t="s">
+        <v>424</v>
+      </c>
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" t="s">
         <v>425</v>
       </c>
-      <c r="B63" t="s">
+      <c r="I63" t="s">
         <v>426</v>
       </c>
-      <c r="C63" t="s">
-        <v>427</v>
-      </c>
-      <c r="D63" t="s">
-        <v>120</v>
-      </c>
-      <c r="E63" t="s">
-        <v>161</v>
-      </c>
-      <c r="F63" t="s">
-        <v>428</v>
-      </c>
-      <c r="G63" t="s">
-        <v>43</v>
-      </c>
-      <c r="H63" t="s">
-        <v>429</v>
-      </c>
-      <c r="I63" t="s">
-        <v>430</v>
-      </c>
       <c r="J63" t="s">
-        <v>307</v>
+        <v>60</v>
       </c>
       <c r="K63" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>427</v>
+      </c>
+      <c r="B64" t="s">
+        <v>428</v>
+      </c>
+      <c r="C64" t="s">
+        <v>429</v>
+      </c>
+      <c r="D64" t="s">
+        <v>430</v>
+      </c>
+      <c r="E64" t="s">
+        <v>266</v>
+      </c>
+      <c r="F64" t="s">
         <v>431</v>
       </c>
-      <c r="B64" t="s">
+      <c r="G64" t="s">
+        <v>294</v>
+      </c>
+      <c r="H64" t="s">
         <v>432</v>
       </c>
-      <c r="C64" t="s">
+      <c r="I64" t="s">
         <v>433</v>
       </c>
-      <c r="D64" t="s">
-        <v>120</v>
-      </c>
-      <c r="E64" t="s">
-        <v>383</v>
-      </c>
-      <c r="F64" t="s">
-        <v>434</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="J64" t="s">
+        <v>42</v>
+      </c>
+      <c r="K64" t="s">
         <v>43</v>
-      </c>
-      <c r="H64" t="s">
-        <v>435</v>
-      </c>
-      <c r="I64" t="s">
-        <v>330</v>
-      </c>
-      <c r="J64" t="s">
-        <v>307</v>
-      </c>
-      <c r="K64" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>434</v>
+      </c>
+      <c r="B65" t="s">
+        <v>435</v>
+      </c>
+      <c r="C65" t="s">
         <v>436</v>
       </c>
-      <c r="B65" t="s">
+      <c r="D65" t="s">
         <v>437</v>
       </c>
-      <c r="C65" t="s">
+      <c r="E65" t="s">
+        <v>333</v>
+      </c>
+      <c r="F65" t="s">
         <v>438</v>
       </c>
-      <c r="D65" t="s">
+      <c r="G65" t="s">
+        <v>294</v>
+      </c>
+      <c r="H65" t="s">
         <v>439</v>
       </c>
-      <c r="E65" t="s">
-        <v>193</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="I65" t="s">
         <v>440</v>
       </c>
-      <c r="G65" t="s">
-        <v>53</v>
-      </c>
-      <c r="H65" t="s">
-        <v>441</v>
-      </c>
-      <c r="I65" t="s">
-        <v>442</v>
-      </c>
       <c r="J65" t="s">
-        <v>353</v>
+        <v>42</v>
       </c>
       <c r="K65" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>441</v>
+      </c>
+      <c r="B66" t="s">
+        <v>442</v>
+      </c>
+      <c r="C66" t="s">
         <v>443</v>
       </c>
-      <c r="B66" t="s">
+      <c r="D66" t="s">
+        <v>77</v>
+      </c>
+      <c r="E66" t="s">
+        <v>389</v>
+      </c>
+      <c r="F66" t="s">
         <v>444</v>
       </c>
-      <c r="C66" t="s">
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" t="s">
         <v>445</v>
       </c>
-      <c r="D66" t="s">
-        <v>285</v>
-      </c>
-      <c r="E66" t="s">
-        <v>193</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="I66" t="s">
         <v>446</v>
       </c>
-      <c r="G66" t="s">
-        <v>43</v>
-      </c>
-      <c r="H66" t="s">
-        <v>447</v>
-      </c>
-      <c r="I66" t="s">
-        <v>448</v>
-      </c>
       <c r="J66" t="s">
-        <v>353</v>
+        <v>96</v>
       </c>
       <c r="K66" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>447</v>
+      </c>
+      <c r="B67" t="s">
+        <v>448</v>
+      </c>
+      <c r="C67" t="s">
         <v>449</v>
       </c>
-      <c r="B67" t="s">
+      <c r="D67" t="s">
+        <v>235</v>
+      </c>
+      <c r="E67" t="s">
+        <v>287</v>
+      </c>
+      <c r="F67" t="s">
         <v>450</v>
       </c>
-      <c r="C67" t="s">
+      <c r="G67" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" t="s">
+        <v>164</v>
+      </c>
+      <c r="I67" t="s">
         <v>451</v>
       </c>
-      <c r="D67" t="s">
-        <v>40</v>
-      </c>
-      <c r="E67" t="s">
-        <v>41</v>
-      </c>
-      <c r="F67" t="s">
-        <v>452</v>
-      </c>
-      <c r="G67" t="s">
-        <v>43</v>
-      </c>
-      <c r="H67" t="s">
-        <v>453</v>
-      </c>
-      <c r="I67" t="s">
-        <v>454</v>
-      </c>
       <c r="J67" t="s">
-        <v>353</v>
+        <v>96</v>
       </c>
       <c r="K67" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>452</v>
+      </c>
+      <c r="B68" t="s">
+        <v>453</v>
+      </c>
+      <c r="C68" t="s">
+        <v>454</v>
+      </c>
+      <c r="D68" t="s">
+        <v>214</v>
+      </c>
+      <c r="E68" t="s">
         <v>455</v>
       </c>
-      <c r="B68" t="s">
+      <c r="F68" t="s">
         <v>456</v>
       </c>
-      <c r="C68" t="s">
+      <c r="G68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" t="s">
         <v>457</v>
       </c>
-      <c r="D68" t="s">
-        <v>92</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="I68" t="s">
         <v>458</v>
       </c>
-      <c r="F68" t="s">
-        <v>459</v>
-      </c>
-      <c r="G68" t="s">
-        <v>43</v>
-      </c>
-      <c r="H68" t="s">
-        <v>460</v>
-      </c>
-      <c r="I68" t="s">
-        <v>461</v>
-      </c>
       <c r="J68" t="s">
-        <v>307</v>
+        <v>96</v>
       </c>
       <c r="K68" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>459</v>
+      </c>
+      <c r="B69" t="s">
+        <v>460</v>
+      </c>
+      <c r="C69" t="s">
+        <v>461</v>
+      </c>
+      <c r="D69" t="s">
+        <v>100</v>
+      </c>
+      <c r="E69" t="s">
+        <v>333</v>
+      </c>
+      <c r="F69" t="s">
         <v>462</v>
       </c>
-      <c r="B69" t="s">
+      <c r="G69" t="s">
+        <v>49</v>
+      </c>
+      <c r="H69" t="s">
         <v>463</v>
       </c>
-      <c r="C69" t="s">
+      <c r="I69" t="s">
         <v>464</v>
       </c>
-      <c r="D69" t="s">
-        <v>120</v>
-      </c>
-      <c r="E69" t="s">
-        <v>161</v>
-      </c>
-      <c r="F69" t="s">
-        <v>465</v>
-      </c>
-      <c r="G69" t="s">
+      <c r="J69" t="s">
+        <v>42</v>
+      </c>
+      <c r="K69" t="s">
         <v>43</v>
-      </c>
-      <c r="H69" t="s">
-        <v>466</v>
-      </c>
-      <c r="I69" t="s">
-        <v>467</v>
-      </c>
-      <c r="J69" t="s">
-        <v>307</v>
-      </c>
-      <c r="K69" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>465</v>
+      </c>
+      <c r="B70" t="s">
+        <v>466</v>
+      </c>
+      <c r="C70" t="s">
+        <v>467</v>
+      </c>
+      <c r="D70" t="s">
+        <v>437</v>
+      </c>
+      <c r="E70" t="s">
+        <v>56</v>
+      </c>
+      <c r="F70" t="s">
         <v>468</v>
       </c>
-      <c r="B70" t="s">
-        <v>463</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="G70" t="s">
+        <v>294</v>
+      </c>
+      <c r="H70" t="s">
         <v>469</v>
       </c>
-      <c r="D70" t="s">
-        <v>234</v>
-      </c>
-      <c r="E70" t="s">
-        <v>417</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="I70" t="s">
         <v>470</v>
       </c>
-      <c r="G70" t="s">
+      <c r="J70" t="s">
+        <v>42</v>
+      </c>
+      <c r="K70" t="s">
         <v>43</v>
-      </c>
-      <c r="H70" t="s">
-        <v>471</v>
-      </c>
-      <c r="I70" t="s">
-        <v>472</v>
-      </c>
-      <c r="J70" t="s">
-        <v>307</v>
-      </c>
-      <c r="K70" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>471</v>
+      </c>
+      <c r="B71" t="s">
+        <v>472</v>
+      </c>
+      <c r="C71" t="s">
         <v>473</v>
       </c>
-      <c r="B71" t="s">
+      <c r="D71" t="s">
         <v>474</v>
       </c>
-      <c r="C71" t="s">
+      <c r="E71" t="s">
         <v>475</v>
-      </c>
-      <c r="D71" t="s">
-        <v>291</v>
-      </c>
-      <c r="E71" t="s">
-        <v>334</v>
       </c>
       <c r="F71" t="s">
         <v>476</v>
       </c>
       <c r="G71" t="s">
+        <v>145</v>
+      </c>
+      <c r="H71" t="s">
+        <v>477</v>
+      </c>
+      <c r="I71" t="s">
+        <v>478</v>
+      </c>
+      <c r="J71" t="s">
+        <v>42</v>
+      </c>
+      <c r="K71" t="s">
         <v>43</v>
-      </c>
-      <c r="H71" t="s">
-        <v>136</v>
-      </c>
-      <c r="I71" t="s">
-        <v>477</v>
-      </c>
-      <c r="J71" t="s">
-        <v>46</v>
-      </c>
-      <c r="K71" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B72" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C72" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D72" t="s">
-        <v>481</v>
+        <v>135</v>
       </c>
       <c r="E72" t="s">
+        <v>92</v>
+      </c>
+      <c r="F72" t="s">
         <v>482</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
+        <v>49</v>
+      </c>
+      <c r="H72" t="s">
+        <v>432</v>
+      </c>
+      <c r="I72" t="s">
         <v>483</v>
       </c>
-      <c r="G72" t="s">
-        <v>17</v>
-      </c>
-      <c r="H72" t="s">
-        <v>256</v>
-      </c>
-      <c r="I72" t="s">
-        <v>484</v>
-      </c>
       <c r="J72" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="K72" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>484</v>
+      </c>
+      <c r="B73" t="s">
         <v>485</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>486</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" t="s">
         <v>487</v>
-      </c>
-      <c r="D73" t="s">
-        <v>92</v>
-      </c>
-      <c r="E73" t="s">
-        <v>177</v>
       </c>
       <c r="F73" t="s">
         <v>488</v>
       </c>
       <c r="G73" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H73" t="s">
         <v>489</v>
@@ -4708,10 +4936,10 @@
         <v>490</v>
       </c>
       <c r="J73" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="K73" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74">
@@ -4719,416 +4947,416 @@
         <v>491</v>
       </c>
       <c r="B74" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C74" t="s">
         <v>492</v>
       </c>
       <c r="D74" t="s">
-        <v>105</v>
+        <v>214</v>
       </c>
       <c r="E74" t="s">
-        <v>177</v>
+        <v>487</v>
       </c>
       <c r="F74" t="s">
         <v>493</v>
       </c>
       <c r="G74" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H74" t="s">
+        <v>489</v>
+      </c>
+      <c r="I74" t="s">
         <v>494</v>
       </c>
-      <c r="I74" t="s">
-        <v>495</v>
-      </c>
       <c r="J74" t="s">
-        <v>46</v>
+        <v>276</v>
       </c>
       <c r="K74" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>495</v>
+      </c>
+      <c r="B75" t="s">
         <v>496</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>497</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
+        <v>214</v>
+      </c>
+      <c r="E75" t="s">
+        <v>258</v>
+      </c>
+      <c r="F75" t="s">
         <v>498</v>
       </c>
-      <c r="D75" t="s">
+      <c r="G75" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" t="s">
         <v>499</v>
       </c>
-      <c r="E75" t="s">
-        <v>26</v>
-      </c>
-      <c r="F75" t="s">
+      <c r="I75" t="s">
         <v>500</v>
       </c>
-      <c r="G75" t="s">
-        <v>43</v>
-      </c>
-      <c r="H75" t="s">
-        <v>501</v>
-      </c>
-      <c r="I75" t="s">
-        <v>502</v>
-      </c>
       <c r="J75" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="K75" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>501</v>
+      </c>
+      <c r="B76" t="s">
+        <v>502</v>
+      </c>
+      <c r="C76" t="s">
         <v>503</v>
       </c>
-      <c r="B76" t="s">
+      <c r="D76" t="s">
+        <v>214</v>
+      </c>
+      <c r="E76" t="s">
+        <v>455</v>
+      </c>
+      <c r="F76" t="s">
         <v>504</v>
       </c>
-      <c r="C76" t="s">
+      <c r="G76" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" t="s">
         <v>505</v>
       </c>
-      <c r="D76" t="s">
-        <v>506</v>
-      </c>
-      <c r="E76" t="s">
-        <v>93</v>
-      </c>
-      <c r="F76" t="s">
-        <v>507</v>
-      </c>
-      <c r="G76" t="s">
-        <v>43</v>
-      </c>
-      <c r="H76" t="s">
-        <v>508</v>
-      </c>
       <c r="I76" t="s">
-        <v>509</v>
+        <v>404</v>
       </c>
       <c r="J76" t="s">
-        <v>353</v>
+        <v>96</v>
       </c>
       <c r="K76" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>506</v>
+      </c>
+      <c r="B77" t="s">
+        <v>507</v>
+      </c>
+      <c r="C77" t="s">
+        <v>508</v>
+      </c>
+      <c r="D77" t="s">
+        <v>509</v>
+      </c>
+      <c r="E77" t="s">
+        <v>287</v>
+      </c>
+      <c r="F77" t="s">
         <v>510</v>
       </c>
-      <c r="B77" t="s">
+      <c r="G77" t="s">
+        <v>145</v>
+      </c>
+      <c r="H77" t="s">
         <v>511</v>
       </c>
-      <c r="C77" t="s">
+      <c r="I77" t="s">
         <v>512</v>
       </c>
-      <c r="D77" t="s">
-        <v>513</v>
-      </c>
-      <c r="E77" t="s">
-        <v>93</v>
-      </c>
-      <c r="F77" t="s">
-        <v>514</v>
-      </c>
-      <c r="G77" t="s">
-        <v>43</v>
-      </c>
-      <c r="H77" t="s">
-        <v>515</v>
-      </c>
-      <c r="I77" t="s">
-        <v>516</v>
-      </c>
       <c r="J77" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="K77" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>513</v>
+      </c>
+      <c r="B78" t="s">
+        <v>514</v>
+      </c>
+      <c r="C78" t="s">
+        <v>515</v>
+      </c>
+      <c r="D78" t="s">
+        <v>130</v>
+      </c>
+      <c r="E78" t="s">
+        <v>287</v>
+      </c>
+      <c r="F78" t="s">
+        <v>516</v>
+      </c>
+      <c r="G78" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" t="s">
         <v>517</v>
       </c>
-      <c r="B78" t="s">
+      <c r="I78" t="s">
         <v>518</v>
       </c>
-      <c r="C78" t="s">
-        <v>519</v>
-      </c>
-      <c r="D78" t="s">
-        <v>520</v>
-      </c>
-      <c r="E78" t="s">
-        <v>177</v>
-      </c>
-      <c r="F78" t="s">
-        <v>521</v>
-      </c>
-      <c r="G78" t="s">
-        <v>17</v>
-      </c>
-      <c r="H78" t="s">
-        <v>522</v>
-      </c>
-      <c r="I78" t="s">
-        <v>523</v>
-      </c>
       <c r="J78" t="s">
-        <v>353</v>
+        <v>60</v>
       </c>
       <c r="K78" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>519</v>
+      </c>
+      <c r="B79" t="s">
+        <v>520</v>
+      </c>
+      <c r="C79" t="s">
+        <v>521</v>
+      </c>
+      <c r="D79" t="s">
+        <v>123</v>
+      </c>
+      <c r="E79" t="s">
+        <v>124</v>
+      </c>
+      <c r="F79" t="s">
+        <v>522</v>
+      </c>
+      <c r="G79" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" t="s">
+        <v>523</v>
+      </c>
+      <c r="I79" t="s">
         <v>524</v>
       </c>
-      <c r="B79" t="s">
-        <v>518</v>
-      </c>
-      <c r="C79" t="s">
-        <v>525</v>
-      </c>
-      <c r="D79" t="s">
-        <v>357</v>
-      </c>
-      <c r="E79" t="s">
-        <v>106</v>
-      </c>
-      <c r="F79" t="s">
-        <v>521</v>
-      </c>
-      <c r="G79" t="s">
-        <v>17</v>
-      </c>
-      <c r="H79" t="s">
-        <v>526</v>
-      </c>
-      <c r="I79" t="s">
-        <v>527</v>
-      </c>
       <c r="J79" t="s">
-        <v>353</v>
+        <v>60</v>
       </c>
       <c r="K79" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>525</v>
+      </c>
+      <c r="B80" t="s">
+        <v>526</v>
+      </c>
+      <c r="C80" t="s">
+        <v>527</v>
+      </c>
+      <c r="D80" t="s">
+        <v>189</v>
+      </c>
+      <c r="E80" t="s">
+        <v>78</v>
+      </c>
+      <c r="F80" t="s">
         <v>528</v>
       </c>
-      <c r="B80" t="s">
+      <c r="G80" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" t="s">
         <v>529</v>
       </c>
-      <c r="C80" t="s">
+      <c r="I80" t="s">
         <v>530</v>
       </c>
-      <c r="D80" t="s">
-        <v>371</v>
-      </c>
-      <c r="E80" t="s">
-        <v>106</v>
-      </c>
-      <c r="F80" t="s">
-        <v>531</v>
-      </c>
-      <c r="G80" t="s">
-        <v>43</v>
-      </c>
-      <c r="H80" t="s">
-        <v>532</v>
-      </c>
-      <c r="I80" t="s">
-        <v>533</v>
-      </c>
       <c r="J80" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="K80" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>531</v>
+      </c>
+      <c r="B81" t="s">
+        <v>532</v>
+      </c>
+      <c r="C81" t="s">
+        <v>533</v>
+      </c>
+      <c r="D81" t="s">
+        <v>214</v>
+      </c>
+      <c r="E81" t="s">
+        <v>258</v>
+      </c>
+      <c r="F81" t="s">
         <v>534</v>
       </c>
-      <c r="B81" t="s">
+      <c r="G81" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" t="s">
         <v>535</v>
       </c>
-      <c r="C81" t="s">
+      <c r="I81" t="s">
         <v>536</v>
       </c>
-      <c r="D81" t="s">
-        <v>364</v>
-      </c>
-      <c r="E81" t="s">
-        <v>169</v>
-      </c>
-      <c r="F81" t="s">
-        <v>537</v>
-      </c>
-      <c r="G81" t="s">
-        <v>17</v>
-      </c>
-      <c r="H81" t="s">
-        <v>538</v>
-      </c>
-      <c r="I81" t="s">
-        <v>539</v>
-      </c>
       <c r="J81" t="s">
-        <v>353</v>
+        <v>96</v>
       </c>
       <c r="K81" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>537</v>
+      </c>
+      <c r="B82" t="s">
+        <v>532</v>
+      </c>
+      <c r="C82" t="s">
+        <v>538</v>
+      </c>
+      <c r="D82" t="s">
+        <v>326</v>
+      </c>
+      <c r="E82" t="s">
+        <v>487</v>
+      </c>
+      <c r="F82" t="s">
+        <v>539</v>
+      </c>
+      <c r="G82" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" t="s">
         <v>540</v>
       </c>
-      <c r="B82" t="s">
-        <v>535</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="I82" t="s">
         <v>541</v>
       </c>
-      <c r="D82" t="s">
-        <v>25</v>
-      </c>
-      <c r="E82" t="s">
-        <v>482</v>
-      </c>
-      <c r="F82" t="s">
-        <v>542</v>
-      </c>
-      <c r="G82" t="s">
-        <v>43</v>
-      </c>
-      <c r="H82" t="s">
-        <v>543</v>
-      </c>
-      <c r="I82" t="s">
-        <v>544</v>
-      </c>
       <c r="J82" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="K82" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>542</v>
+      </c>
+      <c r="B83" t="s">
+        <v>543</v>
+      </c>
+      <c r="C83" t="s">
+        <v>544</v>
+      </c>
+      <c r="D83" t="s">
         <v>545</v>
       </c>
-      <c r="B83" t="s">
-        <v>535</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="E83" t="s">
+        <v>408</v>
+      </c>
+      <c r="F83" t="s">
         <v>546</v>
       </c>
-      <c r="D83" t="s">
-        <v>371</v>
-      </c>
-      <c r="E83" t="s">
-        <v>193</v>
-      </c>
-      <c r="F83" t="s">
-        <v>531</v>
-      </c>
       <c r="G83" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H83" t="s">
+        <v>230</v>
+      </c>
+      <c r="I83" t="s">
         <v>547</v>
       </c>
-      <c r="I83" t="s">
-        <v>548</v>
-      </c>
       <c r="J83" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="K83" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>548</v>
+      </c>
+      <c r="B84" t="s">
         <v>549</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>550</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>551</v>
       </c>
-      <c r="D84" t="s">
-        <v>40</v>
-      </c>
       <c r="E84" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="F84" t="s">
         <v>552</v>
       </c>
       <c r="G84" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H84" t="s">
+        <v>348</v>
+      </c>
+      <c r="I84" t="s">
         <v>553</v>
       </c>
-      <c r="I84" t="s">
-        <v>554</v>
-      </c>
       <c r="J84" t="s">
-        <v>353</v>
+        <v>42</v>
       </c>
       <c r="K84" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>554</v>
+      </c>
+      <c r="B85" t="s">
         <v>555</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>556</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
+        <v>189</v>
+      </c>
+      <c r="E85" t="s">
+        <v>136</v>
+      </c>
+      <c r="F85" t="s">
         <v>557</v>
       </c>
-      <c r="D85" t="s">
-        <v>227</v>
-      </c>
-      <c r="E85" t="s">
+      <c r="G85" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" t="s">
         <v>558</v>
       </c>
-      <c r="F85" t="s">
+      <c r="I85" t="s">
         <v>559</v>
       </c>
-      <c r="G85" t="s">
-        <v>53</v>
-      </c>
-      <c r="H85" t="s">
-        <v>560</v>
-      </c>
-      <c r="I85" t="s">
-        <v>561</v>
-      </c>
       <c r="J85" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="K85" t="s">
         <v>21</v>
@@ -5136,31 +5364,31 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>560</v>
+      </c>
+      <c r="B86" t="s">
+        <v>555</v>
+      </c>
+      <c r="C86" t="s">
+        <v>561</v>
+      </c>
+      <c r="D86" t="s">
+        <v>201</v>
+      </c>
+      <c r="E86" t="s">
+        <v>136</v>
+      </c>
+      <c r="F86" t="s">
         <v>562</v>
       </c>
-      <c r="B86" t="s">
-        <v>556</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="G86" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" t="s">
         <v>563</v>
       </c>
-      <c r="D86" t="s">
+      <c r="I86" t="s">
         <v>564</v>
-      </c>
-      <c r="E86" t="s">
-        <v>33</v>
-      </c>
-      <c r="F86" t="s">
-        <v>565</v>
-      </c>
-      <c r="G86" t="s">
-        <v>53</v>
-      </c>
-      <c r="H86" t="s">
-        <v>566</v>
-      </c>
-      <c r="I86" t="s">
-        <v>567</v>
       </c>
       <c r="J86" t="s">
         <v>20</v>
@@ -5171,174 +5399,174 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>565</v>
+      </c>
+      <c r="B87" t="s">
+        <v>566</v>
+      </c>
+      <c r="C87" t="s">
+        <v>567</v>
+      </c>
+      <c r="D87" t="s">
         <v>568</v>
       </c>
-      <c r="B87" t="s">
+      <c r="E87" t="s">
+        <v>109</v>
+      </c>
+      <c r="F87" t="s">
         <v>569</v>
       </c>
-      <c r="C87" t="s">
+      <c r="G87" t="s">
+        <v>17</v>
+      </c>
+      <c r="H87" t="s">
         <v>570</v>
       </c>
-      <c r="D87" t="s">
-        <v>65</v>
-      </c>
-      <c r="E87" t="s">
-        <v>41</v>
-      </c>
-      <c r="F87" t="s">
+      <c r="I87" t="s">
         <v>571</v>
       </c>
-      <c r="G87" t="s">
-        <v>43</v>
-      </c>
-      <c r="H87" t="s">
-        <v>572</v>
-      </c>
-      <c r="I87" t="s">
-        <v>573</v>
-      </c>
       <c r="J87" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="K87" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>572</v>
+      </c>
+      <c r="B88" t="s">
+        <v>573</v>
+      </c>
+      <c r="C88" t="s">
         <v>574</v>
       </c>
-      <c r="B88" t="s">
+      <c r="D88" t="s">
+        <v>46</v>
+      </c>
+      <c r="E88" t="s">
+        <v>56</v>
+      </c>
+      <c r="F88" t="s">
         <v>575</v>
       </c>
-      <c r="C88" t="s">
+      <c r="G88" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" t="s">
         <v>576</v>
       </c>
-      <c r="D88" t="s">
-        <v>176</v>
-      </c>
-      <c r="E88" t="s">
-        <v>15</v>
-      </c>
-      <c r="F88" t="s">
+      <c r="I88" t="s">
         <v>577</v>
       </c>
-      <c r="G88" t="s">
-        <v>43</v>
-      </c>
-      <c r="H88" t="s">
-        <v>578</v>
-      </c>
-      <c r="I88" t="s">
-        <v>579</v>
-      </c>
       <c r="J88" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="K88" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>578</v>
+      </c>
+      <c r="B89" t="s">
+        <v>579</v>
+      </c>
+      <c r="C89" t="s">
         <v>580</v>
       </c>
-      <c r="B89" t="s">
+      <c r="D89" t="s">
         <v>581</v>
       </c>
-      <c r="C89" t="s">
+      <c r="E89" t="s">
+        <v>56</v>
+      </c>
+      <c r="F89" t="s">
         <v>582</v>
       </c>
-      <c r="D89" t="s">
-        <v>120</v>
-      </c>
-      <c r="E89" t="s">
-        <v>383</v>
-      </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" t="s">
         <v>583</v>
       </c>
-      <c r="G89" t="s">
-        <v>43</v>
-      </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
         <v>584</v>
       </c>
-      <c r="I89" t="s">
-        <v>585</v>
-      </c>
       <c r="J89" t="s">
-        <v>307</v>
+        <v>20</v>
       </c>
       <c r="K89" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>585</v>
+      </c>
+      <c r="B90" t="s">
         <v>586</v>
-      </c>
-      <c r="B90" t="s">
-        <v>581</v>
       </c>
       <c r="C90" t="s">
         <v>587</v>
       </c>
       <c r="D90" t="s">
-        <v>92</v>
+        <v>588</v>
       </c>
       <c r="E90" t="s">
-        <v>417</v>
+        <v>136</v>
       </c>
       <c r="F90" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G90" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H90" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="I90" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="J90" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="K90" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B91" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C91" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D91" t="s">
-        <v>593</v>
+        <v>430</v>
       </c>
       <c r="E91" t="s">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="F91" t="s">
+        <v>589</v>
+      </c>
+      <c r="G91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H91" t="s">
         <v>594</v>
       </c>
-      <c r="G91" t="s">
-        <v>17</v>
-      </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>595</v>
       </c>
-      <c r="I91" t="s">
-        <v>596</v>
-      </c>
       <c r="J91" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K91" t="s">
         <v>21</v>
@@ -5346,25 +5574,25 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>596</v>
+      </c>
+      <c r="B92" t="s">
         <v>597</v>
-      </c>
-      <c r="B92" t="s">
-        <v>591</v>
       </c>
       <c r="C92" t="s">
         <v>598</v>
       </c>
       <c r="D92" t="s">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="E92" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="F92" t="s">
         <v>599</v>
       </c>
       <c r="G92" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="H92" t="s">
         <v>600</v>
@@ -5390,25 +5618,25 @@
         <v>604</v>
       </c>
       <c r="D93" t="s">
+        <v>437</v>
+      </c>
+      <c r="E93" t="s">
+        <v>266</v>
+      </c>
+      <c r="F93" t="s">
         <v>605</v>
       </c>
-      <c r="E93" t="s">
-        <v>106</v>
-      </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
+        <v>49</v>
+      </c>
+      <c r="H93" t="s">
         <v>606</v>
       </c>
-      <c r="G93" t="s">
-        <v>17</v>
-      </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
         <v>607</v>
       </c>
-      <c r="I93" t="s">
-        <v>608</v>
-      </c>
       <c r="J93" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K93" t="s">
         <v>21</v>
@@ -5416,451 +5644,451 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>608</v>
+      </c>
+      <c r="B94" t="s">
+        <v>603</v>
+      </c>
+      <c r="C94" t="s">
         <v>609</v>
       </c>
-      <c r="B94" t="s">
+      <c r="D94" t="s">
+        <v>108</v>
+      </c>
+      <c r="E94" t="s">
+        <v>101</v>
+      </c>
+      <c r="F94" t="s">
         <v>610</v>
       </c>
-      <c r="C94" t="s">
+      <c r="G94" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" t="s">
         <v>611</v>
       </c>
-      <c r="D94" t="s">
-        <v>25</v>
-      </c>
-      <c r="E94" t="s">
-        <v>106</v>
-      </c>
-      <c r="F94" t="s">
+      <c r="I94" t="s">
         <v>612</v>
       </c>
-      <c r="G94" t="s">
-        <v>43</v>
-      </c>
-      <c r="H94" t="s">
-        <v>613</v>
-      </c>
-      <c r="I94" t="s">
-        <v>614</v>
-      </c>
       <c r="J94" t="s">
-        <v>353</v>
+        <v>20</v>
       </c>
       <c r="K94" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>613</v>
+      </c>
+      <c r="B95" t="s">
+        <v>603</v>
+      </c>
+      <c r="C95" t="s">
+        <v>614</v>
+      </c>
+      <c r="D95" t="s">
+        <v>77</v>
+      </c>
+      <c r="E95" t="s">
+        <v>287</v>
+      </c>
+      <c r="F95" t="s">
+        <v>599</v>
+      </c>
+      <c r="G95" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" t="s">
         <v>615</v>
       </c>
-      <c r="B95" t="s">
+      <c r="I95" t="s">
         <v>616</v>
       </c>
-      <c r="C95" t="s">
-        <v>617</v>
-      </c>
-      <c r="D95" t="s">
-        <v>120</v>
-      </c>
-      <c r="E95" t="s">
-        <v>458</v>
-      </c>
-      <c r="F95" t="s">
-        <v>618</v>
-      </c>
-      <c r="G95" t="s">
-        <v>43</v>
-      </c>
-      <c r="H95" t="s">
-        <v>619</v>
-      </c>
-      <c r="I95" t="s">
-        <v>620</v>
-      </c>
       <c r="J95" t="s">
-        <v>307</v>
+        <v>20</v>
       </c>
       <c r="K95" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>617</v>
+      </c>
+      <c r="B96" t="s">
+        <v>618</v>
+      </c>
+      <c r="C96" t="s">
+        <v>619</v>
+      </c>
+      <c r="D96" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96" t="s">
+        <v>124</v>
+      </c>
+      <c r="F96" t="s">
+        <v>620</v>
+      </c>
+      <c r="G96" t="s">
+        <v>17</v>
+      </c>
+      <c r="H96" t="s">
         <v>621</v>
       </c>
-      <c r="B96" t="s">
-        <v>616</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="I96" t="s">
         <v>622</v>
       </c>
-      <c r="D96" t="s">
-        <v>120</v>
-      </c>
-      <c r="E96" t="s">
-        <v>458</v>
-      </c>
-      <c r="F96" t="s">
-        <v>623</v>
-      </c>
-      <c r="G96" t="s">
-        <v>43</v>
-      </c>
-      <c r="H96" t="s">
-        <v>624</v>
-      </c>
-      <c r="I96" t="s">
-        <v>625</v>
-      </c>
       <c r="J96" t="s">
-        <v>307</v>
+        <v>20</v>
       </c>
       <c r="K96" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>623</v>
+      </c>
+      <c r="B97" t="s">
+        <v>624</v>
+      </c>
+      <c r="C97" t="s">
+        <v>625</v>
+      </c>
+      <c r="D97" t="s">
+        <v>55</v>
+      </c>
+      <c r="E97" t="s">
+        <v>85</v>
+      </c>
+      <c r="F97" t="s">
         <v>626</v>
       </c>
-      <c r="B97" t="s">
+      <c r="G97" t="s">
+        <v>17</v>
+      </c>
+      <c r="H97" t="s">
         <v>627</v>
       </c>
-      <c r="C97" t="s">
-        <v>284</v>
-      </c>
-      <c r="D97" t="s">
-        <v>160</v>
-      </c>
-      <c r="E97" t="s">
-        <v>482</v>
-      </c>
-      <c r="F97" t="s">
+      <c r="I97" t="s">
         <v>628</v>
       </c>
-      <c r="G97" t="s">
-        <v>43</v>
-      </c>
-      <c r="H97" t="s">
-        <v>28</v>
-      </c>
-      <c r="I97" t="s">
-        <v>629</v>
-      </c>
       <c r="J97" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="K97" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>629</v>
+      </c>
+      <c r="B98" t="s">
         <v>630</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>631</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
+        <v>214</v>
+      </c>
+      <c r="E98" t="s">
+        <v>455</v>
+      </c>
+      <c r="F98" t="s">
         <v>632</v>
       </c>
-      <c r="D98" t="s">
-        <v>92</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="G98" t="s">
+        <v>17</v>
+      </c>
+      <c r="H98" t="s">
         <v>633</v>
       </c>
-      <c r="F98" t="s">
+      <c r="I98" t="s">
         <v>634</v>
       </c>
-      <c r="G98" t="s">
-        <v>43</v>
-      </c>
-      <c r="H98" t="s">
-        <v>635</v>
-      </c>
-      <c r="I98" t="s">
-        <v>636</v>
-      </c>
       <c r="J98" t="s">
-        <v>637</v>
+        <v>96</v>
       </c>
       <c r="K98" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>635</v>
+      </c>
+      <c r="B99" t="s">
+        <v>630</v>
+      </c>
+      <c r="C99" t="s">
+        <v>636</v>
+      </c>
+      <c r="D99" t="s">
+        <v>189</v>
+      </c>
+      <c r="E99" t="s">
+        <v>487</v>
+      </c>
+      <c r="F99" t="s">
+        <v>637</v>
+      </c>
+      <c r="G99" t="s">
+        <v>17</v>
+      </c>
+      <c r="H99" t="s">
         <v>638</v>
       </c>
-      <c r="B99" t="s">
-        <v>631</v>
-      </c>
-      <c r="C99" t="s">
-        <v>639</v>
-      </c>
-      <c r="D99" t="s">
-        <v>248</v>
-      </c>
-      <c r="E99" t="s">
-        <v>161</v>
-      </c>
-      <c r="F99" t="s">
-        <v>640</v>
-      </c>
-      <c r="G99" t="s">
-        <v>43</v>
-      </c>
-      <c r="H99" t="s">
-        <v>641</v>
-      </c>
       <c r="I99" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="J99" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="K99" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>639</v>
+      </c>
+      <c r="B100" t="s">
+        <v>640</v>
+      </c>
+      <c r="C100" t="s">
+        <v>641</v>
+      </c>
+      <c r="D100" t="s">
+        <v>642</v>
+      </c>
+      <c r="E100" t="s">
+        <v>56</v>
+      </c>
+      <c r="F100" t="s">
         <v>643</v>
       </c>
-      <c r="B100" t="s">
+      <c r="G100" t="s">
+        <v>49</v>
+      </c>
+      <c r="H100" t="s">
         <v>644</v>
       </c>
-      <c r="C100" t="s">
+      <c r="I100" t="s">
         <v>645</v>
       </c>
-      <c r="D100" t="s">
-        <v>646</v>
-      </c>
-      <c r="E100" t="s">
-        <v>193</v>
-      </c>
-      <c r="F100" t="s">
-        <v>647</v>
-      </c>
-      <c r="G100" t="s">
-        <v>53</v>
-      </c>
-      <c r="H100" t="s">
-        <v>648</v>
-      </c>
-      <c r="I100" t="s">
-        <v>649</v>
-      </c>
       <c r="J100" t="s">
-        <v>650</v>
+        <v>42</v>
       </c>
       <c r="K100" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B101" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="C101" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="D101" t="s">
-        <v>654</v>
+        <v>286</v>
       </c>
       <c r="E101" t="s">
-        <v>193</v>
+        <v>266</v>
       </c>
       <c r="F101" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="G101" t="s">
+        <v>145</v>
+      </c>
+      <c r="H101" t="s">
+        <v>649</v>
+      </c>
+      <c r="I101" t="s">
+        <v>650</v>
+      </c>
+      <c r="J101" t="s">
+        <v>42</v>
+      </c>
+      <c r="K101" t="s">
         <v>43</v>
-      </c>
-      <c r="H101" t="s">
-        <v>656</v>
-      </c>
-      <c r="I101" t="s">
-        <v>657</v>
-      </c>
-      <c r="J101" t="s">
-        <v>181</v>
-      </c>
-      <c r="K101" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="B102" t="s">
         <v>652</v>
       </c>
       <c r="C102" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="D102" t="s">
-        <v>127</v>
+        <v>654</v>
       </c>
       <c r="E102" t="s">
-        <v>26</v>
+        <v>202</v>
       </c>
       <c r="F102" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="G102" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H102" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="I102" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="J102" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="K102" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
+        <v>658</v>
+      </c>
+      <c r="B103" t="s">
+        <v>659</v>
+      </c>
+      <c r="C103" t="s">
+        <v>660</v>
+      </c>
+      <c r="D103" t="s">
+        <v>108</v>
+      </c>
+      <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
+        <v>661</v>
+      </c>
+      <c r="G103" t="s">
+        <v>17</v>
+      </c>
+      <c r="H103" t="s">
+        <v>662</v>
+      </c>
+      <c r="I103" t="s">
         <v>663</v>
       </c>
-      <c r="B103" t="s">
-        <v>664</v>
-      </c>
-      <c r="C103" t="s">
-        <v>665</v>
-      </c>
-      <c r="D103" t="s">
-        <v>666</v>
-      </c>
-      <c r="E103" t="s">
-        <v>667</v>
-      </c>
-      <c r="F103" t="s">
-        <v>668</v>
-      </c>
-      <c r="G103" t="s">
-        <v>202</v>
-      </c>
-      <c r="H103" t="s">
-        <v>669</v>
-      </c>
-      <c r="I103" t="s">
-        <v>670</v>
-      </c>
       <c r="J103" t="s">
-        <v>671</v>
+        <v>60</v>
       </c>
       <c r="K103" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="B104" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="C104" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="D104" t="s">
-        <v>134</v>
+        <v>214</v>
       </c>
       <c r="E104" t="s">
-        <v>303</v>
+        <v>78</v>
       </c>
       <c r="F104" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="G104" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H104" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="I104" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="J104" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="K104" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="B105" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="C105" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="D105" t="s">
-        <v>411</v>
+        <v>214</v>
       </c>
       <c r="E105" t="s">
-        <v>349</v>
+        <v>78</v>
       </c>
       <c r="F105" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="G105" t="s">
-        <v>202</v>
+        <v>17</v>
       </c>
       <c r="H105" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="I105" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="J105" t="s">
-        <v>353</v>
+        <v>96</v>
       </c>
       <c r="K105" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="B106" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="C106" t="s">
-        <v>686</v>
+        <v>376</v>
       </c>
       <c r="D106" t="s">
-        <v>687</v>
+        <v>182</v>
       </c>
       <c r="E106" t="s">
-        <v>688</v>
+        <v>101</v>
       </c>
       <c r="F106" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="G106" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H106" t="s">
-        <v>690</v>
+        <v>111</v>
       </c>
       <c r="I106" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="J106" t="s">
         <v>20</v>
@@ -5871,37 +6099,527 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>679</v>
+      </c>
+      <c r="B107" t="s">
+        <v>680</v>
+      </c>
+      <c r="C107" t="s">
+        <v>681</v>
+      </c>
+      <c r="D107" t="s">
+        <v>189</v>
+      </c>
+      <c r="E107" t="s">
+        <v>682</v>
+      </c>
+      <c r="F107" t="s">
+        <v>683</v>
+      </c>
+      <c r="G107" t="s">
+        <v>17</v>
+      </c>
+      <c r="H107" t="s">
+        <v>684</v>
+      </c>
+      <c r="I107" t="s">
+        <v>685</v>
+      </c>
+      <c r="J107" t="s">
+        <v>686</v>
+      </c>
+      <c r="K107" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>687</v>
+      </c>
+      <c r="B108" t="s">
+        <v>680</v>
+      </c>
+      <c r="C108" t="s">
+        <v>688</v>
+      </c>
+      <c r="D108" t="s">
+        <v>340</v>
+      </c>
+      <c r="E108" t="s">
+        <v>258</v>
+      </c>
+      <c r="F108" t="s">
+        <v>689</v>
+      </c>
+      <c r="G108" t="s">
+        <v>17</v>
+      </c>
+      <c r="H108" t="s">
+        <v>690</v>
+      </c>
+      <c r="I108" t="s">
+        <v>691</v>
+      </c>
+      <c r="J108" t="s">
+        <v>20</v>
+      </c>
+      <c r="K108" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
         <v>692</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B109" t="s">
         <v>693</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C109" t="s">
         <v>694</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D109" t="s">
         <v>695</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E109" t="s">
+        <v>287</v>
+      </c>
+      <c r="F109" t="s">
         <v>696</v>
       </c>
-      <c r="F107" t="s">
+      <c r="G109" t="s">
+        <v>145</v>
+      </c>
+      <c r="H109" t="s">
         <v>697</v>
       </c>
-      <c r="G107" t="s">
+      <c r="I109" t="s">
+        <v>698</v>
+      </c>
+      <c r="J109" t="s">
+        <v>699</v>
+      </c>
+      <c r="K109" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>700</v>
+      </c>
+      <c r="B110" t="s">
+        <v>701</v>
+      </c>
+      <c r="C110" t="s">
+        <v>702</v>
+      </c>
+      <c r="D110" t="s">
+        <v>703</v>
+      </c>
+      <c r="E110" t="s">
+        <v>287</v>
+      </c>
+      <c r="F110" t="s">
+        <v>704</v>
+      </c>
+      <c r="G110" t="s">
+        <v>17</v>
+      </c>
+      <c r="H110" t="s">
+        <v>705</v>
+      </c>
+      <c r="I110" t="s">
+        <v>706</v>
+      </c>
+      <c r="J110" t="s">
+        <v>276</v>
+      </c>
+      <c r="K110" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>707</v>
+      </c>
+      <c r="B111" t="s">
+        <v>701</v>
+      </c>
+      <c r="C111" t="s">
+        <v>708</v>
+      </c>
+      <c r="D111" t="s">
+        <v>221</v>
+      </c>
+      <c r="E111" t="s">
+        <v>109</v>
+      </c>
+      <c r="F111" t="s">
+        <v>709</v>
+      </c>
+      <c r="G111" t="s">
+        <v>145</v>
+      </c>
+      <c r="H111" t="s">
+        <v>710</v>
+      </c>
+      <c r="I111" t="s">
+        <v>711</v>
+      </c>
+      <c r="J111" t="s">
+        <v>42</v>
+      </c>
+      <c r="K111" t="s">
         <v>43</v>
       </c>
-      <c r="H107" t="s">
-        <v>698</v>
-      </c>
-      <c r="I107" t="s">
-        <v>341</v>
-      </c>
-      <c r="J107" t="s">
-        <v>353</v>
-      </c>
-      <c r="K107" t="s">
-        <v>47</v>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>712</v>
+      </c>
+      <c r="B112" t="s">
+        <v>713</v>
+      </c>
+      <c r="C112" t="s">
+        <v>714</v>
+      </c>
+      <c r="D112" t="s">
+        <v>715</v>
+      </c>
+      <c r="E112" t="s">
+        <v>716</v>
+      </c>
+      <c r="F112" t="s">
+        <v>717</v>
+      </c>
+      <c r="G112" t="s">
+        <v>294</v>
+      </c>
+      <c r="H112" t="s">
+        <v>718</v>
+      </c>
+      <c r="I112" t="s">
+        <v>719</v>
+      </c>
+      <c r="J112" t="s">
+        <v>720</v>
+      </c>
+      <c r="K112" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>721</v>
+      </c>
+      <c r="B113" t="s">
+        <v>713</v>
+      </c>
+      <c r="C113" t="s">
+        <v>722</v>
+      </c>
+      <c r="D113" t="s">
+        <v>723</v>
+      </c>
+      <c r="E113" t="s">
+        <v>31</v>
+      </c>
+      <c r="F113" t="s">
+        <v>724</v>
+      </c>
+      <c r="G113" t="s">
+        <v>145</v>
+      </c>
+      <c r="H113" t="s">
+        <v>725</v>
+      </c>
+      <c r="I113" t="s">
+        <v>726</v>
+      </c>
+      <c r="J113" t="s">
+        <v>699</v>
+      </c>
+      <c r="K113" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>727</v>
+      </c>
+      <c r="B114" t="s">
+        <v>728</v>
+      </c>
+      <c r="C114" t="s">
+        <v>729</v>
+      </c>
+      <c r="D114" t="s">
+        <v>228</v>
+      </c>
+      <c r="E114" t="s">
+        <v>389</v>
+      </c>
+      <c r="F114" t="s">
+        <v>730</v>
+      </c>
+      <c r="G114" t="s">
+        <v>17</v>
+      </c>
+      <c r="H114" t="s">
+        <v>731</v>
+      </c>
+      <c r="I114" t="s">
+        <v>732</v>
+      </c>
+      <c r="J114" t="s">
+        <v>20</v>
+      </c>
+      <c r="K114" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>733</v>
+      </c>
+      <c r="B115" t="s">
+        <v>734</v>
+      </c>
+      <c r="C115" t="s">
+        <v>735</v>
+      </c>
+      <c r="D115" t="s">
+        <v>135</v>
+      </c>
+      <c r="E115" t="s">
+        <v>736</v>
+      </c>
+      <c r="F115" t="s">
+        <v>737</v>
+      </c>
+      <c r="G115" t="s">
+        <v>145</v>
+      </c>
+      <c r="H115" t="s">
+        <v>738</v>
+      </c>
+      <c r="I115" t="s">
+        <v>674</v>
+      </c>
+      <c r="J115" t="s">
+        <v>42</v>
+      </c>
+      <c r="K115" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>739</v>
+      </c>
+      <c r="B116" t="s">
+        <v>734</v>
+      </c>
+      <c r="C116" t="s">
+        <v>740</v>
+      </c>
+      <c r="D116" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116" t="s">
+        <v>168</v>
+      </c>
+      <c r="F116" t="s">
+        <v>741</v>
+      </c>
+      <c r="G116" t="s">
+        <v>145</v>
+      </c>
+      <c r="H116" t="s">
+        <v>253</v>
+      </c>
+      <c r="I116" t="s">
+        <v>742</v>
+      </c>
+      <c r="J116" t="s">
+        <v>42</v>
+      </c>
+      <c r="K116" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>743</v>
+      </c>
+      <c r="B117" t="s">
+        <v>744</v>
+      </c>
+      <c r="C117" t="s">
+        <v>745</v>
+      </c>
+      <c r="D117" t="s">
+        <v>214</v>
+      </c>
+      <c r="E117" t="s">
+        <v>258</v>
+      </c>
+      <c r="F117" t="s">
+        <v>746</v>
+      </c>
+      <c r="G117" t="s">
+        <v>17</v>
+      </c>
+      <c r="H117" t="s">
+        <v>747</v>
+      </c>
+      <c r="I117" t="s">
+        <v>748</v>
+      </c>
+      <c r="J117" t="s">
+        <v>276</v>
+      </c>
+      <c r="K117" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>749</v>
+      </c>
+      <c r="B118" t="s">
+        <v>750</v>
+      </c>
+      <c r="C118" t="s">
+        <v>751</v>
+      </c>
+      <c r="D118" t="s">
+        <v>108</v>
+      </c>
+      <c r="E118" t="s">
+        <v>716</v>
+      </c>
+      <c r="F118" t="s">
+        <v>752</v>
+      </c>
+      <c r="G118" t="s">
+        <v>49</v>
+      </c>
+      <c r="H118" t="s">
+        <v>753</v>
+      </c>
+      <c r="I118" t="s">
+        <v>754</v>
+      </c>
+      <c r="J118" t="s">
+        <v>42</v>
+      </c>
+      <c r="K118" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>755</v>
+      </c>
+      <c r="B119" t="s">
+        <v>756</v>
+      </c>
+      <c r="C119" t="s">
+        <v>757</v>
+      </c>
+      <c r="D119" t="s">
+        <v>228</v>
+      </c>
+      <c r="E119" t="s">
+        <v>101</v>
+      </c>
+      <c r="F119" t="s">
+        <v>758</v>
+      </c>
+      <c r="G119" t="s">
+        <v>49</v>
+      </c>
+      <c r="H119" t="s">
+        <v>759</v>
+      </c>
+      <c r="I119" t="s">
+        <v>760</v>
+      </c>
+      <c r="J119" t="s">
+        <v>42</v>
+      </c>
+      <c r="K119" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>761</v>
+      </c>
+      <c r="B120" t="s">
+        <v>762</v>
+      </c>
+      <c r="C120" t="s">
+        <v>763</v>
+      </c>
+      <c r="D120" t="s">
+        <v>135</v>
+      </c>
+      <c r="E120" t="s">
+        <v>423</v>
+      </c>
+      <c r="F120" t="s">
+        <v>764</v>
+      </c>
+      <c r="G120" t="s">
+        <v>294</v>
+      </c>
+      <c r="H120" t="s">
+        <v>765</v>
+      </c>
+      <c r="I120" t="s">
+        <v>766</v>
+      </c>
+      <c r="J120" t="s">
+        <v>60</v>
+      </c>
+      <c r="K120" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>767</v>
+      </c>
+      <c r="B121" t="s">
+        <v>768</v>
+      </c>
+      <c r="C121" t="s">
+        <v>769</v>
+      </c>
+      <c r="D121" t="s">
+        <v>770</v>
+      </c>
+      <c r="E121" t="s">
+        <v>771</v>
+      </c>
+      <c r="F121" t="s">
+        <v>772</v>
+      </c>
+      <c r="G121" t="s">
+        <v>17</v>
+      </c>
+      <c r="H121" t="s">
+        <v>773</v>
+      </c>
+      <c r="I121" t="s">
+        <v>774</v>
+      </c>
+      <c r="J121" t="s">
+        <v>42</v>
+      </c>
+      <c r="K121" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/build/classes/files/sismos.xlsx
+++ b/build/classes/files/sismos.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEC\II SEMESTRE\Progra Orientada a Objetos\TAREAS PROGRAMADAS\TAREA 1\PROYECTO JAVA\Proyecto-1-POO\src\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E45D552-5AB2-4958-A7AC-E683FEAD1AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" r:id="rId3" sheetId="1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="801">
   <si>
     <t>Id</t>
   </si>
@@ -50,7 +58,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>1 Jan 2021</t>
+    <t>1 ene. 2021</t>
   </si>
   <si>
     <t>14:12:05</t>
@@ -59,7 +67,7 @@
     <t>7.000</t>
   </si>
   <si>
-    <t>2.82Ml</t>
+    <t>2.83Ml</t>
   </si>
   <si>
     <t>Desamparados</t>
@@ -101,7 +109,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>3 Jan 2021</t>
+    <t>3 ene. 2021</t>
   </si>
   <si>
     <t>07:25:00</t>
@@ -119,7 +127,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>4 Jan 2021</t>
+    <t>4 ene. 2021</t>
   </si>
   <si>
     <t>20:03:00</t>
@@ -173,7 +181,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>6 Jan 2021</t>
+    <t>6 ene. 2021</t>
   </si>
   <si>
     <t>15:12:00</t>
@@ -218,7 +226,7 @@
     <t>7</t>
   </si>
   <si>
-    <t>7 Jan 2021</t>
+    <t>7 ene. 2021</t>
   </si>
   <si>
     <t>12:48:00</t>
@@ -239,7 +247,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>8 Jan 2021</t>
+    <t>8 ene. 2021</t>
   </si>
   <si>
     <t>19:33:00</t>
@@ -263,7 +271,7 @@
     <t>9</t>
   </si>
   <si>
-    <t>20 Jan 2021</t>
+    <t>20 ene. 2021</t>
   </si>
   <si>
     <t>01:17:00</t>
@@ -284,7 +292,7 @@
     <t>10</t>
   </si>
   <si>
-    <t>21 Jan 2021</t>
+    <t>21 ene. 2021</t>
   </si>
   <si>
     <t>07:06:00</t>
@@ -308,7 +316,7 @@
     <t>11</t>
   </si>
   <si>
-    <t>23 Jan 2021</t>
+    <t>23 ene. 2021</t>
   </si>
   <si>
     <t>16:15:00</t>
@@ -332,7 +340,7 @@
     <t>12</t>
   </si>
   <si>
-    <t>31 Jan 2021</t>
+    <t>31 ene. 2021</t>
   </si>
   <si>
     <t>16:30:56</t>
@@ -377,7 +385,7 @@
     <t>14</t>
   </si>
   <si>
-    <t>5 Feb 2021</t>
+    <t>5 feb. 2021</t>
   </si>
   <si>
     <t>23:41:19</t>
@@ -437,7 +445,7 @@
     <t>17</t>
   </si>
   <si>
-    <t>13 Feb 2021</t>
+    <t>13 feb. 2021</t>
   </si>
   <si>
     <t>15:53:11</t>
@@ -461,7 +469,7 @@
     <t>18</t>
   </si>
   <si>
-    <t>15 Feb 2021</t>
+    <t>15 feb. 2021</t>
   </si>
   <si>
     <t>20:00:27</t>
@@ -497,7 +505,7 @@
     <t>20</t>
   </si>
   <si>
-    <t>22 Feb 2021</t>
+    <t>22 feb. 2021</t>
   </si>
   <si>
     <t>17:50:29</t>
@@ -533,7 +541,7 @@
     <t>22</t>
   </si>
   <si>
-    <t>23 Feb 2021</t>
+    <t>23 feb. 2021</t>
   </si>
   <si>
     <t>23:41:00</t>
@@ -554,7 +562,7 @@
     <t>23</t>
   </si>
   <si>
-    <t>24 Feb 2021</t>
+    <t>24 feb. 2021</t>
   </si>
   <si>
     <t>21:41:39</t>
@@ -575,7 +583,7 @@
     <t>24</t>
   </si>
   <si>
-    <t>26 Feb 2021</t>
+    <t>26 feb. 2021</t>
   </si>
   <si>
     <t>17:16:18</t>
@@ -596,7 +604,7 @@
     <t>25</t>
   </si>
   <si>
-    <t>27 Feb 2021</t>
+    <t>27 feb. 2021</t>
   </si>
   <si>
     <t>10:51:50</t>
@@ -635,7 +643,7 @@
     <t>27</t>
   </si>
   <si>
-    <t>28 Feb 2021</t>
+    <t>28 feb. 2021</t>
   </si>
   <si>
     <t>20:06:31</t>
@@ -650,7 +658,7 @@
     <t>28</t>
   </si>
   <si>
-    <t>1 Mar 2021</t>
+    <t>1 mar. 2021</t>
   </si>
   <si>
     <t>01:47:00</t>
@@ -671,7 +679,7 @@
     <t>29</t>
   </si>
   <si>
-    <t>2 Mar 2021</t>
+    <t>2 mar. 2021</t>
   </si>
   <si>
     <t>00:24:00</t>
@@ -731,7 +739,7 @@
     <t>33</t>
   </si>
   <si>
-    <t>4 Mar 2021</t>
+    <t>4 mar. 2021</t>
   </si>
   <si>
     <t>09:03:52</t>
@@ -746,7 +754,7 @@
     <t>34</t>
   </si>
   <si>
-    <t>5 Mar 2021</t>
+    <t>5 mar. 2021</t>
   </si>
   <si>
     <t>13:09:00</t>
@@ -764,7 +772,7 @@
     <t>35</t>
   </si>
   <si>
-    <t>8 Mar 2021</t>
+    <t>8 mar. 2021</t>
   </si>
   <si>
     <t>03:10:00</t>
@@ -782,7 +790,7 @@
     <t>36</t>
   </si>
   <si>
-    <t>9 Mar 2021</t>
+    <t>9 mar. 2021</t>
   </si>
   <si>
     <t>15:47:00</t>
@@ -803,7 +811,7 @@
     <t>37</t>
   </si>
   <si>
-    <t>10 Mar 2021</t>
+    <t>10 mar. 2021</t>
   </si>
   <si>
     <t>11:18:00</t>
@@ -827,7 +835,7 @@
     <t>38</t>
   </si>
   <si>
-    <t>18 Mar 2021</t>
+    <t>18 mar. 2021</t>
   </si>
   <si>
     <t>23:36:14</t>
@@ -848,7 +856,7 @@
     <t>39</t>
   </si>
   <si>
-    <t>21 Mar 2021</t>
+    <t>21 mar. 2021</t>
   </si>
   <si>
     <t>01:51:00</t>
@@ -866,7 +874,7 @@
     <t>40</t>
   </si>
   <si>
-    <t>23 Mar 2021</t>
+    <t>23 mar. 2021</t>
   </si>
   <si>
     <t>17:01:00</t>
@@ -884,7 +892,7 @@
     <t>41</t>
   </si>
   <si>
-    <t>29 Mar 2021</t>
+    <t>29 mar. 2021</t>
   </si>
   <si>
     <t>14:46:00</t>
@@ -923,7 +931,7 @@
     <t>43</t>
   </si>
   <si>
-    <t>30 Mar 2021</t>
+    <t>30 mar. 2021</t>
   </si>
   <si>
     <t>16:42:00</t>
@@ -947,7 +955,7 @@
     <t>44</t>
   </si>
   <si>
-    <t>3 Apr 2021</t>
+    <t>3 abr. 2021</t>
   </si>
   <si>
     <t>13:26:00</t>
@@ -965,7 +973,7 @@
     <t>45</t>
   </si>
   <si>
-    <t>4 Apr 2021</t>
+    <t>4 abr. 2021</t>
   </si>
   <si>
     <t>21:41:00</t>
@@ -986,7 +994,7 @@
     <t>46</t>
   </si>
   <si>
-    <t>6 Apr 2021</t>
+    <t>6 abr. 2021</t>
   </si>
   <si>
     <t>23:49:00</t>
@@ -1007,7 +1015,7 @@
     <t>47</t>
   </si>
   <si>
-    <t>7 Apr 2021</t>
+    <t>7 abr. 2021</t>
   </si>
   <si>
     <t>11:51:16</t>
@@ -1028,7 +1036,7 @@
     <t>48</t>
   </si>
   <si>
-    <t>8 Apr 2021</t>
+    <t>8 abr. 2021</t>
   </si>
   <si>
     <t>19:39:41</t>
@@ -1049,7 +1057,7 @@
     <t>49</t>
   </si>
   <si>
-    <t>9 Apr 2021</t>
+    <t>9 abr. 2021</t>
   </si>
   <si>
     <t>23:16:57</t>
@@ -1067,7 +1075,7 @@
     <t>50</t>
   </si>
   <si>
-    <t>10 Apr 2021</t>
+    <t>10 abr. 2021</t>
   </si>
   <si>
     <t>12:07:35</t>
@@ -1100,7 +1108,7 @@
     <t>52</t>
   </si>
   <si>
-    <t>16 Apr 2021</t>
+    <t>16 abr. 2021</t>
   </si>
   <si>
     <t>20:35:00</t>
@@ -1118,7 +1126,7 @@
     <t>53</t>
   </si>
   <si>
-    <t>20 Apr 2021</t>
+    <t>20 abr. 2021</t>
   </si>
   <si>
     <t>05:23:00</t>
@@ -1139,7 +1147,7 @@
     <t>54</t>
   </si>
   <si>
-    <t>2 May 2021</t>
+    <t>2 may. 2021</t>
   </si>
   <si>
     <t>13:05:00</t>
@@ -1154,12 +1162,63 @@
     <t>-83.345</t>
   </si>
   <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>00:48:30</t>
+  </si>
+  <si>
+    <t>16.000</t>
+  </si>
+  <si>
+    <t>3 NO de Savegre Abajo, Peréz Zeledón</t>
+  </si>
+  <si>
+    <t>9.456</t>
+  </si>
+  <si>
+    <t>-83.855</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>08:29:03</t>
+  </si>
+  <si>
+    <t>Salitral, Bagaces, Guanacaste</t>
+  </si>
+  <si>
+    <t>10.595</t>
+  </si>
+  <si>
+    <t>-85.257</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>4 may. 2021</t>
+  </si>
+  <si>
+    <t>05:18:18</t>
+  </si>
+  <si>
+    <t>2.8Ml</t>
+  </si>
+  <si>
+    <t>5.2 km hacia el Noroeste de Llano grande de Cartago</t>
+  </si>
+  <si>
+    <t>9.965</t>
+  </si>
+  <si>
+    <t>-83.952</t>
+  </si>
+  <si>
     <t>58</t>
   </si>
   <si>
-    <t>4 May 2021</t>
-  </si>
-  <si>
     <t>14:25:00</t>
   </si>
   <si>
@@ -1175,15 +1234,12 @@
     <t>59</t>
   </si>
   <si>
-    <t>9 May 2021</t>
+    <t>9 may. 2021</t>
   </si>
   <si>
     <t>16:09:00</t>
   </si>
   <si>
-    <t>2.8Ml</t>
-  </si>
-  <si>
     <t>2.2km hacia el suroeste de Tierras Morenas de Vázquez de Coronado</t>
   </si>
   <si>
@@ -1214,7 +1270,7 @@
     <t>61</t>
   </si>
   <si>
-    <t>10 May 2021</t>
+    <t>10 may. 2021</t>
   </si>
   <si>
     <t>20:34:00</t>
@@ -1232,7 +1288,7 @@
     <t>62</t>
   </si>
   <si>
-    <t>11 May 2021</t>
+    <t>11 may. 2021</t>
   </si>
   <si>
     <t>02:15:00</t>
@@ -1253,7 +1309,7 @@
     <t>63</t>
   </si>
   <si>
-    <t>14 May 2021</t>
+    <t>14 may. 2021</t>
   </si>
   <si>
     <t>09:33:00</t>
@@ -1277,7 +1333,7 @@
     <t>64</t>
   </si>
   <si>
-    <t>17 May 2021</t>
+    <t>17 may. 2021</t>
   </si>
   <si>
     <t>15:02:00</t>
@@ -1298,7 +1354,7 @@
     <t>65</t>
   </si>
   <si>
-    <t>22 May 2021</t>
+    <t>22 may. 2021</t>
   </si>
   <si>
     <t>20:59:00</t>
@@ -1319,7 +1375,7 @@
     <t>66</t>
   </si>
   <si>
-    <t>24 May 2021</t>
+    <t>24 may. 2021</t>
   </si>
   <si>
     <t>22:03:00</t>
@@ -1340,7 +1396,7 @@
     <t>67</t>
   </si>
   <si>
-    <t>26 May 2021</t>
+    <t>26 may. 2021</t>
   </si>
   <si>
     <t>13:55:00</t>
@@ -1358,7 +1414,7 @@
     <t>68</t>
   </si>
   <si>
-    <t>1 Jun 2021</t>
+    <t>1 jun. 2021</t>
   </si>
   <si>
     <t>23:56:00</t>
@@ -1373,7 +1429,7 @@
     <t>69</t>
   </si>
   <si>
-    <t>3 Jun 2021</t>
+    <t>3 jun. 2021</t>
   </si>
   <si>
     <t>23:09:00</t>
@@ -1394,7 +1450,7 @@
     <t>70</t>
   </si>
   <si>
-    <t>6 Jun 2021</t>
+    <t>6 jun. 2021</t>
   </si>
   <si>
     <t>20:27:00</t>
@@ -1412,7 +1468,7 @@
     <t>71</t>
   </si>
   <si>
-    <t>7 Jun 2021</t>
+    <t>7 jun. 2021</t>
   </si>
   <si>
     <t>23:15:00</t>
@@ -1430,7 +1486,7 @@
     <t>72</t>
   </si>
   <si>
-    <t>10 Jun 2021</t>
+    <t>10 jun. 2021</t>
   </si>
   <si>
     <t>17:26:00</t>
@@ -1454,7 +1510,7 @@
     <t>73</t>
   </si>
   <si>
-    <t>11 Jun 2021</t>
+    <t>11 jun. 2021</t>
   </si>
   <si>
     <t>19:55:59</t>
@@ -1469,7 +1525,7 @@
     <t>74</t>
   </si>
   <si>
-    <t>15 Jun 2021</t>
+    <t>15 jun. 2021</t>
   </si>
   <si>
     <t>04:52:00</t>
@@ -1502,7 +1558,7 @@
     <t>76</t>
   </si>
   <si>
-    <t>19 Jun 2021</t>
+    <t>19 jun. 2021</t>
   </si>
   <si>
     <t>11:06:00</t>
@@ -1520,7 +1576,7 @@
     <t>77</t>
   </si>
   <si>
-    <t>23 Jun 2021</t>
+    <t>23 jun. 2021</t>
   </si>
   <si>
     <t>23:51:00</t>
@@ -1535,7 +1591,7 @@
     <t>78</t>
   </si>
   <si>
-    <t>24 Jun 2021</t>
+    <t>24 jun. 2021</t>
   </si>
   <si>
     <t>04:31:00</t>
@@ -1556,7 +1612,7 @@
     <t>79</t>
   </si>
   <si>
-    <t>3 Jul 2021</t>
+    <t>3 jul. 2021</t>
   </si>
   <si>
     <t>22:30:00</t>
@@ -1574,7 +1630,7 @@
     <t>80</t>
   </si>
   <si>
-    <t>4 Jul 2021</t>
+    <t>4 jul. 2021</t>
   </si>
   <si>
     <t>00:40:00</t>
@@ -1592,7 +1648,7 @@
     <t>81</t>
   </si>
   <si>
-    <t>5 Jul 2021</t>
+    <t>5 jul. 2021</t>
   </si>
   <si>
     <t>23:50:00</t>
@@ -1610,7 +1666,7 @@
     <t>82</t>
   </si>
   <si>
-    <t>6 Jul 2021</t>
+    <t>6 jul. 2021</t>
   </si>
   <si>
     <t>13:20:00</t>
@@ -1643,15 +1699,12 @@
     <t>84</t>
   </si>
   <si>
-    <t>8 Jul 2021</t>
+    <t>8 jul. 2021</t>
   </si>
   <si>
     <t>23:07:00</t>
   </si>
   <si>
-    <t>16.000</t>
-  </si>
-  <si>
     <t>26km hacia el suroeste de San Isidro de El General</t>
   </si>
   <si>
@@ -1661,7 +1714,7 @@
     <t>85</t>
   </si>
   <si>
-    <t>10 Jul 2021</t>
+    <t>10 jul. 2021</t>
   </si>
   <si>
     <t>14:53:00</t>
@@ -1679,7 +1732,7 @@
     <t>86</t>
   </si>
   <si>
-    <t>13 Jul 2021</t>
+    <t>13 jul. 2021</t>
   </si>
   <si>
     <t>00:05:00</t>
@@ -1712,7 +1765,7 @@
     <t>88</t>
   </si>
   <si>
-    <t>14 Jul 2021</t>
+    <t>14 jul. 2021</t>
   </si>
   <si>
     <t>21:09:00</t>
@@ -1733,7 +1786,7 @@
     <t>89</t>
   </si>
   <si>
-    <t>15 Jul 2021</t>
+    <t>15 jul. 2021</t>
   </si>
   <si>
     <t>03:16:00</t>
@@ -1751,7 +1804,7 @@
     <t>90</t>
   </si>
   <si>
-    <t>16 Jul 2021</t>
+    <t>16 jul. 2021</t>
   </si>
   <si>
     <t>21:10:00</t>
@@ -1772,7 +1825,7 @@
     <t>91</t>
   </si>
   <si>
-    <t>19 Jul 2021</t>
+    <t>19 jul. 2021</t>
   </si>
   <si>
     <t>11:24:00</t>
@@ -1805,7 +1858,7 @@
     <t>93</t>
   </si>
   <si>
-    <t>20 Jul 2021</t>
+    <t>20 jul. 2021</t>
   </si>
   <si>
     <t>17:57:00</t>
@@ -1823,7 +1876,7 @@
     <t>94</t>
   </si>
   <si>
-    <t>21 Jul 2021</t>
+    <t>21 jul. 2021</t>
   </si>
   <si>
     <t>04:56:00</t>
@@ -1868,7 +1921,64 @@
     <t>97</t>
   </si>
   <si>
-    <t>30 Jul 2021</t>
+    <t>27 jul. 2021</t>
+  </si>
+  <si>
+    <t>00:37:00</t>
+  </si>
+  <si>
+    <t>21 km hacia el suroeste de Jacó</t>
+  </si>
+  <si>
+    <t>9.564</t>
+  </si>
+  <si>
+    <t>-84.819</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>29 jul. 2021</t>
+  </si>
+  <si>
+    <t>22:29:34</t>
+  </si>
+  <si>
+    <t>5.2Ml</t>
+  </si>
+  <si>
+    <t>34.8 Hacia el Oeste de Tamarindo, Guanacaste</t>
+  </si>
+  <si>
+    <t>10.294</t>
+  </si>
+  <si>
+    <t>-86.155</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>22:37:00</t>
+  </si>
+  <si>
+    <t>38.000</t>
+  </si>
+  <si>
+    <t>48 km hacia el oeste de Tamarindo</t>
+  </si>
+  <si>
+    <t>10.284</t>
+  </si>
+  <si>
+    <t>-86.277</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>30 jul. 2021</t>
   </si>
   <si>
     <t>00:00:00</t>
@@ -1883,10 +1993,10 @@
     <t>-84.026</t>
   </si>
   <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>1 Aug 2021</t>
+    <t>101</t>
+  </si>
+  <si>
+    <t>1 ago. 2021</t>
   </si>
   <si>
     <t>17:39:00</t>
@@ -1901,10 +2011,10 @@
     <t>-84.225</t>
   </si>
   <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>10 Aug 2021</t>
+    <t>102</t>
+  </si>
+  <si>
+    <t>10 ago. 2021</t>
   </si>
   <si>
     <t>08:27:00</t>
@@ -1919,7 +2029,7 @@
     <t>-83.902</t>
   </si>
   <si>
-    <t>100</t>
+    <t>103</t>
   </si>
   <si>
     <t>19:03:17</t>
@@ -1931,10 +2041,10 @@
     <t>9.703</t>
   </si>
   <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>12 Aug 2021</t>
+    <t>104</t>
+  </si>
+  <si>
+    <t>12 ago. 2021</t>
   </si>
   <si>
     <t>05:48:00</t>
@@ -1952,7 +2062,7 @@
     <t>-86.183</t>
   </si>
   <si>
-    <t>102</t>
+    <t>105</t>
   </si>
   <si>
     <t>21:08:09</t>
@@ -1967,10 +2077,10 @@
     <t>-86.174</t>
   </si>
   <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>15 Aug 2021</t>
+    <t>106</t>
+  </si>
+  <si>
+    <t>15 ago. 2021</t>
   </si>
   <si>
     <t>20:39:13</t>
@@ -1988,10 +2098,10 @@
     <t>-82.917</t>
   </si>
   <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>16 Aug 2021</t>
+    <t>107</t>
+  </si>
+  <si>
+    <t>16 ago. 2021</t>
   </si>
   <si>
     <t>04:06:00</t>
@@ -2006,10 +2116,10 @@
     <t>-82.879</t>
   </si>
   <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>19 Aug 2021</t>
+    <t>108</t>
+  </si>
+  <si>
+    <t>19 ago. 2021</t>
   </si>
   <si>
     <t>01:50:00</t>
@@ -2024,7 +2134,7 @@
     <t>-83.978</t>
   </si>
   <si>
-    <t>106</t>
+    <t>109</t>
   </si>
   <si>
     <t>11:43:00</t>
@@ -2039,10 +2149,10 @@
     <t>-83.949</t>
   </si>
   <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>26 Aug 2021</t>
+    <t>110</t>
+  </si>
+  <si>
+    <t>26 ago. 2021</t>
   </si>
   <si>
     <t>7.5 km al Sureste de San Gerardo de Dota</t>
@@ -2051,10 +2161,10 @@
     <t>-83.773</t>
   </si>
   <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>27 Aug 2021</t>
+    <t>111</t>
+  </si>
+  <si>
+    <t>27 ago. 2021</t>
   </si>
   <si>
     <t>07:22:00</t>
@@ -2075,7 +2185,7 @@
     <t>Alajuela</t>
   </si>
   <si>
-    <t>109</t>
+    <t>112</t>
   </si>
   <si>
     <t>08:24:00</t>
@@ -2090,10 +2200,10 @@
     <t>-83.886</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>31 Aug 2021</t>
+    <t>113</t>
+  </si>
+  <si>
+    <t>31 ago. 2021</t>
   </si>
   <si>
     <t>22:08:00</t>
@@ -2114,10 +2224,10 @@
     <t>Heredia</t>
   </si>
   <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>1 Sep 2021</t>
+    <t>114</t>
+  </si>
+  <si>
+    <t>1 sep. 2021</t>
   </si>
   <si>
     <t>00:46:00</t>
@@ -2135,7 +2245,7 @@
     <t>-85.168</t>
   </si>
   <si>
-    <t>112</t>
+    <t>115</t>
   </si>
   <si>
     <t>10:50:16</t>
@@ -2150,10 +2260,10 @@
     <t>-83.766</t>
   </si>
   <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>4 Sep 2021</t>
+    <t>116</t>
+  </si>
+  <si>
+    <t>4 sep. 2021</t>
   </si>
   <si>
     <t>03:48:00</t>
@@ -2177,7 +2287,7 @@
     <t>Limón</t>
   </si>
   <si>
-    <t>114</t>
+    <t>117</t>
   </si>
   <si>
     <t>02:58:00</t>
@@ -2195,10 +2305,10 @@
     <t>-84.132</t>
   </si>
   <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>5 Sep 2021</t>
+    <t>118</t>
+  </si>
+  <si>
+    <t>5 sep. 2021</t>
   </si>
   <si>
     <t>14:42:07</t>
@@ -2213,10 +2323,10 @@
     <t>-84.305</t>
   </si>
   <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>8 Sep 2021</t>
+    <t>119</t>
+  </si>
+  <si>
+    <t>8 sep. 2021</t>
   </si>
   <si>
     <t>22:27:30</t>
@@ -2231,7 +2341,7 @@
     <t>9.003</t>
   </si>
   <si>
-    <t>117</t>
+    <t>120</t>
   </si>
   <si>
     <t>22:05:00</t>
@@ -2243,10 +2353,10 @@
     <t>-83.961</t>
   </si>
   <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>10 Sep 2021</t>
+    <t>121</t>
+  </si>
+  <si>
+    <t>10 sep. 2021</t>
   </si>
   <si>
     <t>19:33:23</t>
@@ -2261,10 +2371,10 @@
     <t>-85.201</t>
   </si>
   <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>13 Sep 2021</t>
+    <t>122</t>
+  </si>
+  <si>
+    <t>13 sep. 2021</t>
   </si>
   <si>
     <t>06:20:00</t>
@@ -2279,10 +2389,10 @@
     <t>-86.006</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>17 Sep 2021</t>
+    <t>123</t>
+  </si>
+  <si>
+    <t>17 sep. 2021</t>
   </si>
   <si>
     <t>04:10:00</t>
@@ -2297,10 +2407,10 @@
     <t>-84.183</t>
   </si>
   <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>3 Sep 2021</t>
+    <t>124</t>
+  </si>
+  <si>
+    <t>3 sep. 2021</t>
   </si>
   <si>
     <t>00:00:13</t>
@@ -2313,40 +2423,15 @@
   </si>
   <si>
     <t>-83.428</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>7 Oct 2021</t>
-  </si>
-  <si>
-    <t>22:15:38</t>
-  </si>
-  <si>
-    <t>50.000</t>
-  </si>
-  <si>
-    <t>10.1Mw</t>
-  </si>
-  <si>
-    <t>Tortuguero</t>
-  </si>
-  <si>
-    <t>99.900</t>
-  </si>
-  <si>
-    <t>-88.210</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2358,7 +2443,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -2376,18 +2461,328 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L121"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="F130" sqref="F130"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2422,7 +2817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2457,7 +2852,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -2492,7 +2887,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -2527,7 +2922,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -2562,7 +2957,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -2597,7 +2992,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -2632,7 +3027,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -2667,7 +3062,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -2702,7 +3097,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -2737,7 +3132,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -2772,7 +3167,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -2807,7 +3202,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -2842,7 +3237,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>105</v>
       </c>
@@ -2877,7 +3272,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>113</v>
       </c>
@@ -2912,7 +3307,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>120</v>
       </c>
@@ -2947,7 +3342,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>128</v>
       </c>
@@ -2982,7 +3377,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>134</v>
       </c>
@@ -3017,7 +3412,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>140</v>
       </c>
@@ -3052,7 +3447,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>148</v>
       </c>
@@ -3087,7 +3482,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>155</v>
       </c>
@@ -3122,7 +3517,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>160</v>
       </c>
@@ -3157,7 +3552,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>166</v>
       </c>
@@ -3192,7 +3587,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>172</v>
       </c>
@@ -3227,7 +3622,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>179</v>
       </c>
@@ -3262,7 +3657,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>186</v>
       </c>
@@ -3297,7 +3692,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>193</v>
       </c>
@@ -3332,7 +3727,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>199</v>
       </c>
@@ -3367,7 +3762,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>206</v>
       </c>
@@ -3402,7 +3797,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>211</v>
       </c>
@@ -3437,7 +3832,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>218</v>
       </c>
@@ -3472,7 +3867,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>226</v>
       </c>
@@ -3507,7 +3902,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>232</v>
       </c>
@@ -3542,7 +3937,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>233</v>
       </c>
@@ -3577,7 +3972,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>238</v>
       </c>
@@ -3612,7 +4007,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>243</v>
       </c>
@@ -3647,7 +4042,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>249</v>
       </c>
@@ -3682,7 +4077,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>255</v>
       </c>
@@ -3717,7 +4112,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>262</v>
       </c>
@@ -3752,7 +4147,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>270</v>
       </c>
@@ -3787,7 +4182,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>277</v>
       </c>
@@ -3822,7 +4217,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>283</v>
       </c>
@@ -3857,7 +4252,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>289</v>
       </c>
@@ -3892,7 +4287,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>297</v>
       </c>
@@ -3927,7 +4322,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>302</v>
       </c>
@@ -3962,7 +4357,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>310</v>
       </c>
@@ -3997,7 +4392,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>316</v>
       </c>
@@ -4032,7 +4427,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>323</v>
       </c>
@@ -4067,7 +4462,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>330</v>
       </c>
@@ -4102,7 +4497,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>337</v>
       </c>
@@ -4137,7 +4532,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>344</v>
       </c>
@@ -4172,7 +4567,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>350</v>
       </c>
@@ -4207,7 +4602,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>356</v>
       </c>
@@ -4242,7 +4637,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>361</v>
       </c>
@@ -4277,7 +4672,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>367</v>
       </c>
@@ -4312,7 +4707,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>374</v>
       </c>
@@ -4347,21 +4742,21 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>380</v>
       </c>
       <c r="B57" t="s">
+        <v>375</v>
+      </c>
+      <c r="C57" t="s">
         <v>381</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>382</v>
       </c>
-      <c r="D57" t="s">
-        <v>70</v>
-      </c>
       <c r="E57" t="s">
-        <v>168</v>
+        <v>266</v>
       </c>
       <c r="F57" t="s">
         <v>383</v>
@@ -4382,103 +4777,103 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>386</v>
       </c>
       <c r="B58" t="s">
+        <v>375</v>
+      </c>
+      <c r="C58" t="s">
         <v>387</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
+        <v>382</v>
+      </c>
+      <c r="E58" t="s">
+        <v>266</v>
+      </c>
+      <c r="F58" t="s">
         <v>388</v>
       </c>
-      <c r="D58" t="s">
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" t="s">
+        <v>389</v>
+      </c>
+      <c r="I58" t="s">
+        <v>390</v>
+      </c>
+      <c r="J58" t="s">
+        <v>276</v>
+      </c>
+      <c r="K58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>391</v>
+      </c>
+      <c r="B59" t="s">
+        <v>392</v>
+      </c>
+      <c r="C59" t="s">
+        <v>393</v>
+      </c>
+      <c r="D59" t="s">
         <v>70</v>
       </c>
-      <c r="E58" t="s">
-        <v>389</v>
-      </c>
-      <c r="F58" t="s">
-        <v>390</v>
-      </c>
-      <c r="G58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" t="s">
-        <v>391</v>
-      </c>
-      <c r="I58" t="s">
+      <c r="E59" t="s">
+        <v>394</v>
+      </c>
+      <c r="F59" t="s">
+        <v>395</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" t="s">
+        <v>396</v>
+      </c>
+      <c r="I59" t="s">
+        <v>397</v>
+      </c>
+      <c r="J59" t="s">
+        <v>96</v>
+      </c>
+      <c r="K59" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>398</v>
+      </c>
+      <c r="B60" t="s">
         <v>392</v>
       </c>
-      <c r="J58" t="s">
-        <v>20</v>
-      </c>
-      <c r="K58" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>393</v>
-      </c>
-      <c r="B59" t="s">
-        <v>387</v>
-      </c>
-      <c r="C59" t="s">
-        <v>394</v>
-      </c>
-      <c r="D59" t="s">
-        <v>189</v>
-      </c>
-      <c r="E59" t="s">
-        <v>395</v>
-      </c>
-      <c r="F59" t="s">
-        <v>396</v>
-      </c>
-      <c r="G59" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" t="s">
-        <v>397</v>
-      </c>
-      <c r="I59" t="s">
-        <v>398</v>
-      </c>
-      <c r="J59" t="s">
-        <v>20</v>
-      </c>
-      <c r="K59" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
+      <c r="C60" t="s">
         <v>399</v>
       </c>
-      <c r="B60" t="s">
+      <c r="D60" t="s">
+        <v>70</v>
+      </c>
+      <c r="E60" t="s">
+        <v>168</v>
+      </c>
+      <c r="F60" t="s">
         <v>400</v>
       </c>
-      <c r="C60" t="s">
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" t="s">
         <v>401</v>
       </c>
-      <c r="D60" t="s">
-        <v>189</v>
-      </c>
-      <c r="E60" t="s">
-        <v>389</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="I60" t="s">
         <v>402</v>
-      </c>
-      <c r="G60" t="s">
-        <v>17</v>
-      </c>
-      <c r="H60" t="s">
-        <v>403</v>
-      </c>
-      <c r="I60" t="s">
-        <v>404</v>
       </c>
       <c r="J60" t="s">
         <v>20</v>
@@ -4487,173 +4882,173 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>403</v>
+      </c>
+      <c r="B61" t="s">
+        <v>404</v>
+      </c>
+      <c r="C61" t="s">
         <v>405</v>
       </c>
-      <c r="B61" t="s">
+      <c r="D61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E61" t="s">
+        <v>394</v>
+      </c>
+      <c r="F61" t="s">
         <v>406</v>
       </c>
-      <c r="C61" t="s">
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" t="s">
         <v>407</v>
       </c>
-      <c r="D61" t="s">
+      <c r="I61" t="s">
+        <v>408</v>
+      </c>
+      <c r="J61" t="s">
+        <v>20</v>
+      </c>
+      <c r="K61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>409</v>
+      </c>
+      <c r="B62" t="s">
+        <v>404</v>
+      </c>
+      <c r="C62" t="s">
+        <v>410</v>
+      </c>
+      <c r="D62" t="s">
         <v>189</v>
       </c>
-      <c r="E61" t="s">
-        <v>408</v>
-      </c>
-      <c r="F61" t="s">
-        <v>409</v>
-      </c>
-      <c r="G61" t="s">
-        <v>17</v>
-      </c>
-      <c r="H61" t="s">
-        <v>410</v>
-      </c>
-      <c r="I61" t="s">
+      <c r="E62" t="s">
         <v>411</v>
       </c>
-      <c r="J61" t="s">
+      <c r="F62" t="s">
+        <v>412</v>
+      </c>
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" t="s">
+        <v>413</v>
+      </c>
+      <c r="I62" t="s">
+        <v>414</v>
+      </c>
+      <c r="J62" t="s">
+        <v>20</v>
+      </c>
+      <c r="K62" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>415</v>
+      </c>
+      <c r="B63" t="s">
+        <v>416</v>
+      </c>
+      <c r="C63" t="s">
+        <v>417</v>
+      </c>
+      <c r="D63" t="s">
+        <v>189</v>
+      </c>
+      <c r="E63" t="s">
+        <v>394</v>
+      </c>
+      <c r="F63" t="s">
+        <v>418</v>
+      </c>
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" t="s">
+        <v>419</v>
+      </c>
+      <c r="I63" t="s">
+        <v>420</v>
+      </c>
+      <c r="J63" t="s">
+        <v>20</v>
+      </c>
+      <c r="K63" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>421</v>
+      </c>
+      <c r="B64" t="s">
+        <v>422</v>
+      </c>
+      <c r="C64" t="s">
+        <v>423</v>
+      </c>
+      <c r="D64" t="s">
+        <v>189</v>
+      </c>
+      <c r="E64" t="s">
+        <v>424</v>
+      </c>
+      <c r="F64" t="s">
+        <v>425</v>
+      </c>
+      <c r="G64" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" t="s">
+        <v>426</v>
+      </c>
+      <c r="I64" t="s">
+        <v>427</v>
+      </c>
+      <c r="J64" t="s">
         <v>96</v>
       </c>
-      <c r="K61" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>412</v>
-      </c>
-      <c r="B62" t="s">
-        <v>413</v>
-      </c>
-      <c r="C62" t="s">
-        <v>414</v>
-      </c>
-      <c r="D62" t="s">
-        <v>415</v>
-      </c>
-      <c r="E62" t="s">
-        <v>416</v>
-      </c>
-      <c r="F62" t="s">
-        <v>417</v>
-      </c>
-      <c r="G62" t="s">
-        <v>294</v>
-      </c>
-      <c r="H62" t="s">
-        <v>418</v>
-      </c>
-      <c r="I62" t="s">
-        <v>419</v>
-      </c>
-      <c r="J62" t="s">
-        <v>42</v>
-      </c>
-      <c r="K62" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>420</v>
-      </c>
-      <c r="B63" t="s">
-        <v>421</v>
-      </c>
-      <c r="C63" t="s">
-        <v>422</v>
-      </c>
-      <c r="D63" t="s">
-        <v>201</v>
-      </c>
-      <c r="E63" t="s">
-        <v>423</v>
-      </c>
-      <c r="F63" t="s">
-        <v>424</v>
-      </c>
-      <c r="G63" t="s">
-        <v>17</v>
-      </c>
-      <c r="H63" t="s">
-        <v>425</v>
-      </c>
-      <c r="I63" t="s">
-        <v>426</v>
-      </c>
-      <c r="J63" t="s">
-        <v>60</v>
-      </c>
-      <c r="K63" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>427</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="K64" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>428</v>
       </c>
-      <c r="C64" t="s">
+      <c r="B65" t="s">
         <v>429</v>
       </c>
-      <c r="D64" t="s">
+      <c r="C65" t="s">
         <v>430</v>
       </c>
-      <c r="E64" t="s">
-        <v>266</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="D65" t="s">
         <v>431</v>
       </c>
-      <c r="G64" t="s">
-        <v>294</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="E65" t="s">
         <v>432</v>
       </c>
-      <c r="I64" t="s">
+      <c r="F65" t="s">
         <v>433</v>
-      </c>
-      <c r="J64" t="s">
-        <v>42</v>
-      </c>
-      <c r="K64" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>434</v>
-      </c>
-      <c r="B65" t="s">
-        <v>435</v>
-      </c>
-      <c r="C65" t="s">
-        <v>436</v>
-      </c>
-      <c r="D65" t="s">
-        <v>437</v>
-      </c>
-      <c r="E65" t="s">
-        <v>333</v>
-      </c>
-      <c r="F65" t="s">
-        <v>438</v>
       </c>
       <c r="G65" t="s">
         <v>294</v>
       </c>
       <c r="H65" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="I65" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="J65" t="s">
         <v>42</v>
@@ -4662,243 +5057,243 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>436</v>
+      </c>
+      <c r="B66" t="s">
+        <v>437</v>
+      </c>
+      <c r="C66" t="s">
+        <v>438</v>
+      </c>
+      <c r="D66" t="s">
+        <v>201</v>
+      </c>
+      <c r="E66" t="s">
+        <v>439</v>
+      </c>
+      <c r="F66" t="s">
+        <v>440</v>
+      </c>
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" t="s">
         <v>441</v>
       </c>
-      <c r="B66" t="s">
+      <c r="I66" t="s">
         <v>442</v>
       </c>
-      <c r="C66" t="s">
+      <c r="J66" t="s">
+        <v>60</v>
+      </c>
+      <c r="K66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>443</v>
       </c>
-      <c r="D66" t="s">
+      <c r="B67" t="s">
+        <v>444</v>
+      </c>
+      <c r="C67" t="s">
+        <v>445</v>
+      </c>
+      <c r="D67" t="s">
+        <v>446</v>
+      </c>
+      <c r="E67" t="s">
+        <v>266</v>
+      </c>
+      <c r="F67" t="s">
+        <v>447</v>
+      </c>
+      <c r="G67" t="s">
+        <v>294</v>
+      </c>
+      <c r="H67" t="s">
+        <v>448</v>
+      </c>
+      <c r="I67" t="s">
+        <v>449</v>
+      </c>
+      <c r="J67" t="s">
+        <v>42</v>
+      </c>
+      <c r="K67" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>450</v>
+      </c>
+      <c r="B68" t="s">
+        <v>451</v>
+      </c>
+      <c r="C68" t="s">
+        <v>452</v>
+      </c>
+      <c r="D68" t="s">
+        <v>453</v>
+      </c>
+      <c r="E68" t="s">
+        <v>333</v>
+      </c>
+      <c r="F68" t="s">
+        <v>454</v>
+      </c>
+      <c r="G68" t="s">
+        <v>294</v>
+      </c>
+      <c r="H68" t="s">
+        <v>455</v>
+      </c>
+      <c r="I68" t="s">
+        <v>456</v>
+      </c>
+      <c r="J68" t="s">
+        <v>42</v>
+      </c>
+      <c r="K68" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>457</v>
+      </c>
+      <c r="B69" t="s">
+        <v>458</v>
+      </c>
+      <c r="C69" t="s">
+        <v>459</v>
+      </c>
+      <c r="D69" t="s">
         <v>77</v>
       </c>
-      <c r="E66" t="s">
-        <v>389</v>
-      </c>
-      <c r="F66" t="s">
-        <v>444</v>
-      </c>
-      <c r="G66" t="s">
-        <v>17</v>
-      </c>
-      <c r="H66" t="s">
-        <v>445</v>
-      </c>
-      <c r="I66" t="s">
-        <v>446</v>
-      </c>
-      <c r="J66" t="s">
+      <c r="E69" t="s">
+        <v>394</v>
+      </c>
+      <c r="F69" t="s">
+        <v>460</v>
+      </c>
+      <c r="G69" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" t="s">
+        <v>461</v>
+      </c>
+      <c r="I69" t="s">
+        <v>462</v>
+      </c>
+      <c r="J69" t="s">
         <v>96</v>
       </c>
-      <c r="K66" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>447</v>
-      </c>
-      <c r="B67" t="s">
-        <v>448</v>
-      </c>
-      <c r="C67" t="s">
-        <v>449</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="K69" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>463</v>
+      </c>
+      <c r="B70" t="s">
+        <v>464</v>
+      </c>
+      <c r="C70" t="s">
+        <v>465</v>
+      </c>
+      <c r="D70" t="s">
         <v>235</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E70" t="s">
         <v>287</v>
       </c>
-      <c r="F67" t="s">
-        <v>450</v>
-      </c>
-      <c r="G67" t="s">
-        <v>17</v>
-      </c>
-      <c r="H67" t="s">
+      <c r="F70" t="s">
+        <v>466</v>
+      </c>
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" t="s">
         <v>164</v>
       </c>
-      <c r="I67" t="s">
-        <v>451</v>
-      </c>
-      <c r="J67" t="s">
+      <c r="I70" t="s">
+        <v>467</v>
+      </c>
+      <c r="J70" t="s">
         <v>96</v>
       </c>
-      <c r="K67" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>452</v>
-      </c>
-      <c r="B68" t="s">
-        <v>453</v>
-      </c>
-      <c r="C68" t="s">
-        <v>454</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="K70" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>468</v>
+      </c>
+      <c r="B71" t="s">
+        <v>469</v>
+      </c>
+      <c r="C71" t="s">
+        <v>470</v>
+      </c>
+      <c r="D71" t="s">
         <v>214</v>
       </c>
-      <c r="E68" t="s">
-        <v>455</v>
-      </c>
-      <c r="F68" t="s">
-        <v>456</v>
-      </c>
-      <c r="G68" t="s">
-        <v>17</v>
-      </c>
-      <c r="H68" t="s">
-        <v>457</v>
-      </c>
-      <c r="I68" t="s">
-        <v>458</v>
-      </c>
-      <c r="J68" t="s">
+      <c r="E71" t="s">
+        <v>471</v>
+      </c>
+      <c r="F71" t="s">
+        <v>472</v>
+      </c>
+      <c r="G71" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" t="s">
+        <v>473</v>
+      </c>
+      <c r="I71" t="s">
+        <v>474</v>
+      </c>
+      <c r="J71" t="s">
         <v>96</v>
       </c>
-      <c r="K68" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>459</v>
-      </c>
-      <c r="B69" t="s">
-        <v>460</v>
-      </c>
-      <c r="C69" t="s">
-        <v>461</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="K71" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>475</v>
+      </c>
+      <c r="B72" t="s">
+        <v>476</v>
+      </c>
+      <c r="C72" t="s">
+        <v>477</v>
+      </c>
+      <c r="D72" t="s">
         <v>100</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E72" t="s">
         <v>333</v>
       </c>
-      <c r="F69" t="s">
-        <v>462</v>
-      </c>
-      <c r="G69" t="s">
-        <v>49</v>
-      </c>
-      <c r="H69" t="s">
-        <v>463</v>
-      </c>
-      <c r="I69" t="s">
-        <v>464</v>
-      </c>
-      <c r="J69" t="s">
-        <v>42</v>
-      </c>
-      <c r="K69" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>465</v>
-      </c>
-      <c r="B70" t="s">
-        <v>466</v>
-      </c>
-      <c r="C70" t="s">
-        <v>467</v>
-      </c>
-      <c r="D70" t="s">
-        <v>437</v>
-      </c>
-      <c r="E70" t="s">
-        <v>56</v>
-      </c>
-      <c r="F70" t="s">
-        <v>468</v>
-      </c>
-      <c r="G70" t="s">
-        <v>294</v>
-      </c>
-      <c r="H70" t="s">
-        <v>469</v>
-      </c>
-      <c r="I70" t="s">
-        <v>470</v>
-      </c>
-      <c r="J70" t="s">
-        <v>42</v>
-      </c>
-      <c r="K70" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>471</v>
-      </c>
-      <c r="B71" t="s">
-        <v>472</v>
-      </c>
-      <c r="C71" t="s">
-        <v>473</v>
-      </c>
-      <c r="D71" t="s">
-        <v>474</v>
-      </c>
-      <c r="E71" t="s">
-        <v>475</v>
-      </c>
-      <c r="F71" t="s">
-        <v>476</v>
-      </c>
-      <c r="G71" t="s">
-        <v>145</v>
-      </c>
-      <c r="H71" t="s">
-        <v>477</v>
-      </c>
-      <c r="I71" t="s">
+      <c r="F72" t="s">
         <v>478</v>
-      </c>
-      <c r="J71" t="s">
-        <v>42</v>
-      </c>
-      <c r="K71" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>479</v>
-      </c>
-      <c r="B72" t="s">
-        <v>480</v>
-      </c>
-      <c r="C72" t="s">
-        <v>481</v>
-      </c>
-      <c r="D72" t="s">
-        <v>135</v>
-      </c>
-      <c r="E72" t="s">
-        <v>92</v>
-      </c>
-      <c r="F72" t="s">
-        <v>482</v>
       </c>
       <c r="G72" t="s">
         <v>49</v>
       </c>
       <c r="H72" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
       <c r="I72" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="J72" t="s">
         <v>42</v>
@@ -4907,77 +5302,77 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>481</v>
+      </c>
+      <c r="B73" t="s">
+        <v>482</v>
+      </c>
+      <c r="C73" t="s">
+        <v>483</v>
+      </c>
+      <c r="D73" t="s">
+        <v>453</v>
+      </c>
+      <c r="E73" t="s">
+        <v>56</v>
+      </c>
+      <c r="F73" t="s">
         <v>484</v>
       </c>
-      <c r="B73" t="s">
+      <c r="G73" t="s">
+        <v>294</v>
+      </c>
+      <c r="H73" t="s">
         <v>485</v>
       </c>
-      <c r="C73" t="s">
+      <c r="I73" t="s">
         <v>486</v>
       </c>
-      <c r="D73" t="s">
-        <v>14</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="J73" t="s">
+        <v>42</v>
+      </c>
+      <c r="K73" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>487</v>
       </c>
-      <c r="F73" t="s">
+      <c r="B74" t="s">
         <v>488</v>
       </c>
-      <c r="G73" t="s">
-        <v>17</v>
-      </c>
-      <c r="H73" t="s">
+      <c r="C74" t="s">
         <v>489</v>
       </c>
-      <c r="I73" t="s">
+      <c r="D74" t="s">
         <v>490</v>
       </c>
-      <c r="J73" t="s">
-        <v>276</v>
-      </c>
-      <c r="K73" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
+      <c r="E74" t="s">
         <v>491</v>
       </c>
-      <c r="B74" t="s">
-        <v>485</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="F74" t="s">
         <v>492</v>
       </c>
-      <c r="D74" t="s">
-        <v>214</v>
-      </c>
-      <c r="E74" t="s">
-        <v>487</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
+        <v>145</v>
+      </c>
+      <c r="H74" t="s">
         <v>493</v>
-      </c>
-      <c r="G74" t="s">
-        <v>17</v>
-      </c>
-      <c r="H74" t="s">
-        <v>489</v>
       </c>
       <c r="I74" t="s">
         <v>494</v>
       </c>
       <c r="J74" t="s">
-        <v>276</v>
+        <v>42</v>
       </c>
       <c r="K74" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>495</v>
       </c>
@@ -4988,45 +5383,45 @@
         <v>497</v>
       </c>
       <c r="D75" t="s">
-        <v>214</v>
+        <v>135</v>
       </c>
       <c r="E75" t="s">
-        <v>258</v>
+        <v>92</v>
       </c>
       <c r="F75" t="s">
         <v>498</v>
       </c>
       <c r="G75" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H75" t="s">
+        <v>448</v>
+      </c>
+      <c r="I75" t="s">
         <v>499</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
+        <v>42</v>
+      </c>
+      <c r="K75" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>500</v>
       </c>
-      <c r="J75" t="s">
-        <v>96</v>
-      </c>
-      <c r="K75" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
+      <c r="B76" t="s">
         <v>501</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>502</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" t="s">
         <v>503</v>
-      </c>
-      <c r="D76" t="s">
-        <v>214</v>
-      </c>
-      <c r="E76" t="s">
-        <v>455</v>
       </c>
       <c r="F76" t="s">
         <v>504</v>
@@ -5038,322 +5433,322 @@
         <v>505</v>
       </c>
       <c r="I76" t="s">
-        <v>404</v>
+        <v>506</v>
       </c>
       <c r="J76" t="s">
-        <v>96</v>
+        <v>276</v>
       </c>
       <c r="K76" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B77" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C77" t="s">
         <v>508</v>
       </c>
       <c r="D77" t="s">
+        <v>214</v>
+      </c>
+      <c r="E77" t="s">
+        <v>503</v>
+      </c>
+      <c r="F77" t="s">
         <v>509</v>
       </c>
-      <c r="E77" t="s">
+      <c r="G77" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" t="s">
+        <v>505</v>
+      </c>
+      <c r="I77" t="s">
+        <v>510</v>
+      </c>
+      <c r="J77" t="s">
+        <v>276</v>
+      </c>
+      <c r="K77" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>511</v>
+      </c>
+      <c r="B78" t="s">
+        <v>512</v>
+      </c>
+      <c r="C78" t="s">
+        <v>513</v>
+      </c>
+      <c r="D78" t="s">
+        <v>214</v>
+      </c>
+      <c r="E78" t="s">
+        <v>258</v>
+      </c>
+      <c r="F78" t="s">
+        <v>514</v>
+      </c>
+      <c r="G78" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" t="s">
+        <v>515</v>
+      </c>
+      <c r="I78" t="s">
+        <v>516</v>
+      </c>
+      <c r="J78" t="s">
+        <v>96</v>
+      </c>
+      <c r="K78" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>517</v>
+      </c>
+      <c r="B79" t="s">
+        <v>518</v>
+      </c>
+      <c r="C79" t="s">
+        <v>519</v>
+      </c>
+      <c r="D79" t="s">
+        <v>214</v>
+      </c>
+      <c r="E79" t="s">
+        <v>471</v>
+      </c>
+      <c r="F79" t="s">
+        <v>520</v>
+      </c>
+      <c r="G79" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" t="s">
+        <v>521</v>
+      </c>
+      <c r="I79" t="s">
+        <v>420</v>
+      </c>
+      <c r="J79" t="s">
+        <v>96</v>
+      </c>
+      <c r="K79" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>522</v>
+      </c>
+      <c r="B80" t="s">
+        <v>523</v>
+      </c>
+      <c r="C80" t="s">
+        <v>524</v>
+      </c>
+      <c r="D80" t="s">
+        <v>525</v>
+      </c>
+      <c r="E80" t="s">
         <v>287</v>
       </c>
-      <c r="F77" t="s">
-        <v>510</v>
-      </c>
-      <c r="G77" t="s">
+      <c r="F80" t="s">
+        <v>526</v>
+      </c>
+      <c r="G80" t="s">
         <v>145</v>
       </c>
-      <c r="H77" t="s">
-        <v>511</v>
-      </c>
-      <c r="I77" t="s">
-        <v>512</v>
-      </c>
-      <c r="J77" t="s">
+      <c r="H80" t="s">
+        <v>527</v>
+      </c>
+      <c r="I80" t="s">
+        <v>528</v>
+      </c>
+      <c r="J80" t="s">
         <v>60</v>
       </c>
-      <c r="K77" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>513</v>
-      </c>
-      <c r="B78" t="s">
-        <v>514</v>
-      </c>
-      <c r="C78" t="s">
-        <v>515</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="K80" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>529</v>
+      </c>
+      <c r="B81" t="s">
+        <v>530</v>
+      </c>
+      <c r="C81" t="s">
+        <v>531</v>
+      </c>
+      <c r="D81" t="s">
         <v>130</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E81" t="s">
         <v>287</v>
       </c>
-      <c r="F78" t="s">
-        <v>516</v>
-      </c>
-      <c r="G78" t="s">
-        <v>17</v>
-      </c>
-      <c r="H78" t="s">
-        <v>517</v>
-      </c>
-      <c r="I78" t="s">
-        <v>518</v>
-      </c>
-      <c r="J78" t="s">
+      <c r="F81" t="s">
+        <v>532</v>
+      </c>
+      <c r="G81" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" t="s">
+        <v>533</v>
+      </c>
+      <c r="I81" t="s">
+        <v>534</v>
+      </c>
+      <c r="J81" t="s">
         <v>60</v>
       </c>
-      <c r="K78" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>519</v>
-      </c>
-      <c r="B79" t="s">
-        <v>520</v>
-      </c>
-      <c r="C79" t="s">
-        <v>521</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="K81" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>535</v>
+      </c>
+      <c r="B82" t="s">
+        <v>536</v>
+      </c>
+      <c r="C82" t="s">
+        <v>537</v>
+      </c>
+      <c r="D82" t="s">
         <v>123</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E82" t="s">
         <v>124</v>
       </c>
-      <c r="F79" t="s">
-        <v>522</v>
-      </c>
-      <c r="G79" t="s">
-        <v>17</v>
-      </c>
-      <c r="H79" t="s">
-        <v>523</v>
-      </c>
-      <c r="I79" t="s">
-        <v>524</v>
-      </c>
-      <c r="J79" t="s">
+      <c r="F82" t="s">
+        <v>538</v>
+      </c>
+      <c r="G82" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" t="s">
+        <v>539</v>
+      </c>
+      <c r="I82" t="s">
+        <v>540</v>
+      </c>
+      <c r="J82" t="s">
         <v>60</v>
       </c>
-      <c r="K79" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>525</v>
-      </c>
-      <c r="B80" t="s">
-        <v>526</v>
-      </c>
-      <c r="C80" t="s">
-        <v>527</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="K82" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>541</v>
+      </c>
+      <c r="B83" t="s">
+        <v>542</v>
+      </c>
+      <c r="C83" t="s">
+        <v>543</v>
+      </c>
+      <c r="D83" t="s">
         <v>189</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E83" t="s">
         <v>78</v>
       </c>
-      <c r="F80" t="s">
-        <v>528</v>
-      </c>
-      <c r="G80" t="s">
-        <v>17</v>
-      </c>
-      <c r="H80" t="s">
-        <v>529</v>
-      </c>
-      <c r="I80" t="s">
-        <v>530</v>
-      </c>
-      <c r="J80" t="s">
+      <c r="F83" t="s">
+        <v>544</v>
+      </c>
+      <c r="G83" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" t="s">
+        <v>545</v>
+      </c>
+      <c r="I83" t="s">
+        <v>546</v>
+      </c>
+      <c r="J83" t="s">
         <v>96</v>
       </c>
-      <c r="K80" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>531</v>
-      </c>
-      <c r="B81" t="s">
-        <v>532</v>
-      </c>
-      <c r="C81" t="s">
-        <v>533</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="K83" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>547</v>
+      </c>
+      <c r="B84" t="s">
+        <v>548</v>
+      </c>
+      <c r="C84" t="s">
+        <v>549</v>
+      </c>
+      <c r="D84" t="s">
         <v>214</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E84" t="s">
         <v>258</v>
       </c>
-      <c r="F81" t="s">
-        <v>534</v>
-      </c>
-      <c r="G81" t="s">
-        <v>17</v>
-      </c>
-      <c r="H81" t="s">
-        <v>535</v>
-      </c>
-      <c r="I81" t="s">
-        <v>536</v>
-      </c>
-      <c r="J81" t="s">
+      <c r="F84" t="s">
+        <v>550</v>
+      </c>
+      <c r="G84" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" t="s">
+        <v>551</v>
+      </c>
+      <c r="I84" t="s">
+        <v>552</v>
+      </c>
+      <c r="J84" t="s">
         <v>96</v>
       </c>
-      <c r="K81" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>537</v>
-      </c>
-      <c r="B82" t="s">
-        <v>532</v>
-      </c>
-      <c r="C82" t="s">
-        <v>538</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="K84" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>553</v>
+      </c>
+      <c r="B85" t="s">
+        <v>548</v>
+      </c>
+      <c r="C85" t="s">
+        <v>554</v>
+      </c>
+      <c r="D85" t="s">
         <v>326</v>
       </c>
-      <c r="E82" t="s">
-        <v>487</v>
-      </c>
-      <c r="F82" t="s">
-        <v>539</v>
-      </c>
-      <c r="G82" t="s">
-        <v>17</v>
-      </c>
-      <c r="H82" t="s">
-        <v>540</v>
-      </c>
-      <c r="I82" t="s">
-        <v>541</v>
-      </c>
-      <c r="J82" t="s">
-        <v>96</v>
-      </c>
-      <c r="K82" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>542</v>
-      </c>
-      <c r="B83" t="s">
-        <v>543</v>
-      </c>
-      <c r="C83" t="s">
-        <v>544</v>
-      </c>
-      <c r="D83" t="s">
-        <v>545</v>
-      </c>
-      <c r="E83" t="s">
-        <v>408</v>
-      </c>
-      <c r="F83" t="s">
-        <v>546</v>
-      </c>
-      <c r="G83" t="s">
-        <v>17</v>
-      </c>
-      <c r="H83" t="s">
-        <v>230</v>
-      </c>
-      <c r="I83" t="s">
-        <v>547</v>
-      </c>
-      <c r="J83" t="s">
-        <v>20</v>
-      </c>
-      <c r="K83" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>548</v>
-      </c>
-      <c r="B84" t="s">
-        <v>549</v>
-      </c>
-      <c r="C84" t="s">
-        <v>550</v>
-      </c>
-      <c r="D84" t="s">
-        <v>551</v>
-      </c>
-      <c r="E84" t="s">
-        <v>101</v>
-      </c>
-      <c r="F84" t="s">
-        <v>552</v>
-      </c>
-      <c r="G84" t="s">
-        <v>49</v>
-      </c>
-      <c r="H84" t="s">
-        <v>348</v>
-      </c>
-      <c r="I84" t="s">
-        <v>553</v>
-      </c>
-      <c r="J84" t="s">
-        <v>42</v>
-      </c>
-      <c r="K84" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>554</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="E85" t="s">
+        <v>503</v>
+      </c>
+      <c r="F85" t="s">
         <v>555</v>
       </c>
-      <c r="C85" t="s">
+      <c r="G85" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" t="s">
         <v>556</v>
       </c>
-      <c r="D85" t="s">
-        <v>189</v>
-      </c>
-      <c r="E85" t="s">
-        <v>136</v>
-      </c>
-      <c r="F85" t="s">
+      <c r="I85" t="s">
         <v>557</v>
-      </c>
-      <c r="G85" t="s">
-        <v>17</v>
-      </c>
-      <c r="H85" t="s">
-        <v>558</v>
-      </c>
-      <c r="I85" t="s">
-        <v>559</v>
       </c>
       <c r="J85" t="s">
         <v>96</v>
@@ -5362,33 +5757,33 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>558</v>
+      </c>
+      <c r="B86" t="s">
+        <v>559</v>
+      </c>
+      <c r="C86" t="s">
         <v>560</v>
       </c>
-      <c r="B86" t="s">
-        <v>555</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
+        <v>382</v>
+      </c>
+      <c r="E86" t="s">
+        <v>424</v>
+      </c>
+      <c r="F86" t="s">
         <v>561</v>
       </c>
-      <c r="D86" t="s">
-        <v>201</v>
-      </c>
-      <c r="E86" t="s">
-        <v>136</v>
-      </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" t="s">
+        <v>230</v>
+      </c>
+      <c r="I86" t="s">
         <v>562</v>
-      </c>
-      <c r="G86" t="s">
-        <v>17</v>
-      </c>
-      <c r="H86" t="s">
-        <v>563</v>
-      </c>
-      <c r="I86" t="s">
-        <v>564</v>
       </c>
       <c r="J86" t="s">
         <v>20</v>
@@ -5397,103 +5792,103 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>563</v>
+      </c>
+      <c r="B87" t="s">
+        <v>564</v>
+      </c>
+      <c r="C87" t="s">
         <v>565</v>
       </c>
-      <c r="B87" t="s">
+      <c r="D87" t="s">
         <v>566</v>
       </c>
-      <c r="C87" t="s">
+      <c r="E87" t="s">
+        <v>101</v>
+      </c>
+      <c r="F87" t="s">
         <v>567</v>
       </c>
-      <c r="D87" t="s">
+      <c r="G87" t="s">
+        <v>49</v>
+      </c>
+      <c r="H87" t="s">
+        <v>348</v>
+      </c>
+      <c r="I87" t="s">
         <v>568</v>
       </c>
-      <c r="E87" t="s">
-        <v>109</v>
-      </c>
-      <c r="F87" t="s">
+      <c r="J87" t="s">
+        <v>42</v>
+      </c>
+      <c r="K87" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>569</v>
       </c>
-      <c r="G87" t="s">
-        <v>17</v>
-      </c>
-      <c r="H87" t="s">
+      <c r="B88" t="s">
         <v>570</v>
       </c>
-      <c r="I87" t="s">
+      <c r="C88" t="s">
         <v>571</v>
       </c>
-      <c r="J87" t="s">
-        <v>20</v>
-      </c>
-      <c r="K87" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
+      <c r="D88" t="s">
+        <v>189</v>
+      </c>
+      <c r="E88" t="s">
+        <v>136</v>
+      </c>
+      <c r="F88" t="s">
         <v>572</v>
       </c>
-      <c r="B88" t="s">
+      <c r="G88" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" t="s">
         <v>573</v>
       </c>
-      <c r="C88" t="s">
+      <c r="I88" t="s">
         <v>574</v>
       </c>
-      <c r="D88" t="s">
-        <v>46</v>
-      </c>
-      <c r="E88" t="s">
-        <v>56</v>
-      </c>
-      <c r="F88" t="s">
+      <c r="J88" t="s">
+        <v>96</v>
+      </c>
+      <c r="K88" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>575</v>
       </c>
-      <c r="G88" t="s">
-        <v>17</v>
-      </c>
-      <c r="H88" t="s">
+      <c r="B89" t="s">
+        <v>570</v>
+      </c>
+      <c r="C89" t="s">
         <v>576</v>
       </c>
-      <c r="I88" t="s">
+      <c r="D89" t="s">
+        <v>201</v>
+      </c>
+      <c r="E89" t="s">
+        <v>136</v>
+      </c>
+      <c r="F89" t="s">
         <v>577</v>
       </c>
-      <c r="J88" t="s">
-        <v>60</v>
-      </c>
-      <c r="K88" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
+      <c r="G89" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" t="s">
         <v>578</v>
       </c>
-      <c r="B89" t="s">
+      <c r="I89" t="s">
         <v>579</v>
-      </c>
-      <c r="C89" t="s">
-        <v>580</v>
-      </c>
-      <c r="D89" t="s">
-        <v>581</v>
-      </c>
-      <c r="E89" t="s">
-        <v>56</v>
-      </c>
-      <c r="F89" t="s">
-        <v>582</v>
-      </c>
-      <c r="G89" t="s">
-        <v>17</v>
-      </c>
-      <c r="H89" t="s">
-        <v>583</v>
-      </c>
-      <c r="I89" t="s">
-        <v>584</v>
       </c>
       <c r="J89" t="s">
         <v>20</v>
@@ -5502,68 +5897,68 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>580</v>
+      </c>
+      <c r="B90" t="s">
+        <v>581</v>
+      </c>
+      <c r="C90" t="s">
+        <v>582</v>
+      </c>
+      <c r="D90" t="s">
+        <v>583</v>
+      </c>
+      <c r="E90" t="s">
+        <v>109</v>
+      </c>
+      <c r="F90" t="s">
+        <v>584</v>
+      </c>
+      <c r="G90" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" t="s">
         <v>585</v>
       </c>
-      <c r="B90" t="s">
+      <c r="I90" t="s">
         <v>586</v>
       </c>
-      <c r="C90" t="s">
+      <c r="J90" t="s">
+        <v>20</v>
+      </c>
+      <c r="K90" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>587</v>
       </c>
-      <c r="D90" t="s">
+      <c r="B91" t="s">
         <v>588</v>
       </c>
-      <c r="E90" t="s">
-        <v>136</v>
-      </c>
-      <c r="F90" t="s">
+      <c r="C91" t="s">
         <v>589</v>
       </c>
-      <c r="G90" t="s">
-        <v>49</v>
-      </c>
-      <c r="H90" t="s">
+      <c r="D91" t="s">
+        <v>46</v>
+      </c>
+      <c r="E91" t="s">
+        <v>56</v>
+      </c>
+      <c r="F91" t="s">
         <v>590</v>
       </c>
-      <c r="I90" t="s">
+      <c r="G91" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" t="s">
         <v>591</v>
       </c>
-      <c r="J90" t="s">
-        <v>60</v>
-      </c>
-      <c r="K90" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
+      <c r="I91" t="s">
         <v>592</v>
-      </c>
-      <c r="B91" t="s">
-        <v>586</v>
-      </c>
-      <c r="C91" t="s">
-        <v>593</v>
-      </c>
-      <c r="D91" t="s">
-        <v>430</v>
-      </c>
-      <c r="E91" t="s">
-        <v>202</v>
-      </c>
-      <c r="F91" t="s">
-        <v>589</v>
-      </c>
-      <c r="G91" t="s">
-        <v>49</v>
-      </c>
-      <c r="H91" t="s">
-        <v>594</v>
-      </c>
-      <c r="I91" t="s">
-        <v>595</v>
       </c>
       <c r="J91" t="s">
         <v>60</v>
@@ -5572,33 +5967,33 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>593</v>
+      </c>
+      <c r="B92" t="s">
+        <v>594</v>
+      </c>
+      <c r="C92" t="s">
+        <v>595</v>
+      </c>
+      <c r="D92" t="s">
         <v>596</v>
       </c>
-      <c r="B92" t="s">
+      <c r="E92" t="s">
+        <v>56</v>
+      </c>
+      <c r="F92" t="s">
         <v>597</v>
       </c>
-      <c r="C92" t="s">
+      <c r="G92" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" t="s">
         <v>598</v>
       </c>
-      <c r="D92" t="s">
-        <v>77</v>
-      </c>
-      <c r="E92" t="s">
-        <v>202</v>
-      </c>
-      <c r="F92" t="s">
+      <c r="I92" t="s">
         <v>599</v>
-      </c>
-      <c r="G92" t="s">
-        <v>17</v>
-      </c>
-      <c r="H92" t="s">
-        <v>600</v>
-      </c>
-      <c r="I92" t="s">
-        <v>601</v>
       </c>
       <c r="J92" t="s">
         <v>20</v>
@@ -5607,33 +6002,33 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>600</v>
+      </c>
+      <c r="B93" t="s">
+        <v>601</v>
+      </c>
+      <c r="C93" t="s">
         <v>602</v>
       </c>
-      <c r="B93" t="s">
+      <c r="D93" t="s">
         <v>603</v>
       </c>
-      <c r="C93" t="s">
+      <c r="E93" t="s">
+        <v>136</v>
+      </c>
+      <c r="F93" t="s">
         <v>604</v>
-      </c>
-      <c r="D93" t="s">
-        <v>437</v>
-      </c>
-      <c r="E93" t="s">
-        <v>266</v>
-      </c>
-      <c r="F93" t="s">
-        <v>605</v>
       </c>
       <c r="G93" t="s">
         <v>49</v>
       </c>
       <c r="H93" t="s">
+        <v>605</v>
+      </c>
+      <c r="I93" t="s">
         <v>606</v>
-      </c>
-      <c r="I93" t="s">
-        <v>607</v>
       </c>
       <c r="J93" t="s">
         <v>60</v>
@@ -5642,59 +6037,59 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>607</v>
+      </c>
+      <c r="B94" t="s">
+        <v>601</v>
+      </c>
+      <c r="C94" t="s">
         <v>608</v>
       </c>
-      <c r="B94" t="s">
-        <v>603</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
+        <v>446</v>
+      </c>
+      <c r="E94" t="s">
+        <v>202</v>
+      </c>
+      <c r="F94" t="s">
+        <v>604</v>
+      </c>
+      <c r="G94" t="s">
+        <v>49</v>
+      </c>
+      <c r="H94" t="s">
         <v>609</v>
       </c>
-      <c r="D94" t="s">
-        <v>108</v>
-      </c>
-      <c r="E94" t="s">
-        <v>101</v>
-      </c>
-      <c r="F94" t="s">
+      <c r="I94" t="s">
         <v>610</v>
       </c>
-      <c r="G94" t="s">
-        <v>17</v>
-      </c>
-      <c r="H94" t="s">
+      <c r="J94" t="s">
+        <v>60</v>
+      </c>
+      <c r="K94" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>611</v>
       </c>
-      <c r="I94" t="s">
+      <c r="B95" t="s">
         <v>612</v>
       </c>
-      <c r="J94" t="s">
-        <v>20</v>
-      </c>
-      <c r="K94" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
+      <c r="C95" t="s">
         <v>613</v>
-      </c>
-      <c r="B95" t="s">
-        <v>603</v>
-      </c>
-      <c r="C95" t="s">
-        <v>614</v>
       </c>
       <c r="D95" t="s">
         <v>77</v>
       </c>
       <c r="E95" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F95" t="s">
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="G95" t="s">
         <v>17</v>
@@ -5712,7 +6107,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>617</v>
       </c>
@@ -5723,16 +6118,16 @@
         <v>619</v>
       </c>
       <c r="D96" t="s">
-        <v>14</v>
+        <v>453</v>
       </c>
       <c r="E96" t="s">
-        <v>124</v>
+        <v>266</v>
       </c>
       <c r="F96" t="s">
         <v>620</v>
       </c>
       <c r="G96" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H96" t="s">
         <v>621</v>
@@ -5741,39 +6136,39 @@
         <v>622</v>
       </c>
       <c r="J96" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K96" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>623</v>
       </c>
       <c r="B97" t="s">
+        <v>618</v>
+      </c>
+      <c r="C97" t="s">
         <v>624</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
+        <v>108</v>
+      </c>
+      <c r="E97" t="s">
+        <v>101</v>
+      </c>
+      <c r="F97" t="s">
         <v>625</v>
       </c>
-      <c r="D97" t="s">
-        <v>55</v>
-      </c>
-      <c r="E97" t="s">
-        <v>85</v>
-      </c>
-      <c r="F97" t="s">
+      <c r="G97" t="s">
+        <v>17</v>
+      </c>
+      <c r="H97" t="s">
         <v>626</v>
       </c>
-      <c r="G97" t="s">
-        <v>17</v>
-      </c>
-      <c r="H97" t="s">
+      <c r="I97" t="s">
         <v>627</v>
-      </c>
-      <c r="I97" t="s">
-        <v>628</v>
       </c>
       <c r="J97" t="s">
         <v>20</v>
@@ -5782,103 +6177,103 @@
         <v>21</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>628</v>
+      </c>
+      <c r="B98" t="s">
+        <v>618</v>
+      </c>
+      <c r="C98" t="s">
         <v>629</v>
       </c>
-      <c r="B98" t="s">
+      <c r="D98" t="s">
+        <v>77</v>
+      </c>
+      <c r="E98" t="s">
+        <v>287</v>
+      </c>
+      <c r="F98" t="s">
+        <v>614</v>
+      </c>
+      <c r="G98" t="s">
+        <v>17</v>
+      </c>
+      <c r="H98" t="s">
         <v>630</v>
       </c>
-      <c r="C98" t="s">
+      <c r="I98" t="s">
         <v>631</v>
       </c>
-      <c r="D98" t="s">
-        <v>214</v>
-      </c>
-      <c r="E98" t="s">
-        <v>455</v>
-      </c>
-      <c r="F98" t="s">
+      <c r="J98" t="s">
+        <v>20</v>
+      </c>
+      <c r="K98" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>632</v>
       </c>
-      <c r="G98" t="s">
-        <v>17</v>
-      </c>
-      <c r="H98" t="s">
+      <c r="B99" t="s">
         <v>633</v>
       </c>
-      <c r="I98" t="s">
+      <c r="C99" t="s">
         <v>634</v>
       </c>
-      <c r="J98" t="s">
-        <v>96</v>
-      </c>
-      <c r="K98" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
+      <c r="D99" t="s">
+        <v>123</v>
+      </c>
+      <c r="E99" t="s">
+        <v>109</v>
+      </c>
+      <c r="F99" t="s">
         <v>635</v>
       </c>
-      <c r="B99" t="s">
-        <v>630</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="G99" t="s">
+        <v>49</v>
+      </c>
+      <c r="H99" t="s">
         <v>636</v>
       </c>
-      <c r="D99" t="s">
-        <v>189</v>
-      </c>
-      <c r="E99" t="s">
-        <v>487</v>
-      </c>
-      <c r="F99" t="s">
+      <c r="I99" t="s">
         <v>637</v>
       </c>
-      <c r="G99" t="s">
-        <v>17</v>
-      </c>
-      <c r="H99" t="s">
+      <c r="J99" t="s">
+        <v>60</v>
+      </c>
+      <c r="K99" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>638</v>
       </c>
-      <c r="I99" t="s">
-        <v>634</v>
-      </c>
-      <c r="J99" t="s">
-        <v>20</v>
-      </c>
-      <c r="K99" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
+      <c r="B100" t="s">
         <v>639</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>640</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
+        <v>319</v>
+      </c>
+      <c r="E100" t="s">
         <v>641</v>
       </c>
-      <c r="D100" t="s">
+      <c r="F100" t="s">
         <v>642</v>
       </c>
-      <c r="E100" t="s">
-        <v>56</v>
-      </c>
-      <c r="F100" t="s">
+      <c r="G100" t="s">
+        <v>145</v>
+      </c>
+      <c r="H100" t="s">
         <v>643</v>
       </c>
-      <c r="G100" t="s">
-        <v>49</v>
-      </c>
-      <c r="H100" t="s">
+      <c r="I100" t="s">
         <v>644</v>
-      </c>
-      <c r="I100" t="s">
-        <v>645</v>
       </c>
       <c r="J100" t="s">
         <v>42</v>
@@ -5887,21 +6282,21 @@
         <v>43</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>645</v>
+      </c>
+      <c r="B101" t="s">
+        <v>639</v>
+      </c>
+      <c r="C101" t="s">
         <v>646</v>
       </c>
-      <c r="B101" t="s">
-        <v>640</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>647</v>
       </c>
-      <c r="D101" t="s">
-        <v>286</v>
-      </c>
       <c r="E101" t="s">
-        <v>266</v>
+        <v>116</v>
       </c>
       <c r="F101" t="s">
         <v>648</v>
@@ -5922,7 +6317,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>651</v>
       </c>
@@ -5933,92 +6328,92 @@
         <v>653</v>
       </c>
       <c r="D102" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" t="s">
+        <v>124</v>
+      </c>
+      <c r="F102" t="s">
         <v>654</v>
       </c>
-      <c r="E102" t="s">
-        <v>202</v>
-      </c>
-      <c r="F102" t="s">
+      <c r="G102" t="s">
+        <v>17</v>
+      </c>
+      <c r="H102" t="s">
         <v>655</v>
       </c>
-      <c r="G102" t="s">
-        <v>49</v>
-      </c>
-      <c r="H102" t="s">
+      <c r="I102" t="s">
         <v>656</v>
       </c>
-      <c r="I102" t="s">
+      <c r="J102" t="s">
+        <v>20</v>
+      </c>
+      <c r="K102" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>657</v>
       </c>
-      <c r="J102" t="s">
-        <v>42</v>
-      </c>
-      <c r="K102" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
+      <c r="B103" t="s">
         <v>658</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>659</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
+        <v>55</v>
+      </c>
+      <c r="E103" t="s">
+        <v>85</v>
+      </c>
+      <c r="F103" t="s">
         <v>660</v>
       </c>
-      <c r="D103" t="s">
-        <v>108</v>
-      </c>
-      <c r="E103" t="s">
-        <v>202</v>
-      </c>
-      <c r="F103" t="s">
+      <c r="G103" t="s">
+        <v>17</v>
+      </c>
+      <c r="H103" t="s">
         <v>661</v>
       </c>
-      <c r="G103" t="s">
-        <v>17</v>
-      </c>
-      <c r="H103" t="s">
+      <c r="I103" t="s">
         <v>662</v>
       </c>
-      <c r="I103" t="s">
+      <c r="J103" t="s">
+        <v>20</v>
+      </c>
+      <c r="K103" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>663</v>
       </c>
-      <c r="J103" t="s">
-        <v>60</v>
-      </c>
-      <c r="K103" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
+      <c r="B104" t="s">
         <v>664</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>665</v>
-      </c>
-      <c r="C104" t="s">
-        <v>666</v>
       </c>
       <c r="D104" t="s">
         <v>214</v>
       </c>
       <c r="E104" t="s">
-        <v>78</v>
+        <v>471</v>
       </c>
       <c r="F104" t="s">
+        <v>666</v>
+      </c>
+      <c r="G104" t="s">
+        <v>17</v>
+      </c>
+      <c r="H104" t="s">
         <v>667</v>
       </c>
-      <c r="G104" t="s">
-        <v>17</v>
-      </c>
-      <c r="H104" t="s">
+      <c r="I104" t="s">
         <v>668</v>
-      </c>
-      <c r="I104" t="s">
-        <v>669</v>
       </c>
       <c r="J104" t="s">
         <v>96</v>
@@ -6027,132 +6422,132 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>669</v>
+      </c>
+      <c r="B105" t="s">
+        <v>664</v>
+      </c>
+      <c r="C105" t="s">
         <v>670</v>
       </c>
-      <c r="B105" t="s">
-        <v>665</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
+        <v>189</v>
+      </c>
+      <c r="E105" t="s">
+        <v>503</v>
+      </c>
+      <c r="F105" t="s">
         <v>671</v>
       </c>
-      <c r="D105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E105" t="s">
-        <v>78</v>
-      </c>
-      <c r="F105" t="s">
+      <c r="G105" t="s">
+        <v>17</v>
+      </c>
+      <c r="H105" t="s">
         <v>672</v>
       </c>
-      <c r="G105" t="s">
-        <v>17</v>
-      </c>
-      <c r="H105" t="s">
+      <c r="I105" t="s">
+        <v>668</v>
+      </c>
+      <c r="J105" t="s">
+        <v>20</v>
+      </c>
+      <c r="K105" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>673</v>
       </c>
-      <c r="I105" t="s">
+      <c r="B106" t="s">
         <v>674</v>
       </c>
-      <c r="J105" t="s">
-        <v>96</v>
-      </c>
-      <c r="K105" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
+      <c r="C106" t="s">
         <v>675</v>
       </c>
-      <c r="B106" t="s">
+      <c r="D106" t="s">
         <v>676</v>
       </c>
-      <c r="C106" t="s">
-        <v>376</v>
-      </c>
-      <c r="D106" t="s">
-        <v>182</v>
-      </c>
       <c r="E106" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="F106" t="s">
         <v>677</v>
       </c>
       <c r="G106" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H106" t="s">
-        <v>111</v>
+        <v>678</v>
       </c>
       <c r="I106" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="J106" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="K106" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B107" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="C107" t="s">
         <v>681</v>
       </c>
       <c r="D107" t="s">
-        <v>189</v>
+        <v>286</v>
       </c>
       <c r="E107" t="s">
+        <v>266</v>
+      </c>
+      <c r="F107" t="s">
         <v>682</v>
       </c>
-      <c r="F107" t="s">
+      <c r="G107" t="s">
+        <v>145</v>
+      </c>
+      <c r="H107" t="s">
         <v>683</v>
       </c>
-      <c r="G107" t="s">
-        <v>17</v>
-      </c>
-      <c r="H107" t="s">
+      <c r="I107" t="s">
         <v>684</v>
       </c>
-      <c r="I107" t="s">
+      <c r="J107" t="s">
+        <v>42</v>
+      </c>
+      <c r="K107" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>685</v>
       </c>
-      <c r="J107" t="s">
+      <c r="B108" t="s">
         <v>686</v>
       </c>
-      <c r="K107" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
+      <c r="C108" t="s">
         <v>687</v>
       </c>
-      <c r="B108" t="s">
-        <v>680</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>688</v>
       </c>
-      <c r="D108" t="s">
-        <v>340</v>
-      </c>
       <c r="E108" t="s">
-        <v>258</v>
+        <v>202</v>
       </c>
       <c r="F108" t="s">
         <v>689</v>
       </c>
       <c r="G108" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H108" t="s">
         <v>690</v>
@@ -6161,13 +6556,13 @@
         <v>691</v>
       </c>
       <c r="J108" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="K108" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="109">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>692</v>
       </c>
@@ -6178,197 +6573,197 @@
         <v>694</v>
       </c>
       <c r="D109" t="s">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>202</v>
+      </c>
+      <c r="F109" t="s">
         <v>695</v>
       </c>
-      <c r="E109" t="s">
-        <v>287</v>
-      </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
+        <v>17</v>
+      </c>
+      <c r="H109" t="s">
         <v>696</v>
       </c>
-      <c r="G109" t="s">
-        <v>145</v>
-      </c>
-      <c r="H109" t="s">
+      <c r="I109" t="s">
         <v>697</v>
       </c>
-      <c r="I109" t="s">
+      <c r="J109" t="s">
+        <v>60</v>
+      </c>
+      <c r="K109" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>698</v>
       </c>
-      <c r="J109" t="s">
+      <c r="B110" t="s">
         <v>699</v>
       </c>
-      <c r="K109" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
+      <c r="C110" t="s">
         <v>700</v>
       </c>
-      <c r="B110" t="s">
+      <c r="D110" t="s">
+        <v>214</v>
+      </c>
+      <c r="E110" t="s">
+        <v>78</v>
+      </c>
+      <c r="F110" t="s">
         <v>701</v>
       </c>
-      <c r="C110" t="s">
+      <c r="G110" t="s">
+        <v>17</v>
+      </c>
+      <c r="H110" t="s">
         <v>702</v>
       </c>
-      <c r="D110" t="s">
+      <c r="I110" t="s">
         <v>703</v>
       </c>
-      <c r="E110" t="s">
-        <v>287</v>
-      </c>
-      <c r="F110" t="s">
+      <c r="J110" t="s">
+        <v>96</v>
+      </c>
+      <c r="K110" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>704</v>
       </c>
-      <c r="G110" t="s">
-        <v>17</v>
-      </c>
-      <c r="H110" t="s">
+      <c r="B111" t="s">
+        <v>699</v>
+      </c>
+      <c r="C111" t="s">
         <v>705</v>
       </c>
-      <c r="I110" t="s">
+      <c r="D111" t="s">
+        <v>214</v>
+      </c>
+      <c r="E111" t="s">
+        <v>78</v>
+      </c>
+      <c r="F111" t="s">
         <v>706</v>
       </c>
-      <c r="J110" t="s">
-        <v>276</v>
-      </c>
-      <c r="K110" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
+      <c r="G111" t="s">
+        <v>17</v>
+      </c>
+      <c r="H111" t="s">
         <v>707</v>
       </c>
-      <c r="B111" t="s">
-        <v>701</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="I111" t="s">
         <v>708</v>
       </c>
-      <c r="D111" t="s">
-        <v>221</v>
-      </c>
-      <c r="E111" t="s">
-        <v>109</v>
-      </c>
-      <c r="F111" t="s">
+      <c r="J111" t="s">
+        <v>96</v>
+      </c>
+      <c r="K111" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>709</v>
       </c>
-      <c r="G111" t="s">
-        <v>145</v>
-      </c>
-      <c r="H111" t="s">
+      <c r="B112" t="s">
         <v>710</v>
       </c>
-      <c r="I111" t="s">
+      <c r="C112" t="s">
+        <v>376</v>
+      </c>
+      <c r="D112" t="s">
+        <v>182</v>
+      </c>
+      <c r="E112" t="s">
+        <v>101</v>
+      </c>
+      <c r="F112" t="s">
         <v>711</v>
       </c>
-      <c r="J111" t="s">
-        <v>42</v>
-      </c>
-      <c r="K111" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
+      <c r="G112" t="s">
+        <v>17</v>
+      </c>
+      <c r="H112" t="s">
+        <v>111</v>
+      </c>
+      <c r="I112" t="s">
         <v>712</v>
       </c>
-      <c r="B112" t="s">
+      <c r="J112" t="s">
+        <v>20</v>
+      </c>
+      <c r="K112" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>713</v>
       </c>
-      <c r="C112" t="s">
+      <c r="B113" t="s">
         <v>714</v>
       </c>
-      <c r="D112" t="s">
+      <c r="C113" t="s">
         <v>715</v>
       </c>
-      <c r="E112" t="s">
+      <c r="D113" t="s">
+        <v>189</v>
+      </c>
+      <c r="E113" t="s">
         <v>716</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F113" t="s">
         <v>717</v>
       </c>
-      <c r="G112" t="s">
-        <v>294</v>
-      </c>
-      <c r="H112" t="s">
+      <c r="G113" t="s">
+        <v>17</v>
+      </c>
+      <c r="H113" t="s">
         <v>718</v>
       </c>
-      <c r="I112" t="s">
+      <c r="I113" t="s">
         <v>719</v>
       </c>
-      <c r="J112" t="s">
+      <c r="J113" t="s">
         <v>720</v>
       </c>
-      <c r="K112" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
+      <c r="K113" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>721</v>
       </c>
-      <c r="B113" t="s">
-        <v>713</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="B114" t="s">
+        <v>714</v>
+      </c>
+      <c r="C114" t="s">
         <v>722</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D114" t="s">
+        <v>340</v>
+      </c>
+      <c r="E114" t="s">
+        <v>258</v>
+      </c>
+      <c r="F114" t="s">
         <v>723</v>
       </c>
-      <c r="E113" t="s">
-        <v>31</v>
-      </c>
-      <c r="F113" t="s">
+      <c r="G114" t="s">
+        <v>17</v>
+      </c>
+      <c r="H114" t="s">
         <v>724</v>
       </c>
-      <c r="G113" t="s">
-        <v>145</v>
-      </c>
-      <c r="H113" t="s">
+      <c r="I114" t="s">
         <v>725</v>
-      </c>
-      <c r="I113" t="s">
-        <v>726</v>
-      </c>
-      <c r="J113" t="s">
-        <v>699</v>
-      </c>
-      <c r="K113" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>727</v>
-      </c>
-      <c r="B114" t="s">
-        <v>728</v>
-      </c>
-      <c r="C114" t="s">
-        <v>729</v>
-      </c>
-      <c r="D114" t="s">
-        <v>228</v>
-      </c>
-      <c r="E114" t="s">
-        <v>389</v>
-      </c>
-      <c r="F114" t="s">
-        <v>730</v>
-      </c>
-      <c r="G114" t="s">
-        <v>17</v>
-      </c>
-      <c r="H114" t="s">
-        <v>731</v>
-      </c>
-      <c r="I114" t="s">
-        <v>732</v>
       </c>
       <c r="J114" t="s">
         <v>20</v>
@@ -6377,167 +6772,167 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="B115" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="C115" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="D115" t="s">
-        <v>135</v>
+        <v>729</v>
       </c>
       <c r="E115" t="s">
-        <v>736</v>
+        <v>287</v>
       </c>
       <c r="F115" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="G115" t="s">
         <v>145</v>
       </c>
       <c r="H115" t="s">
+        <v>731</v>
+      </c>
+      <c r="I115" t="s">
+        <v>732</v>
+      </c>
+      <c r="J115" t="s">
+        <v>733</v>
+      </c>
+      <c r="K115" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>734</v>
+      </c>
+      <c r="B116" t="s">
+        <v>735</v>
+      </c>
+      <c r="C116" t="s">
+        <v>736</v>
+      </c>
+      <c r="D116" t="s">
+        <v>737</v>
+      </c>
+      <c r="E116" t="s">
+        <v>287</v>
+      </c>
+      <c r="F116" t="s">
         <v>738</v>
       </c>
-      <c r="I115" t="s">
-        <v>674</v>
-      </c>
-      <c r="J115" t="s">
+      <c r="G116" t="s">
+        <v>17</v>
+      </c>
+      <c r="H116" t="s">
+        <v>739</v>
+      </c>
+      <c r="I116" t="s">
+        <v>740</v>
+      </c>
+      <c r="J116" t="s">
+        <v>276</v>
+      </c>
+      <c r="K116" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>741</v>
+      </c>
+      <c r="B117" t="s">
+        <v>735</v>
+      </c>
+      <c r="C117" t="s">
+        <v>742</v>
+      </c>
+      <c r="D117" t="s">
+        <v>221</v>
+      </c>
+      <c r="E117" t="s">
+        <v>109</v>
+      </c>
+      <c r="F117" t="s">
+        <v>743</v>
+      </c>
+      <c r="G117" t="s">
+        <v>145</v>
+      </c>
+      <c r="H117" t="s">
+        <v>744</v>
+      </c>
+      <c r="I117" t="s">
+        <v>745</v>
+      </c>
+      <c r="J117" t="s">
         <v>42</v>
       </c>
-      <c r="K115" t="s">
+      <c r="K117" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>739</v>
-      </c>
-      <c r="B116" t="s">
-        <v>734</v>
-      </c>
-      <c r="C116" t="s">
-        <v>740</v>
-      </c>
-      <c r="D116" t="s">
-        <v>14</v>
-      </c>
-      <c r="E116" t="s">
-        <v>168</v>
-      </c>
-      <c r="F116" t="s">
-        <v>741</v>
-      </c>
-      <c r="G116" t="s">
-        <v>145</v>
-      </c>
-      <c r="H116" t="s">
-        <v>253</v>
-      </c>
-      <c r="I116" t="s">
-        <v>742</v>
-      </c>
-      <c r="J116" t="s">
-        <v>42</v>
-      </c>
-      <c r="K116" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>743</v>
-      </c>
-      <c r="B117" t="s">
-        <v>744</v>
-      </c>
-      <c r="C117" t="s">
-        <v>745</v>
-      </c>
-      <c r="D117" t="s">
-        <v>214</v>
-      </c>
-      <c r="E117" t="s">
-        <v>258</v>
-      </c>
-      <c r="F117" t="s">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>746</v>
       </c>
-      <c r="G117" t="s">
-        <v>17</v>
-      </c>
-      <c r="H117" t="s">
+      <c r="B118" t="s">
         <v>747</v>
       </c>
-      <c r="I117" t="s">
+      <c r="C118" t="s">
         <v>748</v>
       </c>
-      <c r="J117" t="s">
-        <v>276</v>
-      </c>
-      <c r="K117" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s">
+      <c r="D118" t="s">
         <v>749</v>
       </c>
-      <c r="B118" t="s">
+      <c r="E118" t="s">
         <v>750</v>
       </c>
-      <c r="C118" t="s">
+      <c r="F118" t="s">
         <v>751</v>
       </c>
-      <c r="D118" t="s">
-        <v>108</v>
-      </c>
-      <c r="E118" t="s">
-        <v>716</v>
-      </c>
-      <c r="F118" t="s">
+      <c r="G118" t="s">
+        <v>294</v>
+      </c>
+      <c r="H118" t="s">
         <v>752</v>
       </c>
-      <c r="G118" t="s">
-        <v>49</v>
-      </c>
-      <c r="H118" t="s">
+      <c r="I118" t="s">
         <v>753</v>
       </c>
-      <c r="I118" t="s">
+      <c r="J118" t="s">
         <v>754</v>
       </c>
-      <c r="J118" t="s">
-        <v>42</v>
-      </c>
       <c r="K118" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="119">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>755</v>
       </c>
       <c r="B119" t="s">
+        <v>747</v>
+      </c>
+      <c r="C119" t="s">
         <v>756</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>757</v>
       </c>
-      <c r="D119" t="s">
-        <v>228</v>
-      </c>
       <c r="E119" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="F119" t="s">
         <v>758</v>
       </c>
       <c r="G119" t="s">
-        <v>49</v>
+        <v>145</v>
       </c>
       <c r="H119" t="s">
         <v>759</v>
@@ -6546,13 +6941,13 @@
         <v>760</v>
       </c>
       <c r="J119" t="s">
-        <v>42</v>
+        <v>733</v>
       </c>
       <c r="K119" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="120">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>761</v>
       </c>
@@ -6563,16 +6958,16 @@
         <v>763</v>
       </c>
       <c r="D120" t="s">
-        <v>135</v>
+        <v>228</v>
       </c>
       <c r="E120" t="s">
-        <v>423</v>
+        <v>394</v>
       </c>
       <c r="F120" t="s">
         <v>764</v>
       </c>
       <c r="G120" t="s">
-        <v>294</v>
+        <v>17</v>
       </c>
       <c r="H120" t="s">
         <v>765</v>
@@ -6581,13 +6976,13 @@
         <v>766</v>
       </c>
       <c r="J120" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="K120" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>767</v>
       </c>
@@ -6598,22 +6993,22 @@
         <v>769</v>
       </c>
       <c r="D121" t="s">
+        <v>135</v>
+      </c>
+      <c r="E121" t="s">
         <v>770</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
         <v>771</v>
       </c>
-      <c r="F121" t="s">
+      <c r="G121" t="s">
+        <v>145</v>
+      </c>
+      <c r="H121" t="s">
         <v>772</v>
       </c>
-      <c r="G121" t="s">
-        <v>17</v>
-      </c>
-      <c r="H121" t="s">
-        <v>773</v>
-      </c>
       <c r="I121" t="s">
-        <v>774</v>
+        <v>708</v>
       </c>
       <c r="J121" t="s">
         <v>42</v>
@@ -6622,7 +7017,182 @@
         <v>43</v>
       </c>
     </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>773</v>
+      </c>
+      <c r="B122" t="s">
+        <v>768</v>
+      </c>
+      <c r="C122" t="s">
+        <v>774</v>
+      </c>
+      <c r="D122" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" t="s">
+        <v>168</v>
+      </c>
+      <c r="F122" t="s">
+        <v>775</v>
+      </c>
+      <c r="G122" t="s">
+        <v>145</v>
+      </c>
+      <c r="H122" t="s">
+        <v>253</v>
+      </c>
+      <c r="I122" t="s">
+        <v>776</v>
+      </c>
+      <c r="J122" t="s">
+        <v>42</v>
+      </c>
+      <c r="K122" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>777</v>
+      </c>
+      <c r="B123" t="s">
+        <v>778</v>
+      </c>
+      <c r="C123" t="s">
+        <v>779</v>
+      </c>
+      <c r="D123" t="s">
+        <v>214</v>
+      </c>
+      <c r="E123" t="s">
+        <v>258</v>
+      </c>
+      <c r="F123" t="s">
+        <v>780</v>
+      </c>
+      <c r="G123" t="s">
+        <v>17</v>
+      </c>
+      <c r="H123" t="s">
+        <v>781</v>
+      </c>
+      <c r="I123" t="s">
+        <v>782</v>
+      </c>
+      <c r="J123" t="s">
+        <v>276</v>
+      </c>
+      <c r="K123" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>783</v>
+      </c>
+      <c r="B124" t="s">
+        <v>784</v>
+      </c>
+      <c r="C124" t="s">
+        <v>785</v>
+      </c>
+      <c r="D124" t="s">
+        <v>108</v>
+      </c>
+      <c r="E124" t="s">
+        <v>750</v>
+      </c>
+      <c r="F124" t="s">
+        <v>786</v>
+      </c>
+      <c r="G124" t="s">
+        <v>49</v>
+      </c>
+      <c r="H124" t="s">
+        <v>787</v>
+      </c>
+      <c r="I124" t="s">
+        <v>788</v>
+      </c>
+      <c r="J124" t="s">
+        <v>42</v>
+      </c>
+      <c r="K124" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>789</v>
+      </c>
+      <c r="B125" t="s">
+        <v>790</v>
+      </c>
+      <c r="C125" t="s">
+        <v>791</v>
+      </c>
+      <c r="D125" t="s">
+        <v>228</v>
+      </c>
+      <c r="E125" t="s">
+        <v>101</v>
+      </c>
+      <c r="F125" t="s">
+        <v>792</v>
+      </c>
+      <c r="G125" t="s">
+        <v>49</v>
+      </c>
+      <c r="H125" t="s">
+        <v>793</v>
+      </c>
+      <c r="I125" t="s">
+        <v>794</v>
+      </c>
+      <c r="J125" t="s">
+        <v>42</v>
+      </c>
+      <c r="K125" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>795</v>
+      </c>
+      <c r="B126" t="s">
+        <v>796</v>
+      </c>
+      <c r="C126" t="s">
+        <v>797</v>
+      </c>
+      <c r="D126" t="s">
+        <v>135</v>
+      </c>
+      <c r="E126" t="s">
+        <v>439</v>
+      </c>
+      <c r="F126" t="s">
+        <v>798</v>
+      </c>
+      <c r="G126" t="s">
+        <v>294</v>
+      </c>
+      <c r="H126" t="s">
+        <v>799</v>
+      </c>
+      <c r="I126" t="s">
+        <v>800</v>
+      </c>
+      <c r="J126" t="s">
+        <v>60</v>
+      </c>
+      <c r="K126" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/build/classes/files/sismos.xlsx
+++ b/build/classes/files/sismos.xlsx
@@ -1,26 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEC\II SEMESTRE\Progra Orientada a Objetos\TAREAS PROGRAMADAS\TAREA 1\PROYECTO JAVA\Proyecto-1-POO\src\files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E45D552-5AB2-4958-A7AC-E683FEAD1AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" r:id="rId3" sheetId="1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="775">
   <si>
     <t>Id</t>
   </si>
@@ -58,7 +50,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>1 ene. 2021</t>
+    <t>1 Jan 2021</t>
   </si>
   <si>
     <t>14:12:05</t>
@@ -67,7 +59,7 @@
     <t>7.000</t>
   </si>
   <si>
-    <t>2.83Ml</t>
+    <t>2.82Ml</t>
   </si>
   <si>
     <t>Desamparados</t>
@@ -109,7 +101,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>3 ene. 2021</t>
+    <t>3 Jan 2021</t>
   </si>
   <si>
     <t>07:25:00</t>
@@ -127,7 +119,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>4 ene. 2021</t>
+    <t>4 Jan 2021</t>
   </si>
   <si>
     <t>20:03:00</t>
@@ -181,7 +173,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>6 ene. 2021</t>
+    <t>6 Jan 2021</t>
   </si>
   <si>
     <t>15:12:00</t>
@@ -226,7 +218,7 @@
     <t>7</t>
   </si>
   <si>
-    <t>7 ene. 2021</t>
+    <t>7 Jan 2021</t>
   </si>
   <si>
     <t>12:48:00</t>
@@ -247,7 +239,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>8 ene. 2021</t>
+    <t>8 Jan 2021</t>
   </si>
   <si>
     <t>19:33:00</t>
@@ -271,7 +263,7 @@
     <t>9</t>
   </si>
   <si>
-    <t>20 ene. 2021</t>
+    <t>20 Jan 2021</t>
   </si>
   <si>
     <t>01:17:00</t>
@@ -292,7 +284,7 @@
     <t>10</t>
   </si>
   <si>
-    <t>21 ene. 2021</t>
+    <t>21 Jan 2021</t>
   </si>
   <si>
     <t>07:06:00</t>
@@ -316,7 +308,7 @@
     <t>11</t>
   </si>
   <si>
-    <t>23 ene. 2021</t>
+    <t>23 Jan 2021</t>
   </si>
   <si>
     <t>16:15:00</t>
@@ -340,7 +332,7 @@
     <t>12</t>
   </si>
   <si>
-    <t>31 ene. 2021</t>
+    <t>31 Jan 2021</t>
   </si>
   <si>
     <t>16:30:56</t>
@@ -385,7 +377,7 @@
     <t>14</t>
   </si>
   <si>
-    <t>5 feb. 2021</t>
+    <t>5 Feb 2021</t>
   </si>
   <si>
     <t>23:41:19</t>
@@ -445,7 +437,7 @@
     <t>17</t>
   </si>
   <si>
-    <t>13 feb. 2021</t>
+    <t>13 Feb 2021</t>
   </si>
   <si>
     <t>15:53:11</t>
@@ -469,7 +461,7 @@
     <t>18</t>
   </si>
   <si>
-    <t>15 feb. 2021</t>
+    <t>15 Feb 2021</t>
   </si>
   <si>
     <t>20:00:27</t>
@@ -505,7 +497,7 @@
     <t>20</t>
   </si>
   <si>
-    <t>22 feb. 2021</t>
+    <t>22 Feb 2021</t>
   </si>
   <si>
     <t>17:50:29</t>
@@ -541,7 +533,7 @@
     <t>22</t>
   </si>
   <si>
-    <t>23 feb. 2021</t>
+    <t>23 Feb 2021</t>
   </si>
   <si>
     <t>23:41:00</t>
@@ -562,7 +554,7 @@
     <t>23</t>
   </si>
   <si>
-    <t>24 feb. 2021</t>
+    <t>24 Feb 2021</t>
   </si>
   <si>
     <t>21:41:39</t>
@@ -583,7 +575,7 @@
     <t>24</t>
   </si>
   <si>
-    <t>26 feb. 2021</t>
+    <t>26 Feb 2021</t>
   </si>
   <si>
     <t>17:16:18</t>
@@ -604,7 +596,7 @@
     <t>25</t>
   </si>
   <si>
-    <t>27 feb. 2021</t>
+    <t>27 Feb 2021</t>
   </si>
   <si>
     <t>10:51:50</t>
@@ -643,7 +635,7 @@
     <t>27</t>
   </si>
   <si>
-    <t>28 feb. 2021</t>
+    <t>28 Feb 2021</t>
   </si>
   <si>
     <t>20:06:31</t>
@@ -658,7 +650,7 @@
     <t>28</t>
   </si>
   <si>
-    <t>1 mar. 2021</t>
+    <t>1 Mar 2021</t>
   </si>
   <si>
     <t>01:47:00</t>
@@ -679,7 +671,7 @@
     <t>29</t>
   </si>
   <si>
-    <t>2 mar. 2021</t>
+    <t>2 Mar 2021</t>
   </si>
   <si>
     <t>00:24:00</t>
@@ -739,7 +731,7 @@
     <t>33</t>
   </si>
   <si>
-    <t>4 mar. 2021</t>
+    <t>4 Mar 2021</t>
   </si>
   <si>
     <t>09:03:52</t>
@@ -754,7 +746,7 @@
     <t>34</t>
   </si>
   <si>
-    <t>5 mar. 2021</t>
+    <t>5 Mar 2021</t>
   </si>
   <si>
     <t>13:09:00</t>
@@ -772,7 +764,7 @@
     <t>35</t>
   </si>
   <si>
-    <t>8 mar. 2021</t>
+    <t>8 Mar 2021</t>
   </si>
   <si>
     <t>03:10:00</t>
@@ -790,7 +782,7 @@
     <t>36</t>
   </si>
   <si>
-    <t>9 mar. 2021</t>
+    <t>9 Mar 2021</t>
   </si>
   <si>
     <t>15:47:00</t>
@@ -811,7 +803,7 @@
     <t>37</t>
   </si>
   <si>
-    <t>10 mar. 2021</t>
+    <t>10 Mar 2021</t>
   </si>
   <si>
     <t>11:18:00</t>
@@ -835,7 +827,7 @@
     <t>38</t>
   </si>
   <si>
-    <t>18 mar. 2021</t>
+    <t>18 Mar 2021</t>
   </si>
   <si>
     <t>23:36:14</t>
@@ -856,7 +848,7 @@
     <t>39</t>
   </si>
   <si>
-    <t>21 mar. 2021</t>
+    <t>21 Mar 2021</t>
   </si>
   <si>
     <t>01:51:00</t>
@@ -874,7 +866,7 @@
     <t>40</t>
   </si>
   <si>
-    <t>23 mar. 2021</t>
+    <t>23 Mar 2021</t>
   </si>
   <si>
     <t>17:01:00</t>
@@ -892,7 +884,7 @@
     <t>41</t>
   </si>
   <si>
-    <t>29 mar. 2021</t>
+    <t>29 Mar 2021</t>
   </si>
   <si>
     <t>14:46:00</t>
@@ -931,7 +923,7 @@
     <t>43</t>
   </si>
   <si>
-    <t>30 mar. 2021</t>
+    <t>30 Mar 2021</t>
   </si>
   <si>
     <t>16:42:00</t>
@@ -955,7 +947,7 @@
     <t>44</t>
   </si>
   <si>
-    <t>3 abr. 2021</t>
+    <t>3 Apr 2021</t>
   </si>
   <si>
     <t>13:26:00</t>
@@ -973,7 +965,7 @@
     <t>45</t>
   </si>
   <si>
-    <t>4 abr. 2021</t>
+    <t>4 Apr 2021</t>
   </si>
   <si>
     <t>21:41:00</t>
@@ -994,7 +986,7 @@
     <t>46</t>
   </si>
   <si>
-    <t>6 abr. 2021</t>
+    <t>6 Apr 2021</t>
   </si>
   <si>
     <t>23:49:00</t>
@@ -1015,7 +1007,7 @@
     <t>47</t>
   </si>
   <si>
-    <t>7 abr. 2021</t>
+    <t>7 Apr 2021</t>
   </si>
   <si>
     <t>11:51:16</t>
@@ -1036,7 +1028,7 @@
     <t>48</t>
   </si>
   <si>
-    <t>8 abr. 2021</t>
+    <t>8 Apr 2021</t>
   </si>
   <si>
     <t>19:39:41</t>
@@ -1057,7 +1049,7 @@
     <t>49</t>
   </si>
   <si>
-    <t>9 abr. 2021</t>
+    <t>9 Apr 2021</t>
   </si>
   <si>
     <t>23:16:57</t>
@@ -1075,7 +1067,7 @@
     <t>50</t>
   </si>
   <si>
-    <t>10 abr. 2021</t>
+    <t>10 Apr 2021</t>
   </si>
   <si>
     <t>12:07:35</t>
@@ -1108,7 +1100,7 @@
     <t>52</t>
   </si>
   <si>
-    <t>16 abr. 2021</t>
+    <t>16 Apr 2021</t>
   </si>
   <si>
     <t>20:35:00</t>
@@ -1126,7 +1118,7 @@
     <t>53</t>
   </si>
   <si>
-    <t>20 abr. 2021</t>
+    <t>20 Apr 2021</t>
   </si>
   <si>
     <t>05:23:00</t>
@@ -1147,7 +1139,7 @@
     <t>54</t>
   </si>
   <si>
-    <t>2 may. 2021</t>
+    <t>2 May 2021</t>
   </si>
   <si>
     <t>13:05:00</t>
@@ -1162,549 +1154,504 @@
     <t>-83.345</t>
   </si>
   <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>00:48:30</t>
+    <t>58</t>
+  </si>
+  <si>
+    <t>4 May 2021</t>
+  </si>
+  <si>
+    <t>14:25:00</t>
+  </si>
+  <si>
+    <t>5km hacia el noroeste de San Gabriel de Aserrí</t>
+  </si>
+  <si>
+    <t>9.798</t>
+  </si>
+  <si>
+    <t>-84.156</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>9 May 2021</t>
+  </si>
+  <si>
+    <t>16:09:00</t>
+  </si>
+  <si>
+    <t>2.8Ml</t>
+  </si>
+  <si>
+    <t>2.2km hacia el suroeste de Tierras Morenas de Vázquez de Coronado</t>
+  </si>
+  <si>
+    <t>10.045</t>
+  </si>
+  <si>
+    <t>-83.934</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>16:29:05</t>
+  </si>
+  <si>
+    <t>2.9Ml</t>
+  </si>
+  <si>
+    <t>3.13 km hacia el suroeste de Tierras Morenas de Vázques de Coronado, San José</t>
+  </si>
+  <si>
+    <t>10.033</t>
+  </si>
+  <si>
+    <t>-83.931</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>10 May 2021</t>
+  </si>
+  <si>
+    <t>20:34:00</t>
+  </si>
+  <si>
+    <t>14 km al Noreste de San Isidro de Coronado.</t>
+  </si>
+  <si>
+    <t>10.057</t>
+  </si>
+  <si>
+    <t>-83.932</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>11 May 2021</t>
+  </si>
+  <si>
+    <t>02:15:00</t>
+  </si>
+  <si>
+    <t>3.6Ml</t>
+  </si>
+  <si>
+    <t>3 Km Sur Oeste del Parque Nacional V. Turrialba</t>
+  </si>
+  <si>
+    <t>9.998</t>
+  </si>
+  <si>
+    <t>-83.788</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>14 May 2021</t>
+  </si>
+  <si>
+    <t>09:33:00</t>
+  </si>
+  <si>
+    <t>45.000</t>
+  </si>
+  <si>
+    <t>4.9Ml</t>
+  </si>
+  <si>
+    <t>20 Km Sur Este de Manuel Antonio</t>
+  </si>
+  <si>
+    <t>9.326</t>
+  </si>
+  <si>
+    <t>-83.976</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>17 May 2021</t>
+  </si>
+  <si>
+    <t>15:02:00</t>
+  </si>
+  <si>
+    <t>4.5Ml</t>
+  </si>
+  <si>
+    <t>12.6 km NE de San Vito de Coto Brus</t>
+  </si>
+  <si>
+    <t>8.916</t>
+  </si>
+  <si>
+    <t>-82.907</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>22 May 2021</t>
+  </si>
+  <si>
+    <t>20:59:00</t>
+  </si>
+  <si>
+    <t>44.000</t>
+  </si>
+  <si>
+    <t>11 km al noroeste de Quepos</t>
+  </si>
+  <si>
+    <t>9.523</t>
+  </si>
+  <si>
+    <t>-84.199</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>24 May 2021</t>
+  </si>
+  <si>
+    <t>22:03:00</t>
+  </si>
+  <si>
+    <t>32.000</t>
+  </si>
+  <si>
+    <t>60 km al Norte de Limón</t>
+  </si>
+  <si>
+    <t>10.535</t>
+  </si>
+  <si>
+    <t>-83.068</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>26 May 2021</t>
+  </si>
+  <si>
+    <t>13:55:00</t>
+  </si>
+  <si>
+    <t>4.4 km hacia el noreste de la Suiza de Turrialba</t>
+  </si>
+  <si>
+    <t>9.880</t>
+  </si>
+  <si>
+    <t>-83.584</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>1 Jun 2021</t>
+  </si>
+  <si>
+    <t>23:56:00</t>
+  </si>
+  <si>
+    <t>2 km sur de Cachí. Paraíso de Cartago</t>
+  </si>
+  <si>
+    <t>-83.801</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>3 Jun 2021</t>
+  </si>
+  <si>
+    <t>23:09:00</t>
+  </si>
+  <si>
+    <t>2.3Ml</t>
+  </si>
+  <si>
+    <t>4 km Este de Paraíso de Cartago.</t>
+  </si>
+  <si>
+    <t>9.830</t>
+  </si>
+  <si>
+    <t>-83.834</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>6 Jun 2021</t>
+  </si>
+  <si>
+    <t>20:27:00</t>
+  </si>
+  <si>
+    <t>10 km Este de Santa Cruz. Guanacaste</t>
+  </si>
+  <si>
+    <t>10.267</t>
+  </si>
+  <si>
+    <t>-85.484</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>7 Jun 2021</t>
+  </si>
+  <si>
+    <t>23:15:00</t>
+  </si>
+  <si>
+    <t>60 km al norte de Puerto Limón</t>
+  </si>
+  <si>
+    <t>10.550</t>
+  </si>
+  <si>
+    <t>-83.066</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>10 Jun 2021</t>
+  </si>
+  <si>
+    <t>17:26:00</t>
+  </si>
+  <si>
+    <t>29.000</t>
+  </si>
+  <si>
+    <t>5.9Ml</t>
+  </si>
+  <si>
+    <t>94 km al suroeste de Cabo Blanco, Puntarenas</t>
+  </si>
+  <si>
+    <t>8.778</t>
+  </si>
+  <si>
+    <t>-85.511</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>11 Jun 2021</t>
+  </si>
+  <si>
+    <t>19:55:59</t>
+  </si>
+  <si>
+    <t>6 km sur de Playa Hermosa, Garabito</t>
+  </si>
+  <si>
+    <t>-84.597</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>15 Jun 2021</t>
+  </si>
+  <si>
+    <t>04:52:00</t>
+  </si>
+  <si>
+    <t>1.0M</t>
+  </si>
+  <si>
+    <t>1 km al sur de la Fortuna de Bagaces</t>
+  </si>
+  <si>
+    <t>10.666</t>
+  </si>
+  <si>
+    <t>-85.205</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>23:18:00</t>
+  </si>
+  <si>
+    <t>1 km Sur Este de La Fortuna de Bagaces</t>
+  </si>
+  <si>
+    <t>-85.200</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>19 Jun 2021</t>
+  </si>
+  <si>
+    <t>11:06:00</t>
+  </si>
+  <si>
+    <t>3 km hacia el Sureste de San Isidro de Cartago</t>
+  </si>
+  <si>
+    <t>9.811</t>
+  </si>
+  <si>
+    <t>-83.935</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>23 Jun 2021</t>
+  </si>
+  <si>
+    <t>23:51:00</t>
+  </si>
+  <si>
+    <t>3 km al Sur de Tejar de El Guarco, Cartago.</t>
+  </si>
+  <si>
+    <t>9.822</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>24 Jun 2021</t>
+  </si>
+  <si>
+    <t>04:31:00</t>
+  </si>
+  <si>
+    <t>75.000</t>
+  </si>
+  <si>
+    <t>3 km Norte de Zapotal de Miramar. Puntarenas</t>
+  </si>
+  <si>
+    <t>10.187</t>
+  </si>
+  <si>
+    <t>-84.650</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>3 Jul 2021</t>
+  </si>
+  <si>
+    <t>22:30:00</t>
+  </si>
+  <si>
+    <t>Esparza</t>
+  </si>
+  <si>
+    <t>9.994</t>
+  </si>
+  <si>
+    <t>-84.645</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>4 Jul 2021</t>
+  </si>
+  <si>
+    <t>00:40:00</t>
+  </si>
+  <si>
+    <t>3 km al este de Esparza</t>
+  </si>
+  <si>
+    <t>9.992</t>
+  </si>
+  <si>
+    <t>-84.637</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>5 Jul 2021</t>
+  </si>
+  <si>
+    <t>23:50:00</t>
+  </si>
+  <si>
+    <t>4 km hacia el suroeste de Tejar del Guarco.</t>
+  </si>
+  <si>
+    <t>9.814</t>
+  </si>
+  <si>
+    <t>-83.939</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>6 Jul 2021</t>
+  </si>
+  <si>
+    <t>13:20:00</t>
+  </si>
+  <si>
+    <t>4.6 km hacia el suroeste de Tejar del Guarco</t>
+  </si>
+  <si>
+    <t>9.808</t>
+  </si>
+  <si>
+    <t>-83.943</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>13:29:00</t>
+  </si>
+  <si>
+    <t>2km hacia el suroeste de Tejar del Guarco</t>
+  </si>
+  <si>
+    <t>9.840</t>
+  </si>
+  <si>
+    <t>-83.946</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>8 Jul 2021</t>
+  </si>
+  <si>
+    <t>23:07:00</t>
   </si>
   <si>
     <t>16.000</t>
   </si>
   <si>
-    <t>3 NO de Savegre Abajo, Peréz Zeledón</t>
-  </si>
-  <si>
-    <t>9.456</t>
-  </si>
-  <si>
-    <t>-83.855</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>08:29:03</t>
-  </si>
-  <si>
-    <t>Salitral, Bagaces, Guanacaste</t>
-  </si>
-  <si>
-    <t>10.595</t>
-  </si>
-  <si>
-    <t>-85.257</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>4 may. 2021</t>
-  </si>
-  <si>
-    <t>05:18:18</t>
-  </si>
-  <si>
-    <t>2.8Ml</t>
-  </si>
-  <si>
-    <t>5.2 km hacia el Noroeste de Llano grande de Cartago</t>
-  </si>
-  <si>
-    <t>9.965</t>
-  </si>
-  <si>
-    <t>-83.952</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>14:25:00</t>
-  </si>
-  <si>
-    <t>5km hacia el noroeste de San Gabriel de Aserrí</t>
-  </si>
-  <si>
-    <t>9.798</t>
-  </si>
-  <si>
-    <t>-84.156</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>9 may. 2021</t>
-  </si>
-  <si>
-    <t>16:09:00</t>
-  </si>
-  <si>
-    <t>2.2km hacia el suroeste de Tierras Morenas de Vázquez de Coronado</t>
-  </si>
-  <si>
-    <t>10.045</t>
-  </si>
-  <si>
-    <t>-83.934</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>16:29:05</t>
-  </si>
-  <si>
-    <t>2.9Ml</t>
-  </si>
-  <si>
-    <t>3.13 km hacia el suroeste de Tierras Morenas de Vázques de Coronado, San José</t>
-  </si>
-  <si>
-    <t>10.033</t>
-  </si>
-  <si>
-    <t>-83.931</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>10 may. 2021</t>
-  </si>
-  <si>
-    <t>20:34:00</t>
-  </si>
-  <si>
-    <t>14 km al Noreste de San Isidro de Coronado.</t>
-  </si>
-  <si>
-    <t>10.057</t>
-  </si>
-  <si>
-    <t>-83.932</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>11 may. 2021</t>
-  </si>
-  <si>
-    <t>02:15:00</t>
-  </si>
-  <si>
-    <t>3.6Ml</t>
-  </si>
-  <si>
-    <t>3 Km Sur Oeste del Parque Nacional V. Turrialba</t>
-  </si>
-  <si>
-    <t>9.998</t>
-  </si>
-  <si>
-    <t>-83.788</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>14 may. 2021</t>
-  </si>
-  <si>
-    <t>09:33:00</t>
-  </si>
-  <si>
-    <t>45.000</t>
-  </si>
-  <si>
-    <t>4.9Ml</t>
-  </si>
-  <si>
-    <t>20 Km Sur Este de Manuel Antonio</t>
-  </si>
-  <si>
-    <t>9.326</t>
-  </si>
-  <si>
-    <t>-83.976</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>17 may. 2021</t>
-  </si>
-  <si>
-    <t>15:02:00</t>
-  </si>
-  <si>
-    <t>4.5Ml</t>
-  </si>
-  <si>
-    <t>12.6 km NE de San Vito de Coto Brus</t>
-  </si>
-  <si>
-    <t>8.916</t>
-  </si>
-  <si>
-    <t>-82.907</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>22 may. 2021</t>
-  </si>
-  <si>
-    <t>20:59:00</t>
-  </si>
-  <si>
-    <t>44.000</t>
-  </si>
-  <si>
-    <t>11 km al noroeste de Quepos</t>
-  </si>
-  <si>
-    <t>9.523</t>
-  </si>
-  <si>
-    <t>-84.199</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>24 may. 2021</t>
-  </si>
-  <si>
-    <t>22:03:00</t>
-  </si>
-  <si>
-    <t>32.000</t>
-  </si>
-  <si>
-    <t>60 km al Norte de Limón</t>
-  </si>
-  <si>
-    <t>10.535</t>
-  </si>
-  <si>
-    <t>-83.068</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>26 may. 2021</t>
-  </si>
-  <si>
-    <t>13:55:00</t>
-  </si>
-  <si>
-    <t>4.4 km hacia el noreste de la Suiza de Turrialba</t>
-  </si>
-  <si>
-    <t>9.880</t>
-  </si>
-  <si>
-    <t>-83.584</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>1 jun. 2021</t>
-  </si>
-  <si>
-    <t>23:56:00</t>
-  </si>
-  <si>
-    <t>2 km sur de Cachí. Paraíso de Cartago</t>
-  </si>
-  <si>
-    <t>-83.801</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>3 jun. 2021</t>
-  </si>
-  <si>
-    <t>23:09:00</t>
-  </si>
-  <si>
-    <t>2.3Ml</t>
-  </si>
-  <si>
-    <t>4 km Este de Paraíso de Cartago.</t>
-  </si>
-  <si>
-    <t>9.830</t>
-  </si>
-  <si>
-    <t>-83.834</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>6 jun. 2021</t>
-  </si>
-  <si>
-    <t>20:27:00</t>
-  </si>
-  <si>
-    <t>10 km Este de Santa Cruz. Guanacaste</t>
-  </si>
-  <si>
-    <t>10.267</t>
-  </si>
-  <si>
-    <t>-85.484</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>7 jun. 2021</t>
-  </si>
-  <si>
-    <t>23:15:00</t>
-  </si>
-  <si>
-    <t>60 km al norte de Puerto Limón</t>
-  </si>
-  <si>
-    <t>10.550</t>
-  </si>
-  <si>
-    <t>-83.066</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>10 jun. 2021</t>
-  </si>
-  <si>
-    <t>17:26:00</t>
-  </si>
-  <si>
-    <t>29.000</t>
-  </si>
-  <si>
-    <t>5.9Ml</t>
-  </si>
-  <si>
-    <t>94 km al suroeste de Cabo Blanco, Puntarenas</t>
-  </si>
-  <si>
-    <t>8.778</t>
-  </si>
-  <si>
-    <t>-85.511</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>11 jun. 2021</t>
-  </si>
-  <si>
-    <t>19:55:59</t>
-  </si>
-  <si>
-    <t>6 km sur de Playa Hermosa, Garabito</t>
-  </si>
-  <si>
-    <t>-84.597</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>15 jun. 2021</t>
-  </si>
-  <si>
-    <t>04:52:00</t>
-  </si>
-  <si>
-    <t>1.0M</t>
-  </si>
-  <si>
-    <t>1 km al sur de la Fortuna de Bagaces</t>
-  </si>
-  <si>
-    <t>10.666</t>
-  </si>
-  <si>
-    <t>-85.205</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>23:18:00</t>
-  </si>
-  <si>
-    <t>1 km Sur Este de La Fortuna de Bagaces</t>
-  </si>
-  <si>
-    <t>-85.200</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>19 jun. 2021</t>
-  </si>
-  <si>
-    <t>11:06:00</t>
-  </si>
-  <si>
-    <t>3 km hacia el Sureste de San Isidro de Cartago</t>
-  </si>
-  <si>
-    <t>9.811</t>
-  </si>
-  <si>
-    <t>-83.935</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>23 jun. 2021</t>
-  </si>
-  <si>
-    <t>23:51:00</t>
-  </si>
-  <si>
-    <t>3 km al Sur de Tejar de El Guarco, Cartago.</t>
-  </si>
-  <si>
-    <t>9.822</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>24 jun. 2021</t>
-  </si>
-  <si>
-    <t>04:31:00</t>
-  </si>
-  <si>
-    <t>75.000</t>
-  </si>
-  <si>
-    <t>3 km Norte de Zapotal de Miramar. Puntarenas</t>
-  </si>
-  <si>
-    <t>10.187</t>
-  </si>
-  <si>
-    <t>-84.650</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>3 jul. 2021</t>
-  </si>
-  <si>
-    <t>22:30:00</t>
-  </si>
-  <si>
-    <t>Esparza</t>
-  </si>
-  <si>
-    <t>9.994</t>
-  </si>
-  <si>
-    <t>-84.645</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>4 jul. 2021</t>
-  </si>
-  <si>
-    <t>00:40:00</t>
-  </si>
-  <si>
-    <t>3 km al este de Esparza</t>
-  </si>
-  <si>
-    <t>9.992</t>
-  </si>
-  <si>
-    <t>-84.637</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>5 jul. 2021</t>
-  </si>
-  <si>
-    <t>23:50:00</t>
-  </si>
-  <si>
-    <t>4 km hacia el suroeste de Tejar del Guarco.</t>
-  </si>
-  <si>
-    <t>9.814</t>
-  </si>
-  <si>
-    <t>-83.939</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>6 jul. 2021</t>
-  </si>
-  <si>
-    <t>13:20:00</t>
-  </si>
-  <si>
-    <t>4.6 km hacia el suroeste de Tejar del Guarco</t>
-  </si>
-  <si>
-    <t>9.808</t>
-  </si>
-  <si>
-    <t>-83.943</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>13:29:00</t>
-  </si>
-  <si>
-    <t>2km hacia el suroeste de Tejar del Guarco</t>
-  </si>
-  <si>
-    <t>9.840</t>
-  </si>
-  <si>
-    <t>-83.946</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>8 jul. 2021</t>
-  </si>
-  <si>
-    <t>23:07:00</t>
-  </si>
-  <si>
     <t>26km hacia el suroeste de San Isidro de El General</t>
   </si>
   <si>
@@ -1714,7 +1661,7 @@
     <t>85</t>
   </si>
   <si>
-    <t>10 jul. 2021</t>
+    <t>10 Jul 2021</t>
   </si>
   <si>
     <t>14:53:00</t>
@@ -1732,7 +1679,7 @@
     <t>86</t>
   </si>
   <si>
-    <t>13 jul. 2021</t>
+    <t>13 Jul 2021</t>
   </si>
   <si>
     <t>00:05:00</t>
@@ -1765,7 +1712,7 @@
     <t>88</t>
   </si>
   <si>
-    <t>14 jul. 2021</t>
+    <t>14 Jul 2021</t>
   </si>
   <si>
     <t>21:09:00</t>
@@ -1786,7 +1733,7 @@
     <t>89</t>
   </si>
   <si>
-    <t>15 jul. 2021</t>
+    <t>15 Jul 2021</t>
   </si>
   <si>
     <t>03:16:00</t>
@@ -1804,7 +1751,7 @@
     <t>90</t>
   </si>
   <si>
-    <t>16 jul. 2021</t>
+    <t>16 Jul 2021</t>
   </si>
   <si>
     <t>21:10:00</t>
@@ -1825,7 +1772,7 @@
     <t>91</t>
   </si>
   <si>
-    <t>19 jul. 2021</t>
+    <t>19 Jul 2021</t>
   </si>
   <si>
     <t>11:24:00</t>
@@ -1858,7 +1805,7 @@
     <t>93</t>
   </si>
   <si>
-    <t>20 jul. 2021</t>
+    <t>20 Jul 2021</t>
   </si>
   <si>
     <t>17:57:00</t>
@@ -1876,7 +1823,7 @@
     <t>94</t>
   </si>
   <si>
-    <t>21 jul. 2021</t>
+    <t>21 Jul 2021</t>
   </si>
   <si>
     <t>04:56:00</t>
@@ -1921,517 +1868,485 @@
     <t>97</t>
   </si>
   <si>
-    <t>27 jul. 2021</t>
-  </si>
-  <si>
-    <t>00:37:00</t>
-  </si>
-  <si>
-    <t>21 km hacia el suroeste de Jacó</t>
-  </si>
-  <si>
-    <t>9.564</t>
-  </si>
-  <si>
-    <t>-84.819</t>
+    <t>30 Jul 2021</t>
+  </si>
+  <si>
+    <t>00:00:00</t>
+  </si>
+  <si>
+    <t>5.7 km hacia el Sureste de Desamparados de San Jose</t>
+  </si>
+  <si>
+    <t>9.861</t>
+  </si>
+  <si>
+    <t>-84.026</t>
   </si>
   <si>
     <t>98</t>
   </si>
   <si>
-    <t>29 jul. 2021</t>
-  </si>
-  <si>
-    <t>22:29:34</t>
-  </si>
-  <si>
-    <t>5.2Ml</t>
-  </si>
-  <si>
-    <t>34.8 Hacia el Oeste de Tamarindo, Guanacaste</t>
-  </si>
-  <si>
-    <t>10.294</t>
-  </si>
-  <si>
-    <t>-86.155</t>
+    <t>1 Aug 2021</t>
+  </si>
+  <si>
+    <t>17:39:00</t>
+  </si>
+  <si>
+    <t>21km hacia el suroeste de San Ignacio de Acosta</t>
+  </si>
+  <si>
+    <t>9.615</t>
+  </si>
+  <si>
+    <t>-84.225</t>
   </si>
   <si>
     <t>99</t>
   </si>
   <si>
-    <t>22:37:00</t>
-  </si>
-  <si>
-    <t>38.000</t>
-  </si>
-  <si>
-    <t>48 km hacia el oeste de Tamarindo</t>
-  </si>
-  <si>
-    <t>10.284</t>
-  </si>
-  <si>
-    <t>-86.277</t>
+    <t>10 Aug 2021</t>
+  </si>
+  <si>
+    <t>08:27:00</t>
+  </si>
+  <si>
+    <t>15 km al sur de Cartago</t>
+  </si>
+  <si>
+    <t>9.720</t>
+  </si>
+  <si>
+    <t>-83.902</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>30 jul. 2021</t>
-  </si>
-  <si>
-    <t>00:00:00</t>
-  </si>
-  <si>
-    <t>5.7 km hacia el Sureste de Desamparados de San Jose</t>
-  </si>
-  <si>
-    <t>9.861</t>
-  </si>
-  <si>
-    <t>-84.026</t>
+    <t>19:03:17</t>
+  </si>
+  <si>
+    <t>6 km NNE de Copey de Dota</t>
+  </si>
+  <si>
+    <t>9.703</t>
   </si>
   <si>
     <t>101</t>
   </si>
   <si>
-    <t>1 ago. 2021</t>
-  </si>
-  <si>
-    <t>17:39:00</t>
-  </si>
-  <si>
-    <t>21km hacia el suroeste de San Ignacio de Acosta</t>
-  </si>
-  <si>
-    <t>9.615</t>
-  </si>
-  <si>
-    <t>-84.225</t>
+    <t>12 Aug 2021</t>
+  </si>
+  <si>
+    <t>05:48:00</t>
+  </si>
+  <si>
+    <t>36.000</t>
+  </si>
+  <si>
+    <t>38 km al oeste de Tamarindo</t>
+  </si>
+  <si>
+    <t>10.275</t>
+  </si>
+  <si>
+    <t>-86.183</t>
   </si>
   <si>
     <t>102</t>
   </si>
   <si>
-    <t>10 ago. 2021</t>
-  </si>
-  <si>
-    <t>08:27:00</t>
-  </si>
-  <si>
-    <t>15 km al sur de Cartago</t>
-  </si>
-  <si>
-    <t>9.720</t>
-  </si>
-  <si>
-    <t>-83.902</t>
+    <t>21:08:09</t>
+  </si>
+  <si>
+    <t>37 km Oeste de Tamarindo, Santa Cruz, Guanacaste</t>
+  </si>
+  <si>
+    <t>10.309</t>
+  </si>
+  <si>
+    <t>-86.174</t>
   </si>
   <si>
     <t>103</t>
   </si>
   <si>
-    <t>19:03:17</t>
-  </si>
-  <si>
-    <t>6 km NNE de Copey de Dota</t>
-  </si>
-  <si>
-    <t>9.703</t>
+    <t>15 Aug 2021</t>
+  </si>
+  <si>
+    <t>20:39:13</t>
+  </si>
+  <si>
+    <t>30.000</t>
+  </si>
+  <si>
+    <t>83 km al sur de Punta Burica, Puntarenas</t>
+  </si>
+  <si>
+    <t>7.267</t>
+  </si>
+  <si>
+    <t>-82.917</t>
   </si>
   <si>
     <t>104</t>
   </si>
   <si>
-    <t>12 ago. 2021</t>
-  </si>
-  <si>
-    <t>05:48:00</t>
-  </si>
-  <si>
-    <t>36.000</t>
-  </si>
-  <si>
-    <t>38 km al oeste de Tamarindo</t>
-  </si>
-  <si>
-    <t>10.275</t>
-  </si>
-  <si>
-    <t>-86.183</t>
+    <t>16 Aug 2021</t>
+  </si>
+  <si>
+    <t>04:06:00</t>
+  </si>
+  <si>
+    <t>7 km Este de Ciudad Neilly</t>
+  </si>
+  <si>
+    <t>8.651</t>
+  </si>
+  <si>
+    <t>-82.879</t>
   </si>
   <si>
     <t>105</t>
   </si>
   <si>
-    <t>21:08:09</t>
-  </si>
-  <si>
-    <t>37 km Oeste de Tamarindo, Santa Cruz, Guanacaste</t>
-  </si>
-  <si>
-    <t>10.309</t>
-  </si>
-  <si>
-    <t>-86.174</t>
+    <t>19 Aug 2021</t>
+  </si>
+  <si>
+    <t>01:50:00</t>
+  </si>
+  <si>
+    <t>9 Km Sur Oeste de El Guarco. Cartago</t>
+  </si>
+  <si>
+    <t>9.780</t>
+  </si>
+  <si>
+    <t>-83.978</t>
   </si>
   <si>
     <t>106</t>
   </si>
   <si>
-    <t>15 ago. 2021</t>
-  </si>
-  <si>
-    <t>20:39:13</t>
-  </si>
-  <si>
-    <t>30.000</t>
-  </si>
-  <si>
-    <t>83 km al sur de Punta Burica, Puntarenas</t>
-  </si>
-  <si>
-    <t>7.267</t>
-  </si>
-  <si>
-    <t>-82.917</t>
+    <t>11:43:00</t>
+  </si>
+  <si>
+    <t>6 km Nor Noroeste de El Guarco. Cartago</t>
+  </si>
+  <si>
+    <t>9.788</t>
+  </si>
+  <si>
+    <t>-83.949</t>
   </si>
   <si>
     <t>107</t>
   </si>
   <si>
-    <t>16 ago. 2021</t>
-  </si>
-  <si>
-    <t>04:06:00</t>
-  </si>
-  <si>
-    <t>7 km Este de Ciudad Neilly</t>
-  </si>
-  <si>
-    <t>8.651</t>
-  </si>
-  <si>
-    <t>-82.879</t>
+    <t>26 Aug 2021</t>
+  </si>
+  <si>
+    <t>7.5 km al Sureste de San Gerardo de Dota</t>
+  </si>
+  <si>
+    <t>-83.773</t>
   </si>
   <si>
     <t>108</t>
   </si>
   <si>
-    <t>19 ago. 2021</t>
-  </si>
-  <si>
-    <t>01:50:00</t>
-  </si>
-  <si>
-    <t>9 Km Sur Oeste de El Guarco. Cartago</t>
-  </si>
-  <si>
-    <t>9.780</t>
-  </si>
-  <si>
-    <t>-83.978</t>
+    <t>27 Aug 2021</t>
+  </si>
+  <si>
+    <t>07:22:00</t>
+  </si>
+  <si>
+    <t>2.66Ml</t>
+  </si>
+  <si>
+    <t>1.5 km Este de Bajo Los Arias de Acosta.</t>
+  </si>
+  <si>
+    <t>9.785</t>
+  </si>
+  <si>
+    <t>-84.181</t>
+  </si>
+  <si>
+    <t>Alajuela</t>
   </si>
   <si>
     <t>109</t>
   </si>
   <si>
-    <t>11:43:00</t>
-  </si>
-  <si>
-    <t>6 km Nor Noroeste de El Guarco. Cartago</t>
-  </si>
-  <si>
-    <t>9.788</t>
-  </si>
-  <si>
-    <t>-83.949</t>
+    <t>08:24:00</t>
+  </si>
+  <si>
+    <t>5 Km al Noreste de Copey de Dota</t>
+  </si>
+  <si>
+    <t>9.674</t>
+  </si>
+  <si>
+    <t>-83.886</t>
   </si>
   <si>
     <t>110</t>
   </si>
   <si>
-    <t>26 ago. 2021</t>
-  </si>
-  <si>
-    <t>7.5 km al Sureste de San Gerardo de Dota</t>
-  </si>
-  <si>
-    <t>-83.773</t>
+    <t>31 Aug 2021</t>
+  </si>
+  <si>
+    <t>22:08:00</t>
+  </si>
+  <si>
+    <t>88.000</t>
+  </si>
+  <si>
+    <t>5 km al noroeste de Vara Blanca</t>
+  </si>
+  <si>
+    <t>10.184</t>
+  </si>
+  <si>
+    <t>-84.203</t>
+  </si>
+  <si>
+    <t>Heredia</t>
   </si>
   <si>
     <t>111</t>
   </si>
   <si>
-    <t>27 ago. 2021</t>
-  </si>
-  <si>
-    <t>07:22:00</t>
-  </si>
-  <si>
-    <t>2.66Ml</t>
-  </si>
-  <si>
-    <t>1.5 km Este de Bajo Los Arias de Acosta.</t>
-  </si>
-  <si>
-    <t>9.785</t>
-  </si>
-  <si>
-    <t>-84.181</t>
-  </si>
-  <si>
-    <t>Alajuela</t>
+    <t>1 Sep 2021</t>
+  </si>
+  <si>
+    <t>00:46:00</t>
+  </si>
+  <si>
+    <t>2.000</t>
+  </si>
+  <si>
+    <t>3 km al noreste de la Fortuna de Bagaces</t>
+  </si>
+  <si>
+    <t>10.700</t>
+  </si>
+  <si>
+    <t>-85.168</t>
   </si>
   <si>
     <t>112</t>
   </si>
   <si>
-    <t>08:24:00</t>
-  </si>
-  <si>
-    <t>5 Km al Noreste de Copey de Dota</t>
-  </si>
-  <si>
-    <t>9.674</t>
-  </si>
-  <si>
-    <t>-83.886</t>
+    <t>10:50:16</t>
+  </si>
+  <si>
+    <t>8 km SSO de Uvita</t>
+  </si>
+  <si>
+    <t>9.098</t>
+  </si>
+  <si>
+    <t>-83.766</t>
   </si>
   <si>
     <t>113</t>
   </si>
   <si>
-    <t>31 ago. 2021</t>
-  </si>
-  <si>
-    <t>22:08:00</t>
-  </si>
-  <si>
-    <t>88.000</t>
-  </si>
-  <si>
-    <t>5 km al noroeste de Vara Blanca</t>
-  </si>
-  <si>
-    <t>10.184</t>
-  </si>
-  <si>
-    <t>-84.203</t>
-  </si>
-  <si>
-    <t>Heredia</t>
+    <t>4 Sep 2021</t>
+  </si>
+  <si>
+    <t>03:48:00</t>
+  </si>
+  <si>
+    <t>64.000</t>
+  </si>
+  <si>
+    <t>4.3Ml</t>
+  </si>
+  <si>
+    <t>60 km al norte de Limón</t>
+  </si>
+  <si>
+    <t>10.503</t>
+  </si>
+  <si>
+    <t>-83.135</t>
+  </si>
+  <si>
+    <t>Limón</t>
   </si>
   <si>
     <t>114</t>
   </si>
   <si>
-    <t>1 sep. 2021</t>
-  </si>
-  <si>
-    <t>00:46:00</t>
-  </si>
-  <si>
-    <t>2.000</t>
-  </si>
-  <si>
-    <t>3 km al noreste de la Fortuna de Bagaces</t>
-  </si>
-  <si>
-    <t>10.700</t>
-  </si>
-  <si>
-    <t>-85.168</t>
+    <t>02:58:00</t>
+  </si>
+  <si>
+    <t>94.000</t>
+  </si>
+  <si>
+    <t>2.5 km al este de Vara Blanca</t>
+  </si>
+  <si>
+    <t>10.164</t>
+  </si>
+  <si>
+    <t>-84.132</t>
   </si>
   <si>
     <t>115</t>
   </si>
   <si>
-    <t>10:50:16</t>
-  </si>
-  <si>
-    <t>8 km SSO de Uvita</t>
-  </si>
-  <si>
-    <t>9.098</t>
-  </si>
-  <si>
-    <t>-83.766</t>
+    <t>5 Sep 2021</t>
+  </si>
+  <si>
+    <t>14:42:07</t>
+  </si>
+  <si>
+    <t>2.4 km NNO de San Antonio de Puriscal</t>
+  </si>
+  <si>
+    <t>9.879</t>
+  </si>
+  <si>
+    <t>-84.305</t>
   </si>
   <si>
     <t>116</t>
   </si>
   <si>
-    <t>4 sep. 2021</t>
-  </si>
-  <si>
-    <t>03:48:00</t>
-  </si>
-  <si>
-    <t>64.000</t>
-  </si>
-  <si>
-    <t>4.3Ml</t>
-  </si>
-  <si>
-    <t>60 km al norte de Limón</t>
-  </si>
-  <si>
-    <t>10.503</t>
-  </si>
-  <si>
-    <t>-83.135</t>
-  </si>
-  <si>
-    <t>Limón</t>
+    <t>8 Sep 2021</t>
+  </si>
+  <si>
+    <t>22:27:30</t>
+  </si>
+  <si>
+    <t>4.72Ml</t>
+  </si>
+  <si>
+    <t>25.4 km hacia el Sur de Uvita de Puntarenas</t>
+  </si>
+  <si>
+    <t>9.003</t>
   </si>
   <si>
     <t>117</t>
   </si>
   <si>
-    <t>02:58:00</t>
-  </si>
-  <si>
-    <t>94.000</t>
-  </si>
-  <si>
-    <t>2.5 km al este de Vara Blanca</t>
-  </si>
-  <si>
-    <t>10.164</t>
-  </si>
-  <si>
-    <t>-84.132</t>
+    <t>22:05:00</t>
+  </si>
+  <si>
+    <t>25 km hacia el suroeste de Uvita</t>
+  </si>
+  <si>
+    <t>-83.961</t>
   </si>
   <si>
     <t>118</t>
   </si>
   <si>
-    <t>5 sep. 2021</t>
-  </si>
-  <si>
-    <t>14:42:07</t>
-  </si>
-  <si>
-    <t>2.4 km NNO de San Antonio de Puriscal</t>
-  </si>
-  <si>
-    <t>9.879</t>
-  </si>
-  <si>
-    <t>-84.305</t>
+    <t>10 Sep 2021</t>
+  </si>
+  <si>
+    <t>19:33:23</t>
+  </si>
+  <si>
+    <t>La fortuna de Bagaces, Guanacaste</t>
+  </si>
+  <si>
+    <t>10.673</t>
+  </si>
+  <si>
+    <t>-85.201</t>
   </si>
   <si>
     <t>119</t>
   </si>
   <si>
-    <t>8 sep. 2021</t>
-  </si>
-  <si>
-    <t>22:27:30</t>
-  </si>
-  <si>
-    <t>4.72Ml</t>
-  </si>
-  <si>
-    <t>25.4 km hacia el Sur de Uvita de Puntarenas</t>
-  </si>
-  <si>
-    <t>9.003</t>
+    <t>13 Sep 2021</t>
+  </si>
+  <si>
+    <t>06:20:00</t>
+  </si>
+  <si>
+    <t>22 km Sur Oeste de Playa Negra. Guanacaste</t>
+  </si>
+  <si>
+    <t>10.082</t>
+  </si>
+  <si>
+    <t>-86.006</t>
   </si>
   <si>
     <t>120</t>
   </si>
   <si>
-    <t>22:05:00</t>
-  </si>
-  <si>
-    <t>25 km hacia el suroeste de Uvita</t>
-  </si>
-  <si>
-    <t>-83.961</t>
+    <t>17 Sep 2021</t>
+  </si>
+  <si>
+    <t>04:10:00</t>
+  </si>
+  <si>
+    <t>3 Km SurOeste de Quepos</t>
+  </si>
+  <si>
+    <t>9.409</t>
+  </si>
+  <si>
+    <t>-84.183</t>
   </si>
   <si>
     <t>121</t>
   </si>
   <si>
-    <t>10 sep. 2021</t>
-  </si>
-  <si>
-    <t>19:33:23</t>
-  </si>
-  <si>
-    <t>La fortuna de Bagaces, Guanacaste</t>
-  </si>
-  <si>
-    <t>10.673</t>
-  </si>
-  <si>
-    <t>-85.201</t>
+    <t>3 Sep 2021</t>
+  </si>
+  <si>
+    <t>00:00:13</t>
+  </si>
+  <si>
+    <t>26 km hacia el suroeste de Puerto Jiménez</t>
+  </si>
+  <si>
+    <t>8.321</t>
+  </si>
+  <si>
+    <t>-83.428</t>
   </si>
   <si>
     <t>122</t>
   </si>
   <si>
-    <t>13 sep. 2021</t>
-  </si>
-  <si>
-    <t>06:20:00</t>
-  </si>
-  <si>
-    <t>22 km Sur Oeste de Playa Negra. Guanacaste</t>
-  </si>
-  <si>
-    <t>10.082</t>
-  </si>
-  <si>
-    <t>-86.006</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>17 sep. 2021</t>
-  </si>
-  <si>
-    <t>04:10:00</t>
-  </si>
-  <si>
-    <t>3 Km SurOeste de Quepos</t>
-  </si>
-  <si>
-    <t>9.409</t>
-  </si>
-  <si>
-    <t>-84.183</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>3 sep. 2021</t>
-  </si>
-  <si>
-    <t>00:00:13</t>
-  </si>
-  <si>
-    <t>26 km hacia el suroeste de Puerto Jiménez</t>
-  </si>
-  <si>
-    <t>8.321</t>
-  </si>
-  <si>
-    <t>-83.428</t>
+    <t>7 Oct 2021</t>
+  </si>
+  <si>
+    <t>22:15:38</t>
+  </si>
+  <si>
+    <t>50.000</t>
+  </si>
+  <si>
+    <t>10.1Mw</t>
+  </si>
+  <si>
+    <t>Tortuguero</t>
+  </si>
+  <si>
+    <t>99.900</t>
+  </si>
+  <si>
+    <t>-88.210</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2443,7 +2358,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -2461,328 +2376,18 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K126"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:L121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="F130" sqref="F130"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2817,7 +2422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2852,7 +2457,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -2887,7 +2492,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -2922,7 +2527,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -2957,7 +2562,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -2992,7 +2597,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -3027,7 +2632,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -3062,7 +2667,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -3097,7 +2702,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -3132,7 +2737,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -3167,7 +2772,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -3202,7 +2807,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -3237,7 +2842,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>105</v>
       </c>
@@ -3272,7 +2877,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>113</v>
       </c>
@@ -3307,7 +2912,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>120</v>
       </c>
@@ -3342,7 +2947,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>128</v>
       </c>
@@ -3377,7 +2982,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>134</v>
       </c>
@@ -3412,7 +3017,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>140</v>
       </c>
@@ -3447,7 +3052,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>148</v>
       </c>
@@ -3482,7 +3087,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>155</v>
       </c>
@@ -3517,7 +3122,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>160</v>
       </c>
@@ -3552,7 +3157,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>166</v>
       </c>
@@ -3587,7 +3192,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>172</v>
       </c>
@@ -3622,7 +3227,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>179</v>
       </c>
@@ -3657,7 +3262,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>186</v>
       </c>
@@ -3692,7 +3297,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
         <v>193</v>
       </c>
@@ -3727,7 +3332,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
         <v>199</v>
       </c>
@@ -3762,7 +3367,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" t="s">
         <v>206</v>
       </c>
@@ -3797,7 +3402,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" t="s">
         <v>211</v>
       </c>
@@ -3832,7 +3437,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" t="s">
         <v>218</v>
       </c>
@@ -3867,7 +3472,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" t="s">
         <v>226</v>
       </c>
@@ -3902,7 +3507,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="A33" t="s">
         <v>232</v>
       </c>
@@ -3937,7 +3542,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" t="s">
         <v>233</v>
       </c>
@@ -3972,7 +3577,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="A35" t="s">
         <v>238</v>
       </c>
@@ -4007,7 +3612,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="A36" t="s">
         <v>243</v>
       </c>
@@ -4042,7 +3647,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="A37" t="s">
         <v>249</v>
       </c>
@@ -4077,7 +3682,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="A38" t="s">
         <v>255</v>
       </c>
@@ -4112,7 +3717,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="A39" t="s">
         <v>262</v>
       </c>
@@ -4147,7 +3752,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="A40" t="s">
         <v>270</v>
       </c>
@@ -4182,7 +3787,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="A41" t="s">
         <v>277</v>
       </c>
@@ -4217,7 +3822,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="A42" t="s">
         <v>283</v>
       </c>
@@ -4252,7 +3857,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="A43" t="s">
         <v>289</v>
       </c>
@@ -4287,7 +3892,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44" t="s">
         <v>297</v>
       </c>
@@ -4322,7 +3927,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="A45" t="s">
         <v>302</v>
       </c>
@@ -4357,7 +3962,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="A46" t="s">
         <v>310</v>
       </c>
@@ -4392,7 +3997,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47" t="s">
         <v>316</v>
       </c>
@@ -4427,7 +4032,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="A48" t="s">
         <v>323</v>
       </c>
@@ -4462,7 +4067,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49" t="s">
         <v>330</v>
       </c>
@@ -4497,7 +4102,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="A50" t="s">
         <v>337</v>
       </c>
@@ -4532,7 +4137,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="A51" t="s">
         <v>344</v>
       </c>
@@ -4567,7 +4172,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="A52" t="s">
         <v>350</v>
       </c>
@@ -4602,7 +4207,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="A53" t="s">
         <v>356</v>
       </c>
@@ -4637,7 +4242,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="A54" t="s">
         <v>361</v>
       </c>
@@ -4672,7 +4277,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="A55" t="s">
         <v>367</v>
       </c>
@@ -4707,7 +4312,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="A56" t="s">
         <v>374</v>
       </c>
@@ -4742,21 +4347,21 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="A57" t="s">
         <v>380</v>
       </c>
       <c r="B57" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C57" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D57" t="s">
-        <v>382</v>
+        <v>70</v>
       </c>
       <c r="E57" t="s">
-        <v>266</v>
+        <v>168</v>
       </c>
       <c r="F57" t="s">
         <v>383</v>
@@ -4777,103 +4382,103 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="A58" t="s">
         <v>386</v>
       </c>
       <c r="B58" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="C58" t="s">
+        <v>388</v>
+      </c>
+      <c r="D58" t="s">
+        <v>70</v>
+      </c>
+      <c r="E58" t="s">
+        <v>389</v>
+      </c>
+      <c r="F58" t="s">
+        <v>390</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" t="s">
+        <v>391</v>
+      </c>
+      <c r="I58" t="s">
+        <v>392</v>
+      </c>
+      <c r="J58" t="s">
+        <v>20</v>
+      </c>
+      <c r="K58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>393</v>
+      </c>
+      <c r="B59" t="s">
         <v>387</v>
       </c>
-      <c r="D58" t="s">
-        <v>382</v>
-      </c>
-      <c r="E58" t="s">
-        <v>266</v>
-      </c>
-      <c r="F58" t="s">
-        <v>388</v>
-      </c>
-      <c r="G58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="C59" t="s">
+        <v>394</v>
+      </c>
+      <c r="D59" t="s">
+        <v>189</v>
+      </c>
+      <c r="E59" t="s">
+        <v>395</v>
+      </c>
+      <c r="F59" t="s">
+        <v>396</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" t="s">
+        <v>397</v>
+      </c>
+      <c r="I59" t="s">
+        <v>398</v>
+      </c>
+      <c r="J59" t="s">
+        <v>20</v>
+      </c>
+      <c r="K59" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>399</v>
+      </c>
+      <c r="B60" t="s">
+        <v>400</v>
+      </c>
+      <c r="C60" t="s">
+        <v>401</v>
+      </c>
+      <c r="D60" t="s">
+        <v>189</v>
+      </c>
+      <c r="E60" t="s">
         <v>389</v>
       </c>
-      <c r="I58" t="s">
-        <v>390</v>
-      </c>
-      <c r="J58" t="s">
-        <v>276</v>
-      </c>
-      <c r="K58" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>391</v>
-      </c>
-      <c r="B59" t="s">
-        <v>392</v>
-      </c>
-      <c r="C59" t="s">
-        <v>393</v>
-      </c>
-      <c r="D59" t="s">
-        <v>70</v>
-      </c>
-      <c r="E59" t="s">
-        <v>394</v>
-      </c>
-      <c r="F59" t="s">
-        <v>395</v>
-      </c>
-      <c r="G59" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" t="s">
-        <v>396</v>
-      </c>
-      <c r="I59" t="s">
-        <v>397</v>
-      </c>
-      <c r="J59" t="s">
-        <v>96</v>
-      </c>
-      <c r="K59" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>398</v>
-      </c>
-      <c r="B60" t="s">
-        <v>392</v>
-      </c>
-      <c r="C60" t="s">
-        <v>399</v>
-      </c>
-      <c r="D60" t="s">
-        <v>70</v>
-      </c>
-      <c r="E60" t="s">
-        <v>168</v>
-      </c>
       <c r="F60" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G60" t="s">
         <v>17</v>
       </c>
       <c r="H60" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="I60" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="J60" t="s">
         <v>20</v>
@@ -4882,173 +4487,173 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="A61" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B61" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C61" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D61" t="s">
-        <v>70</v>
+        <v>189</v>
       </c>
       <c r="E61" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="F61" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="G61" t="s">
         <v>17</v>
       </c>
       <c r="H61" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="I61" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="J61" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="K61" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="A62" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B62" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="C62" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D62" t="s">
-        <v>189</v>
+        <v>415</v>
       </c>
       <c r="E62" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="F62" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="G62" t="s">
-        <v>17</v>
+        <v>294</v>
       </c>
       <c r="H62" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="I62" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J62" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="K62" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="A63" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B63" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C63" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="D63" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="E63" t="s">
-        <v>394</v>
+        <v>423</v>
       </c>
       <c r="F63" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="G63" t="s">
         <v>17</v>
       </c>
       <c r="H63" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="I63" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="J63" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K63" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="A64" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="B64" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="C64" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="D64" t="s">
-        <v>189</v>
+        <v>430</v>
       </c>
       <c r="E64" t="s">
-        <v>424</v>
+        <v>266</v>
       </c>
       <c r="F64" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="G64" t="s">
-        <v>17</v>
+        <v>294</v>
       </c>
       <c r="H64" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="I64" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="J64" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="K64" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="A65" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B65" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C65" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="D65" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="E65" t="s">
-        <v>432</v>
+        <v>333</v>
       </c>
       <c r="F65" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="G65" t="s">
         <v>294</v>
       </c>
       <c r="H65" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="I65" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="J65" t="s">
         <v>42</v>
@@ -5057,243 +4662,243 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="A66" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B66" t="s">
+        <v>442</v>
+      </c>
+      <c r="C66" t="s">
+        <v>443</v>
+      </c>
+      <c r="D66" t="s">
+        <v>77</v>
+      </c>
+      <c r="E66" t="s">
+        <v>389</v>
+      </c>
+      <c r="F66" t="s">
+        <v>444</v>
+      </c>
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" t="s">
+        <v>445</v>
+      </c>
+      <c r="I66" t="s">
+        <v>446</v>
+      </c>
+      <c r="J66" t="s">
+        <v>96</v>
+      </c>
+      <c r="K66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>447</v>
+      </c>
+      <c r="B67" t="s">
+        <v>448</v>
+      </c>
+      <c r="C67" t="s">
+        <v>449</v>
+      </c>
+      <c r="D67" t="s">
+        <v>235</v>
+      </c>
+      <c r="E67" t="s">
+        <v>287</v>
+      </c>
+      <c r="F67" t="s">
+        <v>450</v>
+      </c>
+      <c r="G67" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" t="s">
+        <v>164</v>
+      </c>
+      <c r="I67" t="s">
+        <v>451</v>
+      </c>
+      <c r="J67" t="s">
+        <v>96</v>
+      </c>
+      <c r="K67" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>452</v>
+      </c>
+      <c r="B68" t="s">
+        <v>453</v>
+      </c>
+      <c r="C68" t="s">
+        <v>454</v>
+      </c>
+      <c r="D68" t="s">
+        <v>214</v>
+      </c>
+      <c r="E68" t="s">
+        <v>455</v>
+      </c>
+      <c r="F68" t="s">
+        <v>456</v>
+      </c>
+      <c r="G68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" t="s">
+        <v>457</v>
+      </c>
+      <c r="I68" t="s">
+        <v>458</v>
+      </c>
+      <c r="J68" t="s">
+        <v>96</v>
+      </c>
+      <c r="K68" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>459</v>
+      </c>
+      <c r="B69" t="s">
+        <v>460</v>
+      </c>
+      <c r="C69" t="s">
+        <v>461</v>
+      </c>
+      <c r="D69" t="s">
+        <v>100</v>
+      </c>
+      <c r="E69" t="s">
+        <v>333</v>
+      </c>
+      <c r="F69" t="s">
+        <v>462</v>
+      </c>
+      <c r="G69" t="s">
+        <v>49</v>
+      </c>
+      <c r="H69" t="s">
+        <v>463</v>
+      </c>
+      <c r="I69" t="s">
+        <v>464</v>
+      </c>
+      <c r="J69" t="s">
+        <v>42</v>
+      </c>
+      <c r="K69" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>465</v>
+      </c>
+      <c r="B70" t="s">
+        <v>466</v>
+      </c>
+      <c r="C70" t="s">
+        <v>467</v>
+      </c>
+      <c r="D70" t="s">
         <v>437</v>
       </c>
-      <c r="C66" t="s">
-        <v>438</v>
-      </c>
-      <c r="D66" t="s">
-        <v>201</v>
-      </c>
-      <c r="E66" t="s">
-        <v>439</v>
-      </c>
-      <c r="F66" t="s">
-        <v>440</v>
-      </c>
-      <c r="G66" t="s">
-        <v>17</v>
-      </c>
-      <c r="H66" t="s">
-        <v>441</v>
-      </c>
-      <c r="I66" t="s">
-        <v>442</v>
-      </c>
-      <c r="J66" t="s">
-        <v>60</v>
-      </c>
-      <c r="K66" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>443</v>
-      </c>
-      <c r="B67" t="s">
-        <v>444</v>
-      </c>
-      <c r="C67" t="s">
-        <v>445</v>
-      </c>
-      <c r="D67" t="s">
-        <v>446</v>
-      </c>
-      <c r="E67" t="s">
-        <v>266</v>
-      </c>
-      <c r="F67" t="s">
-        <v>447</v>
-      </c>
-      <c r="G67" t="s">
+      <c r="E70" t="s">
+        <v>56</v>
+      </c>
+      <c r="F70" t="s">
+        <v>468</v>
+      </c>
+      <c r="G70" t="s">
         <v>294</v>
       </c>
-      <c r="H67" t="s">
-        <v>448</v>
-      </c>
-      <c r="I67" t="s">
-        <v>449</v>
-      </c>
-      <c r="J67" t="s">
+      <c r="H70" t="s">
+        <v>469</v>
+      </c>
+      <c r="I70" t="s">
+        <v>470</v>
+      </c>
+      <c r="J70" t="s">
         <v>42</v>
       </c>
-      <c r="K67" t="s">
+      <c r="K70" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>450</v>
-      </c>
-      <c r="B68" t="s">
-        <v>451</v>
-      </c>
-      <c r="C68" t="s">
-        <v>452</v>
-      </c>
-      <c r="D68" t="s">
-        <v>453</v>
-      </c>
-      <c r="E68" t="s">
-        <v>333</v>
-      </c>
-      <c r="F68" t="s">
-        <v>454</v>
-      </c>
-      <c r="G68" t="s">
-        <v>294</v>
-      </c>
-      <c r="H68" t="s">
-        <v>455</v>
-      </c>
-      <c r="I68" t="s">
-        <v>456</v>
-      </c>
-      <c r="J68" t="s">
+    <row r="71">
+      <c r="A71" t="s">
+        <v>471</v>
+      </c>
+      <c r="B71" t="s">
+        <v>472</v>
+      </c>
+      <c r="C71" t="s">
+        <v>473</v>
+      </c>
+      <c r="D71" t="s">
+        <v>474</v>
+      </c>
+      <c r="E71" t="s">
+        <v>475</v>
+      </c>
+      <c r="F71" t="s">
+        <v>476</v>
+      </c>
+      <c r="G71" t="s">
+        <v>145</v>
+      </c>
+      <c r="H71" t="s">
+        <v>477</v>
+      </c>
+      <c r="I71" t="s">
+        <v>478</v>
+      </c>
+      <c r="J71" t="s">
         <v>42</v>
       </c>
-      <c r="K68" t="s">
+      <c r="K71" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>457</v>
-      </c>
-      <c r="B69" t="s">
-        <v>458</v>
-      </c>
-      <c r="C69" t="s">
-        <v>459</v>
-      </c>
-      <c r="D69" t="s">
-        <v>77</v>
-      </c>
-      <c r="E69" t="s">
-        <v>394</v>
-      </c>
-      <c r="F69" t="s">
-        <v>460</v>
-      </c>
-      <c r="G69" t="s">
-        <v>17</v>
-      </c>
-      <c r="H69" t="s">
-        <v>461</v>
-      </c>
-      <c r="I69" t="s">
-        <v>462</v>
-      </c>
-      <c r="J69" t="s">
-        <v>96</v>
-      </c>
-      <c r="K69" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>463</v>
-      </c>
-      <c r="B70" t="s">
-        <v>464</v>
-      </c>
-      <c r="C70" t="s">
-        <v>465</v>
-      </c>
-      <c r="D70" t="s">
-        <v>235</v>
-      </c>
-      <c r="E70" t="s">
-        <v>287</v>
-      </c>
-      <c r="F70" t="s">
-        <v>466</v>
-      </c>
-      <c r="G70" t="s">
-        <v>17</v>
-      </c>
-      <c r="H70" t="s">
-        <v>164</v>
-      </c>
-      <c r="I70" t="s">
-        <v>467</v>
-      </c>
-      <c r="J70" t="s">
-        <v>96</v>
-      </c>
-      <c r="K70" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>468</v>
-      </c>
-      <c r="B71" t="s">
-        <v>469</v>
-      </c>
-      <c r="C71" t="s">
-        <v>470</v>
-      </c>
-      <c r="D71" t="s">
-        <v>214</v>
-      </c>
-      <c r="E71" t="s">
-        <v>471</v>
-      </c>
-      <c r="F71" t="s">
-        <v>472</v>
-      </c>
-      <c r="G71" t="s">
-        <v>17</v>
-      </c>
-      <c r="H71" t="s">
-        <v>473</v>
-      </c>
-      <c r="I71" t="s">
-        <v>474</v>
-      </c>
-      <c r="J71" t="s">
-        <v>96</v>
-      </c>
-      <c r="K71" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="A72" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B72" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C72" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D72" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="E72" t="s">
-        <v>333</v>
+        <v>92</v>
       </c>
       <c r="F72" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="G72" t="s">
         <v>49</v>
       </c>
       <c r="H72" t="s">
-        <v>479</v>
+        <v>432</v>
       </c>
       <c r="I72" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="J72" t="s">
         <v>42</v>
@@ -5302,77 +4907,77 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="A73" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B73" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C73" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D73" t="s">
-        <v>453</v>
+        <v>14</v>
       </c>
       <c r="E73" t="s">
-        <v>56</v>
+        <v>487</v>
       </c>
       <c r="F73" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="G73" t="s">
-        <v>294</v>
+        <v>17</v>
       </c>
       <c r="H73" t="s">
+        <v>489</v>
+      </c>
+      <c r="I73" t="s">
+        <v>490</v>
+      </c>
+      <c r="J73" t="s">
+        <v>276</v>
+      </c>
+      <c r="K73" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>491</v>
+      </c>
+      <c r="B74" t="s">
         <v>485</v>
       </c>
-      <c r="I73" t="s">
-        <v>486</v>
-      </c>
-      <c r="J73" t="s">
-        <v>42</v>
-      </c>
-      <c r="K73" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="C74" t="s">
+        <v>492</v>
+      </c>
+      <c r="D74" t="s">
+        <v>214</v>
+      </c>
+      <c r="E74" t="s">
         <v>487</v>
       </c>
-      <c r="B74" t="s">
-        <v>488</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="F74" t="s">
+        <v>493</v>
+      </c>
+      <c r="G74" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" t="s">
         <v>489</v>
-      </c>
-      <c r="D74" t="s">
-        <v>490</v>
-      </c>
-      <c r="E74" t="s">
-        <v>491</v>
-      </c>
-      <c r="F74" t="s">
-        <v>492</v>
-      </c>
-      <c r="G74" t="s">
-        <v>145</v>
-      </c>
-      <c r="H74" t="s">
-        <v>493</v>
       </c>
       <c r="I74" t="s">
         <v>494</v>
       </c>
       <c r="J74" t="s">
-        <v>42</v>
+        <v>276</v>
       </c>
       <c r="K74" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="A75" t="s">
         <v>495</v>
       </c>
@@ -5383,45 +4988,45 @@
         <v>497</v>
       </c>
       <c r="D75" t="s">
-        <v>135</v>
+        <v>214</v>
       </c>
       <c r="E75" t="s">
-        <v>92</v>
+        <v>258</v>
       </c>
       <c r="F75" t="s">
         <v>498</v>
       </c>
       <c r="G75" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H75" t="s">
-        <v>448</v>
+        <v>499</v>
       </c>
       <c r="I75" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="J75" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="K75" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="A76" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B76" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C76" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D76" t="s">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="E76" t="s">
-        <v>503</v>
+        <v>455</v>
       </c>
       <c r="F76" t="s">
         <v>504</v>
@@ -5433,322 +5038,322 @@
         <v>505</v>
       </c>
       <c r="I76" t="s">
+        <v>404</v>
+      </c>
+      <c r="J76" t="s">
+        <v>96</v>
+      </c>
+      <c r="K76" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
         <v>506</v>
       </c>
-      <c r="J76" t="s">
-        <v>276</v>
-      </c>
-      <c r="K76" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="B77" t="s">
         <v>507</v>
-      </c>
-      <c r="B77" t="s">
-        <v>501</v>
       </c>
       <c r="C77" t="s">
         <v>508</v>
       </c>
       <c r="D77" t="s">
+        <v>509</v>
+      </c>
+      <c r="E77" t="s">
+        <v>287</v>
+      </c>
+      <c r="F77" t="s">
+        <v>510</v>
+      </c>
+      <c r="G77" t="s">
+        <v>145</v>
+      </c>
+      <c r="H77" t="s">
+        <v>511</v>
+      </c>
+      <c r="I77" t="s">
+        <v>512</v>
+      </c>
+      <c r="J77" t="s">
+        <v>60</v>
+      </c>
+      <c r="K77" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>513</v>
+      </c>
+      <c r="B78" t="s">
+        <v>514</v>
+      </c>
+      <c r="C78" t="s">
+        <v>515</v>
+      </c>
+      <c r="D78" t="s">
+        <v>130</v>
+      </c>
+      <c r="E78" t="s">
+        <v>287</v>
+      </c>
+      <c r="F78" t="s">
+        <v>516</v>
+      </c>
+      <c r="G78" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" t="s">
+        <v>517</v>
+      </c>
+      <c r="I78" t="s">
+        <v>518</v>
+      </c>
+      <c r="J78" t="s">
+        <v>60</v>
+      </c>
+      <c r="K78" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>519</v>
+      </c>
+      <c r="B79" t="s">
+        <v>520</v>
+      </c>
+      <c r="C79" t="s">
+        <v>521</v>
+      </c>
+      <c r="D79" t="s">
+        <v>123</v>
+      </c>
+      <c r="E79" t="s">
+        <v>124</v>
+      </c>
+      <c r="F79" t="s">
+        <v>522</v>
+      </c>
+      <c r="G79" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" t="s">
+        <v>523</v>
+      </c>
+      <c r="I79" t="s">
+        <v>524</v>
+      </c>
+      <c r="J79" t="s">
+        <v>60</v>
+      </c>
+      <c r="K79" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>525</v>
+      </c>
+      <c r="B80" t="s">
+        <v>526</v>
+      </c>
+      <c r="C80" t="s">
+        <v>527</v>
+      </c>
+      <c r="D80" t="s">
+        <v>189</v>
+      </c>
+      <c r="E80" t="s">
+        <v>78</v>
+      </c>
+      <c r="F80" t="s">
+        <v>528</v>
+      </c>
+      <c r="G80" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" t="s">
+        <v>529</v>
+      </c>
+      <c r="I80" t="s">
+        <v>530</v>
+      </c>
+      <c r="J80" t="s">
+        <v>96</v>
+      </c>
+      <c r="K80" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>531</v>
+      </c>
+      <c r="B81" t="s">
+        <v>532</v>
+      </c>
+      <c r="C81" t="s">
+        <v>533</v>
+      </c>
+      <c r="D81" t="s">
         <v>214</v>
       </c>
-      <c r="E77" t="s">
-        <v>503</v>
-      </c>
-      <c r="F77" t="s">
-        <v>509</v>
-      </c>
-      <c r="G77" t="s">
-        <v>17</v>
-      </c>
-      <c r="H77" t="s">
-        <v>505</v>
-      </c>
-      <c r="I77" t="s">
-        <v>510</v>
-      </c>
-      <c r="J77" t="s">
-        <v>276</v>
-      </c>
-      <c r="K77" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>511</v>
-      </c>
-      <c r="B78" t="s">
-        <v>512</v>
-      </c>
-      <c r="C78" t="s">
-        <v>513</v>
-      </c>
-      <c r="D78" t="s">
-        <v>214</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="E81" t="s">
         <v>258</v>
       </c>
-      <c r="F78" t="s">
-        <v>514</v>
-      </c>
-      <c r="G78" t="s">
-        <v>17</v>
-      </c>
-      <c r="H78" t="s">
-        <v>515</v>
-      </c>
-      <c r="I78" t="s">
-        <v>516</v>
-      </c>
-      <c r="J78" t="s">
+      <c r="F81" t="s">
+        <v>534</v>
+      </c>
+      <c r="G81" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" t="s">
+        <v>535</v>
+      </c>
+      <c r="I81" t="s">
+        <v>536</v>
+      </c>
+      <c r="J81" t="s">
         <v>96</v>
       </c>
-      <c r="K78" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>517</v>
-      </c>
-      <c r="B79" t="s">
-        <v>518</v>
-      </c>
-      <c r="C79" t="s">
-        <v>519</v>
-      </c>
-      <c r="D79" t="s">
-        <v>214</v>
-      </c>
-      <c r="E79" t="s">
-        <v>471</v>
-      </c>
-      <c r="F79" t="s">
-        <v>520</v>
-      </c>
-      <c r="G79" t="s">
-        <v>17</v>
-      </c>
-      <c r="H79" t="s">
-        <v>521</v>
-      </c>
-      <c r="I79" t="s">
-        <v>420</v>
-      </c>
-      <c r="J79" t="s">
+      <c r="K81" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>537</v>
+      </c>
+      <c r="B82" t="s">
+        <v>532</v>
+      </c>
+      <c r="C82" t="s">
+        <v>538</v>
+      </c>
+      <c r="D82" t="s">
+        <v>326</v>
+      </c>
+      <c r="E82" t="s">
+        <v>487</v>
+      </c>
+      <c r="F82" t="s">
+        <v>539</v>
+      </c>
+      <c r="G82" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" t="s">
+        <v>540</v>
+      </c>
+      <c r="I82" t="s">
+        <v>541</v>
+      </c>
+      <c r="J82" t="s">
         <v>96</v>
       </c>
-      <c r="K79" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>522</v>
-      </c>
-      <c r="B80" t="s">
-        <v>523</v>
-      </c>
-      <c r="C80" t="s">
-        <v>524</v>
-      </c>
-      <c r="D80" t="s">
-        <v>525</v>
-      </c>
-      <c r="E80" t="s">
-        <v>287</v>
-      </c>
-      <c r="F80" t="s">
-        <v>526</v>
-      </c>
-      <c r="G80" t="s">
-        <v>145</v>
-      </c>
-      <c r="H80" t="s">
-        <v>527</v>
-      </c>
-      <c r="I80" t="s">
-        <v>528</v>
-      </c>
-      <c r="J80" t="s">
-        <v>60</v>
-      </c>
-      <c r="K80" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>529</v>
-      </c>
-      <c r="B81" t="s">
-        <v>530</v>
-      </c>
-      <c r="C81" t="s">
-        <v>531</v>
-      </c>
-      <c r="D81" t="s">
-        <v>130</v>
-      </c>
-      <c r="E81" t="s">
-        <v>287</v>
-      </c>
-      <c r="F81" t="s">
-        <v>532</v>
-      </c>
-      <c r="G81" t="s">
-        <v>17</v>
-      </c>
-      <c r="H81" t="s">
-        <v>533</v>
-      </c>
-      <c r="I81" t="s">
-        <v>534</v>
-      </c>
-      <c r="J81" t="s">
-        <v>60</v>
-      </c>
-      <c r="K81" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>535</v>
-      </c>
-      <c r="B82" t="s">
-        <v>536</v>
-      </c>
-      <c r="C82" t="s">
-        <v>537</v>
-      </c>
-      <c r="D82" t="s">
-        <v>123</v>
-      </c>
-      <c r="E82" t="s">
-        <v>124</v>
-      </c>
-      <c r="F82" t="s">
-        <v>538</v>
-      </c>
-      <c r="G82" t="s">
-        <v>17</v>
-      </c>
-      <c r="H82" t="s">
-        <v>539</v>
-      </c>
-      <c r="I82" t="s">
-        <v>540</v>
-      </c>
-      <c r="J82" t="s">
-        <v>60</v>
-      </c>
       <c r="K82" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83">
       <c r="A83" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B83" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C83" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D83" t="s">
+        <v>545</v>
+      </c>
+      <c r="E83" t="s">
+        <v>408</v>
+      </c>
+      <c r="F83" t="s">
+        <v>546</v>
+      </c>
+      <c r="G83" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" t="s">
+        <v>230</v>
+      </c>
+      <c r="I83" t="s">
+        <v>547</v>
+      </c>
+      <c r="J83" t="s">
+        <v>20</v>
+      </c>
+      <c r="K83" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>548</v>
+      </c>
+      <c r="B84" t="s">
+        <v>549</v>
+      </c>
+      <c r="C84" t="s">
+        <v>550</v>
+      </c>
+      <c r="D84" t="s">
+        <v>551</v>
+      </c>
+      <c r="E84" t="s">
+        <v>101</v>
+      </c>
+      <c r="F84" t="s">
+        <v>552</v>
+      </c>
+      <c r="G84" t="s">
+        <v>49</v>
+      </c>
+      <c r="H84" t="s">
+        <v>348</v>
+      </c>
+      <c r="I84" t="s">
+        <v>553</v>
+      </c>
+      <c r="J84" t="s">
+        <v>42</v>
+      </c>
+      <c r="K84" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>554</v>
+      </c>
+      <c r="B85" t="s">
+        <v>555</v>
+      </c>
+      <c r="C85" t="s">
+        <v>556</v>
+      </c>
+      <c r="D85" t="s">
         <v>189</v>
       </c>
-      <c r="E83" t="s">
-        <v>78</v>
-      </c>
-      <c r="F83" t="s">
-        <v>544</v>
-      </c>
-      <c r="G83" t="s">
-        <v>17</v>
-      </c>
-      <c r="H83" t="s">
-        <v>545</v>
-      </c>
-      <c r="I83" t="s">
-        <v>546</v>
-      </c>
-      <c r="J83" t="s">
-        <v>96</v>
-      </c>
-      <c r="K83" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>547</v>
-      </c>
-      <c r="B84" t="s">
-        <v>548</v>
-      </c>
-      <c r="C84" t="s">
-        <v>549</v>
-      </c>
-      <c r="D84" t="s">
-        <v>214</v>
-      </c>
-      <c r="E84" t="s">
-        <v>258</v>
-      </c>
-      <c r="F84" t="s">
-        <v>550</v>
-      </c>
-      <c r="G84" t="s">
-        <v>17</v>
-      </c>
-      <c r="H84" t="s">
-        <v>551</v>
-      </c>
-      <c r="I84" t="s">
-        <v>552</v>
-      </c>
-      <c r="J84" t="s">
-        <v>96</v>
-      </c>
-      <c r="K84" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>553</v>
-      </c>
-      <c r="B85" t="s">
-        <v>548</v>
-      </c>
-      <c r="C85" t="s">
-        <v>554</v>
-      </c>
-      <c r="D85" t="s">
-        <v>326</v>
-      </c>
       <c r="E85" t="s">
-        <v>503</v>
+        <v>136</v>
       </c>
       <c r="F85" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G85" t="s">
         <v>17</v>
       </c>
       <c r="H85" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="I85" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="J85" t="s">
         <v>96</v>
@@ -5757,33 +5362,33 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86">
       <c r="A86" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B86" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C86" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D86" t="s">
-        <v>382</v>
+        <v>201</v>
       </c>
       <c r="E86" t="s">
-        <v>424</v>
+        <v>136</v>
       </c>
       <c r="F86" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G86" t="s">
         <v>17</v>
       </c>
       <c r="H86" t="s">
-        <v>230</v>
+        <v>563</v>
       </c>
       <c r="I86" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="J86" t="s">
         <v>20</v>
@@ -5792,103 +5397,103 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87">
       <c r="A87" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B87" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C87" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D87" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="E87" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F87" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="G87" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H87" t="s">
-        <v>348</v>
+        <v>570</v>
       </c>
       <c r="I87" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="J87" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="K87" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="A88" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="B88" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C88" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="D88" t="s">
-        <v>189</v>
+        <v>46</v>
       </c>
       <c r="E88" t="s">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="F88" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="G88" t="s">
         <v>17</v>
       </c>
       <c r="H88" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="I88" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="J88" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="K88" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89">
       <c r="A89" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B89" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="C89" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D89" t="s">
-        <v>201</v>
+        <v>581</v>
       </c>
       <c r="E89" t="s">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="F89" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="G89" t="s">
         <v>17</v>
       </c>
       <c r="H89" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="I89" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="J89" t="s">
         <v>20</v>
@@ -5897,68 +5502,68 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90">
       <c r="A90" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="B90" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="C90" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="D90" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="E90" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="F90" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="G90" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H90" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="I90" t="s">
+        <v>591</v>
+      </c>
+      <c r="J90" t="s">
+        <v>60</v>
+      </c>
+      <c r="K90" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>592</v>
+      </c>
+      <c r="B91" t="s">
         <v>586</v>
       </c>
-      <c r="J90" t="s">
-        <v>20</v>
-      </c>
-      <c r="K90" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>587</v>
-      </c>
-      <c r="B91" t="s">
-        <v>588</v>
-      </c>
       <c r="C91" t="s">
+        <v>593</v>
+      </c>
+      <c r="D91" t="s">
+        <v>430</v>
+      </c>
+      <c r="E91" t="s">
+        <v>202</v>
+      </c>
+      <c r="F91" t="s">
         <v>589</v>
       </c>
-      <c r="D91" t="s">
-        <v>46</v>
-      </c>
-      <c r="E91" t="s">
-        <v>56</v>
-      </c>
-      <c r="F91" t="s">
-        <v>590</v>
-      </c>
       <c r="G91" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H91" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="I91" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="J91" t="s">
         <v>60</v>
@@ -5967,33 +5572,33 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92">
       <c r="A92" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="B92" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C92" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="D92" t="s">
-        <v>596</v>
+        <v>77</v>
       </c>
       <c r="E92" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="F92" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G92" t="s">
         <v>17</v>
       </c>
       <c r="H92" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="I92" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="J92" t="s">
         <v>20</v>
@@ -6002,33 +5607,33 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93">
       <c r="A93" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B93" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C93" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D93" t="s">
-        <v>603</v>
+        <v>437</v>
       </c>
       <c r="E93" t="s">
-        <v>136</v>
+        <v>266</v>
       </c>
       <c r="F93" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="G93" t="s">
         <v>49</v>
       </c>
       <c r="H93" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="I93" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="J93" t="s">
         <v>60</v>
@@ -6037,59 +5642,59 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94">
       <c r="A94" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B94" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C94" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D94" t="s">
-        <v>446</v>
+        <v>108</v>
       </c>
       <c r="E94" t="s">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c r="F94" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="G94" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H94" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="I94" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="J94" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="K94" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95">
       <c r="A95" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B95" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="C95" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D95" t="s">
         <v>77</v>
       </c>
       <c r="E95" t="s">
-        <v>202</v>
+        <v>287</v>
       </c>
       <c r="F95" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="G95" t="s">
         <v>17</v>
@@ -6107,7 +5712,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96">
       <c r="A96" t="s">
         <v>617</v>
       </c>
@@ -6118,16 +5723,16 @@
         <v>619</v>
       </c>
       <c r="D96" t="s">
-        <v>453</v>
+        <v>14</v>
       </c>
       <c r="E96" t="s">
-        <v>266</v>
+        <v>124</v>
       </c>
       <c r="F96" t="s">
         <v>620</v>
       </c>
       <c r="G96" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H96" t="s">
         <v>621</v>
@@ -6136,39 +5741,39 @@
         <v>622</v>
       </c>
       <c r="J96" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="K96" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97">
       <c r="A97" t="s">
         <v>623</v>
       </c>
       <c r="B97" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="C97" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D97" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="E97" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F97" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G97" t="s">
         <v>17</v>
       </c>
       <c r="H97" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="I97" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="J97" t="s">
         <v>20</v>
@@ -6177,103 +5782,103 @@
         <v>21</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98">
       <c r="A98" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B98" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="C98" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D98" t="s">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="E98" t="s">
-        <v>287</v>
+        <v>455</v>
       </c>
       <c r="F98" t="s">
-        <v>614</v>
+        <v>632</v>
       </c>
       <c r="G98" t="s">
         <v>17</v>
       </c>
       <c r="H98" t="s">
+        <v>633</v>
+      </c>
+      <c r="I98" t="s">
+        <v>634</v>
+      </c>
+      <c r="J98" t="s">
+        <v>96</v>
+      </c>
+      <c r="K98" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>635</v>
+      </c>
+      <c r="B99" t="s">
         <v>630</v>
       </c>
-      <c r="I98" t="s">
-        <v>631</v>
-      </c>
-      <c r="J98" t="s">
+      <c r="C99" t="s">
+        <v>636</v>
+      </c>
+      <c r="D99" t="s">
+        <v>189</v>
+      </c>
+      <c r="E99" t="s">
+        <v>487</v>
+      </c>
+      <c r="F99" t="s">
+        <v>637</v>
+      </c>
+      <c r="G99" t="s">
+        <v>17</v>
+      </c>
+      <c r="H99" t="s">
+        <v>638</v>
+      </c>
+      <c r="I99" t="s">
+        <v>634</v>
+      </c>
+      <c r="J99" t="s">
         <v>20</v>
       </c>
-      <c r="K98" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>632</v>
-      </c>
-      <c r="B99" t="s">
-        <v>633</v>
-      </c>
-      <c r="C99" t="s">
-        <v>634</v>
-      </c>
-      <c r="D99" t="s">
-        <v>123</v>
-      </c>
-      <c r="E99" t="s">
-        <v>109</v>
-      </c>
-      <c r="F99" t="s">
-        <v>635</v>
-      </c>
-      <c r="G99" t="s">
+      <c r="K99" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>639</v>
+      </c>
+      <c r="B100" t="s">
+        <v>640</v>
+      </c>
+      <c r="C100" t="s">
+        <v>641</v>
+      </c>
+      <c r="D100" t="s">
+        <v>642</v>
+      </c>
+      <c r="E100" t="s">
+        <v>56</v>
+      </c>
+      <c r="F100" t="s">
+        <v>643</v>
+      </c>
+      <c r="G100" t="s">
         <v>49</v>
       </c>
-      <c r="H99" t="s">
-        <v>636</v>
-      </c>
-      <c r="I99" t="s">
-        <v>637</v>
-      </c>
-      <c r="J99" t="s">
-        <v>60</v>
-      </c>
-      <c r="K99" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>638</v>
-      </c>
-      <c r="B100" t="s">
-        <v>639</v>
-      </c>
-      <c r="C100" t="s">
-        <v>640</v>
-      </c>
-      <c r="D100" t="s">
-        <v>319</v>
-      </c>
-      <c r="E100" t="s">
-        <v>641</v>
-      </c>
-      <c r="F100" t="s">
-        <v>642</v>
-      </c>
-      <c r="G100" t="s">
-        <v>145</v>
-      </c>
       <c r="H100" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="I100" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="J100" t="s">
         <v>42</v>
@@ -6282,21 +5887,21 @@
         <v>43</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101">
       <c r="A101" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B101" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C101" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D101" t="s">
-        <v>647</v>
+        <v>286</v>
       </c>
       <c r="E101" t="s">
-        <v>116</v>
+        <v>266</v>
       </c>
       <c r="F101" t="s">
         <v>648</v>
@@ -6317,7 +5922,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102">
       <c r="A102" t="s">
         <v>651</v>
       </c>
@@ -6328,92 +5933,92 @@
         <v>653</v>
       </c>
       <c r="D102" t="s">
-        <v>14</v>
+        <v>654</v>
       </c>
       <c r="E102" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="F102" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="G102" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H102" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I102" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J102" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="K102" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="103">
       <c r="A103" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B103" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C103" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D103" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="E103" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="F103" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="G103" t="s">
         <v>17</v>
       </c>
       <c r="H103" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="I103" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="J103" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K103" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104">
       <c r="A104" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B104" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C104" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D104" t="s">
         <v>214</v>
       </c>
       <c r="E104" t="s">
-        <v>471</v>
+        <v>78</v>
       </c>
       <c r="F104" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G104" t="s">
         <v>17</v>
       </c>
       <c r="H104" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="I104" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="J104" t="s">
         <v>96</v>
@@ -6422,132 +6027,132 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105">
       <c r="A105" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B105" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C105" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D105" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="E105" t="s">
-        <v>503</v>
+        <v>78</v>
       </c>
       <c r="F105" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="G105" t="s">
         <v>17</v>
       </c>
       <c r="H105" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="I105" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="J105" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="K105" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106">
       <c r="A106" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B106" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C106" t="s">
-        <v>675</v>
+        <v>376</v>
       </c>
       <c r="D106" t="s">
-        <v>676</v>
+        <v>182</v>
       </c>
       <c r="E106" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="F106" t="s">
         <v>677</v>
       </c>
       <c r="G106" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H106" t="s">
+        <v>111</v>
+      </c>
+      <c r="I106" t="s">
         <v>678</v>
       </c>
-      <c r="I106" t="s">
+      <c r="J106" t="s">
+        <v>20</v>
+      </c>
+      <c r="K106" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
         <v>679</v>
       </c>
-      <c r="J106" t="s">
-        <v>42</v>
-      </c>
-      <c r="K106" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="B107" t="s">
         <v>680</v>
-      </c>
-      <c r="B107" t="s">
-        <v>674</v>
       </c>
       <c r="C107" t="s">
         <v>681</v>
       </c>
       <c r="D107" t="s">
-        <v>286</v>
+        <v>189</v>
       </c>
       <c r="E107" t="s">
-        <v>266</v>
+        <v>682</v>
       </c>
       <c r="F107" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="G107" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="H107" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="I107" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="J107" t="s">
-        <v>42</v>
+        <v>686</v>
       </c>
       <c r="K107" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108">
       <c r="A108" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B108" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="C108" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D108" t="s">
-        <v>688</v>
+        <v>340</v>
       </c>
       <c r="E108" t="s">
-        <v>202</v>
+        <v>258</v>
       </c>
       <c r="F108" t="s">
         <v>689</v>
       </c>
       <c r="G108" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H108" t="s">
         <v>690</v>
@@ -6556,13 +6161,13 @@
         <v>691</v>
       </c>
       <c r="J108" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="K108" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109">
       <c r="A109" t="s">
         <v>692</v>
       </c>
@@ -6573,197 +6178,197 @@
         <v>694</v>
       </c>
       <c r="D109" t="s">
-        <v>108</v>
+        <v>695</v>
       </c>
       <c r="E109" t="s">
-        <v>202</v>
+        <v>287</v>
       </c>
       <c r="F109" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="G109" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="H109" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="I109" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="J109" t="s">
-        <v>60</v>
+        <v>699</v>
       </c>
       <c r="K109" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110">
       <c r="A110" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B110" t="s">
+        <v>701</v>
+      </c>
+      <c r="C110" t="s">
+        <v>702</v>
+      </c>
+      <c r="D110" t="s">
+        <v>703</v>
+      </c>
+      <c r="E110" t="s">
+        <v>287</v>
+      </c>
+      <c r="F110" t="s">
+        <v>704</v>
+      </c>
+      <c r="G110" t="s">
+        <v>17</v>
+      </c>
+      <c r="H110" t="s">
+        <v>705</v>
+      </c>
+      <c r="I110" t="s">
+        <v>706</v>
+      </c>
+      <c r="J110" t="s">
+        <v>276</v>
+      </c>
+      <c r="K110" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>707</v>
+      </c>
+      <c r="B111" t="s">
+        <v>701</v>
+      </c>
+      <c r="C111" t="s">
+        <v>708</v>
+      </c>
+      <c r="D111" t="s">
+        <v>221</v>
+      </c>
+      <c r="E111" t="s">
+        <v>109</v>
+      </c>
+      <c r="F111" t="s">
+        <v>709</v>
+      </c>
+      <c r="G111" t="s">
+        <v>145</v>
+      </c>
+      <c r="H111" t="s">
+        <v>710</v>
+      </c>
+      <c r="I111" t="s">
+        <v>711</v>
+      </c>
+      <c r="J111" t="s">
+        <v>42</v>
+      </c>
+      <c r="K111" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>712</v>
+      </c>
+      <c r="B112" t="s">
+        <v>713</v>
+      </c>
+      <c r="C112" t="s">
+        <v>714</v>
+      </c>
+      <c r="D112" t="s">
+        <v>715</v>
+      </c>
+      <c r="E112" t="s">
+        <v>716</v>
+      </c>
+      <c r="F112" t="s">
+        <v>717</v>
+      </c>
+      <c r="G112" t="s">
+        <v>294</v>
+      </c>
+      <c r="H112" t="s">
+        <v>718</v>
+      </c>
+      <c r="I112" t="s">
+        <v>719</v>
+      </c>
+      <c r="J112" t="s">
+        <v>720</v>
+      </c>
+      <c r="K112" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>721</v>
+      </c>
+      <c r="B113" t="s">
+        <v>713</v>
+      </c>
+      <c r="C113" t="s">
+        <v>722</v>
+      </c>
+      <c r="D113" t="s">
+        <v>723</v>
+      </c>
+      <c r="E113" t="s">
+        <v>31</v>
+      </c>
+      <c r="F113" t="s">
+        <v>724</v>
+      </c>
+      <c r="G113" t="s">
+        <v>145</v>
+      </c>
+      <c r="H113" t="s">
+        <v>725</v>
+      </c>
+      <c r="I113" t="s">
+        <v>726</v>
+      </c>
+      <c r="J113" t="s">
         <v>699</v>
       </c>
-      <c r="C110" t="s">
-        <v>700</v>
-      </c>
-      <c r="D110" t="s">
-        <v>214</v>
-      </c>
-      <c r="E110" t="s">
-        <v>78</v>
-      </c>
-      <c r="F110" t="s">
-        <v>701</v>
-      </c>
-      <c r="G110" t="s">
-        <v>17</v>
-      </c>
-      <c r="H110" t="s">
-        <v>702</v>
-      </c>
-      <c r="I110" t="s">
-        <v>703</v>
-      </c>
-      <c r="J110" t="s">
-        <v>96</v>
-      </c>
-      <c r="K110" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>704</v>
-      </c>
-      <c r="B111" t="s">
-        <v>699</v>
-      </c>
-      <c r="C111" t="s">
-        <v>705</v>
-      </c>
-      <c r="D111" t="s">
-        <v>214</v>
-      </c>
-      <c r="E111" t="s">
-        <v>78</v>
-      </c>
-      <c r="F111" t="s">
-        <v>706</v>
-      </c>
-      <c r="G111" t="s">
-        <v>17</v>
-      </c>
-      <c r="H111" t="s">
-        <v>707</v>
-      </c>
-      <c r="I111" t="s">
-        <v>708</v>
-      </c>
-      <c r="J111" t="s">
-        <v>96</v>
-      </c>
-      <c r="K111" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>709</v>
-      </c>
-      <c r="B112" t="s">
-        <v>710</v>
-      </c>
-      <c r="C112" t="s">
-        <v>376</v>
-      </c>
-      <c r="D112" t="s">
-        <v>182</v>
-      </c>
-      <c r="E112" t="s">
-        <v>101</v>
-      </c>
-      <c r="F112" t="s">
-        <v>711</v>
-      </c>
-      <c r="G112" t="s">
-        <v>17</v>
-      </c>
-      <c r="H112" t="s">
-        <v>111</v>
-      </c>
-      <c r="I112" t="s">
-        <v>712</v>
-      </c>
-      <c r="J112" t="s">
-        <v>20</v>
-      </c>
-      <c r="K112" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>713</v>
-      </c>
-      <c r="B113" t="s">
-        <v>714</v>
-      </c>
-      <c r="C113" t="s">
-        <v>715</v>
-      </c>
-      <c r="D113" t="s">
-        <v>189</v>
-      </c>
-      <c r="E113" t="s">
-        <v>716</v>
-      </c>
-      <c r="F113" t="s">
-        <v>717</v>
-      </c>
-      <c r="G113" t="s">
-        <v>17</v>
-      </c>
-      <c r="H113" t="s">
-        <v>718</v>
-      </c>
-      <c r="I113" t="s">
-        <v>719</v>
-      </c>
-      <c r="J113" t="s">
-        <v>720</v>
-      </c>
       <c r="K113" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114">
       <c r="A114" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="B114" t="s">
-        <v>714</v>
+        <v>728</v>
       </c>
       <c r="C114" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="D114" t="s">
-        <v>340</v>
+        <v>228</v>
       </c>
       <c r="E114" t="s">
-        <v>258</v>
+        <v>389</v>
       </c>
       <c r="F114" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="G114" t="s">
         <v>17</v>
       </c>
       <c r="H114" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="I114" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="J114" t="s">
         <v>20</v>
@@ -6772,167 +6377,167 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115">
       <c r="A115" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="B115" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="C115" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="D115" t="s">
-        <v>729</v>
+        <v>135</v>
       </c>
       <c r="E115" t="s">
-        <v>287</v>
+        <v>736</v>
       </c>
       <c r="F115" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="G115" t="s">
         <v>145</v>
       </c>
       <c r="H115" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="I115" t="s">
-        <v>732</v>
+        <v>674</v>
       </c>
       <c r="J115" t="s">
-        <v>733</v>
+        <v>42</v>
       </c>
       <c r="K115" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="116">
       <c r="A116" t="s">
+        <v>739</v>
+      </c>
+      <c r="B116" t="s">
         <v>734</v>
       </c>
-      <c r="B116" t="s">
-        <v>735</v>
-      </c>
       <c r="C116" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="D116" t="s">
-        <v>737</v>
+        <v>14</v>
       </c>
       <c r="E116" t="s">
-        <v>287</v>
+        <v>168</v>
       </c>
       <c r="F116" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="G116" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="H116" t="s">
-        <v>739</v>
+        <v>253</v>
       </c>
       <c r="I116" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="J116" t="s">
+        <v>42</v>
+      </c>
+      <c r="K116" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>743</v>
+      </c>
+      <c r="B117" t="s">
+        <v>744</v>
+      </c>
+      <c r="C117" t="s">
+        <v>745</v>
+      </c>
+      <c r="D117" t="s">
+        <v>214</v>
+      </c>
+      <c r="E117" t="s">
+        <v>258</v>
+      </c>
+      <c r="F117" t="s">
+        <v>746</v>
+      </c>
+      <c r="G117" t="s">
+        <v>17</v>
+      </c>
+      <c r="H117" t="s">
+        <v>747</v>
+      </c>
+      <c r="I117" t="s">
+        <v>748</v>
+      </c>
+      <c r="J117" t="s">
         <v>276</v>
       </c>
-      <c r="K116" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>741</v>
-      </c>
-      <c r="B117" t="s">
-        <v>735</v>
-      </c>
-      <c r="C117" t="s">
-        <v>742</v>
-      </c>
-      <c r="D117" t="s">
-        <v>221</v>
-      </c>
-      <c r="E117" t="s">
-        <v>109</v>
-      </c>
-      <c r="F117" t="s">
-        <v>743</v>
-      </c>
-      <c r="G117" t="s">
-        <v>145</v>
-      </c>
-      <c r="H117" t="s">
-        <v>744</v>
-      </c>
-      <c r="I117" t="s">
-        <v>745</v>
-      </c>
-      <c r="J117" t="s">
+      <c r="K117" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>749</v>
+      </c>
+      <c r="B118" t="s">
+        <v>750</v>
+      </c>
+      <c r="C118" t="s">
+        <v>751</v>
+      </c>
+      <c r="D118" t="s">
+        <v>108</v>
+      </c>
+      <c r="E118" t="s">
+        <v>716</v>
+      </c>
+      <c r="F118" t="s">
+        <v>752</v>
+      </c>
+      <c r="G118" t="s">
+        <v>49</v>
+      </c>
+      <c r="H118" t="s">
+        <v>753</v>
+      </c>
+      <c r="I118" t="s">
+        <v>754</v>
+      </c>
+      <c r="J118" t="s">
         <v>42</v>
       </c>
-      <c r="K117" t="s">
+      <c r="K118" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>746</v>
-      </c>
-      <c r="B118" t="s">
-        <v>747</v>
-      </c>
-      <c r="C118" t="s">
-        <v>748</v>
-      </c>
-      <c r="D118" t="s">
-        <v>749</v>
-      </c>
-      <c r="E118" t="s">
-        <v>750</v>
-      </c>
-      <c r="F118" t="s">
-        <v>751</v>
-      </c>
-      <c r="G118" t="s">
-        <v>294</v>
-      </c>
-      <c r="H118" t="s">
-        <v>752</v>
-      </c>
-      <c r="I118" t="s">
-        <v>753</v>
-      </c>
-      <c r="J118" t="s">
-        <v>754</v>
-      </c>
-      <c r="K118" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119">
       <c r="A119" t="s">
         <v>755</v>
       </c>
       <c r="B119" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
       <c r="C119" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D119" t="s">
-        <v>757</v>
+        <v>228</v>
       </c>
       <c r="E119" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="F119" t="s">
         <v>758</v>
       </c>
       <c r="G119" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="H119" t="s">
         <v>759</v>
@@ -6941,13 +6546,13 @@
         <v>760</v>
       </c>
       <c r="J119" t="s">
-        <v>733</v>
+        <v>42</v>
       </c>
       <c r="K119" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="120">
       <c r="A120" t="s">
         <v>761</v>
       </c>
@@ -6958,16 +6563,16 @@
         <v>763</v>
       </c>
       <c r="D120" t="s">
-        <v>228</v>
+        <v>135</v>
       </c>
       <c r="E120" t="s">
-        <v>394</v>
+        <v>423</v>
       </c>
       <c r="F120" t="s">
         <v>764</v>
       </c>
       <c r="G120" t="s">
-        <v>17</v>
+        <v>294</v>
       </c>
       <c r="H120" t="s">
         <v>765</v>
@@ -6976,13 +6581,13 @@
         <v>766</v>
       </c>
       <c r="J120" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K120" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121">
       <c r="A121" t="s">
         <v>767</v>
       </c>
@@ -6993,22 +6598,22 @@
         <v>769</v>
       </c>
       <c r="D121" t="s">
-        <v>135</v>
+        <v>770</v>
       </c>
       <c r="E121" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F121" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="G121" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="H121" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="I121" t="s">
-        <v>708</v>
+        <v>774</v>
       </c>
       <c r="J121" t="s">
         <v>42</v>
@@ -7017,182 +6622,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>773</v>
-      </c>
-      <c r="B122" t="s">
-        <v>768</v>
-      </c>
-      <c r="C122" t="s">
-        <v>774</v>
-      </c>
-      <c r="D122" t="s">
-        <v>14</v>
-      </c>
-      <c r="E122" t="s">
-        <v>168</v>
-      </c>
-      <c r="F122" t="s">
-        <v>775</v>
-      </c>
-      <c r="G122" t="s">
-        <v>145</v>
-      </c>
-      <c r="H122" t="s">
-        <v>253</v>
-      </c>
-      <c r="I122" t="s">
-        <v>776</v>
-      </c>
-      <c r="J122" t="s">
-        <v>42</v>
-      </c>
-      <c r="K122" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>777</v>
-      </c>
-      <c r="B123" t="s">
-        <v>778</v>
-      </c>
-      <c r="C123" t="s">
-        <v>779</v>
-      </c>
-      <c r="D123" t="s">
-        <v>214</v>
-      </c>
-      <c r="E123" t="s">
-        <v>258</v>
-      </c>
-      <c r="F123" t="s">
-        <v>780</v>
-      </c>
-      <c r="G123" t="s">
-        <v>17</v>
-      </c>
-      <c r="H123" t="s">
-        <v>781</v>
-      </c>
-      <c r="I123" t="s">
-        <v>782</v>
-      </c>
-      <c r="J123" t="s">
-        <v>276</v>
-      </c>
-      <c r="K123" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>783</v>
-      </c>
-      <c r="B124" t="s">
-        <v>784</v>
-      </c>
-      <c r="C124" t="s">
-        <v>785</v>
-      </c>
-      <c r="D124" t="s">
-        <v>108</v>
-      </c>
-      <c r="E124" t="s">
-        <v>750</v>
-      </c>
-      <c r="F124" t="s">
-        <v>786</v>
-      </c>
-      <c r="G124" t="s">
-        <v>49</v>
-      </c>
-      <c r="H124" t="s">
-        <v>787</v>
-      </c>
-      <c r="I124" t="s">
-        <v>788</v>
-      </c>
-      <c r="J124" t="s">
-        <v>42</v>
-      </c>
-      <c r="K124" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>789</v>
-      </c>
-      <c r="B125" t="s">
-        <v>790</v>
-      </c>
-      <c r="C125" t="s">
-        <v>791</v>
-      </c>
-      <c r="D125" t="s">
-        <v>228</v>
-      </c>
-      <c r="E125" t="s">
-        <v>101</v>
-      </c>
-      <c r="F125" t="s">
-        <v>792</v>
-      </c>
-      <c r="G125" t="s">
-        <v>49</v>
-      </c>
-      <c r="H125" t="s">
-        <v>793</v>
-      </c>
-      <c r="I125" t="s">
-        <v>794</v>
-      </c>
-      <c r="J125" t="s">
-        <v>42</v>
-      </c>
-      <c r="K125" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>795</v>
-      </c>
-      <c r="B126" t="s">
-        <v>796</v>
-      </c>
-      <c r="C126" t="s">
-        <v>797</v>
-      </c>
-      <c r="D126" t="s">
-        <v>135</v>
-      </c>
-      <c r="E126" t="s">
-        <v>439</v>
-      </c>
-      <c r="F126" t="s">
-        <v>798</v>
-      </c>
-      <c r="G126" t="s">
-        <v>294</v>
-      </c>
-      <c r="H126" t="s">
-        <v>799</v>
-      </c>
-      <c r="I126" t="s">
-        <v>800</v>
-      </c>
-      <c r="J126" t="s">
-        <v>60</v>
-      </c>
-      <c r="K126" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/build/classes/files/sismos.xlsx
+++ b/build/classes/files/sismos.xlsx
@@ -125,7 +125,7 @@
     <t>20:03:00</t>
   </si>
   <si>
-    <t>1.000</t>
+    <t>2.000</t>
   </si>
   <si>
     <t>2.1Ml</t>
@@ -359,660 +359,663 @@
     <t>16:36:34</t>
   </si>
   <si>
+    <t>12.100</t>
+  </si>
+  <si>
+    <t>3.9Ml</t>
+  </si>
+  <si>
+    <t>25 km SO de jacó, Puntarenas</t>
+  </si>
+  <si>
+    <t>9.521</t>
+  </si>
+  <si>
+    <t>-84.836</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>5 Feb 2021</t>
+  </si>
+  <si>
+    <t>23:41:19</t>
+  </si>
+  <si>
+    <t>17.000</t>
+  </si>
+  <si>
+    <t>2.6Ml</t>
+  </si>
+  <si>
+    <t>6.8 km NE de Rivas de Peréz Zeledón</t>
+  </si>
+  <si>
+    <t>9.440</t>
+  </si>
+  <si>
+    <t>-83.603</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>23:43:13</t>
+  </si>
+  <si>
+    <t>14.000</t>
+  </si>
+  <si>
+    <t>11.4 NE de Rivas de Peréz Zeledón</t>
+  </si>
+  <si>
+    <t>9.481</t>
+  </si>
+  <si>
+    <t>-83.577</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>18.000</t>
+  </si>
+  <si>
+    <t>3.3Ml</t>
+  </si>
+  <si>
+    <t>11 km NE de Rivas de Peréz Zeledón</t>
+  </si>
+  <si>
+    <t>9.451</t>
+  </si>
+  <si>
+    <t>-83.566</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>13 Feb 2021</t>
+  </si>
+  <si>
+    <t>15:53:11</t>
+  </si>
+  <si>
+    <t>3.73Ml</t>
+  </si>
+  <si>
+    <t>6.5 km hacia el Sureste de Barranca, Puntarenas.</t>
+  </si>
+  <si>
+    <t>Deformación Interna</t>
+  </si>
+  <si>
+    <t>9.944</t>
+  </si>
+  <si>
+    <t>-84.672</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>15 Feb 2021</t>
+  </si>
+  <si>
+    <t>20:00:27</t>
+  </si>
+  <si>
+    <t>4.88Ml</t>
+  </si>
+  <si>
+    <t>20 km hacia el Noroeste de Golfito</t>
+  </si>
+  <si>
+    <t>8.622</t>
+  </si>
+  <si>
+    <t>-83.286</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>19:31:28</t>
+  </si>
+  <si>
+    <t>20 km hacia el Noroeste de Golfito, Puntarenas.</t>
+  </si>
+  <si>
+    <t>8.626</t>
+  </si>
+  <si>
+    <t>-83.296</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>22 Feb 2021</t>
+  </si>
+  <si>
+    <t>17:50:29</t>
+  </si>
+  <si>
+    <t>7 km SO de Palmichal de Acosta</t>
+  </si>
+  <si>
+    <t>9.803</t>
+  </si>
+  <si>
+    <t>-84.259</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>21:54:00</t>
+  </si>
+  <si>
+    <t>3.1Ml</t>
+  </si>
+  <si>
+    <t>7 km al sureste de Santiago de Puriscal</t>
+  </si>
+  <si>
+    <t>9.797</t>
+  </si>
+  <si>
+    <t>-84.265</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23 Feb 2021</t>
+  </si>
+  <si>
+    <t>23:41:00</t>
+  </si>
+  <si>
+    <t>27.000</t>
+  </si>
+  <si>
+    <t>10 km al noroeste de Cahuita</t>
+  </si>
+  <si>
+    <t>9.771</t>
+  </si>
+  <si>
+    <t>-82.927</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24 Feb 2021</t>
+  </si>
+  <si>
+    <t>21:41:39</t>
+  </si>
+  <si>
+    <t>23.000</t>
+  </si>
+  <si>
+    <t>16 km SEE de Jacó, Puntarenas</t>
+  </si>
+  <si>
+    <t>9.596</t>
+  </si>
+  <si>
+    <t>-84.775</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>26 Feb 2021</t>
+  </si>
+  <si>
+    <t>17:16:18</t>
+  </si>
+  <si>
+    <t>5.000</t>
+  </si>
+  <si>
+    <t>2 km este de Bajo Badillas de Puriscal</t>
+  </si>
+  <si>
+    <t>9.800</t>
+  </si>
+  <si>
+    <t>-84.260</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>27 Feb 2021</t>
+  </si>
+  <si>
+    <t>10:51:50</t>
+  </si>
+  <si>
+    <t>7 km norte de Buena Vista de Rivas, Peréz Zeledón</t>
+  </si>
+  <si>
+    <t>9.565</t>
+  </si>
+  <si>
+    <t>-83.642</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>18:01:50</t>
+  </si>
+  <si>
+    <t>21.000</t>
+  </si>
+  <si>
+    <t>4.6Ml</t>
+  </si>
+  <si>
+    <t>21 km SSO de Esterillos</t>
+  </si>
+  <si>
+    <t>9.366</t>
+  </si>
+  <si>
+    <t>-84.555</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28 Feb 2021</t>
+  </si>
+  <si>
+    <t>20:06:31</t>
+  </si>
+  <si>
+    <t>3 km SE de Ciudad Colón, San José</t>
+  </si>
+  <si>
+    <t>-84.218</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>1 Mar 2021</t>
+  </si>
+  <si>
+    <t>01:47:00</t>
+  </si>
+  <si>
+    <t>4.000</t>
+  </si>
+  <si>
+    <t>7 km al norte de San Pablo de León Cortés</t>
+  </si>
+  <si>
+    <t>9.745</t>
+  </si>
+  <si>
+    <t>-84.029</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>2 Mar 2021</t>
+  </si>
+  <si>
+    <t>00:24:00</t>
+  </si>
+  <si>
+    <t>48.000</t>
+  </si>
+  <si>
+    <t>2.4Ml</t>
+  </si>
+  <si>
+    <t>20.7 km hacia el suroeste de San Isidro de el General</t>
+  </si>
+  <si>
+    <t>9.316</t>
+  </si>
+  <si>
+    <t>-83.887</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>06:59:00</t>
+  </si>
+  <si>
+    <t>37.000</t>
+  </si>
+  <si>
+    <t>17 km hacia el noroeste de Uvita</t>
+  </si>
+  <si>
+    <t>9.200</t>
+  </si>
+  <si>
+    <t>-83.892</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>01:48:00</t>
+  </si>
+  <si>
+    <t>9.000</t>
+  </si>
+  <si>
+    <t>10 km hacia el noroeste de San Marcos de Tarrazú</t>
+  </si>
+  <si>
+    <t>9.755</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>4 Mar 2021</t>
+  </si>
+  <si>
+    <t>09:03:52</t>
+  </si>
+  <si>
+    <t>9.5 km hacia el noroeste de Río Blanco de Pérez Zeledón</t>
+  </si>
+  <si>
+    <t>9.588</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>5 Mar 2021</t>
+  </si>
+  <si>
+    <t>13:09:00</t>
+  </si>
+  <si>
+    <t>7 km al Sureste de Santiago de Puriscal</t>
+  </si>
+  <si>
+    <t>9.816</t>
+  </si>
+  <si>
+    <t>-84.257</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>8 Mar 2021</t>
+  </si>
+  <si>
+    <t>03:10:00</t>
+  </si>
+  <si>
+    <t>39 km hacia el suroeste de Uvita</t>
+  </si>
+  <si>
+    <t>9.020</t>
+  </si>
+  <si>
+    <t>-84.067</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>9 Mar 2021</t>
+  </si>
+  <si>
+    <t>15:47:00</t>
+  </si>
+  <si>
+    <t>3.2Ml</t>
+  </si>
+  <si>
+    <t>5 km al oeste de Matina</t>
+  </si>
+  <si>
+    <t>10.080</t>
+  </si>
+  <si>
+    <t>-83.328</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>10 Mar 2021</t>
+  </si>
+  <si>
+    <t>11:18:00</t>
+  </si>
+  <si>
+    <t>13.000</t>
+  </si>
+  <si>
+    <t>3.5Ml</t>
+  </si>
+  <si>
+    <t>3 km Nor Oeste de Puerto Jiménez</t>
+  </si>
+  <si>
+    <t>8.556</t>
+  </si>
+  <si>
+    <t>-83.323</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>18 Mar 2021</t>
+  </si>
+  <si>
+    <t>23:36:14</t>
+  </si>
+  <si>
+    <t>1 km sur de Jabilla Abajo, Cañas, Guanacaste</t>
+  </si>
+  <si>
+    <t>10.388</t>
+  </si>
+  <si>
+    <t>-85.032</t>
+  </si>
+  <si>
+    <t>Guanacaste</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>21 Mar 2021</t>
+  </si>
+  <si>
+    <t>01:51:00</t>
+  </si>
+  <si>
+    <t>10.000</t>
+  </si>
+  <si>
+    <t>9.890</t>
+  </si>
+  <si>
+    <t>-84.063</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>23 Mar 2021</t>
+  </si>
+  <si>
+    <t>17:01:00</t>
+  </si>
+  <si>
+    <t>31.000</t>
+  </si>
+  <si>
+    <t>2.7Ml</t>
+  </si>
+  <si>
+    <t>0.5km hacia el noroeste de Desamparados</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>29 Mar 2021</t>
+  </si>
+  <si>
+    <t>14:46:00</t>
+  </si>
+  <si>
+    <t>4.7Ml</t>
+  </si>
+  <si>
+    <t>19 km Sur Oeste de Tamarindo. Guanacaste</t>
+  </si>
+  <si>
+    <t>Intra placa</t>
+  </si>
+  <si>
+    <t>10.143</t>
+  </si>
+  <si>
+    <t>-85.961</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>17:25:00</t>
+  </si>
+  <si>
+    <t>En la entrada al Golfo de Nicoya</t>
+  </si>
+  <si>
+    <t>9.653</t>
+  </si>
+  <si>
+    <t>-84.895</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>30 Mar 2021</t>
+  </si>
+  <si>
+    <t>16:42:00</t>
+  </si>
+  <si>
+    <t>24.000</t>
+  </si>
+  <si>
+    <t>3 km Nor Oeste de Búfalo. Limón</t>
+  </si>
+  <si>
+    <t>Choque de placas</t>
+  </si>
+  <si>
+    <t>10.011</t>
+  </si>
+  <si>
+    <t>-83.202</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>3 Apr 2021</t>
+  </si>
+  <si>
+    <t>13:26:00</t>
+  </si>
+  <si>
+    <t>11 km al Sur de Jacó</t>
+  </si>
+  <si>
+    <t>9.510</t>
+  </si>
+  <si>
+    <t>-84.640</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>4 Apr 2021</t>
+  </si>
+  <si>
+    <t>21:41:00</t>
+  </si>
+  <si>
+    <t>26.000</t>
+  </si>
+  <si>
+    <t>40 km Este de Tortuguero. Limón</t>
+  </si>
+  <si>
+    <t>10.530</t>
+  </si>
+  <si>
+    <t>-83.136</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>6 Apr 2021</t>
+  </si>
+  <si>
+    <t>23:49:00</t>
+  </si>
+  <si>
+    <t>3.000</t>
+  </si>
+  <si>
+    <t>2 km al noreste de La Fortuna de Bagaces</t>
+  </si>
+  <si>
+    <t>10.688</t>
+  </si>
+  <si>
+    <t>-85.188</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>7 Apr 2021</t>
+  </si>
+  <si>
+    <t>11:51:16</t>
+  </si>
+  <si>
     <t>12.000</t>
   </si>
   <si>
-    <t>3.9Ml</t>
-  </si>
-  <si>
-    <t>25 km SO de jacó, Puntarenas</t>
-  </si>
-  <si>
-    <t>9.521</t>
-  </si>
-  <si>
-    <t>-84.836</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>5 Feb 2021</t>
-  </si>
-  <si>
-    <t>23:41:19</t>
-  </si>
-  <si>
-    <t>17.000</t>
-  </si>
-  <si>
-    <t>2.6Ml</t>
-  </si>
-  <si>
-    <t>6.8 km NE de Rivas de Peréz Zeledón</t>
-  </si>
-  <si>
-    <t>9.440</t>
-  </si>
-  <si>
-    <t>-83.603</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>23:43:13</t>
-  </si>
-  <si>
-    <t>14.000</t>
-  </si>
-  <si>
-    <t>11.4 NE de Rivas de Peréz Zeledón</t>
-  </si>
-  <si>
-    <t>9.481</t>
-  </si>
-  <si>
-    <t>-83.577</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>18.000</t>
-  </si>
-  <si>
-    <t>3.3Ml</t>
-  </si>
-  <si>
-    <t>11 km NE de Rivas de Peréz Zeledón</t>
-  </si>
-  <si>
-    <t>9.451</t>
-  </si>
-  <si>
-    <t>-83.566</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>13 Feb 2021</t>
-  </si>
-  <si>
-    <t>15:53:11</t>
-  </si>
-  <si>
-    <t>3.73Ml</t>
-  </si>
-  <si>
-    <t>6.5 km hacia el Sureste de Barranca, Puntarenas.</t>
-  </si>
-  <si>
-    <t>Deformación Interna</t>
-  </si>
-  <si>
-    <t>9.944</t>
-  </si>
-  <si>
-    <t>-84.672</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>15 Feb 2021</t>
-  </si>
-  <si>
-    <t>20:00:27</t>
-  </si>
-  <si>
-    <t>4.88Ml</t>
-  </si>
-  <si>
-    <t>20 km hacia el Noroeste de Golfito</t>
-  </si>
-  <si>
-    <t>8.622</t>
-  </si>
-  <si>
-    <t>-83.286</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>19:31:28</t>
-  </si>
-  <si>
-    <t>20 km hacia el Noroeste de Golfito, Puntarenas.</t>
-  </si>
-  <si>
-    <t>8.626</t>
-  </si>
-  <si>
-    <t>-83.296</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>22 Feb 2021</t>
-  </si>
-  <si>
-    <t>17:50:29</t>
-  </si>
-  <si>
-    <t>7 km SO de Palmichal de Acosta</t>
-  </si>
-  <si>
-    <t>9.803</t>
-  </si>
-  <si>
-    <t>-84.259</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>21:54:00</t>
-  </si>
-  <si>
-    <t>3.1Ml</t>
-  </si>
-  <si>
-    <t>7 km al sureste de Santiago de Puriscal</t>
-  </si>
-  <si>
-    <t>9.797</t>
-  </si>
-  <si>
-    <t>-84.265</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23 Feb 2021</t>
-  </si>
-  <si>
-    <t>23:41:00</t>
-  </si>
-  <si>
-    <t>27.000</t>
-  </si>
-  <si>
-    <t>10 km al noroeste de Cahuita</t>
-  </si>
-  <si>
-    <t>9.771</t>
-  </si>
-  <si>
-    <t>-82.927</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24 Feb 2021</t>
-  </si>
-  <si>
-    <t>21:41:39</t>
-  </si>
-  <si>
-    <t>23.000</t>
-  </si>
-  <si>
-    <t>16 km SEE de Jacó, Puntarenas</t>
-  </si>
-  <si>
-    <t>9.596</t>
-  </si>
-  <si>
-    <t>-84.775</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>26 Feb 2021</t>
-  </si>
-  <si>
-    <t>17:16:18</t>
-  </si>
-  <si>
-    <t>5.000</t>
-  </si>
-  <si>
-    <t>2 km este de Bajo Badillas de Puriscal</t>
-  </si>
-  <si>
-    <t>9.800</t>
-  </si>
-  <si>
-    <t>-84.260</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>27 Feb 2021</t>
-  </si>
-  <si>
-    <t>10:51:50</t>
-  </si>
-  <si>
-    <t>7 km norte de Buena Vista de Rivas, Peréz Zeledón</t>
-  </si>
-  <si>
-    <t>9.565</t>
-  </si>
-  <si>
-    <t>-83.642</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>18:01:50</t>
-  </si>
-  <si>
-    <t>21.000</t>
-  </si>
-  <si>
-    <t>4.6Ml</t>
-  </si>
-  <si>
-    <t>21 km SSO de Esterillos</t>
-  </si>
-  <si>
-    <t>9.366</t>
-  </si>
-  <si>
-    <t>-84.555</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28 Feb 2021</t>
-  </si>
-  <si>
-    <t>20:06:31</t>
-  </si>
-  <si>
-    <t>3 km SE de Ciudad Colón, San José</t>
-  </si>
-  <si>
-    <t>-84.218</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>1 Mar 2021</t>
-  </si>
-  <si>
-    <t>01:47:00</t>
-  </si>
-  <si>
-    <t>4.000</t>
-  </si>
-  <si>
-    <t>7 km al norte de San Pablo de León Cortés</t>
-  </si>
-  <si>
-    <t>9.745</t>
-  </si>
-  <si>
-    <t>-84.029</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>2 Mar 2021</t>
-  </si>
-  <si>
-    <t>00:24:00</t>
-  </si>
-  <si>
-    <t>48.000</t>
-  </si>
-  <si>
-    <t>2.4Ml</t>
-  </si>
-  <si>
-    <t>20.7 km hacia el suroeste de San Isidro de el General</t>
-  </si>
-  <si>
-    <t>9.316</t>
-  </si>
-  <si>
-    <t>-83.887</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>06:59:00</t>
-  </si>
-  <si>
-    <t>37.000</t>
-  </si>
-  <si>
-    <t>17 km hacia el noroeste de Uvita</t>
-  </si>
-  <si>
-    <t>9.200</t>
-  </si>
-  <si>
-    <t>-83.892</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>01:48:00</t>
-  </si>
-  <si>
-    <t>9.000</t>
-  </si>
-  <si>
-    <t>10 km hacia el noroeste de San Marcos de Tarrazú</t>
-  </si>
-  <si>
-    <t>9.755</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>4 Mar 2021</t>
-  </si>
-  <si>
-    <t>09:03:52</t>
-  </si>
-  <si>
-    <t>9.5 km hacia el noroeste de Río Blanco de Pérez Zeledón</t>
-  </si>
-  <si>
-    <t>9.588</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>5 Mar 2021</t>
-  </si>
-  <si>
-    <t>13:09:00</t>
-  </si>
-  <si>
-    <t>7 km al Sureste de Santiago de Puriscal</t>
-  </si>
-  <si>
-    <t>9.816</t>
-  </si>
-  <si>
-    <t>-84.257</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>8 Mar 2021</t>
-  </si>
-  <si>
-    <t>03:10:00</t>
-  </si>
-  <si>
-    <t>39 km hacia el suroeste de Uvita</t>
-  </si>
-  <si>
-    <t>9.020</t>
-  </si>
-  <si>
-    <t>-84.067</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>9 Mar 2021</t>
-  </si>
-  <si>
-    <t>15:47:00</t>
-  </si>
-  <si>
-    <t>3.2Ml</t>
-  </si>
-  <si>
-    <t>5 km al oeste de Matina</t>
-  </si>
-  <si>
-    <t>10.080</t>
-  </si>
-  <si>
-    <t>-83.328</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>10 Mar 2021</t>
-  </si>
-  <si>
-    <t>11:18:00</t>
-  </si>
-  <si>
-    <t>13.000</t>
-  </si>
-  <si>
-    <t>3.5Ml</t>
-  </si>
-  <si>
-    <t>3 km Nor Oeste de Puerto Jiménez</t>
-  </si>
-  <si>
-    <t>8.556</t>
-  </si>
-  <si>
-    <t>-83.323</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>18 Mar 2021</t>
-  </si>
-  <si>
-    <t>23:36:14</t>
-  </si>
-  <si>
-    <t>1 km sur de Jabilla Abajo, Cañas, Guanacaste</t>
-  </si>
-  <si>
-    <t>10.388</t>
-  </si>
-  <si>
-    <t>-85.032</t>
-  </si>
-  <si>
-    <t>Guanacaste</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>21 Mar 2021</t>
-  </si>
-  <si>
-    <t>01:51:00</t>
-  </si>
-  <si>
-    <t>10.000</t>
-  </si>
-  <si>
-    <t>9.890</t>
-  </si>
-  <si>
-    <t>-84.063</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>23 Mar 2021</t>
-  </si>
-  <si>
-    <t>17:01:00</t>
-  </si>
-  <si>
-    <t>31.000</t>
-  </si>
-  <si>
-    <t>2.7Ml</t>
-  </si>
-  <si>
-    <t>0.5km hacia el noroeste de Desamparados</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>29 Mar 2021</t>
-  </si>
-  <si>
-    <t>14:46:00</t>
-  </si>
-  <si>
-    <t>4.7Ml</t>
-  </si>
-  <si>
-    <t>19 km Sur Oeste de Tamarindo. Guanacaste</t>
-  </si>
-  <si>
-    <t>Intra placa</t>
-  </si>
-  <si>
-    <t>10.143</t>
-  </si>
-  <si>
-    <t>-85.961</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>17:25:00</t>
-  </si>
-  <si>
-    <t>En la entrada al Golfo de Nicoya</t>
-  </si>
-  <si>
-    <t>9.653</t>
-  </si>
-  <si>
-    <t>-84.895</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>30 Mar 2021</t>
-  </si>
-  <si>
-    <t>16:42:00</t>
-  </si>
-  <si>
-    <t>24.000</t>
-  </si>
-  <si>
-    <t>3 km Nor Oeste de Búfalo. Limón</t>
-  </si>
-  <si>
-    <t>Choque de placas</t>
-  </si>
-  <si>
-    <t>10.011</t>
-  </si>
-  <si>
-    <t>-83.202</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>3 Apr 2021</t>
-  </si>
-  <si>
-    <t>13:26:00</t>
-  </si>
-  <si>
-    <t>11 km al Sur de Jacó</t>
-  </si>
-  <si>
-    <t>9.510</t>
-  </si>
-  <si>
-    <t>-84.640</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>4 Apr 2021</t>
-  </si>
-  <si>
-    <t>21:41:00</t>
-  </si>
-  <si>
-    <t>26.000</t>
-  </si>
-  <si>
-    <t>40 km Este de Tortuguero. Limón</t>
-  </si>
-  <si>
-    <t>10.530</t>
-  </si>
-  <si>
-    <t>-83.136</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>6 Apr 2021</t>
-  </si>
-  <si>
-    <t>23:49:00</t>
-  </si>
-  <si>
-    <t>3.000</t>
-  </si>
-  <si>
-    <t>2 km al noreste de La Fortuna de Bagaces</t>
-  </si>
-  <si>
-    <t>10.688</t>
-  </si>
-  <si>
-    <t>-85.188</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>7 Apr 2021</t>
-  </si>
-  <si>
-    <t>11:51:16</t>
-  </si>
-  <si>
     <t>4.4Ml</t>
   </si>
   <si>
@@ -1154,1168 +1157,1165 @@
     <t>-83.345</t>
   </si>
   <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>4 May 2021</t>
+  </si>
+  <si>
+    <t>14:25:00</t>
+  </si>
+  <si>
+    <t>5km hacia el noroeste de San Gabriel de Aserrí</t>
+  </si>
+  <si>
+    <t>9.798</t>
+  </si>
+  <si>
+    <t>-84.156</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>9 May 2021</t>
+  </si>
+  <si>
+    <t>16:09:00</t>
+  </si>
+  <si>
+    <t>2.8Ml</t>
+  </si>
+  <si>
+    <t>2.2km hacia el suroeste de Tierras Morenas de Vázquez de Coronado</t>
+  </si>
+  <si>
+    <t>10.045</t>
+  </si>
+  <si>
+    <t>-83.934</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>16:29:05</t>
+  </si>
+  <si>
+    <t>2.9Ml</t>
+  </si>
+  <si>
+    <t>3.13 km hacia el suroeste de Tierras Morenas de Vázques de Coronado, San José</t>
+  </si>
+  <si>
+    <t>10.033</t>
+  </si>
+  <si>
+    <t>-83.931</t>
+  </si>
+  <si>
     <t>58</t>
   </si>
   <si>
-    <t>4 May 2021</t>
-  </si>
-  <si>
-    <t>14:25:00</t>
-  </si>
-  <si>
-    <t>5km hacia el noroeste de San Gabriel de Aserrí</t>
-  </si>
-  <si>
-    <t>9.798</t>
-  </si>
-  <si>
-    <t>-84.156</t>
+    <t>10 May 2021</t>
+  </si>
+  <si>
+    <t>20:34:00</t>
+  </si>
+  <si>
+    <t>14 km al Noreste de San Isidro de Coronado.</t>
+  </si>
+  <si>
+    <t>10.057</t>
+  </si>
+  <si>
+    <t>-83.932</t>
   </si>
   <si>
     <t>59</t>
   </si>
   <si>
-    <t>9 May 2021</t>
-  </si>
-  <si>
-    <t>16:09:00</t>
-  </si>
-  <si>
-    <t>2.8Ml</t>
-  </si>
-  <si>
-    <t>2.2km hacia el suroeste de Tierras Morenas de Vázquez de Coronado</t>
-  </si>
-  <si>
-    <t>10.045</t>
-  </si>
-  <si>
-    <t>-83.934</t>
+    <t>11 May 2021</t>
+  </si>
+  <si>
+    <t>02:15:00</t>
+  </si>
+  <si>
+    <t>3.6Ml</t>
+  </si>
+  <si>
+    <t>3 Km Sur Oeste del Parque Nacional V. Turrialba</t>
+  </si>
+  <si>
+    <t>9.998</t>
+  </si>
+  <si>
+    <t>-83.788</t>
   </si>
   <si>
     <t>60</t>
   </si>
   <si>
-    <t>16:29:05</t>
-  </si>
-  <si>
-    <t>2.9Ml</t>
-  </si>
-  <si>
-    <t>3.13 km hacia el suroeste de Tierras Morenas de Vázques de Coronado, San José</t>
-  </si>
-  <si>
-    <t>10.033</t>
-  </si>
-  <si>
-    <t>-83.931</t>
+    <t>14 May 2021</t>
+  </si>
+  <si>
+    <t>09:33:00</t>
+  </si>
+  <si>
+    <t>45.000</t>
+  </si>
+  <si>
+    <t>4.9Ml</t>
+  </si>
+  <si>
+    <t>20 Km Sur Este de Manuel Antonio</t>
+  </si>
+  <si>
+    <t>9.326</t>
+  </si>
+  <si>
+    <t>-83.976</t>
   </si>
   <si>
     <t>61</t>
   </si>
   <si>
-    <t>10 May 2021</t>
-  </si>
-  <si>
-    <t>20:34:00</t>
-  </si>
-  <si>
-    <t>14 km al Noreste de San Isidro de Coronado.</t>
-  </si>
-  <si>
-    <t>10.057</t>
-  </si>
-  <si>
-    <t>-83.932</t>
+    <t>17 May 2021</t>
+  </si>
+  <si>
+    <t>15:02:00</t>
+  </si>
+  <si>
+    <t>4.5Ml</t>
+  </si>
+  <si>
+    <t>12.6 km NE de San Vito de Coto Brus</t>
+  </si>
+  <si>
+    <t>8.916</t>
+  </si>
+  <si>
+    <t>-82.907</t>
   </si>
   <si>
     <t>62</t>
   </si>
   <si>
-    <t>11 May 2021</t>
-  </si>
-  <si>
-    <t>02:15:00</t>
-  </si>
-  <si>
-    <t>3.6Ml</t>
-  </si>
-  <si>
-    <t>3 Km Sur Oeste del Parque Nacional V. Turrialba</t>
-  </si>
-  <si>
-    <t>9.998</t>
-  </si>
-  <si>
-    <t>-83.788</t>
+    <t>22 May 2021</t>
+  </si>
+  <si>
+    <t>20:59:00</t>
+  </si>
+  <si>
+    <t>44.000</t>
+  </si>
+  <si>
+    <t>11 km al noroeste de Quepos</t>
+  </si>
+  <si>
+    <t>9.523</t>
+  </si>
+  <si>
+    <t>-84.199</t>
   </si>
   <si>
     <t>63</t>
   </si>
   <si>
-    <t>14 May 2021</t>
-  </si>
-  <si>
-    <t>09:33:00</t>
-  </si>
-  <si>
-    <t>45.000</t>
-  </si>
-  <si>
-    <t>4.9Ml</t>
-  </si>
-  <si>
-    <t>20 Km Sur Este de Manuel Antonio</t>
-  </si>
-  <si>
-    <t>9.326</t>
-  </si>
-  <si>
-    <t>-83.976</t>
+    <t>24 May 2021</t>
+  </si>
+  <si>
+    <t>22:03:00</t>
+  </si>
+  <si>
+    <t>32.000</t>
+  </si>
+  <si>
+    <t>60 km al Norte de Limón</t>
+  </si>
+  <si>
+    <t>10.535</t>
+  </si>
+  <si>
+    <t>-83.068</t>
   </si>
   <si>
     <t>64</t>
   </si>
   <si>
-    <t>17 May 2021</t>
-  </si>
-  <si>
-    <t>15:02:00</t>
-  </si>
-  <si>
-    <t>4.5Ml</t>
-  </si>
-  <si>
-    <t>12.6 km NE de San Vito de Coto Brus</t>
-  </si>
-  <si>
-    <t>8.916</t>
-  </si>
-  <si>
-    <t>-82.907</t>
+    <t>26 May 2021</t>
+  </si>
+  <si>
+    <t>13:55:00</t>
+  </si>
+  <si>
+    <t>4.4 km hacia el noreste de la Suiza de Turrialba</t>
+  </si>
+  <si>
+    <t>9.880</t>
+  </si>
+  <si>
+    <t>-83.584</t>
   </si>
   <si>
     <t>65</t>
   </si>
   <si>
-    <t>22 May 2021</t>
-  </si>
-  <si>
-    <t>20:59:00</t>
-  </si>
-  <si>
-    <t>44.000</t>
-  </si>
-  <si>
-    <t>11 km al noroeste de Quepos</t>
-  </si>
-  <si>
-    <t>9.523</t>
-  </si>
-  <si>
-    <t>-84.199</t>
+    <t>1 Jun 2021</t>
+  </si>
+  <si>
+    <t>23:56:00</t>
+  </si>
+  <si>
+    <t>2 km sur de Cachí. Paraíso de Cartago</t>
+  </si>
+  <si>
+    <t>-83.801</t>
   </si>
   <si>
     <t>66</t>
   </si>
   <si>
-    <t>24 May 2021</t>
-  </si>
-  <si>
-    <t>22:03:00</t>
-  </si>
-  <si>
-    <t>32.000</t>
-  </si>
-  <si>
-    <t>60 km al Norte de Limón</t>
-  </si>
-  <si>
-    <t>10.535</t>
-  </si>
-  <si>
-    <t>-83.068</t>
+    <t>3 Jun 2021</t>
+  </si>
+  <si>
+    <t>23:09:00</t>
+  </si>
+  <si>
+    <t>2.3Ml</t>
+  </si>
+  <si>
+    <t>4 km Este de Paraíso de Cartago.</t>
+  </si>
+  <si>
+    <t>9.830</t>
+  </si>
+  <si>
+    <t>-83.834</t>
   </si>
   <si>
     <t>67</t>
   </si>
   <si>
-    <t>26 May 2021</t>
-  </si>
-  <si>
-    <t>13:55:00</t>
-  </si>
-  <si>
-    <t>4.4 km hacia el noreste de la Suiza de Turrialba</t>
-  </si>
-  <si>
-    <t>9.880</t>
-  </si>
-  <si>
-    <t>-83.584</t>
+    <t>6 Jun 2021</t>
+  </si>
+  <si>
+    <t>20:27:00</t>
+  </si>
+  <si>
+    <t>10 km Este de Santa Cruz. Guanacaste</t>
+  </si>
+  <si>
+    <t>10.267</t>
+  </si>
+  <si>
+    <t>-85.484</t>
   </si>
   <si>
     <t>68</t>
   </si>
   <si>
-    <t>1 Jun 2021</t>
-  </si>
-  <si>
-    <t>23:56:00</t>
-  </si>
-  <si>
-    <t>2 km sur de Cachí. Paraíso de Cartago</t>
-  </si>
-  <si>
-    <t>-83.801</t>
+    <t>7 Jun 2021</t>
+  </si>
+  <si>
+    <t>23:15:00</t>
+  </si>
+  <si>
+    <t>60 km al norte de Puerto Limón</t>
+  </si>
+  <si>
+    <t>10.550</t>
+  </si>
+  <si>
+    <t>-83.066</t>
   </si>
   <si>
     <t>69</t>
   </si>
   <si>
-    <t>3 Jun 2021</t>
-  </si>
-  <si>
-    <t>23:09:00</t>
-  </si>
-  <si>
-    <t>2.3Ml</t>
-  </si>
-  <si>
-    <t>4 km Este de Paraíso de Cartago.</t>
-  </si>
-  <si>
-    <t>9.830</t>
-  </si>
-  <si>
-    <t>-83.834</t>
+    <t>10 Jun 2021</t>
+  </si>
+  <si>
+    <t>17:26:00</t>
+  </si>
+  <si>
+    <t>29.000</t>
+  </si>
+  <si>
+    <t>5.9Ml</t>
+  </si>
+  <si>
+    <t>94 km al suroeste de Cabo Blanco, Puntarenas</t>
+  </si>
+  <si>
+    <t>8.778</t>
+  </si>
+  <si>
+    <t>-85.511</t>
   </si>
   <si>
     <t>70</t>
   </si>
   <si>
-    <t>6 Jun 2021</t>
-  </si>
-  <si>
-    <t>20:27:00</t>
-  </si>
-  <si>
-    <t>10 km Este de Santa Cruz. Guanacaste</t>
-  </si>
-  <si>
-    <t>10.267</t>
-  </si>
-  <si>
-    <t>-85.484</t>
+    <t>11 Jun 2021</t>
+  </si>
+  <si>
+    <t>19:55:59</t>
+  </si>
+  <si>
+    <t>6 km sur de Playa Hermosa, Garabito</t>
+  </si>
+  <si>
+    <t>-84.597</t>
   </si>
   <si>
     <t>71</t>
   </si>
   <si>
-    <t>7 Jun 2021</t>
-  </si>
-  <si>
-    <t>23:15:00</t>
-  </si>
-  <si>
-    <t>60 km al norte de Puerto Limón</t>
-  </si>
-  <si>
-    <t>10.550</t>
-  </si>
-  <si>
-    <t>-83.066</t>
+    <t>15 Jun 2021</t>
+  </si>
+  <si>
+    <t>04:52:00</t>
+  </si>
+  <si>
+    <t>1.0M</t>
+  </si>
+  <si>
+    <t>1 km al sur de la Fortuna de Bagaces</t>
+  </si>
+  <si>
+    <t>10.666</t>
+  </si>
+  <si>
+    <t>-85.205</t>
   </si>
   <si>
     <t>72</t>
   </si>
   <si>
-    <t>10 Jun 2021</t>
-  </si>
-  <si>
-    <t>17:26:00</t>
-  </si>
-  <si>
-    <t>29.000</t>
-  </si>
-  <si>
-    <t>5.9Ml</t>
-  </si>
-  <si>
-    <t>94 km al suroeste de Cabo Blanco, Puntarenas</t>
-  </si>
-  <si>
-    <t>8.778</t>
-  </si>
-  <si>
-    <t>-85.511</t>
+    <t>23:18:00</t>
+  </si>
+  <si>
+    <t>1 km Sur Este de La Fortuna de Bagaces</t>
+  </si>
+  <si>
+    <t>-85.200</t>
   </si>
   <si>
     <t>73</t>
   </si>
   <si>
-    <t>11 Jun 2021</t>
-  </si>
-  <si>
-    <t>19:55:59</t>
-  </si>
-  <si>
-    <t>6 km sur de Playa Hermosa, Garabito</t>
-  </si>
-  <si>
-    <t>-84.597</t>
+    <t>19 Jun 2021</t>
+  </si>
+  <si>
+    <t>11:06:00</t>
+  </si>
+  <si>
+    <t>3 km hacia el Sureste de San Isidro de Cartago</t>
+  </si>
+  <si>
+    <t>9.811</t>
+  </si>
+  <si>
+    <t>-83.935</t>
   </si>
   <si>
     <t>74</t>
   </si>
   <si>
-    <t>15 Jun 2021</t>
-  </si>
-  <si>
-    <t>04:52:00</t>
-  </si>
-  <si>
-    <t>1.0M</t>
-  </si>
-  <si>
-    <t>1 km al sur de la Fortuna de Bagaces</t>
-  </si>
-  <si>
-    <t>10.666</t>
-  </si>
-  <si>
-    <t>-85.205</t>
+    <t>23 Jun 2021</t>
+  </si>
+  <si>
+    <t>23:51:00</t>
+  </si>
+  <si>
+    <t>3 km al Sur de Tejar de El Guarco, Cartago.</t>
+  </si>
+  <si>
+    <t>9.822</t>
   </si>
   <si>
     <t>75</t>
   </si>
   <si>
-    <t>23:18:00</t>
-  </si>
-  <si>
-    <t>1 km Sur Este de La Fortuna de Bagaces</t>
-  </si>
-  <si>
-    <t>-85.200</t>
+    <t>24 Jun 2021</t>
+  </si>
+  <si>
+    <t>04:31:00</t>
+  </si>
+  <si>
+    <t>75.000</t>
+  </si>
+  <si>
+    <t>3 km Norte de Zapotal de Miramar. Puntarenas</t>
+  </si>
+  <si>
+    <t>10.187</t>
+  </si>
+  <si>
+    <t>-84.650</t>
   </si>
   <si>
     <t>76</t>
   </si>
   <si>
-    <t>19 Jun 2021</t>
-  </si>
-  <si>
-    <t>11:06:00</t>
-  </si>
-  <si>
-    <t>3 km hacia el Sureste de San Isidro de Cartago</t>
-  </si>
-  <si>
-    <t>9.811</t>
-  </si>
-  <si>
-    <t>-83.935</t>
+    <t>3 Jul 2021</t>
+  </si>
+  <si>
+    <t>22:30:00</t>
+  </si>
+  <si>
+    <t>Esparza</t>
+  </si>
+  <si>
+    <t>9.994</t>
+  </si>
+  <si>
+    <t>-84.645</t>
   </si>
   <si>
     <t>77</t>
   </si>
   <si>
-    <t>23 Jun 2021</t>
-  </si>
-  <si>
-    <t>23:51:00</t>
-  </si>
-  <si>
-    <t>3 km al Sur de Tejar de El Guarco, Cartago.</t>
-  </si>
-  <si>
-    <t>9.822</t>
+    <t>4 Jul 2021</t>
+  </si>
+  <si>
+    <t>00:40:00</t>
+  </si>
+  <si>
+    <t>3 km al este de Esparza</t>
+  </si>
+  <si>
+    <t>9.992</t>
+  </si>
+  <si>
+    <t>-84.637</t>
   </si>
   <si>
     <t>78</t>
   </si>
   <si>
-    <t>24 Jun 2021</t>
-  </si>
-  <si>
-    <t>04:31:00</t>
-  </si>
-  <si>
-    <t>75.000</t>
-  </si>
-  <si>
-    <t>3 km Norte de Zapotal de Miramar. Puntarenas</t>
-  </si>
-  <si>
-    <t>10.187</t>
-  </si>
-  <si>
-    <t>-84.650</t>
+    <t>5 Jul 2021</t>
+  </si>
+  <si>
+    <t>23:50:00</t>
+  </si>
+  <si>
+    <t>4 km hacia el suroeste de Tejar del Guarco.</t>
+  </si>
+  <si>
+    <t>9.814</t>
+  </si>
+  <si>
+    <t>-83.939</t>
   </si>
   <si>
     <t>79</t>
   </si>
   <si>
-    <t>3 Jul 2021</t>
-  </si>
-  <si>
-    <t>22:30:00</t>
-  </si>
-  <si>
-    <t>Esparza</t>
-  </si>
-  <si>
-    <t>9.994</t>
-  </si>
-  <si>
-    <t>-84.645</t>
+    <t>6 Jul 2021</t>
+  </si>
+  <si>
+    <t>13:20:00</t>
+  </si>
+  <si>
+    <t>4.6 km hacia el suroeste de Tejar del Guarco</t>
+  </si>
+  <si>
+    <t>9.808</t>
+  </si>
+  <si>
+    <t>-83.943</t>
   </si>
   <si>
     <t>80</t>
   </si>
   <si>
-    <t>4 Jul 2021</t>
-  </si>
-  <si>
-    <t>00:40:00</t>
-  </si>
-  <si>
-    <t>3 km al este de Esparza</t>
-  </si>
-  <si>
-    <t>9.992</t>
-  </si>
-  <si>
-    <t>-84.637</t>
+    <t>13:29:00</t>
+  </si>
+  <si>
+    <t>2km hacia el suroeste de Tejar del Guarco</t>
+  </si>
+  <si>
+    <t>9.840</t>
+  </si>
+  <si>
+    <t>-83.946</t>
   </si>
   <si>
     <t>81</t>
   </si>
   <si>
-    <t>5 Jul 2021</t>
-  </si>
-  <si>
-    <t>23:50:00</t>
-  </si>
-  <si>
-    <t>4 km hacia el suroeste de Tejar del Guarco.</t>
-  </si>
-  <si>
-    <t>9.814</t>
-  </si>
-  <si>
-    <t>-83.939</t>
+    <t>8 Jul 2021</t>
+  </si>
+  <si>
+    <t>23:07:00</t>
+  </si>
+  <si>
+    <t>16.000</t>
+  </si>
+  <si>
+    <t>26km hacia el suroeste de San Isidro de El General</t>
+  </si>
+  <si>
+    <t>-83.874</t>
   </si>
   <si>
     <t>82</t>
   </si>
   <si>
-    <t>6 Jul 2021</t>
-  </si>
-  <si>
-    <t>13:20:00</t>
-  </si>
-  <si>
-    <t>4.6 km hacia el suroeste de Tejar del Guarco</t>
-  </si>
-  <si>
-    <t>9.808</t>
-  </si>
-  <si>
-    <t>-83.943</t>
+    <t>10 Jul 2021</t>
+  </si>
+  <si>
+    <t>14:53:00</t>
+  </si>
+  <si>
+    <t>15.000</t>
+  </si>
+  <si>
+    <t>11km hacia el sureste de Montezuma</t>
+  </si>
+  <si>
+    <t>-85.008</t>
   </si>
   <si>
     <t>83</t>
   </si>
   <si>
-    <t>13:29:00</t>
-  </si>
-  <si>
-    <t>2km hacia el suroeste de Tejar del Guarco</t>
-  </si>
-  <si>
-    <t>9.840</t>
-  </si>
-  <si>
-    <t>-83.946</t>
+    <t>13 Jul 2021</t>
+  </si>
+  <si>
+    <t>00:05:00</t>
+  </si>
+  <si>
+    <t>5 km Sur Este de la Suiza de Turrialba</t>
+  </si>
+  <si>
+    <t>9.828</t>
+  </si>
+  <si>
+    <t>-83.529</t>
   </si>
   <si>
     <t>84</t>
   </si>
   <si>
-    <t>8 Jul 2021</t>
-  </si>
-  <si>
-    <t>23:07:00</t>
-  </si>
-  <si>
-    <t>16.000</t>
-  </si>
-  <si>
-    <t>26km hacia el suroeste de San Isidro de El General</t>
-  </si>
-  <si>
-    <t>-83.874</t>
+    <t>01:06:00</t>
+  </si>
+  <si>
+    <t>11 km Nor Este de Rivas de Pérez Zeledón</t>
+  </si>
+  <si>
+    <t>9.390</t>
+  </si>
+  <si>
+    <t>-83.601</t>
   </si>
   <si>
     <t>85</t>
   </si>
   <si>
-    <t>10 Jul 2021</t>
-  </si>
-  <si>
-    <t>14:53:00</t>
-  </si>
-  <si>
-    <t>15.000</t>
-  </si>
-  <si>
-    <t>11km hacia el sureste de Montezuma</t>
-  </si>
-  <si>
-    <t>-85.008</t>
+    <t>14 Jul 2021</t>
+  </si>
+  <si>
+    <t>21:09:00</t>
+  </si>
+  <si>
+    <t>28.000</t>
+  </si>
+  <si>
+    <t>10 km al Sur de Santa María de Dota</t>
+  </si>
+  <si>
+    <t>9.558</t>
+  </si>
+  <si>
+    <t>-83.979</t>
   </si>
   <si>
     <t>86</t>
   </si>
   <si>
-    <t>13 Jul 2021</t>
-  </si>
-  <si>
-    <t>00:05:00</t>
-  </si>
-  <si>
-    <t>5 km Sur Este de la Suiza de Turrialba</t>
-  </si>
-  <si>
-    <t>9.828</t>
-  </si>
-  <si>
-    <t>-83.529</t>
+    <t>15 Jul 2021</t>
+  </si>
+  <si>
+    <t>03:16:00</t>
+  </si>
+  <si>
+    <t>8 km Nor Este de San Vito de Coto Brus</t>
+  </si>
+  <si>
+    <t>8.848</t>
+  </si>
+  <si>
+    <t>-82.896</t>
   </si>
   <si>
     <t>87</t>
   </si>
   <si>
-    <t>01:06:00</t>
-  </si>
-  <si>
-    <t>11 km Nor Este de Rivas de Pérez Zeledón</t>
-  </si>
-  <si>
-    <t>9.390</t>
-  </si>
-  <si>
-    <t>-83.601</t>
+    <t>16 Jul 2021</t>
+  </si>
+  <si>
+    <t>21:10:00</t>
+  </si>
+  <si>
+    <t>33.000</t>
+  </si>
+  <si>
+    <t>13 km al SE de Santa María de Dota</t>
+  </si>
+  <si>
+    <t>9.546</t>
+  </si>
+  <si>
+    <t>-83.916</t>
   </si>
   <si>
     <t>88</t>
   </si>
   <si>
-    <t>14 Jul 2021</t>
-  </si>
-  <si>
-    <t>21:09:00</t>
-  </si>
-  <si>
-    <t>28.000</t>
-  </si>
-  <si>
-    <t>10 km al Sur de Santa María de Dota</t>
-  </si>
-  <si>
-    <t>9.558</t>
-  </si>
-  <si>
-    <t>-83.979</t>
+    <t>19 Jul 2021</t>
+  </si>
+  <si>
+    <t>11:24:00</t>
+  </si>
+  <si>
+    <t>43.000</t>
+  </si>
+  <si>
+    <t>6 km al noreste de Quepos</t>
+  </si>
+  <si>
+    <t>9.460</t>
+  </si>
+  <si>
+    <t>-84.114</t>
   </si>
   <si>
     <t>89</t>
   </si>
   <si>
-    <t>15 Jul 2021</t>
-  </si>
-  <si>
-    <t>03:16:00</t>
-  </si>
-  <si>
-    <t>8 km Nor Este de San Vito de Coto Brus</t>
-  </si>
-  <si>
-    <t>8.848</t>
-  </si>
-  <si>
-    <t>-82.896</t>
+    <t>11:27:00</t>
+  </si>
+  <si>
+    <t>9.465</t>
+  </si>
+  <si>
+    <t>-84.094</t>
   </si>
   <si>
     <t>90</t>
   </si>
   <si>
-    <t>16 Jul 2021</t>
-  </si>
-  <si>
-    <t>21:10:00</t>
-  </si>
-  <si>
-    <t>33.000</t>
-  </si>
-  <si>
-    <t>13 km al SE de Santa María de Dota</t>
-  </si>
-  <si>
-    <t>9.546</t>
-  </si>
-  <si>
-    <t>-83.916</t>
+    <t>20 Jul 2021</t>
+  </si>
+  <si>
+    <t>17:57:00</t>
+  </si>
+  <si>
+    <t>5 km al sureste de Desamparados</t>
+  </si>
+  <si>
+    <t>9.854</t>
+  </si>
+  <si>
+    <t>-84.053</t>
   </si>
   <si>
     <t>91</t>
   </si>
   <si>
-    <t>19 Jul 2021</t>
-  </si>
-  <si>
-    <t>11:24:00</t>
-  </si>
-  <si>
-    <t>43.000</t>
-  </si>
-  <si>
-    <t>6 km al noreste de Quepos</t>
-  </si>
-  <si>
-    <t>9.460</t>
-  </si>
-  <si>
-    <t>-84.114</t>
+    <t>21 Jul 2021</t>
+  </si>
+  <si>
+    <t>04:56:00</t>
+  </si>
+  <si>
+    <t>12 km al norte de Quepos</t>
+  </si>
+  <si>
+    <t>9.537</t>
+  </si>
+  <si>
+    <t>-84.128</t>
   </si>
   <si>
     <t>92</t>
   </si>
   <si>
-    <t>11:27:00</t>
-  </si>
-  <si>
-    <t>9.465</t>
-  </si>
-  <si>
-    <t>-84.094</t>
+    <t>04:37:00</t>
+  </si>
+  <si>
+    <t>8 km al suroeste de Santa María de Dota</t>
+  </si>
+  <si>
+    <t>9.580</t>
+  </si>
+  <si>
+    <t>-83.988</t>
   </si>
   <si>
     <t>93</t>
   </si>
   <si>
-    <t>20 Jul 2021</t>
-  </si>
-  <si>
-    <t>17:57:00</t>
-  </si>
-  <si>
-    <t>5 km al sureste de Desamparados</t>
-  </si>
-  <si>
-    <t>9.854</t>
-  </si>
-  <si>
-    <t>-84.053</t>
+    <t>04:18:00</t>
+  </si>
+  <si>
+    <t>9.850</t>
+  </si>
+  <si>
+    <t>-84.046</t>
   </si>
   <si>
     <t>94</t>
   </si>
   <si>
-    <t>21 Jul 2021</t>
-  </si>
-  <si>
-    <t>04:56:00</t>
-  </si>
-  <si>
-    <t>12 km al norte de Quepos</t>
-  </si>
-  <si>
-    <t>9.537</t>
-  </si>
-  <si>
-    <t>-84.128</t>
+    <t>30 Jul 2021</t>
+  </si>
+  <si>
+    <t>00:00:00</t>
+  </si>
+  <si>
+    <t>5.7 km hacia el Sureste de Desamparados de San Jose</t>
+  </si>
+  <si>
+    <t>9.861</t>
+  </si>
+  <si>
+    <t>-84.026</t>
   </si>
   <si>
     <t>95</t>
   </si>
   <si>
-    <t>04:37:00</t>
-  </si>
-  <si>
-    <t>8 km al suroeste de Santa María de Dota</t>
-  </si>
-  <si>
-    <t>9.580</t>
-  </si>
-  <si>
-    <t>-83.988</t>
+    <t>1 Aug 2021</t>
+  </si>
+  <si>
+    <t>17:39:00</t>
+  </si>
+  <si>
+    <t>21km hacia el suroeste de San Ignacio de Acosta</t>
+  </si>
+  <si>
+    <t>9.615</t>
+  </si>
+  <si>
+    <t>-84.225</t>
   </si>
   <si>
     <t>96</t>
   </si>
   <si>
-    <t>04:18:00</t>
-  </si>
-  <si>
-    <t>9.850</t>
-  </si>
-  <si>
-    <t>-84.046</t>
+    <t>10 Aug 2021</t>
+  </si>
+  <si>
+    <t>08:27:00</t>
+  </si>
+  <si>
+    <t>15 km al sur de Cartago</t>
+  </si>
+  <si>
+    <t>9.720</t>
+  </si>
+  <si>
+    <t>-83.902</t>
   </si>
   <si>
     <t>97</t>
   </si>
   <si>
-    <t>30 Jul 2021</t>
-  </si>
-  <si>
-    <t>00:00:00</t>
-  </si>
-  <si>
-    <t>5.7 km hacia el Sureste de Desamparados de San Jose</t>
-  </si>
-  <si>
-    <t>9.861</t>
-  </si>
-  <si>
-    <t>-84.026</t>
+    <t>19:03:17</t>
+  </si>
+  <si>
+    <t>6 km NNE de Copey de Dota</t>
+  </si>
+  <si>
+    <t>9.703</t>
   </si>
   <si>
     <t>98</t>
   </si>
   <si>
-    <t>1 Aug 2021</t>
-  </si>
-  <si>
-    <t>17:39:00</t>
-  </si>
-  <si>
-    <t>21km hacia el suroeste de San Ignacio de Acosta</t>
-  </si>
-  <si>
-    <t>9.615</t>
-  </si>
-  <si>
-    <t>-84.225</t>
+    <t>12 Aug 2021</t>
+  </si>
+  <si>
+    <t>05:48:00</t>
+  </si>
+  <si>
+    <t>36.000</t>
+  </si>
+  <si>
+    <t>38 km al oeste de Tamarindo</t>
+  </si>
+  <si>
+    <t>10.275</t>
+  </si>
+  <si>
+    <t>-86.183</t>
   </si>
   <si>
     <t>99</t>
   </si>
   <si>
-    <t>10 Aug 2021</t>
-  </si>
-  <si>
-    <t>08:27:00</t>
-  </si>
-  <si>
-    <t>15 km al sur de Cartago</t>
-  </si>
-  <si>
-    <t>9.720</t>
-  </si>
-  <si>
-    <t>-83.902</t>
+    <t>21:08:09</t>
+  </si>
+  <si>
+    <t>37 km Oeste de Tamarindo, Santa Cruz, Guanacaste</t>
+  </si>
+  <si>
+    <t>10.309</t>
+  </si>
+  <si>
+    <t>-86.174</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>19:03:17</t>
-  </si>
-  <si>
-    <t>6 km NNE de Copey de Dota</t>
-  </si>
-  <si>
-    <t>9.703</t>
+    <t>15 Aug 2021</t>
+  </si>
+  <si>
+    <t>20:39:13</t>
+  </si>
+  <si>
+    <t>30.000</t>
+  </si>
+  <si>
+    <t>83 km al sur de Punta Burica, Puntarenas</t>
+  </si>
+  <si>
+    <t>7.267</t>
+  </si>
+  <si>
+    <t>-82.917</t>
   </si>
   <si>
     <t>101</t>
   </si>
   <si>
-    <t>12 Aug 2021</t>
-  </si>
-  <si>
-    <t>05:48:00</t>
-  </si>
-  <si>
-    <t>36.000</t>
-  </si>
-  <si>
-    <t>38 km al oeste de Tamarindo</t>
-  </si>
-  <si>
-    <t>10.275</t>
-  </si>
-  <si>
-    <t>-86.183</t>
+    <t>16 Aug 2021</t>
+  </si>
+  <si>
+    <t>04:06:00</t>
+  </si>
+  <si>
+    <t>7 km Este de Ciudad Neilly</t>
+  </si>
+  <si>
+    <t>8.651</t>
+  </si>
+  <si>
+    <t>-82.879</t>
   </si>
   <si>
     <t>102</t>
   </si>
   <si>
-    <t>21:08:09</t>
-  </si>
-  <si>
-    <t>37 km Oeste de Tamarindo, Santa Cruz, Guanacaste</t>
-  </si>
-  <si>
-    <t>10.309</t>
-  </si>
-  <si>
-    <t>-86.174</t>
+    <t>19 Aug 2021</t>
+  </si>
+  <si>
+    <t>01:50:00</t>
+  </si>
+  <si>
+    <t>9 Km Sur Oeste de El Guarco. Cartago</t>
+  </si>
+  <si>
+    <t>9.780</t>
+  </si>
+  <si>
+    <t>-83.978</t>
   </si>
   <si>
     <t>103</t>
   </si>
   <si>
-    <t>15 Aug 2021</t>
-  </si>
-  <si>
-    <t>20:39:13</t>
-  </si>
-  <si>
-    <t>30.000</t>
-  </si>
-  <si>
-    <t>83 km al sur de Punta Burica, Puntarenas</t>
-  </si>
-  <si>
-    <t>7.267</t>
-  </si>
-  <si>
-    <t>-82.917</t>
+    <t>11:43:00</t>
+  </si>
+  <si>
+    <t>6 km Nor Noroeste de El Guarco. Cartago</t>
+  </si>
+  <si>
+    <t>9.788</t>
+  </si>
+  <si>
+    <t>-83.949</t>
   </si>
   <si>
     <t>104</t>
   </si>
   <si>
-    <t>16 Aug 2021</t>
-  </si>
-  <si>
-    <t>04:06:00</t>
-  </si>
-  <si>
-    <t>7 km Este de Ciudad Neilly</t>
-  </si>
-  <si>
-    <t>8.651</t>
-  </si>
-  <si>
-    <t>-82.879</t>
+    <t>26 Aug 2021</t>
+  </si>
+  <si>
+    <t>7.5 km al Sureste de San Gerardo de Dota</t>
+  </si>
+  <si>
+    <t>-83.773</t>
   </si>
   <si>
     <t>105</t>
   </si>
   <si>
-    <t>19 Aug 2021</t>
-  </si>
-  <si>
-    <t>01:50:00</t>
-  </si>
-  <si>
-    <t>9 Km Sur Oeste de El Guarco. Cartago</t>
-  </si>
-  <si>
-    <t>9.780</t>
-  </si>
-  <si>
-    <t>-83.978</t>
+    <t>27 Aug 2021</t>
+  </si>
+  <si>
+    <t>07:22:00</t>
+  </si>
+  <si>
+    <t>2.66Ml</t>
+  </si>
+  <si>
+    <t>1.5 km Este de Bajo Los Arias de Acosta.</t>
+  </si>
+  <si>
+    <t>9.785</t>
+  </si>
+  <si>
+    <t>-84.181</t>
+  </si>
+  <si>
+    <t>Alajuela</t>
   </si>
   <si>
     <t>106</t>
   </si>
   <si>
-    <t>11:43:00</t>
-  </si>
-  <si>
-    <t>6 km Nor Noroeste de El Guarco. Cartago</t>
-  </si>
-  <si>
-    <t>9.788</t>
-  </si>
-  <si>
-    <t>-83.949</t>
+    <t>08:24:00</t>
+  </si>
+  <si>
+    <t>5 Km al Noreste de Copey de Dota</t>
+  </si>
+  <si>
+    <t>9.674</t>
+  </si>
+  <si>
+    <t>-83.886</t>
   </si>
   <si>
     <t>107</t>
   </si>
   <si>
-    <t>26 Aug 2021</t>
-  </si>
-  <si>
-    <t>7.5 km al Sureste de San Gerardo de Dota</t>
-  </si>
-  <si>
-    <t>-83.773</t>
+    <t>31 Aug 2021</t>
+  </si>
+  <si>
+    <t>22:08:00</t>
+  </si>
+  <si>
+    <t>88.000</t>
+  </si>
+  <si>
+    <t>5 km al noroeste de Vara Blanca</t>
+  </si>
+  <si>
+    <t>10.184</t>
+  </si>
+  <si>
+    <t>-84.203</t>
+  </si>
+  <si>
+    <t>Heredia</t>
   </si>
   <si>
     <t>108</t>
   </si>
   <si>
-    <t>27 Aug 2021</t>
-  </si>
-  <si>
-    <t>07:22:00</t>
-  </si>
-  <si>
-    <t>2.66Ml</t>
-  </si>
-  <si>
-    <t>1.5 km Este de Bajo Los Arias de Acosta.</t>
-  </si>
-  <si>
-    <t>9.785</t>
-  </si>
-  <si>
-    <t>-84.181</t>
-  </si>
-  <si>
-    <t>Alajuela</t>
+    <t>1 Sep 2021</t>
+  </si>
+  <si>
+    <t>00:46:00</t>
+  </si>
+  <si>
+    <t>3 km al noreste de la Fortuna de Bagaces</t>
+  </si>
+  <si>
+    <t>10.700</t>
+  </si>
+  <si>
+    <t>-85.168</t>
   </si>
   <si>
     <t>109</t>
   </si>
   <si>
-    <t>08:24:00</t>
-  </si>
-  <si>
-    <t>5 Km al Noreste de Copey de Dota</t>
-  </si>
-  <si>
-    <t>9.674</t>
-  </si>
-  <si>
-    <t>-83.886</t>
+    <t>10:50:16</t>
+  </si>
+  <si>
+    <t>8 km SSO de Uvita</t>
+  </si>
+  <si>
+    <t>9.098</t>
+  </si>
+  <si>
+    <t>-83.766</t>
   </si>
   <si>
     <t>110</t>
   </si>
   <si>
-    <t>31 Aug 2021</t>
-  </si>
-  <si>
-    <t>22:08:00</t>
-  </si>
-  <si>
-    <t>88.000</t>
-  </si>
-  <si>
-    <t>5 km al noroeste de Vara Blanca</t>
-  </si>
-  <si>
-    <t>10.184</t>
-  </si>
-  <si>
-    <t>-84.203</t>
-  </si>
-  <si>
-    <t>Heredia</t>
+    <t>4 Sep 2021</t>
+  </si>
+  <si>
+    <t>03:48:00</t>
+  </si>
+  <si>
+    <t>64.000</t>
+  </si>
+  <si>
+    <t>4.3Ml</t>
+  </si>
+  <si>
+    <t>60 km al norte de Limón</t>
+  </si>
+  <si>
+    <t>10.503</t>
+  </si>
+  <si>
+    <t>-83.135</t>
+  </si>
+  <si>
+    <t>Limón</t>
   </si>
   <si>
     <t>111</t>
   </si>
   <si>
-    <t>1 Sep 2021</t>
-  </si>
-  <si>
-    <t>00:46:00</t>
-  </si>
-  <si>
-    <t>2.000</t>
-  </si>
-  <si>
-    <t>3 km al noreste de la Fortuna de Bagaces</t>
-  </si>
-  <si>
-    <t>10.700</t>
-  </si>
-  <si>
-    <t>-85.168</t>
+    <t>02:58:00</t>
+  </si>
+  <si>
+    <t>94.000</t>
+  </si>
+  <si>
+    <t>2.5 km al este de Vara Blanca</t>
+  </si>
+  <si>
+    <t>10.164</t>
+  </si>
+  <si>
+    <t>-84.132</t>
   </si>
   <si>
     <t>112</t>
   </si>
   <si>
-    <t>10:50:16</t>
-  </si>
-  <si>
-    <t>8 km SSO de Uvita</t>
-  </si>
-  <si>
-    <t>9.098</t>
-  </si>
-  <si>
-    <t>-83.766</t>
+    <t>5 Sep 2021</t>
+  </si>
+  <si>
+    <t>14:42:07</t>
+  </si>
+  <si>
+    <t>2.4 km NNO de San Antonio de Puriscal</t>
+  </si>
+  <si>
+    <t>9.879</t>
+  </si>
+  <si>
+    <t>-84.305</t>
   </si>
   <si>
     <t>113</t>
   </si>
   <si>
-    <t>4 Sep 2021</t>
-  </si>
-  <si>
-    <t>03:48:00</t>
-  </si>
-  <si>
-    <t>64.000</t>
-  </si>
-  <si>
-    <t>4.3Ml</t>
-  </si>
-  <si>
-    <t>60 km al norte de Limón</t>
-  </si>
-  <si>
-    <t>10.503</t>
-  </si>
-  <si>
-    <t>-83.135</t>
-  </si>
-  <si>
-    <t>Limón</t>
+    <t>8 Sep 2021</t>
+  </si>
+  <si>
+    <t>22:27:30</t>
+  </si>
+  <si>
+    <t>4.72Ml</t>
+  </si>
+  <si>
+    <t>25.4 km hacia el Sur de Uvita de Puntarenas</t>
+  </si>
+  <si>
+    <t>9.003</t>
   </si>
   <si>
     <t>114</t>
   </si>
   <si>
-    <t>02:58:00</t>
-  </si>
-  <si>
-    <t>94.000</t>
-  </si>
-  <si>
-    <t>2.5 km al este de Vara Blanca</t>
-  </si>
-  <si>
-    <t>10.164</t>
-  </si>
-  <si>
-    <t>-84.132</t>
+    <t>22:05:00</t>
+  </si>
+  <si>
+    <t>25 km hacia el suroeste de Uvita</t>
+  </si>
+  <si>
+    <t>-83.961</t>
   </si>
   <si>
     <t>115</t>
   </si>
   <si>
-    <t>5 Sep 2021</t>
-  </si>
-  <si>
-    <t>14:42:07</t>
-  </si>
-  <si>
-    <t>2.4 km NNO de San Antonio de Puriscal</t>
-  </si>
-  <si>
-    <t>9.879</t>
-  </si>
-  <si>
-    <t>-84.305</t>
+    <t>10 Sep 2021</t>
+  </si>
+  <si>
+    <t>19:33:23</t>
+  </si>
+  <si>
+    <t>La fortuna de Bagaces, Guanacaste</t>
+  </si>
+  <si>
+    <t>10.673</t>
+  </si>
+  <si>
+    <t>-85.201</t>
   </si>
   <si>
     <t>116</t>
   </si>
   <si>
-    <t>8 Sep 2021</t>
-  </si>
-  <si>
-    <t>22:27:30</t>
-  </si>
-  <si>
-    <t>4.72Ml</t>
-  </si>
-  <si>
-    <t>25.4 km hacia el Sur de Uvita de Puntarenas</t>
-  </si>
-  <si>
-    <t>9.003</t>
+    <t>13 Sep 2021</t>
+  </si>
+  <si>
+    <t>06:20:00</t>
+  </si>
+  <si>
+    <t>22 km Sur Oeste de Playa Negra. Guanacaste</t>
+  </si>
+  <si>
+    <t>10.082</t>
+  </si>
+  <si>
+    <t>-86.006</t>
   </si>
   <si>
     <t>117</t>
   </si>
   <si>
-    <t>22:05:00</t>
-  </si>
-  <si>
-    <t>25 km hacia el suroeste de Uvita</t>
-  </si>
-  <si>
-    <t>-83.961</t>
+    <t>17 Sep 2021</t>
+  </si>
+  <si>
+    <t>04:10:00</t>
+  </si>
+  <si>
+    <t>3 Km SurOeste de Quepos</t>
+  </si>
+  <si>
+    <t>9.409</t>
+  </si>
+  <si>
+    <t>-84.183</t>
   </si>
   <si>
     <t>118</t>
   </si>
   <si>
-    <t>10 Sep 2021</t>
-  </si>
-  <si>
-    <t>19:33:23</t>
-  </si>
-  <si>
-    <t>La fortuna de Bagaces, Guanacaste</t>
-  </si>
-  <si>
-    <t>10.673</t>
-  </si>
-  <si>
-    <t>-85.201</t>
+    <t>3 Sep 2021</t>
+  </si>
+  <si>
+    <t>00:00:13</t>
+  </si>
+  <si>
+    <t>26 km hacia el suroeste de Puerto Jiménez</t>
+  </si>
+  <si>
+    <t>8.321</t>
+  </si>
+  <si>
+    <t>-83.428</t>
   </si>
   <si>
     <t>119</t>
-  </si>
-  <si>
-    <t>13 Sep 2021</t>
-  </si>
-  <si>
-    <t>06:20:00</t>
-  </si>
-  <si>
-    <t>22 km Sur Oeste de Playa Negra. Guanacaste</t>
-  </si>
-  <si>
-    <t>10.082</t>
-  </si>
-  <si>
-    <t>-86.006</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>17 Sep 2021</t>
-  </si>
-  <si>
-    <t>04:10:00</t>
-  </si>
-  <si>
-    <t>3 Km SurOeste de Quepos</t>
-  </si>
-  <si>
-    <t>9.409</t>
-  </si>
-  <si>
-    <t>-84.183</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>3 Sep 2021</t>
-  </si>
-  <si>
-    <t>00:00:13</t>
-  </si>
-  <si>
-    <t>26 km hacia el suroeste de Puerto Jiménez</t>
-  </si>
-  <si>
-    <t>8.321</t>
-  </si>
-  <si>
-    <t>-83.428</t>
-  </si>
-  <si>
-    <t>122</t>
   </si>
   <si>
     <t>7 Oct 2021</t>
@@ -4078,22 +4078,22 @@
         <v>332</v>
       </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>333</v>
       </c>
       <c r="E49" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F49" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G49" t="s">
         <v>17</v>
       </c>
       <c r="H49" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I49" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J49" t="s">
         <v>20</v>
@@ -4104,31 +4104,31 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B50" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C50" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D50" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E50" t="s">
         <v>258</v>
       </c>
       <c r="F50" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G50" t="s">
         <v>17</v>
       </c>
       <c r="H50" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I50" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J50" t="s">
         <v>20</v>
@@ -4139,13 +4139,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B51" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C51" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D51" t="s">
         <v>305</v>
@@ -4154,16 +4154,16 @@
         <v>56</v>
       </c>
       <c r="F51" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G51" t="s">
         <v>49</v>
       </c>
       <c r="H51" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I51" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J51" t="s">
         <v>42</v>
@@ -4174,13 +4174,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B52" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C52" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D52" t="s">
         <v>189</v>
@@ -4189,16 +4189,16 @@
         <v>266</v>
       </c>
       <c r="F52" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G52" t="s">
         <v>17</v>
       </c>
       <c r="H52" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I52" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J52" t="s">
         <v>20</v>
@@ -4209,13 +4209,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B53" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C53" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D53" t="s">
         <v>63</v>
@@ -4224,16 +4224,16 @@
         <v>168</v>
       </c>
       <c r="F53" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G53" t="s">
         <v>49</v>
       </c>
       <c r="H53" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I53" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J53" t="s">
         <v>42</v>
@@ -4244,13 +4244,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B54" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C54" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D54" t="s">
         <v>201</v>
@@ -4259,16 +4259,16 @@
         <v>168</v>
       </c>
       <c r="F54" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G54" t="s">
         <v>17</v>
       </c>
       <c r="H54" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I54" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J54" t="s">
         <v>276</v>
@@ -4279,31 +4279,31 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B55" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C55" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D55" t="s">
         <v>201</v>
       </c>
       <c r="E55" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F55" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G55" t="s">
         <v>49</v>
       </c>
       <c r="H55" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I55" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J55" t="s">
         <v>42</v>
@@ -4314,13 +4314,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B56" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C56" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D56" t="s">
         <v>130</v>
@@ -4329,16 +4329,16 @@
         <v>266</v>
       </c>
       <c r="F56" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G56" t="s">
         <v>49</v>
       </c>
       <c r="H56" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I56" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J56" t="s">
         <v>42</v>
@@ -4349,13 +4349,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B57" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C57" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D57" t="s">
         <v>70</v>
@@ -4364,16 +4364,16 @@
         <v>168</v>
       </c>
       <c r="F57" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G57" t="s">
         <v>17</v>
       </c>
       <c r="H57" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I57" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J57" t="s">
         <v>20</v>
@@ -4384,31 +4384,31 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B58" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C58" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D58" t="s">
         <v>70</v>
       </c>
       <c r="E58" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F58" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G58" t="s">
         <v>17</v>
       </c>
       <c r="H58" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I58" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="J58" t="s">
         <v>20</v>
@@ -4419,31 +4419,31 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B59" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C59" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D59" t="s">
         <v>189</v>
       </c>
       <c r="E59" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F59" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G59" t="s">
         <v>17</v>
       </c>
       <c r="H59" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I59" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J59" t="s">
         <v>20</v>
@@ -4454,31 +4454,31 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B60" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C60" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D60" t="s">
         <v>189</v>
       </c>
       <c r="E60" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F60" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G60" t="s">
         <v>17</v>
       </c>
       <c r="H60" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I60" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="J60" t="s">
         <v>20</v>
@@ -4489,31 +4489,31 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B61" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C61" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D61" t="s">
         <v>189</v>
       </c>
       <c r="E61" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F61" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G61" t="s">
         <v>17</v>
       </c>
       <c r="H61" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="I61" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J61" t="s">
         <v>96</v>
@@ -4524,31 +4524,31 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B62" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C62" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D62" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E62" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F62" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G62" t="s">
         <v>294</v>
       </c>
       <c r="H62" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I62" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J62" t="s">
         <v>42</v>
@@ -4559,31 +4559,31 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B63" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C63" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D63" t="s">
         <v>201</v>
       </c>
       <c r="E63" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F63" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G63" t="s">
         <v>17</v>
       </c>
       <c r="H63" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I63" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="J63" t="s">
         <v>60</v>
@@ -4594,31 +4594,31 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B64" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C64" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D64" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E64" t="s">
         <v>266</v>
       </c>
       <c r="F64" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G64" t="s">
         <v>294</v>
       </c>
       <c r="H64" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I64" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="J64" t="s">
         <v>42</v>
@@ -4629,31 +4629,31 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B65" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C65" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D65" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E65" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F65" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G65" t="s">
         <v>294</v>
       </c>
       <c r="H65" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I65" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J65" t="s">
         <v>42</v>
@@ -4664,31 +4664,31 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B66" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C66" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D66" t="s">
         <v>77</v>
       </c>
       <c r="E66" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F66" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G66" t="s">
         <v>17</v>
       </c>
       <c r="H66" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I66" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="J66" t="s">
         <v>96</v>
@@ -4699,13 +4699,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B67" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C67" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D67" t="s">
         <v>235</v>
@@ -4714,7 +4714,7 @@
         <v>287</v>
       </c>
       <c r="F67" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G67" t="s">
         <v>17</v>
@@ -4723,7 +4723,7 @@
         <v>164</v>
       </c>
       <c r="I67" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="J67" t="s">
         <v>96</v>
@@ -4734,31 +4734,31 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B68" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C68" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D68" t="s">
         <v>214</v>
       </c>
       <c r="E68" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F68" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G68" t="s">
         <v>17</v>
       </c>
       <c r="H68" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="I68" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="J68" t="s">
         <v>96</v>
@@ -4769,31 +4769,31 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B69" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C69" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D69" t="s">
         <v>100</v>
       </c>
       <c r="E69" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F69" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G69" t="s">
         <v>49</v>
       </c>
       <c r="H69" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="I69" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="J69" t="s">
         <v>42</v>
@@ -4804,31 +4804,31 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B70" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C70" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D70" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E70" t="s">
         <v>56</v>
       </c>
       <c r="F70" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G70" t="s">
         <v>294</v>
       </c>
       <c r="H70" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I70" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J70" t="s">
         <v>42</v>
@@ -4839,31 +4839,31 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B71" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C71" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D71" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E71" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F71" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G71" t="s">
         <v>145</v>
       </c>
       <c r="H71" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="I71" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="J71" t="s">
         <v>42</v>
@@ -4874,13 +4874,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B72" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C72" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D72" t="s">
         <v>135</v>
@@ -4889,16 +4889,16 @@
         <v>92</v>
       </c>
       <c r="F72" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G72" t="s">
         <v>49</v>
       </c>
       <c r="H72" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I72" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J72" t="s">
         <v>42</v>
@@ -4909,31 +4909,31 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B73" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C73" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D73" t="s">
         <v>14</v>
       </c>
       <c r="E73" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F73" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G73" t="s">
         <v>17</v>
       </c>
       <c r="H73" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="I73" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="J73" t="s">
         <v>276</v>
@@ -4944,31 +4944,31 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B74" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C74" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D74" t="s">
         <v>214</v>
       </c>
       <c r="E74" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F74" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G74" t="s">
         <v>17</v>
       </c>
       <c r="H74" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="I74" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J74" t="s">
         <v>276</v>
@@ -4979,13 +4979,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B75" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C75" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D75" t="s">
         <v>214</v>
@@ -4994,16 +4994,16 @@
         <v>258</v>
       </c>
       <c r="F75" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G75" t="s">
         <v>17</v>
       </c>
       <c r="H75" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="I75" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="J75" t="s">
         <v>96</v>
@@ -5014,31 +5014,31 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B76" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C76" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D76" t="s">
         <v>214</v>
       </c>
       <c r="E76" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F76" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G76" t="s">
         <v>17</v>
       </c>
       <c r="H76" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I76" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="J76" t="s">
         <v>96</v>
@@ -5049,31 +5049,31 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B77" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C77" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D77" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E77" t="s">
         <v>287</v>
       </c>
       <c r="F77" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G77" t="s">
         <v>145</v>
       </c>
       <c r="H77" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="I77" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="J77" t="s">
         <v>60</v>
@@ -5084,13 +5084,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B78" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C78" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D78" t="s">
         <v>130</v>
@@ -5099,16 +5099,16 @@
         <v>287</v>
       </c>
       <c r="F78" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G78" t="s">
         <v>17</v>
       </c>
       <c r="H78" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I78" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="J78" t="s">
         <v>60</v>
@@ -5119,13 +5119,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B79" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C79" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D79" t="s">
         <v>123</v>
@@ -5134,16 +5134,16 @@
         <v>124</v>
       </c>
       <c r="F79" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G79" t="s">
         <v>17</v>
       </c>
       <c r="H79" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="I79" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="J79" t="s">
         <v>60</v>
@@ -5154,13 +5154,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B80" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C80" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D80" t="s">
         <v>189</v>
@@ -5169,16 +5169,16 @@
         <v>78</v>
       </c>
       <c r="F80" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G80" t="s">
         <v>17</v>
       </c>
       <c r="H80" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I80" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="J80" t="s">
         <v>96</v>
@@ -5189,13 +5189,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B81" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C81" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D81" t="s">
         <v>214</v>
@@ -5204,16 +5204,16 @@
         <v>258</v>
       </c>
       <c r="F81" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G81" t="s">
         <v>17</v>
       </c>
       <c r="H81" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="I81" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="J81" t="s">
         <v>96</v>
@@ -5224,31 +5224,31 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B82" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C82" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D82" t="s">
         <v>326</v>
       </c>
       <c r="E82" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F82" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G82" t="s">
         <v>17</v>
       </c>
       <c r="H82" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="I82" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="J82" t="s">
         <v>96</v>
@@ -5259,22 +5259,22 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B83" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C83" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D83" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E83" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F83" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G83" t="s">
         <v>17</v>
@@ -5283,7 +5283,7 @@
         <v>230</v>
       </c>
       <c r="I83" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="J83" t="s">
         <v>20</v>
@@ -5294,31 +5294,31 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B84" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C84" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D84" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E84" t="s">
         <v>101</v>
       </c>
       <c r="F84" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G84" t="s">
         <v>49</v>
       </c>
       <c r="H84" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I84" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="J84" t="s">
         <v>42</v>
@@ -5329,13 +5329,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B85" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C85" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D85" t="s">
         <v>189</v>
@@ -5344,16 +5344,16 @@
         <v>136</v>
       </c>
       <c r="F85" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G85" t="s">
         <v>17</v>
       </c>
       <c r="H85" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="I85" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="J85" t="s">
         <v>96</v>
@@ -5364,13 +5364,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B86" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C86" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D86" t="s">
         <v>201</v>
@@ -5379,16 +5379,16 @@
         <v>136</v>
       </c>
       <c r="F86" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G86" t="s">
         <v>17</v>
       </c>
       <c r="H86" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="I86" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="J86" t="s">
         <v>20</v>
@@ -5399,31 +5399,31 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B87" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C87" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D87" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E87" t="s">
         <v>109</v>
       </c>
       <c r="F87" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G87" t="s">
         <v>17</v>
       </c>
       <c r="H87" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="I87" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="J87" t="s">
         <v>20</v>
@@ -5434,13 +5434,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B88" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C88" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D88" t="s">
         <v>46</v>
@@ -5449,16 +5449,16 @@
         <v>56</v>
       </c>
       <c r="F88" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G88" t="s">
         <v>17</v>
       </c>
       <c r="H88" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="I88" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="J88" t="s">
         <v>60</v>
@@ -5469,31 +5469,31 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B89" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C89" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D89" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E89" t="s">
         <v>56</v>
       </c>
       <c r="F89" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="G89" t="s">
         <v>17</v>
       </c>
       <c r="H89" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="I89" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="J89" t="s">
         <v>20</v>
@@ -5504,31 +5504,31 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B90" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C90" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D90" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E90" t="s">
         <v>136</v>
       </c>
       <c r="F90" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G90" t="s">
         <v>49</v>
       </c>
       <c r="H90" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="I90" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="J90" t="s">
         <v>60</v>
@@ -5539,31 +5539,31 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B91" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C91" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D91" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E91" t="s">
         <v>202</v>
       </c>
       <c r="F91" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G91" t="s">
         <v>49</v>
       </c>
       <c r="H91" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I91" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J91" t="s">
         <v>60</v>
@@ -5574,13 +5574,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B92" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C92" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D92" t="s">
         <v>77</v>
@@ -5589,16 +5589,16 @@
         <v>202</v>
       </c>
       <c r="F92" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G92" t="s">
         <v>17</v>
       </c>
       <c r="H92" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="I92" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="J92" t="s">
         <v>20</v>
@@ -5609,31 +5609,31 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B93" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C93" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D93" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E93" t="s">
         <v>266</v>
       </c>
       <c r="F93" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G93" t="s">
         <v>49</v>
       </c>
       <c r="H93" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="I93" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="J93" t="s">
         <v>60</v>
@@ -5644,13 +5644,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B94" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C94" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D94" t="s">
         <v>108</v>
@@ -5659,16 +5659,16 @@
         <v>101</v>
       </c>
       <c r="F94" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G94" t="s">
         <v>17</v>
       </c>
       <c r="H94" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="I94" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="J94" t="s">
         <v>20</v>
@@ -5679,13 +5679,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B95" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C95" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D95" t="s">
         <v>77</v>
@@ -5694,16 +5694,16 @@
         <v>287</v>
       </c>
       <c r="F95" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G95" t="s">
         <v>17</v>
       </c>
       <c r="H95" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="I95" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="J95" t="s">
         <v>20</v>
@@ -5714,13 +5714,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B96" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C96" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D96" t="s">
         <v>14</v>
@@ -5729,16 +5729,16 @@
         <v>124</v>
       </c>
       <c r="F96" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G96" t="s">
         <v>17</v>
       </c>
       <c r="H96" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="I96" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="J96" t="s">
         <v>20</v>
@@ -5749,13 +5749,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B97" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C97" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D97" t="s">
         <v>55</v>
@@ -5764,16 +5764,16 @@
         <v>85</v>
       </c>
       <c r="F97" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G97" t="s">
         <v>17</v>
       </c>
       <c r="H97" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="I97" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="J97" t="s">
         <v>20</v>
@@ -5784,31 +5784,31 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B98" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C98" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D98" t="s">
         <v>214</v>
       </c>
       <c r="E98" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F98" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G98" t="s">
         <v>17</v>
       </c>
       <c r="H98" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="I98" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="J98" t="s">
         <v>96</v>
@@ -5819,31 +5819,31 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B99" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C99" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D99" t="s">
         <v>189</v>
       </c>
       <c r="E99" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F99" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G99" t="s">
         <v>17</v>
       </c>
       <c r="H99" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="I99" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="J99" t="s">
         <v>20</v>
@@ -5854,31 +5854,31 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B100" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C100" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D100" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E100" t="s">
         <v>56</v>
       </c>
       <c r="F100" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G100" t="s">
         <v>49</v>
       </c>
       <c r="H100" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="I100" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="J100" t="s">
         <v>42</v>
@@ -5889,13 +5889,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B101" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C101" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D101" t="s">
         <v>286</v>
@@ -5904,16 +5904,16 @@
         <v>266</v>
       </c>
       <c r="F101" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G101" t="s">
         <v>145</v>
       </c>
       <c r="H101" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="I101" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="J101" t="s">
         <v>42</v>
@@ -5924,31 +5924,31 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B102" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C102" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D102" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E102" t="s">
         <v>202</v>
       </c>
       <c r="F102" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="G102" t="s">
         <v>49</v>
       </c>
       <c r="H102" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I102" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J102" t="s">
         <v>42</v>
@@ -5959,13 +5959,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B103" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C103" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D103" t="s">
         <v>108</v>
@@ -5974,16 +5974,16 @@
         <v>202</v>
       </c>
       <c r="F103" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G103" t="s">
         <v>17</v>
       </c>
       <c r="H103" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="I103" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="J103" t="s">
         <v>60</v>
@@ -5994,13 +5994,13 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B104" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C104" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D104" t="s">
         <v>214</v>
@@ -6009,16 +6009,16 @@
         <v>78</v>
       </c>
       <c r="F104" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G104" t="s">
         <v>17</v>
       </c>
       <c r="H104" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="I104" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="J104" t="s">
         <v>96</v>
@@ -6029,13 +6029,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B105" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C105" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D105" t="s">
         <v>214</v>
@@ -6044,16 +6044,16 @@
         <v>78</v>
       </c>
       <c r="F105" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="G105" t="s">
         <v>17</v>
       </c>
       <c r="H105" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="I105" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="J105" t="s">
         <v>96</v>
@@ -6064,13 +6064,13 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B106" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C106" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D106" t="s">
         <v>182</v>
@@ -6079,7 +6079,7 @@
         <v>101</v>
       </c>
       <c r="F106" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="G106" t="s">
         <v>17</v>
@@ -6088,7 +6088,7 @@
         <v>111</v>
       </c>
       <c r="I106" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="J106" t="s">
         <v>20</v>
@@ -6099,34 +6099,34 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B107" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C107" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D107" t="s">
         <v>189</v>
       </c>
       <c r="E107" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F107" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="G107" t="s">
         <v>17</v>
       </c>
       <c r="H107" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="I107" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="J107" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="K107" t="s">
         <v>21</v>
@@ -6134,31 +6134,31 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B108" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C108" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D108" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E108" t="s">
         <v>258</v>
       </c>
       <c r="F108" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G108" t="s">
         <v>17</v>
       </c>
       <c r="H108" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="I108" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="J108" t="s">
         <v>20</v>
@@ -6169,34 +6169,34 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B109" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C109" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D109" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E109" t="s">
         <v>287</v>
       </c>
       <c r="F109" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="G109" t="s">
         <v>145</v>
       </c>
       <c r="H109" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="I109" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="J109" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="K109" t="s">
         <v>21</v>
@@ -6204,16 +6204,16 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B110" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C110" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D110" t="s">
-        <v>703</v>
+        <v>37</v>
       </c>
       <c r="E110" t="s">
         <v>287</v>
@@ -6242,7 +6242,7 @@
         <v>707</v>
       </c>
       <c r="B111" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C111" t="s">
         <v>708</v>
@@ -6336,7 +6336,7 @@
         <v>726</v>
       </c>
       <c r="J113" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="K113" t="s">
         <v>21</v>
@@ -6356,7 +6356,7 @@
         <v>228</v>
       </c>
       <c r="E114" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F114" t="s">
         <v>730</v>
@@ -6403,7 +6403,7 @@
         <v>738</v>
       </c>
       <c r="I115" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="J115" t="s">
         <v>42</v>
@@ -6566,7 +6566,7 @@
         <v>135</v>
       </c>
       <c r="E120" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F120" t="s">
         <v>764</v>
